--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="250">
   <si>
     <t>http://192.168.99.182:81/svn/develop/DOC/01项目资料库</t>
   </si>
@@ -190,10 +190,6 @@
   </si>
   <si>
     <t>缓存名（汇率，国家..字符常量等于相同的字符串）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lazada平台站点枚举(各国url），平台枚举</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,10 +463,6 @@
     <t xml:space="preserve"> */</t>
   </si>
   <si>
-    <t>façade.impl实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>企业QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -707,14 +699,7 @@
     <t>d123456~</t>
   </si>
   <si>
-    <t>http://192.168.99.213:9095/pss</t>
-  </si>
-  <si>
     <t>oa上线：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://oa.ser.ltd/dashboard</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1509,10 +1494,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>order_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>运输方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1998,15 +1979,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1877…….@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dgh13….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2851810174@qq.com</t>
-  </si>
-  <si>
-    <t>1877…….@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dgh13….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://oa.ser.ltd/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.213:9095/pss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lazada平台站点枚举(各国url），物流公司平台枚举</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看方法被引用：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看类被引用：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+alt+h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键find Usages/ALT +F7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logisticsDispather自动申请跟踪号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>façade.impl实现：上传fastdfs,uploadLabelLocal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict物流公司平台枚举页面缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向下复制代码：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicate entire lines设置为CTRL+ALT+↓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
+  </si>
+  <si>
+    <t>禅道：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dingguanghui </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123456$</t>
   </si>
 </sst>
 </file>
@@ -3810,6 +3862,153 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>170963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170962</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9604376" y="14684376"/>
+          <a:ext cx="1440960" cy="891442"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>329712</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>598363</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="肘形连接符 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2601058" y="21675481"/>
+          <a:ext cx="4811343" cy="1318845"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>134330</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>244232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48844</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>12213</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="肘形连接符 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5776059" y="17926542"/>
+          <a:ext cx="7558942" cy="671629"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 80048"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4540,10 +4739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L46"/>
+  <dimension ref="C2:P46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4551,12 +4750,12 @@
     <col min="11" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:12">
+    <row r="2" spans="3:16">
       <c r="C2" s="37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="3:12">
+    <row r="3" spans="3:16">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -4564,10 +4763,13 @@
         <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12">
+        <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -4580,37 +4782,52 @@
       <c r="L4">
         <v>2851810174</v>
       </c>
-    </row>
-    <row r="5" spans="3:12">
+      <c r="N4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16">
       <c r="K5" t="s">
         <v>2</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16">
       <c r="C6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="3:12">
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16">
       <c r="F7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="3:12">
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16">
       <c r="C8" t="s">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16">
       <c r="K9" t="s">
         <v>1</v>
       </c>
@@ -4618,31 +4835,31 @@
         <v>17509</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
+    <row r="10" spans="3:16">
       <c r="K10" t="s">
         <v>2</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16">
       <c r="J13" t="s">
-        <v>119</v>
-      </c>
-      <c r="K13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12">
+        <v>117</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
       <c r="K15" t="s">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="3:16">
       <c r="C16" s="1" t="s">
         <v>5</v>
       </c>
@@ -4650,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="3:12">
@@ -4663,7 +4880,7 @@
         <v>7</v>
       </c>
       <c r="J18" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="3:12">
@@ -4671,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="3:12">
@@ -4679,7 +4896,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="3:12">
@@ -4687,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="3:12">
@@ -4698,7 +4915,7 @@
         <v>2</v>
       </c>
       <c r="L23" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="3:12">
@@ -4722,7 +4939,7 @@
         <v>23</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="3:12">
@@ -4730,33 +4947,33 @@
         <v>24</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="I30" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="3:12">
       <c r="F31" s="3" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="I31" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="3:12">
       <c r="F32" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="G33" s="24" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="3:10">
       <c r="G34" s="24" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="3:10">
@@ -4772,25 +4989,26 @@
     </row>
     <row r="38" spans="3:10">
       <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
         <v>43</v>
-      </c>
-      <c r="J38" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="46" spans="3:10">
       <c r="C46" s="37" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
+    <hyperlink ref="K13" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4798,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -4810,136 +5028,136 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="2:20">
       <c r="E5" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="2:20">
       <c r="E6" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="I7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:20">
       <c r="E10" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="P10" s="27" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="E11" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="P11" s="37" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="T11" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="2:20">
       <c r="T12" s="27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="2:20">
       <c r="E15" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I15" s="30" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S15" s="32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="5:27">
       <c r="I17" s="30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="S17" s="32" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="5:27">
       <c r="E20" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="5:27">
       <c r="I21" s="30" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M21" s="37" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="5:27">
       <c r="P22" s="37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="5:27">
       <c r="I23" s="24" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="P23" s="27" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="Q23" s="34"/>
       <c r="T23" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="V23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="X23" s="27" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AA23" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="5:27">
       <c r="Q24" s="36" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="5:27">
       <c r="Q25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="5:27">
       <c r="P26" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="5:27">
@@ -4947,12 +5165,12 @@
         <v>9</v>
       </c>
       <c r="Q27" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="5:27">
       <c r="E28" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="5:27">
@@ -4970,10 +5188,10 @@
     </row>
     <row r="36" spans="5:12">
       <c r="E36" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H36" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -5016,53 +5234,53 @@
     </row>
     <row r="47" spans="5:12">
       <c r="E47" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="F49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J49" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L49" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="L50" s="27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="H52" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" t="s">
+        <v>137</v>
+      </c>
+      <c r="M52" s="32" t="s">
         <v>139</v>
-      </c>
-      <c r="J52" t="s">
-        <v>141</v>
-      </c>
-      <c r="M52" s="32" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="J54" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L54" s="32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="J56" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:15">
@@ -5070,7 +5288,7 @@
         <v>30</v>
       </c>
       <c r="L60" s="28" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
@@ -5079,7 +5297,7 @@
     <row r="61" spans="1:15">
       <c r="K61" s="8"/>
       <c r="L61" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -5089,7 +5307,7 @@
       <c r="A62" s="2"/>
       <c r="K62" s="8"/>
       <c r="L62" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -5107,7 +5325,7 @@
     <row r="64" spans="1:15">
       <c r="K64" s="8"/>
       <c r="L64" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -5116,7 +5334,7 @@
     <row r="65" spans="11:15">
       <c r="K65" s="8"/>
       <c r="L65" s="30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -5124,10 +5342,10 @@
     </row>
     <row r="66" spans="11:15">
       <c r="K66" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="31" t="s">
         <v>39</v>
-      </c>
-      <c r="L66" s="31" t="s">
-        <v>40</v>
       </c>
       <c r="M66" s="12"/>
       <c r="N66" s="12"/>
@@ -5138,7 +5356,7 @@
         <v>30</v>
       </c>
       <c r="L69" s="28" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
@@ -5147,17 +5365,21 @@
     <row r="70" spans="11:15">
       <c r="K70" s="8"/>
       <c r="L70" s="30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="10" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="11:15">
-      <c r="K71" s="8"/>
-      <c r="L71" s="29"/>
+      <c r="K71" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="L71" s="29" t="s">
+        <v>240</v>
+      </c>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
       <c r="O71" s="10"/>
@@ -5185,12 +5407,67 @@
     </row>
     <row r="75" spans="11:15">
       <c r="K75" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L75" s="31"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
       <c r="O75" s="13"/>
+    </row>
+    <row r="83" spans="11:16">
+      <c r="K83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L83" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" spans="11:16">
+      <c r="K84" s="8"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="10"/>
+    </row>
+    <row r="85" spans="11:16">
+      <c r="K85" s="8"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="10"/>
+    </row>
+    <row r="86" spans="11:16">
+      <c r="K86" s="8"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="10"/>
+    </row>
+    <row r="87" spans="11:16">
+      <c r="K87" s="8"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="10"/>
+    </row>
+    <row r="88" spans="11:16">
+      <c r="K88" s="8"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="10"/>
+    </row>
+    <row r="89" spans="11:16">
+      <c r="K89" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L89" s="31"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="13"/>
     </row>
     <row r="95" spans="11:16">
       <c r="P95" s="9"/>
@@ -5239,7 +5516,7 @@
     </row>
     <row r="101" spans="11:20">
       <c r="K101" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L101" s="30"/>
       <c r="M101" s="9"/>
@@ -5263,7 +5540,7 @@
     </row>
     <row r="105" spans="11:20">
       <c r="K105" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P105" s="9"/>
     </row>
@@ -5303,7 +5580,7 @@
   <sheetData>
     <row r="3" spans="3:9">
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -5313,7 +5590,7 @@
     <row r="4" spans="3:9">
       <c r="D4" s="8"/>
       <c r="E4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -5322,7 +5599,7 @@
     <row r="5" spans="3:9">
       <c r="D5" s="8"/>
       <c r="E5" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -5331,7 +5608,7 @@
     <row r="6" spans="3:9">
       <c r="D6" s="8"/>
       <c r="E6" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -5340,7 +5617,7 @@
     <row r="7" spans="3:9">
       <c r="D7" s="8"/>
       <c r="E7" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -5349,7 +5626,7 @@
     <row r="8" spans="3:9">
       <c r="D8" s="8"/>
       <c r="E8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -5358,7 +5635,7 @@
     <row r="9" spans="3:9">
       <c r="D9" s="8"/>
       <c r="E9" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -5367,7 +5644,7 @@
     <row r="10" spans="3:9">
       <c r="D10" s="11"/>
       <c r="E10" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -5385,7 +5662,7 @@
     <row r="12" spans="3:9">
       <c r="C12" s="9"/>
       <c r="D12" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -5396,7 +5673,7 @@
     <row r="13" spans="3:9">
       <c r="C13" s="9"/>
       <c r="D13" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -5407,7 +5684,7 @@
     <row r="14" spans="3:9">
       <c r="C14" s="9"/>
       <c r="D14" s="26" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -5419,7 +5696,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="8"/>
       <c r="E15" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
@@ -5464,27 +5741,27 @@
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -5506,95 +5783,95 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="24" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="33" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="33" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="33" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="33" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="33" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="33" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="33" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="33" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -5602,12 +5879,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -5615,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5623,12 +5900,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -5636,7 +5913,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5664,273 +5941,273 @@
   <sheetData>
     <row r="2" spans="3:15">
       <c r="C2" s="40" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="42"/>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="3:15">
       <c r="C3" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="3:15">
       <c r="C4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="3:15">
       <c r="C7" s="19" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="3:15">
       <c r="C8" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="3:15">
       <c r="C10" s="19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="3:15">
       <c r="C11" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="3:15">
       <c r="C14" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>63</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="21" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="D32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5955,27 +6232,27 @@
   <sheetData>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20.25">
       <c r="B21" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -5987,55 +6264,79 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:L18"/>
+  <dimension ref="C8:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="8" spans="3:12">
       <c r="C8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="3:12">
       <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
       <c r="G10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="23" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>195</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7">
+      <c r="C26" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,25 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="12975" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
     <sheet name="数据库" sheetId="9" r:id="rId2"/>
     <sheet name="项目" sheetId="2" r:id="rId3"/>
     <sheet name="服务器布局" sheetId="8" r:id="rId4"/>
-    <sheet name="项目细则" sheetId="6" r:id="rId5"/>
+    <sheet name="项目细则" sheetId="10" r:id="rId5"/>
     <sheet name="jsp" sheetId="7" r:id="rId6"/>
     <sheet name="Java" sheetId="5" r:id="rId7"/>
     <sheet name="JavaEE" sheetId="3" r:id="rId8"/>
     <sheet name="others" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="375">
   <si>
     <t>SVN</t>
   </si>
@@ -56,9 +57,6 @@
     <t>代码和资料：</t>
   </si>
   <si>
-    <t xml:space="preserve">dingguanghui </t>
-  </si>
-  <si>
     <t>CODE/trunk/besskyERP</t>
   </si>
   <si>
@@ -72,9 +70,6 @@
   </si>
   <si>
     <t>https://oa.ser.ltd/dashboard</t>
-  </si>
-  <si>
-    <t>Dgh……~</t>
   </si>
   <si>
     <t>ERP上线：</t>
@@ -2014,9 +2009,6 @@
     <t>ALL里面找前端路径代码controller位置</t>
   </si>
   <si>
-    <t>return "jsp位置"</t>
-  </si>
-  <si>
     <t>生成getting：</t>
   </si>
   <si>
@@ -2057,9 +2049,6 @@
     <t>直接点Java Line Breakpoints 下面断点定位</t>
   </si>
   <si>
-    <t>查看方法被引用：</t>
-  </si>
-  <si>
     <t>ctrl+alt+h</t>
   </si>
   <si>
@@ -2125,21 +2114,21 @@
   </si>
   <si>
     <t>订单列表：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>订单操作-清除跟踪号</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>t_role和t_department</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>SELECT role_id, role_name,department.department_name, department.department_id
          FROM t_role
          LEFT JOIN t_department department ON department.department_id = t_role.department_id</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2156,10 +2145,7 @@
       </rPr>
       <t>_user和t_role通过t_user_role中间表</t>
     </r>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT</t>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
   <si>
     <t>users.user_id,</t>
@@ -2195,15 +2181,60 @@
     <t xml:space="preserve">LEFT JOIN t_role role ON user_role.role_id = role.role_id </t>
   </si>
   <si>
-    <t>select "role_id" in (select COLUMN_NAME from information_schema.columns where table_name='t_user') x;</t>
-  </si>
-  <si>
     <t>判断表里面所有列名有某列名：</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>distin</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表，角色权限表，角色表</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT DISTINCT</t>
+  </si>
+  <si>
+    <t>role_per.role_id,</t>
+  </si>
+  <si>
+    <t>role.role_name,</t>
+  </si>
+  <si>
+    <t>per.permission_id,</t>
+  </si>
+  <si>
+    <t>per.permission_name,</t>
+  </si>
+  <si>
+    <t>per.permission_code</t>
+  </si>
+  <si>
+    <t>t_role_permission role_per,</t>
+  </si>
+  <si>
+    <t>t_permission per ,</t>
+  </si>
+  <si>
+    <t>t_role role</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> role_per.permission_code = per.permission_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and role.role_id = role_per.role_id</t>
+  </si>
+  <si>
+    <t>bessky_pss_system</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%@ page contentType="text/html;charset=UTF-8" language="java" %</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>j</t>
     </r>
     <r>
       <rPr>
@@ -2214,61 +2245,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ct 不仅去重，默认升序</t>
-    </r>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表，角色权限表，角色表</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT DISTINCT</t>
-  </si>
-  <si>
-    <t>role_per.role_id,</t>
-  </si>
-  <si>
-    <t>role.role_name,</t>
-  </si>
-  <si>
-    <t>per.permission_id,</t>
-  </si>
-  <si>
-    <t>per.permission_name,</t>
-  </si>
-  <si>
-    <t>per.permission_code</t>
-  </si>
-  <si>
-    <t>t_role_permission role_per,</t>
-  </si>
-  <si>
-    <t>t_permission per ,</t>
-  </si>
-  <si>
-    <t>t_role role</t>
-  </si>
-  <si>
-    <t>WHERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> role_per.permission_code = per.permission_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and role.role_id = role_per.role_id</t>
-  </si>
-  <si>
-    <t>bessky_pss_system</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%@ page contentType="text/html;charset=UTF-8" language="java" %</t>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
+      <t>sp指令</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123456#</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>dgh@666666</t>
+  </si>
+  <si>
+    <t>017509</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + Alt +O</t>
+  </si>
+  <si>
+    <t>消去不要的包</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交：</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">dingguanghui </t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>【修改原因】#1009427</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>【修改内容】bessky-erp-logistics里面f-m及相关引用物流申请跟踪号调试模式优化</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>【提出人】张强</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>【开发人】一组#丁光辉</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>【检视人】自检 2021.01.15 10:45</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
     </r>
     <r>
       <rPr>
@@ -2279,20 +2308,1107 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sp指令</t>
-    </r>
-    <phoneticPr fontId="36" type="noConversion"/>
-  </si>
-  <si>
-    <t>d123456#</t>
-    <phoneticPr fontId="36" type="noConversion"/>
+      <t>_logistic_company</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>packet_transport_limit</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>bessky_pss_system</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库：bessky_pss</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库：bessky_pss</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>t_logistics_company</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库：bessky_logistic</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT * FROM (select distinct column_name from information_schema.columns where table_name='t_user') X WHERE X.column_name  like "%id"</t>
+  </si>
+  <si>
+    <r>
+      <t>select "role_id" in (select distinct column_name from information_schema.columns where table_name='t_user'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) x;</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinct 不仅去重，默认升序</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>information_schema.columns信息库之所有数据库信息</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "%xx%"</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有数据库里面表名包含logistic的重复数据，按照table_name排序</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>select  * from (select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns where table_name like "%logistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%") as y where y.table_name in (SELECT x.table_name FROM (select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns where table_name like "%logistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%") as x  GROUP BY x.table_name  having count(x.table_name) &gt;1) ORDER BY y.table_name,y.table_schema</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>有问题。。</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目开始：</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换Tomcat地址</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注释掉bessky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_pss_web/WEB-INF/web.xml-fliter</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>替换AuthorizationServiceImpl</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>在某类中点击上面路径就可以在项目路径中定位</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议采购数：库存管理-建议采购</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议采购数 ＝ 平均日销量 * (采购周期 + 备货天数 + 采购频率) + 待发数量 + 缺货数量 － 库存 － 采购中 - 未确定入库</t>
+  </si>
+  <si>
+    <t>预计日销量=7天平均销量×50%+15天平均销量×30%+30天平均销量×20%</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>反撤销</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trl+shift+Z</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击上图SKU-开发环境代码有供应商信息</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意：生成采购单之前，浏览缺货数量和建议采购数量，高于，要去“缺货未发”页面查看；低于，要去“大浪仓库”页面查看</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时需要点刷新，保证最新数据</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>生成采购单</t>
+    </r>
+  </si>
+  <si>
+    <t>代码生成：</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sqler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xml里面是数据库字段与实体类映射</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>bean里面xxApplication改成xx ,然后代码格式化</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有方法被引用：</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看方法引用</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl+B/ctrl+鼠标左键</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>return "jsp位置"</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.143:59095/pss</t>
+  </si>
+  <si>
+    <t>海外仓系统（主做海外仓的账号，还是有部分少量发本地仓订单）</t>
+  </si>
+  <si>
+    <t>海外仓系统外网地址（供销售、仓库使用）</t>
+  </si>
+  <si>
+    <t>http://hwerp.ser.ltd:59095/pss</t>
+  </si>
+  <si>
+    <t>PurchaseSuggestController/PurchaseOrderServiceImpl-generatePurchaseOrders(没有供应商会报错）</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>隐式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>内置）对象是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>容器为每个页面提供的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>对象，开发者可以直接使用它们而不用显式声明。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>隐式对象也被称为预定义变量。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>out        JspWriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，用于把结果输出至网页上</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象                 描述</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>"响应头"：”Refresh“</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>session     HttpSession</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，跟踪在各个客户端请求间的会话</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>application    ServletContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>类的实例，与应用上下文有关</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>config        ServletConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引擎的初始化参数，比如文件路径等</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pageContext    PageContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，提供对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面所有对象以及命名空间的访问，传给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面的指令信息，包括缓存信息，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ErrorPage URL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；提供方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>removeAttribute()</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">page        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键字</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Exception   Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的对象，代表发生错误的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JS</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>getHeader</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP头信息：getHeaderNames</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">response   HttpServletResponse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口的实例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cookies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>setIntHeader</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（“响应头”，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态码</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>设置HTTP状态码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sendError(407, "Need authentication!!!" )</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">request    HttpServletRequest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口的实例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cookies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需引入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet-api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库：</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库锁单</t>
+  </si>
+  <si>
+    <t>仓库配货</t>
+  </si>
+  <si>
+    <t>仓库移单</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>：移动到按货打单，移动到按筐打单，多品打单</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>打印拣货单</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>：收发货管理-按货扫描</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库打单/核对</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库扫描</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件单品-货</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>多件单品/多品-品</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单检查→</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>→待销售处理/待合并</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置-订单自动规则</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>→等待打单（申请跟踪号和修改物流方式）</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件多品（购买数量大于1）-筐</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个：收发货管理-快递发货流程-快递按货打单</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>批次：多品打单流程-多品打单批次</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品状态由“按货打单”变成“等待发货”</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>出货范围超过了50%到200%将不能出库</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库：</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存管理-建议采购</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ERP-采购单列表-确认采购，empty输入快递编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>收发货管理-回货扫描</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>|-快递单扫描</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>|-QC扫描</t>
+    <phoneticPr fontId="41" type="noConversion"/>
+  </si>
+  <si>
+    <t>|-入库扫描</t>
+    <phoneticPr fontId="41" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="37">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2317,10 +3433,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2336,6 +3493,7 @@
       <sz val="13.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2344,6 +3502,7 @@
       <sz val="11"/>
       <color rgb="FF990033"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2358,6 +3517,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2380,12 +3540,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2393,6 +3555,7 @@
       <sz val="11"/>
       <color theme="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2400,6 +3563,7 @@
       <sz val="11"/>
       <color rgb="FF990033"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2407,6 +3571,7 @@
       <sz val="11"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2421,6 +3586,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2559,6 +3725,49 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2720,27 +3929,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2750,13 +3959,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2774,7 +3983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2783,16 +3992,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -2801,46 +4010,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -2848,9 +4090,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2862,6 +4101,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2954,6 +4196,66 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\win10\Documents\Tencent Files\2851810174\Image\C2C\@~N@S05TF94FOP}3`LR8P6V.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1476375" y="8905875"/>
+          <a:ext cx="5448300" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3131,15 +4433,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>104774</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>743063</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19131</xdr:rowOff>
+      <xdr:colOff>657338</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123906</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3155,7 +4457,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19916774" y="552450"/>
+          <a:off x="20612099" y="2543175"/>
           <a:ext cx="638289" cy="514431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3203,10 +4505,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>96981</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>86036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2952750" y="16506825"/>
+          <a:ext cx="12403281" cy="2229161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419478</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>88</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="19488150"/>
+          <a:ext cx="2705478" cy="628738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>191586</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>162021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3095625" y="15401925"/>
+          <a:ext cx="7783011" cy="685896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>647894</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>181156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19850100" y="2028825"/>
+          <a:ext cx="1390844" cy="1295581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>194799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>277427</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20564475" y="613899"/>
+          <a:ext cx="5640002" cy="1472390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20735925" y="723900"/>
+          <a:ext cx="781050" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050"/>
+            <a:t>表对应的结构</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050"/>
+            <a:t>库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4494,7 +6056,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4809,21 +6371,16 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>496139</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>162704</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="6087314" cy="5582429"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="图片 1"/>
@@ -4840,7 +6397,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2124075" y="3590925"/>
-          <a:ext cx="6087110" cy="5582285"/>
+          <a:ext cx="6087314" cy="5582429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4853,10 +6410,10 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4877,7 +6434,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="12363450"/>
+          <a:off x="3086100" y="11315700"/>
           <a:ext cx="3991532" cy="2591162"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4889,13 +6446,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -4907,7 +6464,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1485900" y="13906500"/>
+          <a:off x="3028950" y="12858750"/>
           <a:ext cx="609600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4949,13 +6506,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -4967,8 +6524,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2305050" y="13992224"/>
-          <a:ext cx="2324100" cy="800101"/>
+          <a:off x="3848100" y="12944474"/>
+          <a:ext cx="4810125" cy="800101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5019,10 +6576,446 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2476500" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5" descr="C:\Users\win10\Documents\Tencent Files\2851810174\Image\Group\6[N[A{7CPVIPV~JVD]YU82W.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10220325" y="504825"/>
+          <a:ext cx="2476500" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>59184</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12994415" cy="1179275"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2057399" y="15356334"/>
+          <a:ext cx="12994415" cy="1179275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725400" y="15306675"/>
+          <a:ext cx="495300" cy="1162050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="990033"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>411452</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="10338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="17526000"/>
+          <a:ext cx="12060527" cy="5106113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619136</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="肘形连接符 10"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="1790701" y="20469224"/>
+          <a:ext cx="1876435" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114299" y="20364449"/>
+          <a:ext cx="1676401" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据库：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>bessky_warehouse/t_warehouse/warehouse_id=1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>388832</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>180298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2286000" y="24726900"/>
+          <a:ext cx="13542857" cy="5419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657975" y="26793826"/>
+          <a:ext cx="866776" cy="1533524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="990033"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待确认：未下达供应商，未付款；可编辑</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>52091</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>711675</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2338091" y="29670375"/>
+          <a:ext cx="5431609" cy="2219324"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5065,7 +7058,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5112,6 +7105,168 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>581719</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>161986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781175" y="7686675"/>
+          <a:ext cx="4972744" cy="438211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="7677150"/>
+          <a:ext cx="504825" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="990033"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="文本框 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="1790700"/>
+          <a:ext cx="561975" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>前端</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5375,10 +7530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P38"/>
+  <dimension ref="C2:P42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5410,7 +7565,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="K4" t="s">
         <v>1</v>
@@ -5437,54 +7592,62 @@
       <c r="O6" t="s">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
-        <v>9</v>
+      <c r="P6" s="44" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="3:16">
       <c r="F7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O7" t="s">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="39" t="s">
         <v>13</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:16">
       <c r="K9" t="s">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>17509</v>
+      <c r="L9" s="45" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="3:16">
       <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" t="s">
-        <v>15</v>
+      <c r="L10" s="44" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="3:16">
       <c r="J13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K13" s="39" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="N13" s="49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="N14" s="49" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -5492,42 +7655,48 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
         <v>5</v>
       </c>
       <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="49" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="49" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="3:12">
-      <c r="C17" s="37" t="s">
+      <c r="J18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:12">
-      <c r="C18" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:14">
       <c r="K19" t="s">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
       <c r="K20" t="s">
         <v>5</v>
       </c>
@@ -5535,34 +7704,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:14">
       <c r="K22" t="s">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
       <c r="C23" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14">
       <c r="D24" t="s">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14">
       <c r="D25" t="s">
         <v>5</v>
       </c>
@@ -5570,85 +7739,91 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:14">
       <c r="C29" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="D30" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F30" s="38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="D30" t="s">
+      <c r="I30" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="38" t="s">
+    </row>
+    <row r="31" spans="3:14">
+      <c r="F31" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I31" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="3:12">
-      <c r="F31" s="38" t="s">
+    <row r="32" spans="3:14">
+      <c r="F32" t="s">
         <v>34</v>
       </c>
-      <c r="I31" t="s">
+    </row>
+    <row r="33" spans="3:10">
+      <c r="G33" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="3:12">
-      <c r="F32" t="s">
+    <row r="34" spans="3:10">
+      <c r="G34" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="4:10">
-      <c r="G33" s="9" t="s">
+    <row r="35" spans="3:10">
+      <c r="D35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="G34" s="9" t="s">
+      <c r="G35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" t="s">
+      <c r="J35" t="s">
         <v>39</v>
       </c>
-      <c r="G35" t="s">
+    </row>
+    <row r="38" spans="3:10">
+      <c r="D38" t="s">
         <v>40</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="4:10">
-      <c r="D38" t="s">
-        <v>42</v>
-      </c>
-      <c r="J38" t="s">
-        <v>43</v>
+    <row r="42" spans="3:10">
+      <c r="C42" s="30" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="K13" r:id="rId2"/>
     <hyperlink ref="N4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AA73"/>
+  <dimension ref="B1:AN92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView showGridLines="0" topLeftCell="X7" workbookViewId="0">
+      <selection activeCell="AA34" sqref="AA34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5656,185 +7831,235 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27">
-      <c r="Z1" s="40" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="2:27">
+    <row r="1" spans="2:40">
+      <c r="AA1" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG1" s="48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="2:40">
       <c r="D2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="2:27">
-      <c r="Z7" s="40" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="46" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG2" s="47"/>
+      <c r="AN2" s="46" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="AA11" s="40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="2:40">
+      <c r="AA12" s="46" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="2:40">
       <c r="B15" s="42" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="2:40">
+      <c r="B16" s="44" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28">
+      <c r="B17" s="44"/>
       <c r="D17" s="41" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28">
+      <c r="AA19" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28">
       <c r="B27" s="42" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C27" s="40"/>
       <c r="D27" s="40" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="D29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
+      <c r="D29" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="AA29" s="46" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28">
       <c r="E30" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+        <v>249</v>
+      </c>
+      <c r="AA30" s="46" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28">
       <c r="E31" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>250</v>
+      </c>
+      <c r="AB31" s="46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
       <c r="E32" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="E33" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="E34" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="E35" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="E37" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="E39" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="E40" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="42" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C51" s="40"/>
       <c r="D51" s="40" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="D52" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="E53" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="E54" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="E55" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="E56" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="E57" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="D58" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="E59" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="E60" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="E61" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="D62" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="D63" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="D64" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="42"/>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="D78" s="44" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" s="44" t="s">
+        <v>294</v>
+      </c>
+      <c r="D92" s="44" t="s">
+        <v>295</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5842,10 +8067,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA105"/>
+  <dimension ref="A1:AA123"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView showGridLines="0" topLeftCell="A103" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -5856,200 +8081,200 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:20">
       <c r="E5" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:20">
       <c r="E6" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="I7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:20">
       <c r="E10" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P10" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="E11" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P11" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="T11" t="s">
         <v>54</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:20">
       <c r="T12" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:20">
       <c r="E15" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="S15" s="32" t="s">
         <v>59</v>
-      </c>
-      <c r="P15" t="s">
-        <v>60</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="5:27">
       <c r="I17" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" s="32" t="s">
         <v>62</v>
-      </c>
-      <c r="P17" t="s">
-        <v>63</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="5:27">
       <c r="E20" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="5:27">
       <c r="I21" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M21" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="5:27">
       <c r="P22" s="30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="5:27">
       <c r="I23" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P23" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="35"/>
       <c r="T23" t="s">
+        <v>68</v>
+      </c>
+      <c r="V23" t="s">
+        <v>69</v>
+      </c>
+      <c r="X23" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="V23" t="s">
+      <c r="AA23" t="s">
         <v>71</v>
-      </c>
-      <c r="X23" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="24" spans="5:27">
       <c r="Q24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="5:27">
       <c r="Q25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="5:27">
       <c r="P26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="5:27">
       <c r="E27" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="5:27">
       <c r="E28" s="28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="5:27">
       <c r="H29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="5:12">
       <c r="E35" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="5:12">
       <c r="E36" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" t="s">
         <v>82</v>
-      </c>
-      <c r="H36" t="s">
-        <v>83</v>
-      </c>
-      <c r="I36" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="5:12">
       <c r="H38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="5:12">
       <c r="I41" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="5:12">
       <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" t="s">
         <v>88</v>
       </c>
-      <c r="H44" t="s">
+      <c r="L44" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="J44" t="s">
-        <v>90</v>
-      </c>
-      <c r="L44" s="32" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="45" spans="5:12">
@@ -6057,66 +8282,66 @@
     </row>
     <row r="46" spans="5:12">
       <c r="E46" s="28" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="5:12">
       <c r="E47" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="F49" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J49" t="s">
         <v>93</v>
       </c>
-      <c r="H49" s="30" t="s">
+      <c r="L49" s="29" t="s">
         <v>94</v>
-      </c>
-      <c r="J49" t="s">
-        <v>95</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="L50" s="29" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="H52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" t="s">
+        <v>98</v>
+      </c>
+      <c r="M52" s="32" t="s">
         <v>99</v>
-      </c>
-      <c r="J52" t="s">
-        <v>100</v>
-      </c>
-      <c r="M52" s="32" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="J54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L54" s="32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="J56" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="K60" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L60" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
@@ -6125,7 +8350,7 @@
     <row r="61" spans="1:15">
       <c r="K61" s="16"/>
       <c r="L61" s="34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
@@ -6135,7 +8360,7 @@
       <c r="A62" s="28"/>
       <c r="K62" s="16"/>
       <c r="L62" s="34" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
@@ -6144,7 +8369,7 @@
     <row r="63" spans="1:15">
       <c r="K63" s="16"/>
       <c r="L63" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
@@ -6153,7 +8378,7 @@
     <row r="64" spans="1:15">
       <c r="K64" s="16"/>
       <c r="L64" s="31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
@@ -6162,7 +8387,7 @@
     <row r="65" spans="6:15">
       <c r="K65" s="16"/>
       <c r="L65" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
@@ -6170,10 +8395,10 @@
     </row>
     <row r="66" spans="6:15">
       <c r="K66" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L66" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
@@ -6181,10 +8406,10 @@
     </row>
     <row r="69" spans="6:15">
       <c r="K69" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L69" s="33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
@@ -6193,20 +8418,20 @@
     <row r="70" spans="6:15">
       <c r="K70" s="16"/>
       <c r="L70" s="31" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
       <c r="O70" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="6:15">
       <c r="K71" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L71" s="34" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
@@ -6235,7 +8460,7 @@
     </row>
     <row r="75" spans="6:15">
       <c r="K75" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L75" s="36"/>
       <c r="M75" s="24"/>
@@ -6247,10 +8472,10 @@
     </row>
     <row r="83" spans="11:16">
       <c r="K83" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L83" s="33" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
@@ -6293,7 +8518,7 @@
     </row>
     <row r="89" spans="11:16">
       <c r="K89" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L89" s="36"/>
       <c r="M89" s="24"/>
@@ -6305,7 +8530,7 @@
     </row>
     <row r="96" spans="11:16">
       <c r="K96" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L96" s="33"/>
       <c r="M96" s="14"/>
@@ -6313,7 +8538,7 @@
       <c r="O96" s="14"/>
       <c r="P96" s="18"/>
     </row>
-    <row r="97" spans="11:20">
+    <row r="97" spans="1:20">
       <c r="K97" s="16"/>
       <c r="M97" s="18"/>
       <c r="N97" s="18"/>
@@ -6321,7 +8546,7 @@
       <c r="P97" s="18"/>
       <c r="T97" s="9"/>
     </row>
-    <row r="98" spans="11:20">
+    <row r="98" spans="1:20">
       <c r="K98" s="16"/>
       <c r="L98" s="34"/>
       <c r="M98" s="18"/>
@@ -6329,7 +8554,7 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="11:20">
+    <row r="99" spans="1:20">
       <c r="K99" s="16"/>
       <c r="L99" s="34"/>
       <c r="M99" s="18"/>
@@ -6337,7 +8562,7 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="11:20">
+    <row r="100" spans="1:20">
       <c r="K100" s="16"/>
       <c r="L100" s="31"/>
       <c r="M100" s="18"/>
@@ -6345,9 +8570,9 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="11:20">
+    <row r="101" spans="1:20">
       <c r="K101" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L101" s="31"/>
       <c r="M101" s="18"/>
@@ -6355,7 +8580,7 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="11:20">
+    <row r="102" spans="1:20">
       <c r="K102" s="18"/>
       <c r="L102" s="34"/>
       <c r="M102" s="18"/>
@@ -6363,23 +8588,88 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="11:20">
+    <row r="103" spans="1:20">
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="11:20">
+    <row r="104" spans="1:20">
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="11:20">
+    <row r="105" spans="1:20">
       <c r="K105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P105" s="18"/>
     </row>
+    <row r="107" spans="1:20">
+      <c r="A107" s="44" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="B108" s="44" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="B109" s="44" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="B110" s="44" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="B111" s="44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="B112" s="44" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="49" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="B117" s="49" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="B118" s="49" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="B119" s="49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="B122" s="49" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="B123" s="49" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6387,13 +8677,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -6401,17 +8691,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:I68"/>
+  <dimension ref="C3:K183"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="B119" workbookViewId="0">
+      <selection activeCell="G144" sqref="G144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="3:9">
       <c r="D3" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -6421,7 +8714,7 @@
     <row r="4" spans="3:9">
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -6430,7 +8723,7 @@
     <row r="5" spans="3:9">
       <c r="D5" s="16"/>
       <c r="E5" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -6439,7 +8732,7 @@
     <row r="6" spans="3:9">
       <c r="D6" s="16"/>
       <c r="E6" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -6448,7 +8741,7 @@
     <row r="7" spans="3:9">
       <c r="D7" s="16"/>
       <c r="E7" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -6457,7 +8750,7 @@
     <row r="8" spans="3:9">
       <c r="D8" s="16"/>
       <c r="E8" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -6466,7 +8759,7 @@
     <row r="9" spans="3:9">
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -6475,7 +8768,7 @@
     <row r="10" spans="3:9">
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -6493,7 +8786,7 @@
     <row r="12" spans="3:9">
       <c r="C12" s="18"/>
       <c r="D12" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -6504,7 +8797,7 @@
     <row r="13" spans="3:9">
       <c r="C13" s="18"/>
       <c r="D13" s="26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -6515,7 +8808,7 @@
     <row r="14" spans="3:9">
       <c r="C14" s="18"/>
       <c r="D14" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -6527,7 +8820,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="16"/>
       <c r="E15" s="18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -6572,147 +8865,341 @@
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" spans="4:5">
-      <c r="D49" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5">
-      <c r="D50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5">
-      <c r="E53" s="40" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="40" t="s">
-        <v>249</v>
+    <row r="53" spans="4:4">
+      <c r="D53" s="40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="D68" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="D71" s="51" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="D72" s="51" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" s="49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="4:9">
+      <c r="D81" s="49" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="82" spans="4:9">
+      <c r="D82" s="49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="4:9">
+      <c r="D83" s="49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="4:9">
+      <c r="E84" s="49" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="85" spans="4:9">
+      <c r="D85" s="49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="86" spans="4:9">
+      <c r="D86" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="E86" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="H86" s="50"/>
+      <c r="I86" s="49"/>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" s="52" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" s="56" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="D143" s="57" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="D144" s="57" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4">
+      <c r="D145" s="57" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="163" spans="3:10">
+      <c r="D163" s="51" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="164" spans="3:10">
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" s="51" t="s">
+        <v>359</v>
+      </c>
+      <c r="E164" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="H164" s="51" t="s">
+        <v>360</v>
+      </c>
+      <c r="J164" s="51" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="3:11">
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E177" s="51" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="178" spans="3:11">
+      <c r="E178" s="51" t="s">
+        <v>356</v>
+      </c>
+      <c r="G178" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="K178" s="51" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="179" spans="3:11">
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="E179" s="51" t="s">
+        <v>364</v>
+      </c>
+      <c r="H179" s="51"/>
+      <c r="J179" s="51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="3:11">
+      <c r="C180">
+        <v>4</v>
+      </c>
+      <c r="D180" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="181" spans="3:11">
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="182" spans="3:11">
+      <c r="C182">
+        <v>6</v>
+      </c>
+      <c r="D182" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="E182" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="H182" s="51" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="183" spans="3:11">
+      <c r="C183">
+        <v>7</v>
+      </c>
+      <c r="D183" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="E183" s="51" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C32"/>
+  <dimension ref="A2:E47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6720,12 +9207,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6733,7 +9220,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6741,12 +9228,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6754,24 +9241,95 @@
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="46" t="s">
-        <v>282</v>
+      <c r="B31" s="43" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="C32" s="46" t="s">
-        <v>283</v>
+      <c r="C32" s="43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="B38" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="E38" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
+        <v>335</v>
+      </c>
+      <c r="E40" s="49" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6794,281 +9352,281 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15">
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="L2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" t="s">
         <v>162</v>
-      </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="L2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="3:15">
       <c r="C3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="3:15">
       <c r="C4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="3:15">
       <c r="C7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>177</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="8" spans="3:15">
       <c r="C8" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="3:15">
       <c r="C10" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="3:15">
       <c r="C11" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="3:15">
       <c r="C14" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>201</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="D32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7086,31 +9644,31 @@
   <sheetData>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20.25">
       <c r="B21" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7118,107 +9676,136 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:L32"/>
+  <dimension ref="C8:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="8" spans="3:12">
       <c r="C8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="3:12">
       <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G10" t="s">
         <v>226</v>
       </c>
-      <c r="E10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G10" t="s">
-        <v>228</v>
-      </c>
-      <c r="L10" t="s">
-        <v>229</v>
+      <c r="L10" s="49" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
+        <v>230</v>
+      </c>
+      <c r="E18" t="s">
+        <v>231</v>
+      </c>
+      <c r="G18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" t="s">
         <v>233</v>
       </c>
-      <c r="E18" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E21" t="s">
-        <v>237</v>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E23" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E32" t="s">
-        <v>247</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5">
+      <c r="C41" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="E41" s="49" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="36" type="noConversion"/>
+  <phoneticPr fontId="41" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19110" windowHeight="12975" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
     <sheet name="JavaEE" sheetId="3" r:id="rId8"/>
     <sheet name="others" sheetId="4" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="401">
   <si>
     <t>SVN</t>
   </si>
@@ -48,6 +48,9 @@
     <t>pwd:</t>
   </si>
   <si>
+    <t>d123456#</t>
+  </si>
+  <si>
     <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
   </si>
   <si>
@@ -57,6 +60,9 @@
     <t>代码和资料：</t>
   </si>
   <si>
+    <t xml:space="preserve">dingguanghui </t>
+  </si>
+  <si>
     <t>CODE/trunk/besskyERP</t>
   </si>
   <si>
@@ -72,10 +78,22 @@
     <t>https://oa.ser.ltd/dashboard</t>
   </si>
   <si>
+    <t>017509</t>
+  </si>
+  <si>
+    <t>dgh@666666</t>
+  </si>
+  <si>
     <t>ERP上线：</t>
   </si>
   <si>
     <t>http://192.168.99.213:9095/pss</t>
+  </si>
+  <si>
+    <t>海外仓系统（主做海外仓的账号，还是有部分少量发本地仓订单）</t>
+  </si>
+  <si>
+    <t>http://192.168.99.143:59095/pss</t>
   </si>
   <si>
     <t xml:space="preserve">it_dingguanghui </t>
@@ -105,6 +123,9 @@
     <t>d123456~</t>
   </si>
   <si>
+    <t>海外仓系统外网地址（供销售、仓库使用）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -126,6 +147,9 @@
     </r>
   </si>
   <si>
+    <t>http://hwerp.ser.ltd:59095/pss</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10.5"/>
@@ -447,239 +471,19 @@
     <t>Tomcat logging乱码</t>
   </si>
   <si>
+    <t>禅道</t>
+  </si>
+  <si>
+    <t>information_schema.columns信息库之所有数据库信息</t>
+  </si>
+  <si>
+    <t>distinct 不仅去重，默认升序</t>
+  </si>
+  <si>
     <t>数据库：</t>
   </si>
   <si>
-    <t>dubbo+spring boot</t>
-  </si>
-  <si>
-    <t>jsp+tomcat</t>
-  </si>
-  <si>
-    <t>bessky-starter</t>
-  </si>
-  <si>
-    <t>/bessky-starter-sqler</t>
-  </si>
-  <si>
-    <t>test/res</t>
-  </si>
-  <si>
-    <t>数据库位置</t>
-  </si>
-  <si>
-    <t>bessky-pss</t>
-  </si>
-  <si>
-    <t>LogisticsNewController层</t>
-  </si>
-  <si>
-    <t>/bessky-pss_web</t>
-  </si>
-  <si>
-    <t>com.bessky.pss.portal.business.logistics.action</t>
-  </si>
-  <si>
-    <t>logistics/new/get获取包裹号/跟踪号</t>
-  </si>
-  <si>
-    <t>new OrderQueryCondition().setOrderIds(orderIds)=query</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> orderFacade.queryOrdersForLogistics(query)</t>
-  </si>
-  <si>
-    <t>/bessky-erp-façade</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> com.bessky.erp.order.manager.bean;</t>
-  </si>
-  <si>
-    <t>OrderQueryCondition</t>
-  </si>
-  <si>
-    <t>(订单主键list，平台订单号list, 海外仓状态list)</t>
-  </si>
-  <si>
-    <t>com.bessky.erp.order.manager.facade</t>
-  </si>
-  <si>
-    <t>OrderFacade</t>
-  </si>
-  <si>
-    <t>(查询订单总数，查询订单list,查询订单跟踪号list)</t>
-  </si>
-  <si>
-    <t>webapp.com.bessky.pss.portal</t>
-  </si>
-  <si>
-    <t>index.jsp首页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">orders </t>
-  </si>
-  <si>
-    <t>com.bessky.pss.portal.business.order.action;</t>
-  </si>
-  <si>
-    <t>ordercontroller层</t>
-  </si>
-  <si>
-    <t>order_list</t>
-  </si>
-  <si>
-    <t>运输方式</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>items</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">domain.transportations </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>EL表达式取作用域值：list</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">// </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>物流方式</t>
-    </r>
-  </si>
-  <si>
-    <t>transportationModeService.queryAuthTransportationModes()</t>
-  </si>
-  <si>
-    <t>method:</t>
-  </si>
-  <si>
-    <t>bessky-erp</t>
-  </si>
-  <si>
-    <t>get请求</t>
-  </si>
-  <si>
-    <t>api包</t>
-  </si>
-  <si>
-    <t>service接口</t>
-  </si>
-  <si>
-    <t>bessky-api</t>
-  </si>
-  <si>
-    <t>/bessky-api-xx</t>
-  </si>
-  <si>
-    <t>facade包</t>
-  </si>
-  <si>
-    <t>xxximpl实现类</t>
-  </si>
-  <si>
-    <t>call包</t>
-  </si>
-  <si>
-    <t>抽象类</t>
-  </si>
-  <si>
-    <t>其他类</t>
-  </si>
-  <si>
-    <t>bessky-api-core</t>
-  </si>
-  <si>
-    <t>common-http包</t>
-  </si>
-  <si>
-    <t>AbstractHttpCall</t>
-  </si>
-  <si>
-    <t>(HTTP请求基类/抽象类/方法protected)</t>
-  </si>
-  <si>
-    <t>/bessky-logistics</t>
-  </si>
-  <si>
-    <t>bessky-erp-logistics</t>
-  </si>
-  <si>
-    <t>api物流公司包</t>
-  </si>
-  <si>
-    <t>baxing物流</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>BaXingCall物流API接口</t>
-  </si>
-  <si>
-    <t>（psf常量：提供的URL，八星的url;  方法：创建物流订单【保存pdf面单】封装请求参数 包裹信息 获取签名 保存面单到fastdfs 获取面单 加入分拣码到文件 统一客户单号 保存面单到fastdfs兼容老地址）</t>
-  </si>
-  <si>
-    <t>auto包</t>
-  </si>
-  <si>
-    <t>AbstractLogisticsCall抽象类</t>
-  </si>
-  <si>
-    <t>（跟踪号，服务商号，初始化请求客户端）</t>
-  </si>
-  <si>
-    <t>LogisticsCall接口</t>
-  </si>
-  <si>
-    <t>(接口返回信息，物流公司种类）</t>
+    <t>select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns</t>
   </si>
   <si>
     <r>
@@ -691,6 +495,522 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "%xx%"</t>
+    </r>
+  </si>
+  <si>
+    <t>判断表里面所有列名有某列名：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select "role_id" in (select distinct column_name from information_schema.columns where table_name='t_user'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) x;</t>
+    </r>
+  </si>
+  <si>
+    <t>bessky_pss_system</t>
+  </si>
+  <si>
+    <t>t_role和t_department</t>
+  </si>
+  <si>
+    <t>数据库：bessky_pss</t>
+  </si>
+  <si>
+    <t>SELECT role_id, role_name,department.department_name, department.department_id
+         FROM t_role
+         LEFT JOIN t_department department ON department.department_id = t_role.department_id</t>
+  </si>
+  <si>
+    <t>SELECT * FROM (select distinct column_name from information_schema.columns where table_name='t_user') X WHERE X.column_name  like "%id"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_user和t_role通过t_user_role中间表</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>查询所有数据库里面表名包含logistic的重复数据，按照table_name排序</t>
+  </si>
+  <si>
+    <t>users.user_id,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>select  * from (select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns where table_name like "%logistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%") as y where y.table_name in (SELECT x.table_name FROM (select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns where table_name like "%logistic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>%") as x  GROUP BY x.table_name  having count(x.table_name) &gt;1) ORDER BY y.table_name,y.table_schema</t>
+    </r>
+  </si>
+  <si>
+    <t>users.NAME,</t>
+  </si>
+  <si>
+    <t>有问题。。</t>
+  </si>
+  <si>
+    <t>department.department_id,</t>
+  </si>
+  <si>
+    <t>department.department_name,</t>
+  </si>
+  <si>
+    <t>role.role_id,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role.role_name </t>
+  </si>
+  <si>
+    <t>FROM</t>
+  </si>
+  <si>
+    <t>t_user users</t>
+  </si>
+  <si>
+    <t>LEFT JOIN t_department department ON users.department_id = department.department_id</t>
+  </si>
+  <si>
+    <t>LEFT JOIN t_user_role user_role ON users.user_id = user_role.user_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFT JOIN t_role role ON user_role.role_id = role.role_id </t>
+  </si>
+  <si>
+    <t>权限表，角色权限表，角色表</t>
+  </si>
+  <si>
+    <t>SELECT DISTINCT</t>
+  </si>
+  <si>
+    <t>role_per.role_id,</t>
+  </si>
+  <si>
+    <t>role.role_name,</t>
+  </si>
+  <si>
+    <t>per.permission_id,</t>
+  </si>
+  <si>
+    <t>per.permission_name,</t>
+  </si>
+  <si>
+    <t>per.permission_code</t>
+  </si>
+  <si>
+    <t>t_role_permission role_per,</t>
+  </si>
+  <si>
+    <t>t_permission per ,</t>
+  </si>
+  <si>
+    <t>t_role role</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> role_per.permission_code = per.permission_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> and role.role_id = role_per.role_id</t>
+  </si>
+  <si>
+    <t>数据库：bessky_logistic</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_logistic_company</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>packet_transport_limit</t>
+    </r>
+  </si>
+  <si>
+    <t>t_logistics_company</t>
+  </si>
+  <si>
+    <t>dubbo+spring boot</t>
+  </si>
+  <si>
+    <t>jsp+tomcat</t>
+  </si>
+  <si>
+    <t>bessky-starter</t>
+  </si>
+  <si>
+    <t>/bessky-starter-sqler</t>
+  </si>
+  <si>
+    <t>test/res</t>
+  </si>
+  <si>
+    <t>数据库位置</t>
+  </si>
+  <si>
+    <t>bessky-pss</t>
+  </si>
+  <si>
+    <t>LogisticsNewController层</t>
+  </si>
+  <si>
+    <t>/bessky-pss_web</t>
+  </si>
+  <si>
+    <t>com.bessky.pss.portal.business.logistics.action</t>
+  </si>
+  <si>
+    <t>logistics/new/get获取包裹号/跟踪号</t>
+  </si>
+  <si>
+    <t>new OrderQueryCondition().setOrderIds(orderIds)=query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> orderFacade.queryOrdersForLogistics(query)</t>
+  </si>
+  <si>
+    <t>/bessky-erp-façade</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> com.bessky.erp.order.manager.bean;</t>
+  </si>
+  <si>
+    <t>OrderQueryCondition</t>
+  </si>
+  <si>
+    <t>(订单主键list，平台订单号list, 海外仓状态list)</t>
+  </si>
+  <si>
+    <t>com.bessky.erp.order.manager.facade</t>
+  </si>
+  <si>
+    <t>OrderFacade</t>
+  </si>
+  <si>
+    <t>(查询订单总数，查询订单list,查询订单跟踪号list)</t>
+  </si>
+  <si>
+    <t>webapp.com.bessky.pss.portal</t>
+  </si>
+  <si>
+    <t>index.jsp首页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orders </t>
+  </si>
+  <si>
+    <t>com.bessky.pss.portal.business.order.action;</t>
+  </si>
+  <si>
+    <t>ordercontroller层</t>
+  </si>
+  <si>
+    <t>order_list</t>
+  </si>
+  <si>
+    <t>运输方式</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>items</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">domain.transportations </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>EL表达式取作用域值：list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物流方式</t>
+    </r>
+  </si>
+  <si>
+    <t>transportationModeService.queryAuthTransportationModes()</t>
+  </si>
+  <si>
+    <t>method:</t>
+  </si>
+  <si>
+    <t>bessky-erp</t>
+  </si>
+  <si>
+    <t>get请求</t>
+  </si>
+  <si>
+    <t>api包</t>
+  </si>
+  <si>
+    <t>service接口</t>
+  </si>
+  <si>
+    <t>bessky-api</t>
+  </si>
+  <si>
+    <t>/bessky-api-xx</t>
+  </si>
+  <si>
+    <t>facade包</t>
+  </si>
+  <si>
+    <t>xxximpl实现类</t>
+  </si>
+  <si>
+    <t>call包</t>
+  </si>
+  <si>
+    <t>抽象类</t>
+  </si>
+  <si>
+    <t>其他类</t>
+  </si>
+  <si>
+    <t>bessky-api-core</t>
+  </si>
+  <si>
+    <t>common-http包</t>
+  </si>
+  <si>
+    <t>AbstractHttpCall</t>
+  </si>
+  <si>
+    <t>(HTTP请求基类/抽象类/方法protected)</t>
+  </si>
+  <si>
+    <t>/bessky-logistics</t>
+  </si>
+  <si>
+    <t>bessky-erp-logistics</t>
+  </si>
+  <si>
+    <t>api物流公司包</t>
+  </si>
+  <si>
+    <t>baxing物流</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>BaXingCall物流API接口</t>
+  </si>
+  <si>
+    <t>（psf常量：提供的URL，八星的url;  方法：创建物流订单【保存pdf面单】封装请求参数 包裹信息 获取签名 保存面单到fastdfs 获取面单 加入分拣码到文件 统一客户单号 保存面单到fastdfs兼容老地址）</t>
+  </si>
+  <si>
+    <t>auto包</t>
+  </si>
+  <si>
+    <t>AbstractLogisticsCall抽象类</t>
+  </si>
+  <si>
+    <t>（跟踪号，服务商号，初始化请求客户端）</t>
+  </si>
+  <si>
+    <t>LogisticsCall接口</t>
+  </si>
+  <si>
+    <t>(接口返回信息，物流公司种类）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LogisticsCallContext</t>
     </r>
     <r>
@@ -751,6 +1071,87 @@
   </si>
   <si>
     <t>webapp:</t>
+  </si>
+  <si>
+    <t>提交：</t>
+  </si>
+  <si>
+    <t>【修改原因】#1009427</t>
+  </si>
+  <si>
+    <t>【修改内容】bessky-erp-logistics里面f-m及相关引用物流申请跟踪号调试模式优化</t>
+  </si>
+  <si>
+    <t>【提出人】张强</t>
+  </si>
+  <si>
+    <t>【开发人】一组#丁光辉</t>
+  </si>
+  <si>
+    <t>【检视人】自检 2021.01.15 10:45</t>
+  </si>
+  <si>
+    <t>项目开始：</t>
+  </si>
+  <si>
+    <t>替换Tomcat地址</t>
+  </si>
+  <si>
+    <t>替换AuthorizationServiceImpl</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注释掉bessky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_pss_web/WEB-INF/web.xml-fliter</t>
+    </r>
+  </si>
+  <si>
+    <t>代码生成：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sqler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.xml里面是数据库字段与实体类映射</t>
+    </r>
+  </si>
+  <si>
+    <t>bean里面xxApplication改成xx ,然后代码格式化</t>
   </si>
   <si>
     <t>注释：</t>
@@ -1061,6 +1462,157 @@
   </si>
   <si>
     <t>4、编写需求代码</t>
+  </si>
+  <si>
+    <t>订单列表：</t>
+  </si>
+  <si>
+    <t>订单操作-清除跟踪号</t>
+  </si>
+  <si>
+    <t>入库：</t>
+  </si>
+  <si>
+    <t>库存管理-建议采购</t>
+  </si>
+  <si>
+    <t>建议采购数：库存管理-建议采购</t>
+  </si>
+  <si>
+    <t>建议采购数 ＝ 平均日销量 * (采购周期 + 备货天数 + 采购频率) + 待发数量 + 缺货数量 － 库存 － 采购中 - 未确定入库</t>
+  </si>
+  <si>
+    <t>预计日销量=7天平均销量×50%+15天平均销量×30%+30天平均销量×20%</t>
+  </si>
+  <si>
+    <t>注意：生成采购单之前，浏览缺货数量和建议采购数量，高于，要去“缺货未发”页面查看；低于，要去“大浪仓库”页面查看</t>
+  </si>
+  <si>
+    <t>同时需要点刷新，保证最新数据</t>
+  </si>
+  <si>
+    <t>点击上图SKU-开发环境代码有供应商信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>生成采购单</t>
+    </r>
+  </si>
+  <si>
+    <t>PurchaseSuggestController/PurchaseOrderServiceImpl-generatePurchaseOrders(没有供应商会报错）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ERP-采购单列表-确认采购，empty输入快递编号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-确认下单
+</t>
+    </r>
+  </si>
+  <si>
+    <t>收发货管理-回货扫描</t>
+  </si>
+  <si>
+    <t>|-快递单扫描</t>
+  </si>
+  <si>
+    <t>|-QC扫描</t>
+  </si>
+  <si>
+    <t>|-入库扫描</t>
+  </si>
+  <si>
+    <t>出库：</t>
+  </si>
+  <si>
+    <t>订单检查→</t>
+  </si>
+  <si>
+    <t>系统配置-订单自动规则</t>
+  </si>
+  <si>
+    <t>→待销售处理/待合并</t>
+  </si>
+  <si>
+    <t>→等待打单（申请跟踪号和修改物流方式）</t>
+  </si>
+  <si>
+    <t>仓库移单</t>
+  </si>
+  <si>
+    <t>：移动到按货打单，移动到按筐打单，多品打单</t>
+  </si>
+  <si>
+    <t>单件单品-货</t>
+  </si>
+  <si>
+    <t>单件多品（购买数量大于1）-筐</t>
+  </si>
+  <si>
+    <t>多件单品/多品-品</t>
+  </si>
+  <si>
+    <t>打印拣货单</t>
+  </si>
+  <si>
+    <t>单个：收发货管理-快递发货流程-快递按货打单</t>
+  </si>
+  <si>
+    <t>批次：多品打单流程-多品打单批次</t>
+  </si>
+  <si>
+    <t>仓库配货</t>
+  </si>
+  <si>
+    <t>仓库锁单</t>
+  </si>
+  <si>
+    <t>仓库打单/核对</t>
+  </si>
+  <si>
+    <t>：收发货管理-按货扫描</t>
+  </si>
+  <si>
+    <t>产品状态由“按货打单”变成“等待发货”</t>
+  </si>
+  <si>
+    <t>出库扫描</t>
+  </si>
+  <si>
+    <t>出货范围超过了50%到200%将不能出库</t>
   </si>
   <si>
     <t>JSP全称Java Server Pages，是一种动态网页开发技术。它使用JSP标签在HTML网页中插入Java代码。标签通常以&lt;%开头以%&gt;结束。</t>
@@ -1774,191 +2326,7 @@
     <t>&lt;body&gt;&lt;/body&gt;中的代码称作模板元素，网页显示</t>
   </si>
   <si>
-    <t>rpc，都可以整合spring boot</t>
-  </si>
-  <si>
-    <t>网关</t>
-  </si>
-  <si>
-    <t>gateway</t>
-  </si>
-  <si>
-    <t>区别</t>
-  </si>
-  <si>
-    <t>   Dubbo</t>
-  </si>
-  <si>
-    <t>      SpringCloud        </t>
-  </si>
-  <si>
-    <t>注册中心，服务发现和治理</t>
-  </si>
-  <si>
-    <t>Redis，zk</t>
-  </si>
-  <si>
-    <t>eureka,nacos</t>
-  </si>
-  <si>
-    <t>     服务调用方式</t>
-  </si>
-  <si>
-    <t>     RPC</t>
-  </si>
-  <si>
-    <t>       REST API</t>
-  </si>
-  <si>
-    <t>服务监控</t>
-  </si>
-  <si>
-    <t>  Dubbo-monitor  </t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>熔断器</t>
-  </si>
-  <si>
-    <t>     不完善</t>
-  </si>
-  <si>
-    <t>NetflixHystrix</t>
-  </si>
-  <si>
-    <t>服务网关</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>Netflix Zuul，gateway</t>
-  </si>
-  <si>
-    <t>分布式配置</t>
-  </si>
-  <si>
-    <t> 无</t>
-  </si>
-  <si>
-    <t>Config，nacos</t>
-  </si>
-  <si>
-    <t>服务跟踪</t>
-  </si>
-  <si>
-    <t>Sleuth</t>
-  </si>
-  <si>
-    <t>数据流</t>
-  </si>
-  <si>
-    <t>Stream</t>
-  </si>
-  <si>
-    <t>批量任务</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>信息总线</t>
-  </si>
-  <si>
-    <t>       Bus</t>
-  </si>
-  <si>
-    <t>网络消耗</t>
-  </si>
-  <si>
-    <t>二进制传输</t>
-  </si>
-  <si>
-    <t>HTTP传输，带宽消耗大</t>
-  </si>
-  <si>
-    <t>公司</t>
-  </si>
-  <si>
-    <t>阿里巴巴</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>服务管理，注册</t>
-  </si>
-  <si>
-    <t>Eureka</t>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>Nacos</t>
-  </si>
-  <si>
-    <t>负载均衡</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>LoadBalance</t>
-  </si>
-  <si>
-    <t>Hystrix</t>
-  </si>
-  <si>
-    <t>Sentinel（流量哨兵）：熔断降级（服务器500：整合feign，fallback=Degradedxx.class,该类实现Feign接口，客户端页面改变）（微服务速度变慢：RT超过设置阈值，客户端页面改变），限流保护（生产）（sentinel控制台-限流规则：快速失败，预热【量大→屏蔽】，排队等待【第N个屏蔽等待一定时长】）</t>
-  </si>
-  <si>
-    <t>微服务调用</t>
-  </si>
-  <si>
-    <t>RestTemplate</t>
-  </si>
-  <si>
-    <t>feign/openfeign</t>
-  </si>
-  <si>
-    <t>Zuul</t>
-  </si>
-  <si>
-    <t>config</t>
-  </si>
-  <si>
-    <t>nacos</t>
-  </si>
-  <si>
-    <t>springMVC</t>
-  </si>
-  <si>
-    <t>@Resource的作用相当于@Autowired，只不过@Autowired按byType自动注入，而@Resource默认按 byName自动注入罢了</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> @InitBinder
-    public void initListBinder(WebDataBinder binder)
-    {
-        binder.setAutoGrowCollectionLimit(1024);
-    }</t>
-  </si>
-  <si>
-    <t>controller取消自动绑定（如日期String传参转化为Date），注册类型绑定器进行参数绑定</t>
-  </si>
-  <si>
-    <t>springmvc默认只支持256个对象映射， binder.setAutoGrowCollectionLimit(1000)设置为1000个</t>
-  </si>
-  <si>
-    <t>Constants</t>
-  </si>
-  <si>
-    <t>单独写一个常量类Constants用来保存固定的常量，这些常量在代码调用过程中值又容易发生改变的等等情况，此时不必在代码中修改值，直接在该类中修改即可</t>
-  </si>
-  <si>
-    <t>枚举-组织常量</t>
+    <t>&lt;%@ page contentType="text/html;charset=UTF-8" language="java" %</t>
   </si>
   <si>
     <r>
@@ -1970,16 +2338,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>在JDK1.5 之前，在Java中定义常量都是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>public static final TYPE a;</t>
+      <t>j</t>
     </r>
     <r>
       <rPr>
@@ -1990,6 +2349,678 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>sp指令</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>隐式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>内置）对象是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>容器为每个页面提供的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>对象，开发者可以直接使用它们而不用显式声明。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>隐式对象也被称为预定义变量。</t>
+    </r>
+  </si>
+  <si>
+    <t>HTTP头信息：getHeaderNames</t>
+  </si>
+  <si>
+    <t>getHeader</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设置HTTP状态码：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sendError(407, "Need authentication!!!" )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>out        JspWriter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，用于把结果输出至网页上</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>session     HttpSession</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，跟踪在各个客户端请求间的会话</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>application    ServletContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>类的实例，与应用上下文有关</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>config        ServletConfig</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Servlet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或者</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>引擎的初始化参数，比如文件路径等</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pageContext    PageContext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的实例，提供对</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面所有对象以及命名空间的访问，传给</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面的指令信息，包括缓存信息，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ErrorPage URL,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>scope</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；提供方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>removeAttribute()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">page        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类似于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类中的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关键字</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Exception   Exception</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类的对象，代表发生错误的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JS</t>
+    </r>
+  </si>
+  <si>
+    <t>rpc，都可以整合spring boot</t>
+  </si>
+  <si>
+    <t>网关</t>
+  </si>
+  <si>
+    <t>gateway</t>
+  </si>
+  <si>
+    <t>区别</t>
+  </si>
+  <si>
+    <t>   Dubbo</t>
+  </si>
+  <si>
+    <t>      SpringCloud        </t>
+  </si>
+  <si>
+    <t>注册中心，服务发现和治理</t>
+  </si>
+  <si>
+    <t>Redis，zk</t>
+  </si>
+  <si>
+    <t>eureka,nacos</t>
+  </si>
+  <si>
+    <t>     服务调用方式</t>
+  </si>
+  <si>
+    <t>     RPC</t>
+  </si>
+  <si>
+    <t>       REST API</t>
+  </si>
+  <si>
+    <t>服务监控</t>
+  </si>
+  <si>
+    <t>  Dubbo-monitor  </t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>熔断器</t>
+  </si>
+  <si>
+    <t>     不完善</t>
+  </si>
+  <si>
+    <t>NetflixHystrix</t>
+  </si>
+  <si>
+    <t>服务网关</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>Netflix Zuul，gateway</t>
+  </si>
+  <si>
+    <t>分布式配置</t>
+  </si>
+  <si>
+    <t> 无</t>
+  </si>
+  <si>
+    <t>Config，nacos</t>
+  </si>
+  <si>
+    <t>服务跟踪</t>
+  </si>
+  <si>
+    <t>Sleuth</t>
+  </si>
+  <si>
+    <t>数据流</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>批量任务</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>信息总线</t>
+  </si>
+  <si>
+    <t>       Bus</t>
+  </si>
+  <si>
+    <t>网络消耗</t>
+  </si>
+  <si>
+    <t>二进制传输</t>
+  </si>
+  <si>
+    <t>HTTP传输，带宽消耗大</t>
+  </si>
+  <si>
+    <t>公司</t>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>服务管理，注册</t>
+  </si>
+  <si>
+    <t>Eureka</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>Nacos</t>
+  </si>
+  <si>
+    <t>负载均衡</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>LoadBalance</t>
+  </si>
+  <si>
+    <t>Hystrix</t>
+  </si>
+  <si>
+    <t>Sentinel（流量哨兵）：熔断降级（服务器500：整合feign，fallback=Degradedxx.class,该类实现Feign接口，客户端页面改变）（微服务速度变慢：RT超过设置阈值，客户端页面改变），限流保护（生产）（sentinel控制台-限流规则：快速失败，预热【量大→屏蔽】，排队等待【第N个屏蔽等待一定时长】）</t>
+  </si>
+  <si>
+    <t>微服务调用</t>
+  </si>
+  <si>
+    <t>RestTemplate</t>
+  </si>
+  <si>
+    <t>feign/openfeign</t>
+  </si>
+  <si>
+    <t>Zuul</t>
+  </si>
+  <si>
+    <t>config</t>
+  </si>
+  <si>
+    <t>nacos</t>
+  </si>
+  <si>
+    <t>springMVC</t>
+  </si>
+  <si>
+    <t>@Resource的作用相当于@Autowired，只不过@Autowired按byType自动注入，而@Resource默认按 byName自动注入罢了</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @InitBinder
+    public void initListBinder(WebDataBinder binder)
+    {
+        binder.setAutoGrowCollectionLimit(1024);
+    }</t>
+  </si>
+  <si>
+    <t>controller取消自动绑定（如日期String传参转化为Date），注册类型绑定器进行参数绑定</t>
+  </si>
+  <si>
+    <t>springmvc默认只支持256个对象映射， binder.setAutoGrowCollectionLimit(1000)设置为1000个</t>
+  </si>
+  <si>
+    <t>Constants</t>
+  </si>
+  <si>
+    <t>单独写一个常量类Constants用来保存固定的常量，这些常量在代码调用过程中值又容易发生改变的等等情况，此时不必在代码中修改值，直接在该类中修改即可</t>
+  </si>
+  <si>
+    <t>枚举-组织常量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在JDK1.5 之前，在Java中定义常量都是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>public static final TYPE a;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> 这样的形式。有了枚举，你可以将有关联关系的常量组织起来，使代码更加易读、安全，并且还可以使用枚举提供的方法。</t>
     </r>
   </si>
@@ -2007,6 +3038,9 @@
   </si>
   <si>
     <t>ALL里面找前端路径代码controller位置</t>
+  </si>
+  <si>
+    <t>return "jsp位置"</t>
   </si>
   <si>
     <t>生成getting：</t>
@@ -2049,7 +3083,16 @@
     <t>直接点Java Line Breakpoints 下面断点定位</t>
   </si>
   <si>
+    <t>查看所有方法被引用：</t>
+  </si>
+  <si>
     <t>ctrl+alt+h</t>
+  </si>
+  <si>
+    <t>查看方法引用</t>
+  </si>
+  <si>
+    <t>ctrl+B/ctrl+鼠标左键</t>
   </si>
   <si>
     <t>查看类被引用：</t>
@@ -2113,27 +3156,18 @@
     <t>快速定位错误</t>
   </si>
   <si>
-    <t>订单列表：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单操作-清除跟踪号</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_role和t_department</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT role_id, role_name,department.department_name, department.department_id
-         FROM t_role
-         LEFT JOIN t_department department ON department.department_id = t_role.department_id</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
+    <t>Ctrl + Alt +O</t>
+  </si>
+  <si>
+    <t>消去不要的包</t>
+  </si>
+  <si>
+    <t>在某类中点击上面路径就可以在项目路径中定位</t>
+  </si>
+  <si>
+    <t>反撤销</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2143,98 +3177,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_user和t_role通过t_user_role中间表</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>users.user_id,</t>
-  </si>
-  <si>
-    <t>users.NAME,</t>
-  </si>
-  <si>
-    <t>department.department_id,</t>
-  </si>
-  <si>
-    <t>department.department_name,</t>
-  </si>
-  <si>
-    <t>role.role_id,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">role.role_name </t>
-  </si>
-  <si>
-    <t>FROM</t>
-  </si>
-  <si>
-    <t>t_user users</t>
-  </si>
-  <si>
-    <t>LEFT JOIN t_department department ON users.department_id = department.department_id</t>
-  </si>
-  <si>
-    <t>LEFT JOIN t_user_role user_role ON users.user_id = user_role.user_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LEFT JOIN t_role role ON user_role.role_id = role.role_id </t>
-  </si>
-  <si>
-    <t>判断表里面所有列名有某列名：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表，角色权限表，角色表</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT DISTINCT</t>
-  </si>
-  <si>
-    <t>role_per.role_id,</t>
-  </si>
-  <si>
-    <t>role.role_name,</t>
-  </si>
-  <si>
-    <t>per.permission_id,</t>
-  </si>
-  <si>
-    <t>per.permission_name,</t>
-  </si>
-  <si>
-    <t>per.permission_code</t>
-  </si>
-  <si>
-    <t>t_role_permission role_per,</t>
-  </si>
-  <si>
-    <t>t_permission per ,</t>
-  </si>
-  <si>
-    <t>t_role role</t>
-  </si>
-  <si>
-    <t>WHERE</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> role_per.permission_code = per.permission_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> and role.role_id = role_per.role_id</t>
-  </si>
-  <si>
-    <t>bessky_pss_system</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%@ page contentType="text/html;charset=UTF-8" language="java" %</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>j</t>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -2245,60 +3188,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>sp指令</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>d123456#</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>dgh@666666</t>
-  </si>
-  <si>
-    <t>017509</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ctrl + Alt +O</t>
-  </si>
-  <si>
-    <t>消去不要的包</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">dingguanghui </t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>【修改原因】#1009427</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>【修改内容】bessky-erp-logistics里面f-m及相关引用物流申请跟踪号调试模式优化</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>【提出人】张强</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>【开发人】一组#丁光辉</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>【检视人】自检 2021.01.15 10:45</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t</t>
-    </r>
+      <t>trl+shift+Z</t>
+    </r>
+  </si>
+  <si>
+    <t>查找字段全局出现</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2308,13 +3204,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_logistic_company</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>t_</t>
+      <t>ctr</t>
     </r>
     <r>
       <rPr>
@@ -2325,40 +3215,27 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>packet_transport_limit</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>bessky_pss_system</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库：bessky_pss</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库：bessky_pss</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>t_logistics_company</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库：bessky_logistic</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT * FROM (select distinct column_name from information_schema.columns where table_name='t_user') X WHERE X.column_name  like "%id"</t>
-  </si>
-  <si>
-    <r>
-      <t>select "role_id" in (select distinct column_name from information_schema.columns where table_name='t_user'</t>
+      <t>l+shift+F</t>
+    </r>
+  </si>
+  <si>
+    <t>可以标记*xml找到sql语句</t>
+  </si>
+  <si>
+    <t>前端debug</t>
+  </si>
+  <si>
+    <t>f12-调试器找对应js打断点</t>
+  </si>
+  <si>
+    <t>code-smartFile--&gt;Settings--&gt;Editor--&gt;Code Style--&gt;Java/勾上smart tabs</t>
+  </si>
+  <si>
+    <t>使用快捷键，ctrl+Shift+Alt+L，将会显示格式化范围</t>
+  </si>
+  <si>
+    <r>
+      <t>tortoise</t>
     </r>
     <r>
       <rPr>
@@ -2369,25 +3246,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) x;</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>distinct 不仅去重，默认升序</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>information_schema.columns信息库之所有数据库信息</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>like</t>
+      <t xml:space="preserve"> svn:</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
     </r>
     <r>
       <rPr>
@@ -2398,17 +3263,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> "%xx%"</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询所有数据库里面表名包含logistic的重复数据，按照table_name排序</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>select  * from (select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns where table_name like "%logistic</t>
+      <t>heck out下载代码</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交代码（commit）前update</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制修改过的代码类粘贴到文件夹对应位置替换</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>忽视文件</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>setting-Editor-File Types</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ignore</t>
     </r>
     <r>
       <rPr>
@@ -2419,7 +3296,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>\_</t>
+      <t>n files and folders后面添加*.iml;*.idea;*.gitignore;*.sh;*.classpath;*.project;*.settings;target;logs;</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
     </r>
     <r>
       <rPr>
@@ -2430,7 +3313,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>%") as y where y.table_name in (SELECT x.table_name FROM (select distinct table_schema, table_name,column_name,ordinal_position,data_type,column_comment from information_schema.columns where table_name like "%logistic</t>
+      <t>.xx 为忽视该后缀文件</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/xx</t>
     </r>
     <r>
       <rPr>
@@ -2441,7 +3330,316 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>\_</t>
+      <t>/  过滤文件夹</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx.java  过滤文件</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取前端参数：request.getParameter("userName")</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象（Java代码）                 描述</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转页面：response.sendRedirect("success.jsp")</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">response   HttpServletResponse </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口的实例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加新的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cookies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，设置响应头，设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>状态码</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>每隔几秒刷新：setIntHeader（“Refresh</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>”，int)</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除路径多余字段：</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>session生效</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.getSession().setAttribute("xx",xx)设置session共享数据</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">request    HttpServletRequest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口的实例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cookies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get/post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传参，获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需引入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet-api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>session</t>
     </r>
     <r>
       <rPr>
@@ -2452,25 +3650,29 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>%") as x  GROUP BY x.table_name  having count(x.table_name) &gt;1) ORDER BY y.table_name,y.table_schema</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>有问题。。</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目开始：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换Tomcat地址</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>注释掉bessky</t>
+      <t>.setAtrribute("xx",xx)</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>session默认的过期时间是30分钟</t>
+  </si>
+  <si>
+    <t>自动导包</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">file| Editor | General | Auto Import。勾选上 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>Add unambiguous imports on the fly</t>
     </r>
     <r>
       <rPr>
@@ -2481,934 +3683,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>_pss_web/WEB-INF/web.xml-fliter</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>替换AuthorizationServiceImpl</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>在某类中点击上面路径就可以在项目路径中定位</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议采购数：库存管理-建议采购</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议采购数 ＝ 平均日销量 * (采购周期 + 备货天数 + 采购频率) + 待发数量 + 缺货数量 － 库存 － 采购中 - 未确定入库</t>
-  </si>
-  <si>
-    <t>预计日销量=7天平均销量×50%+15天平均销量×30%+30天平均销量×20%</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>反撤销</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="1"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trl+shift+Z</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击上图SKU-开发环境代码有供应商信息</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意：生成采购单之前，浏览缺货数量和建议采购数量，高于，要去“缺货未发”页面查看；低于，要去“大浪仓库”页面查看</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时需要点刷新，保证最新数据</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF808080"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>生成采购单</t>
-    </r>
-  </si>
-  <si>
-    <t>代码生成：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>sqler</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.xml里面是数据库字段与实体类映射</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>bean里面xxApplication改成xx ,然后代码格式化</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看所有方法被引用：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看方法引用</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl+B/ctrl+鼠标左键</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>return "jsp位置"</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.99.143:59095/pss</t>
-  </si>
-  <si>
-    <t>海外仓系统（主做海外仓的账号，还是有部分少量发本地仓订单）</t>
-  </si>
-  <si>
-    <t>海外仓系统外网地址（供销售、仓库使用）</t>
-  </si>
-  <si>
-    <t>http://hwerp.ser.ltd:59095/pss</t>
-  </si>
-  <si>
-    <t>PurchaseSuggestController/PurchaseOrderServiceImpl-generatePurchaseOrders(没有供应商会报错）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>JSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>隐式</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>内置）对象是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>容器为每个页面提供的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>对象，开发者可以直接使用它们而不用显式声明。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>隐式对象也被称为预定义变量。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>out        JspWriter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类的实例，用于把结果输出至网页上</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象                 描述</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>"响应头"：”Refresh“</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>session     HttpSession</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类的实例，跟踪在各个客户端请求间的会话</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>application    ServletContext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>类的实例，与应用上下文有关</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>config        ServletConfig</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类的实例，访问</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Servlet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>或者</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>引擎的初始化参数，比如文件路径等</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>pageContext    PageContext</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类的实例，提供对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页面所有对象以及命名空间的访问，传给</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>JSP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页面的指令信息，包括缓存信息，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>ErrorPage URL,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>页面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>scope</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；提供方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>removeAttribute()</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">page        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类似于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类中的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关键字</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Exception   Exception</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类的对象，代表发生错误的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>JS</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>getHeader</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP头信息：getHeaderNames</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">response   HttpServletResponse </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口的实例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>添加新的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>cookies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>setIntHeader</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（“响应头”，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>int)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，设置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>状态码</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>设置HTTP状态码：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sendError(407, "Need authentication!!!" )</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">request    HttpServletRequest </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口的实例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>cookies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>传参</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需引入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>javax.servlet-api</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>依赖</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库锁单</t>
-  </si>
-  <si>
-    <t>仓库配货</t>
-  </si>
-  <si>
-    <t>仓库移单</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>：移动到按货打单，移动到按筐打单，多品打单</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>打印拣货单</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>：收发货管理-按货扫描</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库打单/核对</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>出库扫描</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>单件单品-货</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>多件单品/多品-品</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅道</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单检查→</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>→待销售处理/待合并</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统配置-订单自动规则</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>→等待打单（申请跟踪号和修改物流方式）</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>单件多品（购买数量大于1）-筐</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个：收发货管理-快递发货流程-快递按货打单</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>批次：多品打单流程-多品打单批次</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品状态由“按货打单”变成“等待发货”</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>出货范围超过了50%到200%将不能出库</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>入库：</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>库存管理-建议采购</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ERP-采购单列表-确认采购，empty输入快递编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>收发货管理-回货扫描</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>|-快递单扫描</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>|-QC扫描</t>
-    <phoneticPr fontId="41" type="noConversion"/>
-  </si>
-  <si>
-    <t>|-入库扫描</t>
-    <phoneticPr fontId="41" type="noConversion"/>
+      </rPr>
+      <t>Optimize imports on the fly (for current project)</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="48">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3433,6 +3726,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -3441,39 +3735,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -3536,6 +3797,12 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -3576,6 +3843,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -3591,13 +3875,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -3641,11 +3924,38 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="9.8000000000000007"/>
       <color rgb="FF808080"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Courier New"/>
       <family val="3"/>
     </font>
     <font>
@@ -3658,13 +3968,6 @@
       <sz val="9.8000000000000007"/>
       <name val="Consolas"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -3696,81 +3999,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF808080"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="2" tint="-0.499984740745262"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF808080"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3780,6 +4016,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3929,27 +4171,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -3959,13 +4204,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -3983,7 +4225,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -3992,16 +4234,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -4010,85 +4252,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4101,9 +4328,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4201,13 +4425,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4230,7 +4454,7 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
           <a:off x="1476375" y="8905875"/>
           <a:ext cx="5448300" cy="3390900"/>
@@ -4248,6 +4472,184 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>372528</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>28667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="12363450"/>
+          <a:ext cx="7544853" cy="657317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>477318</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>57480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="13201650"/>
+          <a:ext cx="7649643" cy="2362530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="14306550"/>
+          <a:ext cx="1276350" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>上传</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>600520</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6124575" y="8696325"/>
+          <a:ext cx="3191320" cy="895475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4280,8 +4682,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1514475" y="9791700"/>
-          <a:ext cx="5087051" cy="1914792"/>
+          <a:off x="3057525" y="571500"/>
+          <a:ext cx="5086985" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4310,7 +4712,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4162425" y="11049000"/>
+          <a:off x="5705475" y="1828800"/>
           <a:ext cx="1009650" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4375,15 +4777,17 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:srcRect t="6321"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2276475" y="3714750"/>
-          <a:ext cx="4648849" cy="1552806"/>
+          <a:off x="3067050" y="3714750"/>
+          <a:ext cx="4715510" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4420,8 +4824,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="8591550"/>
-          <a:ext cx="6868484" cy="1629002"/>
+          <a:off x="3086100" y="8591550"/>
+          <a:ext cx="6953885" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4450,15 +4854,17 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect l="22089" t="12902" b="-1"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20612099" y="2543175"/>
-          <a:ext cx="638289" cy="514431"/>
+          <a:off x="20849590" y="2543175"/>
+          <a:ext cx="638810" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4495,8 +4901,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="13620750"/>
-          <a:ext cx="5792008" cy="1047896"/>
+          <a:off x="3086100" y="13620750"/>
+          <a:ext cx="5858510" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4533,8 +4939,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2952750" y="16506825"/>
-          <a:ext cx="12403281" cy="2229161"/>
+          <a:off x="2962275" y="16506825"/>
+          <a:ext cx="12564745" cy="2228850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4571,8 +4977,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3067050" y="19488150"/>
-          <a:ext cx="2705478" cy="628738"/>
+          <a:off x="3086100" y="19488150"/>
+          <a:ext cx="2733675" cy="628650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4609,8 +5015,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3095625" y="15401925"/>
-          <a:ext cx="7783011" cy="685896"/>
+          <a:off x="3114675" y="15401925"/>
+          <a:ext cx="7877810" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4647,8 +5053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19850100" y="2028825"/>
-          <a:ext cx="1390844" cy="1295581"/>
+          <a:off x="20850225" y="4124325"/>
+          <a:ext cx="1400175" cy="1295400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4685,8 +5091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20564475" y="613899"/>
-          <a:ext cx="5640002" cy="1472390"/>
+          <a:off x="20793075" y="613410"/>
+          <a:ext cx="5715635" cy="1472565"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4715,8 +5121,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20735925" y="723900"/>
-          <a:ext cx="781050" cy="685800"/>
+          <a:off x="20974050" y="723900"/>
+          <a:ext cx="790575" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6005,8 +6411,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295769" y="20796250"/>
-          <a:ext cx="1111250" cy="378558"/>
+          <a:off x="2299970" y="20645755"/>
+          <a:ext cx="1115695" cy="376555"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6397,7 +6803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2124075" y="3590925"/>
-          <a:ext cx="6087314" cy="5582429"/>
+          <a:ext cx="6087110" cy="5582285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6434,8 +6840,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3086100" y="11315700"/>
-          <a:ext cx="3991532" cy="2591162"/>
+          <a:off x="2314575" y="11315700"/>
+          <a:ext cx="3990975" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6464,7 +6870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028950" y="12858750"/>
+          <a:off x="2257425" y="12858750"/>
           <a:ext cx="609600" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6524,8 +6930,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848100" y="12944474"/>
-          <a:ext cx="4810125" cy="800101"/>
+          <a:off x="3076575" y="12943840"/>
+          <a:ext cx="2514600" cy="800735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6604,9 +7010,9 @@
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="10220325" y="504825"/>
+          <a:off x="7924800" y="504825"/>
           <a:ext cx="2476500" cy="914400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6649,8 +7055,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057399" y="15356334"/>
-          <a:ext cx="12994415" cy="1179275"/>
+          <a:off x="2075815" y="15356205"/>
+          <a:ext cx="12994640" cy="1179195"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6679,8 +7085,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12725400" y="15306675"/>
-          <a:ext cx="495300" cy="1162050"/>
+          <a:off x="12868275" y="15306675"/>
+          <a:ext cx="504825" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6729,8 +7135,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>411452</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>713</xdr:rowOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>210263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6739,15 +7145,17 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:srcRect l="10338"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2266950" y="17526000"/>
-          <a:ext cx="12060527" cy="5106113"/>
+          <a:off x="2286000" y="18154650"/>
+          <a:ext cx="12202795" cy="5106035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6778,8 +7186,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1790701" y="20469224"/>
-          <a:ext cx="1876435" cy="452438"/>
+          <a:off x="1809750" y="20887690"/>
+          <a:ext cx="2085975" cy="452755"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -6825,8 +7233,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="114299" y="20364449"/>
-          <a:ext cx="1676401" cy="1114425"/>
+          <a:off x="113665" y="20782915"/>
+          <a:ext cx="1696085" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6904,8 +7312,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2286000" y="24726900"/>
-          <a:ext cx="13542857" cy="5419048"/>
+          <a:off x="2314575" y="23888700"/>
+          <a:ext cx="13695045" cy="5418455"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6934,8 +7342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657975" y="26793826"/>
-          <a:ext cx="866776" cy="1533524"/>
+          <a:off x="6924675" y="27212925"/>
+          <a:ext cx="876300" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7002,8 +7410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2338091" y="29670375"/>
-          <a:ext cx="5431609" cy="2219324"/>
+          <a:off x="2366645" y="34490025"/>
+          <a:ext cx="5478780" cy="2218690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7136,7 +7544,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1781175" y="7686675"/>
-          <a:ext cx="4972744" cy="438211"/>
+          <a:ext cx="4972685" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7267,6 +7675,44 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324868</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66832</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3057525" y="9210675"/>
+          <a:ext cx="7296785" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7530,10 +7976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P42"/>
+  <dimension ref="C2:P66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L58" sqref="B58:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -7542,7 +7988,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:16">
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="33" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7565,7 +8011,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="K4" t="s">
         <v>1</v>
@@ -7573,8 +8019,8 @@
       <c r="L4">
         <v>2851810174</v>
       </c>
-      <c r="N4" s="39" t="s">
-        <v>6</v>
+      <c r="N4" s="45" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="3:16">
@@ -7582,110 +8028,114 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="3:16">
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="44" t="s">
-        <v>283</v>
+      <c r="P6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:16">
       <c r="F7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O7" t="s">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="3:16">
       <c r="K9" t="s">
         <v>1</v>
       </c>
-      <c r="L9" s="45" t="s">
-        <v>279</v>
+      <c r="L9" s="30" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:16">
       <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="44" t="s">
-        <v>278</v>
+      <c r="L10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="3:16">
       <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="49" t="s">
-        <v>328</v>
+        <v>18</v>
+      </c>
+      <c r="K13" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:16">
-      <c r="N14" s="49" t="s">
-        <v>327</v>
+      <c r="N14" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="3:16">
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="K15" t="s">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:16">
-      <c r="C16" s="37" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="K16" t="s">
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="N16" s="49" t="s">
-        <v>329</v>
+        <v>24</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="49" t="s">
-        <v>330</v>
+      <c r="C17" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="37" t="s">
-        <v>20</v>
+      <c r="C18" s="43" t="s">
+        <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -7693,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -7701,7 +8151,7 @@
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -7709,18 +8159,18 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="3:14">
-      <c r="C23" s="30" t="s">
-        <v>24</v>
+      <c r="C23" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="K23" t="s">
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -7728,7 +8178,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="3:14">
@@ -7740,80 +8190,120 @@
       </c>
     </row>
     <row r="29" spans="3:14">
-      <c r="C29" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>28</v>
+      <c r="C29" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:14">
       <c r="D30" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="38" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="3:14">
-      <c r="F31" s="38" t="s">
-        <v>32</v>
+      <c r="F31" s="44" t="s">
+        <v>40</v>
       </c>
       <c r="I31" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="F32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="3:10">
-      <c r="G33" s="9" t="s">
-        <v>35</v>
+      <c r="G33" s="10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="3:10">
-      <c r="G34" s="9" t="s">
-        <v>36</v>
+      <c r="G34" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:10">
       <c r="D35" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="D38" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
-      </c>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10">
+      <c r="D40" s="46" t="s">
+        <v>391</v>
+      </c>
+      <c r="F40" s="46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="D41" s="46"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="3:10">
-      <c r="C42" s="30" t="s">
-        <v>358</v>
-      </c>
+      <c r="D42" s="46"/>
+      <c r="F42" s="46"/>
+    </row>
+    <row r="43" spans="3:10">
+      <c r="D43" s="46" t="s">
+        <v>394</v>
+      </c>
+      <c r="F43" s="46"/>
+    </row>
+    <row r="44" spans="3:10">
+      <c r="D44" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="F44" s="46"/>
+    </row>
+    <row r="45" spans="3:10">
+      <c r="D45" s="46"/>
+      <c r="F45" s="46"/>
+    </row>
+    <row r="46" spans="3:10">
+      <c r="D46" s="46"/>
+      <c r="F46" s="46"/>
+    </row>
+    <row r="48" spans="3:10">
+      <c r="C48" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66" s="46"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="K13" r:id="rId2"/>
     <hyperlink ref="N4" r:id="rId3"/>
+    <hyperlink ref="D43" r:id="rId4" display="https://www.cnblogs.com/pythoncd/articles/12294695.html"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId5"/>
 </worksheet>
 </file>
@@ -7822,244 +8312,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AN92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X7" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:40">
-      <c r="AA1" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="AG1" s="48" t="s">
-        <v>300</v>
+      <c r="AA1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="41" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:40">
-      <c r="D2" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA2" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG2" s="47"/>
-      <c r="AN2" s="46" t="s">
-        <v>302</v>
+      <c r="D2" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="42"/>
+      <c r="AN2" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:40">
-      <c r="AA11" s="40" t="s">
-        <v>260</v>
+      <c r="AA11" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:40">
-      <c r="AA12" s="46" t="s">
-        <v>298</v>
+      <c r="AA12" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="2:40">
-      <c r="B15" s="42" t="s">
-        <v>292</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>246</v>
+      <c r="B15" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:40">
-      <c r="B16" s="44" t="s">
-        <v>293</v>
+      <c r="B16" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="2:28">
-      <c r="B17" s="44"/>
-      <c r="D17" s="41" t="s">
-        <v>247</v>
+      <c r="B17" s="2"/>
+      <c r="D17" s="29" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:28">
       <c r="AA19" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:28">
-      <c r="B27" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40" t="s">
-        <v>248</v>
+      <c r="B27" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="2:28">
-      <c r="D29" s="44" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA29" s="46" t="s">
-        <v>303</v>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:28">
       <c r="E30" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA30" s="46" t="s">
-        <v>304</v>
+        <v>66</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:28">
       <c r="E31" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB31" s="46" t="s">
-        <v>305</v>
+        <v>68</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:28">
       <c r="E32" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="4:5">
       <c r="E33" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="4:5">
       <c r="E34" t="s">
-        <v>253</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="4:5">
       <c r="E35" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="4:5">
       <c r="D36" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="4:5">
       <c r="E37" t="s">
-        <v>256</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="4:5">
       <c r="E38" t="s">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="4:5">
       <c r="E39" t="s">
-        <v>258</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="4:5">
       <c r="E40" t="s">
-        <v>259</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="42" t="s">
-        <v>274</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40" t="s">
-        <v>261</v>
+      <c r="B51" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="D52" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="E53" t="s">
-        <v>263</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="E54" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="E55" t="s">
-        <v>265</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="E56" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="E57" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="D58" t="s">
-        <v>255</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="E59" t="s">
-        <v>268</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="E60" t="s">
-        <v>269</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="E61" t="s">
-        <v>270</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="D62" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="D63" t="s">
-        <v>272</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="D64" t="s">
-        <v>273</v>
+        <v>91</v>
       </c>
     </row>
     <row r="73" spans="2:4">
-      <c r="B73" s="42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D73" s="44" t="s">
-        <v>289</v>
+      <c r="B73" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="2:4">
-      <c r="D78" s="44" t="s">
-        <v>290</v>
+      <c r="D78" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="2:4">
-      <c r="B92" s="44" t="s">
-        <v>294</v>
-      </c>
-      <c r="D92" s="44" t="s">
-        <v>295</v>
+      <c r="B92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8067,281 +8557,281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA123"/>
+  <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A103" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
-    <col min="5" max="5" width="8.88671875" style="28"/>
-    <col min="12" max="12" width="8.88671875" style="29"/>
+    <col min="5" max="5" width="8.88671875" style="31"/>
+    <col min="12" max="12" width="8.88671875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="E5" s="28" t="s">
-        <v>45</v>
+      <c r="E5" s="31" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:20">
-      <c r="E6" s="28" t="s">
-        <v>46</v>
+      <c r="E6" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="I7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>48</v>
+        <v>100</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:20">
-      <c r="E10" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>50</v>
+      <c r="E10" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="E11" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="P11" s="30" t="s">
-        <v>53</v>
+      <c r="E11" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:20">
-      <c r="T12" s="29" t="s">
-        <v>55</v>
+      <c r="T12" s="32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:20">
-      <c r="E15" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>57</v>
+      <c r="E15" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="P15" t="s">
-        <v>58</v>
-      </c>
-      <c r="S15" s="32" t="s">
-        <v>59</v>
+        <v>111</v>
+      </c>
+      <c r="S15" s="35" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="5:27">
-      <c r="I17" s="31" t="s">
-        <v>60</v>
+      <c r="I17" s="34" t="s">
+        <v>113</v>
       </c>
       <c r="P17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>62</v>
+        <v>114</v>
+      </c>
+      <c r="S17" s="35" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="5:27">
-      <c r="E20" s="28" t="s">
-        <v>51</v>
+      <c r="E20" s="31" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="5:27">
-      <c r="I21" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="M21" s="30" t="s">
-        <v>64</v>
+      <c r="I21" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="5:27">
-      <c r="P22" s="30" t="s">
-        <v>65</v>
+      <c r="P22" s="33" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="5:27">
-      <c r="I23" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="35"/>
+      <c r="I23" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="38"/>
       <c r="T23" t="s">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="V23" t="s">
-        <v>69</v>
-      </c>
-      <c r="X23" s="29" t="s">
-        <v>70</v>
+        <v>122</v>
+      </c>
+      <c r="X23" s="32" t="s">
+        <v>123</v>
       </c>
       <c r="AA23" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="5:27">
-      <c r="Q24" s="2" t="s">
-        <v>72</v>
+      <c r="Q24" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="5:27">
       <c r="Q25" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="5:27">
       <c r="P26" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="5:27">
-      <c r="E27" s="28" t="s">
-        <v>75</v>
+      <c r="E27" s="31" t="s">
+        <v>128</v>
       </c>
       <c r="Q27" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="5:27">
-      <c r="E28" s="28" t="s">
-        <v>56</v>
+      <c r="E28" s="31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="5:27">
       <c r="H29" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="5:12">
-      <c r="E35" s="28" t="s">
-        <v>79</v>
+      <c r="E35" s="31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="5:12">
-      <c r="E36" s="28" t="s">
-        <v>80</v>
+      <c r="E36" s="31" t="s">
+        <v>133</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="I36" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="5:12">
       <c r="H38" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="5:12">
       <c r="I41" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="5:12">
       <c r="F44" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
       <c r="H44" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
-      </c>
-      <c r="L44" s="32" t="s">
-        <v>89</v>
+        <v>141</v>
+      </c>
+      <c r="L44" s="35" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="5:12">
-      <c r="L45" s="32"/>
+      <c r="L45" s="35"/>
     </row>
     <row r="46" spans="5:12">
-      <c r="E46" s="28" t="s">
-        <v>75</v>
+      <c r="E46" s="31" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="5:12">
-      <c r="E47" s="28" t="s">
-        <v>90</v>
+      <c r="E47" s="31" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="F49" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="30" t="s">
-        <v>92</v>
+        <v>144</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="J49" t="s">
-        <v>93</v>
-      </c>
-      <c r="L49" s="29" t="s">
-        <v>94</v>
+        <v>146</v>
+      </c>
+      <c r="L49" s="32" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="L50" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="O50" s="32" t="s">
-        <v>96</v>
+      <c r="L50" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="O50" s="35" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="H52" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
-      </c>
-      <c r="M52" s="32" t="s">
-        <v>99</v>
+        <v>151</v>
+      </c>
+      <c r="M52" s="35" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="J54" t="s">
-        <v>100</v>
-      </c>
-      <c r="L54" s="32" t="s">
-        <v>101</v>
+        <v>153</v>
+      </c>
+      <c r="L54" s="35" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="J56" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="K60" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L60" s="33" t="s">
-        <v>104</v>
+        <v>156</v>
+      </c>
+      <c r="L60" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
@@ -8349,18 +8839,18 @@
     </row>
     <row r="61" spans="1:15">
       <c r="K61" s="16"/>
-      <c r="L61" s="34" t="s">
-        <v>105</v>
+      <c r="L61" s="37" t="s">
+        <v>158</v>
       </c>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
       <c r="O61" s="19"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="28"/>
+      <c r="A62" s="31"/>
       <c r="K62" s="16"/>
-      <c r="L62" s="34" t="s">
-        <v>106</v>
+      <c r="L62" s="37" t="s">
+        <v>159</v>
       </c>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
@@ -8368,8 +8858,8 @@
     </row>
     <row r="63" spans="1:15">
       <c r="K63" s="16"/>
-      <c r="L63" s="34" t="s">
-        <v>107</v>
+      <c r="L63" s="37" t="s">
+        <v>160</v>
       </c>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
@@ -8377,8 +8867,8 @@
     </row>
     <row r="64" spans="1:15">
       <c r="K64" s="16"/>
-      <c r="L64" s="31" t="s">
-        <v>108</v>
+      <c r="L64" s="34" t="s">
+        <v>161</v>
       </c>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
@@ -8386,8 +8876,8 @@
     </row>
     <row r="65" spans="6:15">
       <c r="K65" s="16"/>
-      <c r="L65" s="31" t="s">
-        <v>109</v>
+      <c r="L65" s="34" t="s">
+        <v>162</v>
       </c>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
@@ -8395,10 +8885,10 @@
     </row>
     <row r="66" spans="6:15">
       <c r="K66" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L66" s="36" t="s">
-        <v>111</v>
+        <v>163</v>
+      </c>
+      <c r="L66" s="39" t="s">
+        <v>164</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
@@ -8406,10 +8896,10 @@
     </row>
     <row r="69" spans="6:15">
       <c r="K69" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L69" s="33" t="s">
-        <v>112</v>
+        <v>156</v>
+      </c>
+      <c r="L69" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
@@ -8417,21 +8907,21 @@
     </row>
     <row r="70" spans="6:15">
       <c r="K70" s="16"/>
-      <c r="L70" s="31" t="s">
-        <v>113</v>
+      <c r="L70" s="34" t="s">
+        <v>166</v>
       </c>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
       <c r="O70" s="19" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="6:15">
       <c r="K71" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="L71" s="34" t="s">
-        <v>116</v>
+        <v>168</v>
+      </c>
+      <c r="L71" s="37" t="s">
+        <v>169</v>
       </c>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
@@ -8439,43 +8929,43 @@
     </row>
     <row r="72" spans="6:15">
       <c r="K72" s="16"/>
-      <c r="L72" s="34"/>
+      <c r="L72" s="37"/>
       <c r="M72" s="18"/>
       <c r="N72" s="18"/>
       <c r="O72" s="19"/>
     </row>
     <row r="73" spans="6:15">
       <c r="K73" s="16"/>
-      <c r="L73" s="31"/>
+      <c r="L73" s="34"/>
       <c r="M73" s="18"/>
       <c r="N73" s="18"/>
       <c r="O73" s="19"/>
     </row>
     <row r="74" spans="6:15">
       <c r="K74" s="16"/>
-      <c r="L74" s="31"/>
+      <c r="L74" s="34"/>
       <c r="M74" s="18"/>
       <c r="N74" s="18"/>
       <c r="O74" s="19"/>
     </row>
     <row r="75" spans="6:15">
       <c r="K75" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L75" s="36"/>
+        <v>163</v>
+      </c>
+      <c r="L75" s="39"/>
       <c r="M75" s="24"/>
       <c r="N75" s="24"/>
       <c r="O75" s="25"/>
     </row>
     <row r="78" spans="6:15">
-      <c r="F78" s="40"/>
+      <c r="F78" s="2"/>
     </row>
     <row r="83" spans="11:16">
       <c r="K83" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L83" s="33" t="s">
-        <v>117</v>
+        <v>156</v>
+      </c>
+      <c r="L83" s="36" t="s">
+        <v>170</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
@@ -8483,44 +8973,44 @@
     </row>
     <row r="84" spans="11:16">
       <c r="K84" s="16"/>
-      <c r="L84" s="31"/>
+      <c r="L84" s="34"/>
       <c r="M84" s="18"/>
       <c r="N84" s="18"/>
       <c r="O84" s="19"/>
     </row>
     <row r="85" spans="11:16">
       <c r="K85" s="16"/>
-      <c r="L85" s="34"/>
+      <c r="L85" s="37"/>
       <c r="M85" s="18"/>
       <c r="N85" s="18"/>
       <c r="O85" s="19"/>
     </row>
     <row r="86" spans="11:16">
       <c r="K86" s="16"/>
-      <c r="L86" s="34"/>
+      <c r="L86" s="37"/>
       <c r="M86" s="18"/>
       <c r="N86" s="18"/>
       <c r="O86" s="19"/>
     </row>
     <row r="87" spans="11:16">
       <c r="K87" s="16"/>
-      <c r="L87" s="31"/>
+      <c r="L87" s="34"/>
       <c r="M87" s="18"/>
       <c r="N87" s="18"/>
       <c r="O87" s="19"/>
     </row>
     <row r="88" spans="11:16">
       <c r="K88" s="16"/>
-      <c r="L88" s="31"/>
+      <c r="L88" s="34"/>
       <c r="M88" s="18"/>
       <c r="N88" s="18"/>
       <c r="O88" s="19"/>
     </row>
     <row r="89" spans="11:16">
       <c r="K89" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="L89" s="36"/>
+        <v>163</v>
+      </c>
+      <c r="L89" s="39"/>
       <c r="M89" s="24"/>
       <c r="N89" s="24"/>
       <c r="O89" s="25"/>
@@ -8530,9 +9020,9 @@
     </row>
     <row r="96" spans="11:16">
       <c r="K96" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="L96" s="33"/>
+        <v>156</v>
+      </c>
+      <c r="L96" s="36"/>
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
@@ -8544,11 +9034,11 @@
       <c r="N97" s="18"/>
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
-      <c r="T97" s="9"/>
+      <c r="T97" s="10"/>
     </row>
     <row r="98" spans="1:20">
       <c r="K98" s="16"/>
-      <c r="L98" s="34"/>
+      <c r="L98" s="37"/>
       <c r="M98" s="18"/>
       <c r="N98" s="18"/>
       <c r="O98" s="18"/>
@@ -8556,7 +9046,7 @@
     </row>
     <row r="99" spans="1:20">
       <c r="K99" s="16"/>
-      <c r="L99" s="34"/>
+      <c r="L99" s="37"/>
       <c r="M99" s="18"/>
       <c r="N99" s="18"/>
       <c r="O99" s="18"/>
@@ -8564,7 +9054,7 @@
     </row>
     <row r="100" spans="1:20">
       <c r="K100" s="16"/>
-      <c r="L100" s="31"/>
+      <c r="L100" s="34"/>
       <c r="M100" s="18"/>
       <c r="N100" s="18"/>
       <c r="O100" s="18"/>
@@ -8572,9 +9062,9 @@
     </row>
     <row r="101" spans="1:20">
       <c r="K101" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L101" s="31"/>
+        <v>163</v>
+      </c>
+      <c r="L101" s="34"/>
       <c r="M101" s="18"/>
       <c r="N101" s="18"/>
       <c r="O101" s="18"/>
@@ -8582,7 +9072,7 @@
     </row>
     <row r="102" spans="1:20">
       <c r="K102" s="18"/>
-      <c r="L102" s="34"/>
+      <c r="L102" s="37"/>
       <c r="M102" s="18"/>
       <c r="N102" s="18"/>
       <c r="O102" s="18"/>
@@ -8596,77 +9086,130 @@
     </row>
     <row r="105" spans="1:20">
       <c r="K105" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="P105" s="18"/>
     </row>
     <row r="107" spans="1:20">
-      <c r="A107" s="44" t="s">
-        <v>282</v>
+      <c r="A107" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:20">
-      <c r="B108" s="44" t="s">
-        <v>284</v>
+      <c r="B108" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:20">
-      <c r="B109" s="44" t="s">
-        <v>285</v>
+      <c r="B109" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:20">
-      <c r="B110" s="44" t="s">
-        <v>286</v>
+      <c r="B110" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:20">
-      <c r="B111" s="44" t="s">
-        <v>287</v>
+      <c r="B111" s="2" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:20">
-      <c r="B112" s="44" t="s">
-        <v>288</v>
+      <c r="B112" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="49" t="s">
-        <v>306</v>
+      <c r="A116" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="B117" s="49" t="s">
-        <v>307</v>
+      <c r="B117" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="B118" s="49" t="s">
-        <v>309</v>
+      <c r="B118" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="B119" s="49" t="s">
-        <v>308</v>
+      <c r="B119" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="49" t="s">
-        <v>320</v>
+      <c r="A121" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="B122" s="49" t="s">
-        <v>321</v>
+      <c r="B122" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="B123" s="49" t="s">
-        <v>322</v>
-      </c>
+      <c r="B123" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="46" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="B126" s="46" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="B127" s="46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="B128" s="46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="2:6">
+      <c r="B130" s="46" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="131" spans="2:6">
+      <c r="B131" s="46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="2:6">
+      <c r="C132" s="46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="133" spans="2:6">
+      <c r="D133" s="46" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6">
+      <c r="D134" s="47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6">
+      <c r="D135" s="46" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6">
+      <c r="F142" s="46"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8677,13 +9220,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8693,18 +9236,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:K183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B119" workbookViewId="0">
-      <selection activeCell="G144" sqref="G144"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
       <c r="D3" s="13" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -8714,7 +9257,7 @@
     <row r="4" spans="3:9">
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -8723,7 +9266,7 @@
     <row r="5" spans="3:9">
       <c r="D5" s="16"/>
       <c r="E5" s="20" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -8732,7 +9275,7 @@
     <row r="6" spans="3:9">
       <c r="D6" s="16"/>
       <c r="E6" s="21" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -8741,7 +9284,7 @@
     <row r="7" spans="3:9">
       <c r="D7" s="16"/>
       <c r="E7" s="20" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -8750,7 +9293,7 @@
     <row r="8" spans="3:9">
       <c r="D8" s="16"/>
       <c r="E8" s="21" t="s">
-        <v>124</v>
+        <v>190</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -8759,7 +9302,7 @@
     <row r="9" spans="3:9">
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -8768,7 +9311,7 @@
     <row r="10" spans="3:9">
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -8786,7 +9329,7 @@
     <row r="12" spans="3:9">
       <c r="C12" s="18"/>
       <c r="D12" s="13" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -8797,7 +9340,7 @@
     <row r="13" spans="3:9">
       <c r="C13" s="18"/>
       <c r="D13" s="26" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -8808,7 +9351,7 @@
     <row r="14" spans="3:9">
       <c r="C14" s="18"/>
       <c r="D14" s="27" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -8820,7 +9363,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="16"/>
       <c r="E15" s="18" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -8865,186 +9408,186 @@
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>131</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>132</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="4:4">
-      <c r="D53" s="40" t="s">
-        <v>244</v>
+      <c r="D53" s="2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="3:4">
-      <c r="D68" s="40" t="s">
-        <v>245</v>
+      <c r="D68" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="3:4">
-      <c r="D69" s="40"/>
+      <c r="D69" s="2"/>
     </row>
     <row r="70" spans="3:4">
-      <c r="D70" s="40"/>
+      <c r="D70" s="2"/>
     </row>
     <row r="71" spans="3:4">
-      <c r="D71" s="51" t="s">
-        <v>368</v>
+      <c r="D71" s="2" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="72" spans="3:4">
-      <c r="D72" s="51" t="s">
-        <v>369</v>
+      <c r="D72" s="2" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73">
         <v>1</v>
       </c>
-      <c r="D73" s="49" t="s">
-        <v>311</v>
+      <c r="D73" s="2" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="4:9">
-      <c r="D81" s="49" t="s">
-        <v>312</v>
+      <c r="D81" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="4:9">
-      <c r="D82" s="49" t="s">
-        <v>313</v>
+      <c r="D82" s="2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="4:9">
-      <c r="D83" s="49" t="s">
-        <v>317</v>
+      <c r="D83" s="2" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="84" spans="4:9">
-      <c r="E84" s="49" t="s">
-        <v>318</v>
+      <c r="E84" s="2" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="85" spans="4:9">
-      <c r="D85" s="49" t="s">
-        <v>316</v>
+      <c r="D85" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="4:9">
-      <c r="D86" s="50" t="s">
-        <v>319</v>
-      </c>
-      <c r="E86" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="H86" s="50"/>
-      <c r="I86" s="49"/>
+      <c r="D86" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H86" s="28"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="114" spans="3:4">
       <c r="C114">
         <v>2</v>
       </c>
-      <c r="D114" s="52" t="s">
-        <v>370</v>
+      <c r="D114" s="29" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="142" spans="3:4">
       <c r="C142">
         <v>3</v>
       </c>
-      <c r="D142" s="56" t="s">
-        <v>371</v>
+      <c r="D142" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="143" spans="3:4">
-      <c r="D143" s="57" t="s">
-        <v>372</v>
+      <c r="D143" s="30" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="144" spans="3:4">
-      <c r="D144" s="57" t="s">
-        <v>373</v>
+      <c r="D144" s="30" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="145" spans="4:4">
-      <c r="D145" s="57" t="s">
-        <v>374</v>
+      <c r="D145" s="30" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="163" spans="3:10">
-      <c r="D163" s="51" t="s">
-        <v>347</v>
+      <c r="D163" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="3:10">
       <c r="C164">
         <v>1</v>
       </c>
-      <c r="D164" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="E164" s="51" t="s">
-        <v>361</v>
-      </c>
-      <c r="H164" s="51" t="s">
-        <v>360</v>
-      </c>
-      <c r="J164" s="51" t="s">
-        <v>362</v>
+      <c r="D164" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="177" spans="3:11">
       <c r="C177">
         <v>2</v>
       </c>
-      <c r="D177" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="E177" s="51" t="s">
-        <v>351</v>
+      <c r="D177" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="178" spans="3:11">
-      <c r="E178" s="51" t="s">
-        <v>356</v>
-      </c>
-      <c r="G178" s="51" t="s">
-        <v>363</v>
-      </c>
-      <c r="K178" s="51" t="s">
-        <v>357</v>
+      <c r="E178" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="179" spans="3:11">
       <c r="C179">
         <v>3</v>
       </c>
-      <c r="D179" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="E179" s="51" t="s">
-        <v>364</v>
-      </c>
-      <c r="H179" s="51"/>
-      <c r="J179" s="51" t="s">
-        <v>365</v>
+      <c r="D179" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H179" s="2"/>
+      <c r="J179" s="2" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="180" spans="3:11">
@@ -9052,7 +9595,7 @@
         <v>4</v>
       </c>
       <c r="D180" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
     </row>
     <row r="181" spans="3:11">
@@ -9060,48 +9603,48 @@
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>348</v>
+        <v>232</v>
       </c>
     </row>
     <row r="182" spans="3:11">
       <c r="C182">
         <v>6</v>
       </c>
-      <c r="D182" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="E182" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="H182" s="51" t="s">
-        <v>366</v>
+      <c r="D182" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="183" spans="3:11">
       <c r="C183">
         <v>7</v>
       </c>
-      <c r="D183" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="E183" s="51" t="s">
-        <v>367</v>
+      <c r="D183" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E47"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9111,95 +9654,95 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" s="9" t="s">
-        <v>139</v>
+      <c r="B7" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="10" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="10" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="10" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="10" t="s">
-        <v>143</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="10" t="s">
-        <v>144</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="10" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="10" t="s">
-        <v>146</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="10" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="10" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="10" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="10" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="10" t="s">
-        <v>151</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="10" t="s">
-        <v>152</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9207,12 +9750,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9220,7 +9763,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9228,12 +9771,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>157</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>158</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9241,95 +9784,124 @@
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>159</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
         <v>5</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="B40" s="46" t="s">
+        <v>395</v>
+      </c>
+      <c r="G40" s="46"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="B41" s="2"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="C32" s="43" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="49" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="E38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="49" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="B40" t="s">
-        <v>335</v>
-      </c>
-      <c r="E40" s="49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
-        <v>341</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9352,281 +9924,281 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15">
-      <c r="C2" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
+      <c r="C2" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>277</v>
       </c>
       <c r="O2" t="s">
-        <v>162</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="3:15">
-      <c r="C3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>165</v>
+      <c r="C3" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="3:15">
-      <c r="C4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>168</v>
+      <c r="C4" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>171</v>
+      <c r="C5" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>174</v>
+      <c r="C6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="3:15">
-      <c r="C7" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>177</v>
+      <c r="C7" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>180</v>
+      <c r="C8" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>183</v>
+      <c r="C9" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>185</v>
+      <c r="C10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>187</v>
+      <c r="C11" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="3:15">
-      <c r="C12" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>189</v>
+      <c r="C12" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="3:15">
-      <c r="C13" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>191</v>
+      <c r="C13" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>194</v>
+      <c r="C14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>197</v>
+      <c r="C15" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="3:7">
-      <c r="C20" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>201</v>
+      <c r="C20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>204</v>
+      <c r="C21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>206</v>
+      <c r="C22" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="3:7">
-      <c r="C23" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>209</v>
+      <c r="C23" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="3:7">
-      <c r="C24" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>162</v>
+      <c r="C24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="3:7">
-      <c r="C25" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>212</v>
+      <c r="C25" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="3:7">
-      <c r="C27" s="6" t="s">
-        <v>213</v>
+      <c r="C27" s="7" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="3:7">
-      <c r="C31" s="8" t="s">
-        <v>215</v>
+      <c r="C31" s="9" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="D32" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9644,31 +10216,31 @@
   <sheetData>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20.25">
-      <c r="B21" s="3" t="s">
-        <v>220</v>
+      <c r="B21" s="4" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9676,138 +10248,175 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:L41"/>
+  <dimension ref="C8:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="8" spans="3:12">
       <c r="C8" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="3:12">
       <c r="C10" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>326</v>
+        <v>342</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" t="s">
-        <v>227</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="1" t="s">
-        <v>229</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="3:7">
       <c r="C18" t="s">
-        <v>230</v>
+        <v>347</v>
       </c>
       <c r="E18" t="s">
-        <v>231</v>
+        <v>348</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="3:7">
-      <c r="C21" s="49" t="s">
-        <v>323</v>
+      <c r="C21" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="E21" t="s">
-        <v>233</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="3:7">
-      <c r="C22" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>325</v>
+      <c r="C22" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" t="s">
-        <v>234</v>
+        <v>354</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="3:7">
       <c r="C26" t="s">
-        <v>236</v>
+        <v>356</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="3:7">
-      <c r="C28" s="2" t="s">
-        <v>238</v>
+      <c r="C28" s="3" t="s">
+        <v>358</v>
       </c>
       <c r="E28" t="s">
-        <v>239</v>
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="3:7">
       <c r="C30" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="C32" t="s">
-        <v>242</v>
+        <v>362</v>
       </c>
       <c r="E32" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
-      <c r="C34" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="C36" s="49" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="E41" s="49" t="s">
-        <v>315</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7">
+      <c r="C34" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="36" spans="3:7">
+      <c r="C36" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7">
+      <c r="C41" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="3:7">
+      <c r="C43" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5">
+      <c r="C52" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5">
+      <c r="C55" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5">
+      <c r="E56" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" s="51" t="s">
+        <v>399</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="41" type="noConversion"/>
+  <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="jsp" sheetId="7" r:id="rId6"/>
     <sheet name="Java" sheetId="5" r:id="rId7"/>
     <sheet name="JavaEE" sheetId="3" r:id="rId8"/>
-    <sheet name="others" sheetId="4" r:id="rId9"/>
+    <sheet name="快捷键" sheetId="4" r:id="rId9"/>
+    <sheet name="前端" sheetId="11" r:id="rId10"/>
+    <sheet name="others" sheetId="12" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="505">
   <si>
     <t>SVN</t>
   </si>
@@ -79,9 +80,6 @@
   </si>
   <si>
     <t>017509</t>
-  </si>
-  <si>
-    <t>dgh@666666</t>
   </si>
   <si>
     <t>ERP上线：</t>
@@ -1076,19 +1074,7 @@
     <t>提交：</t>
   </si>
   <si>
-    <t>【修改原因】#1009427</t>
-  </si>
-  <si>
-    <t>【修改内容】bessky-erp-logistics里面f-m及相关引用物流申请跟踪号调试模式优化</t>
-  </si>
-  <si>
-    <t>【提出人】张强</t>
-  </si>
-  <si>
     <t>【开发人】一组#丁光辉</t>
-  </si>
-  <si>
-    <t>【检视人】自检 2021.01.15 10:45</t>
   </si>
   <si>
     <t>项目开始：</t>
@@ -1479,12 +1465,6 @@
     <t>建议采购数：库存管理-建议采购</t>
   </si>
   <si>
-    <t>建议采购数 ＝ 平均日销量 * (采购周期 + 备货天数 + 采购频率) + 待发数量 + 缺货数量 － 库存 － 采购中 - 未确定入库</t>
-  </si>
-  <si>
-    <t>预计日销量=7天平均销量×50%+15天平均销量×30%+30天平均销量×20%</t>
-  </si>
-  <si>
     <t>注意：生成采购单之前，浏览缺货数量和建议采购数量，高于，要去“缺货未发”页面查看；低于，要去“大浪仓库”页面查看</t>
   </si>
   <si>
@@ -1518,71 +1498,13 @@
     <t>PurchaseSuggestController/PurchaseOrderServiceImpl-generatePurchaseOrders(没有供应商会报错）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ERP-采购单列表-确认采购，empty输入快递编号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-确认下单
-</t>
-    </r>
-  </si>
-  <si>
-    <t>收发货管理-回货扫描</t>
-  </si>
-  <si>
-    <t>|-快递单扫描</t>
-  </si>
-  <si>
-    <t>|-QC扫描</t>
-  </si>
-  <si>
-    <t>|-入库扫描</t>
-  </si>
-  <si>
     <t>出库：</t>
   </si>
   <si>
-    <t>订单检查→</t>
-  </si>
-  <si>
-    <t>系统配置-订单自动规则</t>
-  </si>
-  <si>
-    <t>→待销售处理/待合并</t>
-  </si>
-  <si>
-    <t>→等待打单（申请跟踪号和修改物流方式）</t>
-  </si>
-  <si>
     <t>仓库移单</t>
   </si>
   <si>
-    <t>：移动到按货打单，移动到按筐打单，多品打单</t>
-  </si>
-  <si>
     <t>单件单品-货</t>
-  </si>
-  <si>
-    <t>单件多品（购买数量大于1）-筐</t>
-  </si>
-  <si>
-    <t>多件单品/多品-品</t>
   </si>
   <si>
     <t>打印拣货单</t>
@@ -3037,9 +2959,6 @@
     <t>ctrl+N</t>
   </si>
   <si>
-    <t>ALL里面找前端路径代码controller位置</t>
-  </si>
-  <si>
     <t>return "jsp位置"</t>
   </si>
   <si>
@@ -3225,9 +3144,6 @@
     <t>前端debug</t>
   </si>
   <si>
-    <t>f12-调试器找对应js打断点</t>
-  </si>
-  <si>
     <t>code-smartFile--&gt;Settings--&gt;Editor--&gt;Code Style--&gt;Java/勾上smart tabs</t>
   </si>
   <si>
@@ -3248,7 +3164,7 @@
       </rPr>
       <t xml:space="preserve"> svn:</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3265,23 +3181,23 @@
       </rPr>
       <t>heck out下载代码</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>提交代码（commit）前update</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>复制修改过的代码类粘贴到文件夹对应位置替换</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>忽视文件</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>setting-Editor-File Types</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3298,7 +3214,7 @@
       </rPr>
       <t>n files and folders后面添加*.iml;*.idea;*.gitignore;*.sh;*.classpath;*.project;*.settings;target;logs;</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3315,7 +3231,7 @@
       </rPr>
       <t>.xx 为忽视该后缀文件</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3332,23 +3248,23 @@
       </rPr>
       <t>/  过滤文件夹</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>xx.java  过滤文件</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>获取前端参数：request.getParameter("userName")</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>对象（Java代码）                 描述</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>跳转页面：response.sendRedirect("success.jsp")</t>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3421,225 +3337,11 @@
       </rPr>
       <t>状态码</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>每隔几秒刷新：setIntHeader（“Refresh</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>”，int)</t>
-    </r>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>去除路径多余字段：</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>session生效</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>request.getSession().setAttribute("xx",xx)设置session共享数据</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">request    HttpServletRequest </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>接口的实例</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>头信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>cookies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>HTTP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>get/post</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>传参，获取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>session</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需引入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>javax.servlet-api</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>依赖</t>
-    </r>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>session</t>
     </r>
     <r>
       <rPr>
@@ -3650,29 +3352,211 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.setAtrribute("xx",xx)</t>
-    </r>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>session默认的过期时间是30分钟</t>
-  </si>
-  <si>
-    <t>自动导包</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">file| Editor | General | Auto Import。勾选上 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
+      <t>”，int)</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>去除路径多余字段：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>session生效</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>request.getSession().setAttribute("xx",xx)设置session共享数据</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">request    HttpServletRequest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>接口的实例</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Add unambiguous imports on the fly</t>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>cookies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>HTTP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>get/post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>传参，获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>session</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需引入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet-api</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>依赖</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>session</t>
     </r>
     <r>
       <rPr>
@@ -3683,7 +3567,20 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 和 </t>
+      <t>.setAtrribute("xx",xx)</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>session默认的过期时间是30分钟</t>
+  </si>
+  <si>
+    <t>自动导包</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">file| Editor | General | Auto Import。勾选上 </t>
     </r>
     <r>
       <rPr>
@@ -3692,20 +3589,2093 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
+      <t>Add unambiguous imports on the fly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
       <t>Optimize imports on the fly (for current project)</t>
     </r>
-    <phoneticPr fontId="40" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台》》输入代码包含元素可以搜索路径，{ }展开代码</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f12-调试器：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>找jsp-class,id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对应</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>js打断点</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10下一个断点</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>【修改原因】#1009482</t>
+  </si>
+  <si>
+    <t>【修改内容】订单付款、退款标记导出</t>
+  </si>
+  <si>
+    <t>【提出人】江志超</t>
+  </si>
+  <si>
+    <t>【检视人】许成志 2021.1.21 15:00</t>
+  </si>
+  <si>
+    <t>生成采购单的action在form上面</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>netstat -ano | findstr 8081</t>
+  </si>
+  <si>
+    <t>taskkill /pid 12860 /f</t>
+  </si>
+  <si>
+    <t>查端口pid并杀死</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL里面路径找controller位置</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>在浏览器页面找到title中文名（或者其他中文关键词），在idea-find in path找jsp</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>service</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceImpl</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>dao层</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>SqlerRequest(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"updatePurchaseOrderByPrimaryKey"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>dao层impl</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ml</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>app回显</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">form </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="searchForm" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>method</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="post" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>onsubmit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>search</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="searchForm"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>action</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CONTEXT_PATH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>transportation/express/search"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">table </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="table table-bordered table-condensed"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>colgroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">col </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="5%"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>colgroup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tbody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">td </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="block-label-td"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>物流渠道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">td  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>colspan</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>app</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>classes</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="form-control input-medium" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="text" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="query.logisticsType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>tbody</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">div </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="pull-right"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="submit" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="btn btn-sm green "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="icon-search"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>搜索</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="button" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="btn btn-sm btn-default " </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>onclick</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>resetForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">i </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="icon-refresh"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>重置</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>div</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8流filter</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">List&lt;ExpressTransportation&gt; expressTransportations = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>expressTransportationLimitFacade</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>.queryAllExpressTransportationList();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">null </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!= logisticsType)</t>
+    </r>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    expressTransportations = expressTransportations.stream()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            .filter(s -&gt; s.getLogisticsType().contains(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>logisticsType</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)).collect(Collectors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>domain.setExpressTransportations(expressTransportations);</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.格式化？</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.最新版本</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.找不同</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.修改后测试？</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用-目录-自动目录</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>字间距：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键段落左对齐（可在目录标题上面统一修改）</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议采购数 ＝ 平均日销量 * (采购周期 + 备货天数 + 采购频率) + 待发数量 + 缺货数量 － 库存 － 采购中 - 未确定入库</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计日销量=7天平均销量×50%+15天平均销量×30%+30天平均销量×20%</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单检查→</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统配置-订单自动规则</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>→待销售处理/待合并</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>→等待打单（申请跟踪号和修改物流方式）</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>：移动到按货打单，移动到按筐打单，多品打单</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件多品（购买数量大于1）-筐</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>多件单品/多品-品</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面宽度：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入代码首字母大写取消：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit分页</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT *  FROM t_order limit 0,10</t>
+  </si>
+  <si>
+    <t>显示十条数据</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">start = (pager.getPageNo() - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) * pager.getPageSize();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">end = start + pager.getPageSize() - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>request.addSqlDataParam(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"LIMIT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, dial.queryFirst2Last(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) start, (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) end));</t>
+    </r>
+  </si>
+  <si>
+    <t>分页</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagerNo=1当前页码</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>pageSize=10;//每页显示记录数</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>start=0</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库前十条数据</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=9</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagerNo=2当前页码</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>start=10</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>end=19</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询数据库第二个十条数据</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>=方法名</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>dgh@666666</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;app:searchform classes="form-inline form-table" id="searchForm"</t>
+  </si>
+  <si>
+    <t>action="${CONTEXT_PATH}transportation/express/search" name="searchForm"</t>
+  </si>
+  <si>
+    <t>pageno="${domain.page.pageNo}" pagesize="${domain.page.pageSize}"</t>
+  </si>
+  <si>
+    <t>totalcount="${domain.page.totalCount}"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;app:searchitem label="物流渠道"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;app:input classes="input-medium" type="text" name="query.logisticsType" /&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/app:searchitem&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/app:searchform&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>改成控件代码：</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改目录样式：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>引用-目录-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自定义</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>目录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-修改</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择多个图片</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sub 图片边框</t>
+  </si>
+  <si>
+    <t>Dim tupian As InlineShape</t>
+  </si>
+  <si>
+    <t>Application.ScreenUpdating = True</t>
+  </si>
+  <si>
+    <t>For Each tupian In ActiveDocument.InlineShapes</t>
+  </si>
+  <si>
+    <t>With tupian.Borders</t>
+  </si>
+  <si>
+    <t>.OutsideLineStyle = wdLineStyleSingle</t>
+  </si>
+  <si>
+    <t>.OutsideLineWidth = wdLineWidth150pt</t>
+  </si>
+  <si>
+    <t>End With</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Application.ScreenUpdating = False</t>
+  </si>
+  <si>
+    <t>End Sub</t>
+  </si>
+  <si>
+    <t>.OutsideColorIndex = wdGray25</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ehcache 和 Redis 比较</t>
+  </si>
+  <si>
+    <t>   Ehcache</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>      Redis        </t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>存取速度</t>
+  </si>
+  <si>
+    <t>Ehcache直接在jvm虚拟机中缓存，速度快，效率高</t>
+  </si>
+  <si>
+    <t>Redis是通过socket访问到缓存服务，效率比ecache低</t>
+  </si>
+  <si>
+    <t>集群和分布式</t>
+  </si>
+  <si>
+    <t>Ehcache有缓存共享方案，不过是通过RMI或者Jgroup多播方式进行广播缓存通知更新，缓存共享复杂，维护不方便；简单的共享可以，但是涉及到缓存恢复，大数据缓存，则不合适。</t>
+  </si>
+  <si>
+    <t>Redis有成熟的分布式解决方案。适合大规模分布式集群部署。</t>
+  </si>
+  <si>
+    <t>操作复杂度</t>
+  </si>
+  <si>
+    <t>Ehcache提供的接口非常简单明了，从Ehcache的搭建到运用运行仅仅需要的是你宝贵的几分钟。其实很多开发者都不知道自己用在用Ehcache，Ehcache被广泛的运用于其他的开源项目。比如：Hibernate</t>
+  </si>
+  <si>
+    <t>至少需要安装服务端和客户端才能使用。操作略比Ehcache复杂一些</t>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="41">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4005,6 +5975,58 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF660E7A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF0000FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4026,7 +6048,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -4166,35 +6188,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -4204,10 +6272,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4225,7 +6293,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -4234,16 +6302,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -4252,70 +6320,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4330,6 +6458,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4338,72 +6490,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
     <mruColors>
       <color rgb="FF990033"/>
     </mruColors>
@@ -7035,7 +9121,7 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:colOff>657224</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>59184</xdr:rowOff>
     </xdr:from>
@@ -7055,8 +9141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2075815" y="15356205"/>
-          <a:ext cx="12994640" cy="1179195"/>
+          <a:off x="2200274" y="15356334"/>
+          <a:ext cx="12994415" cy="1179275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7127,272 +9213,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>411452</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>210263</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:srcRect l="10338"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2286000" y="18154650"/>
-          <a:ext cx="12202795" cy="5106035"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>619136</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="肘形连接符 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1809750" y="20887690"/>
-          <a:ext cx="2085975" cy="452755"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="文本框 11"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="113665" y="20782915"/>
-          <a:ext cx="1696085" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>数据库：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>bessky_warehouse/t_warehouse/warehouse_id=1</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>388832</xdr:colOff>
-      <xdr:row>139</xdr:row>
-      <xdr:rowOff>180298</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2314575" y="23888700"/>
-          <a:ext cx="13695045" cy="5418455"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="文本框 16"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6924675" y="27212925"/>
-          <a:ext cx="876300" cy="1533525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="990033"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>待确认：未下达供应商，未付款；可编辑</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>52091</xdr:colOff>
-      <xdr:row>164</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>711675</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>102</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7403,15 +9232,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2366645" y="34490025"/>
-          <a:ext cx="5478780" cy="2218690"/>
+          <a:off x="2366666" y="15420975"/>
+          <a:ext cx="5479234" cy="2219324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7468,64 +9297,17 @@
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7258050" y="1990725"/>
-          <a:ext cx="1190625" cy="9525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>581719</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7557,13 +9339,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7615,16 +9397,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7633,8 +9415,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7724775" y="1790700"/>
-          <a:ext cx="561975" cy="266700"/>
+          <a:off x="7629525" y="247650"/>
+          <a:ext cx="1266825" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7669,8 +9451,12 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>action</a:t>
+          </a:r>
+          <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>前端</a:t>
+            <a:t>含路径</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7681,13 +9467,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>324868</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>66832</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -7715,6 +9501,1082 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>701772</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>162454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4200525" y="12753975"/>
+          <a:ext cx="7302597" cy="2915179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6610350" y="1047749"/>
+          <a:ext cx="1209675" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>jsp onclick/id /</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>直接使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>/$()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>找</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="971550"/>
+          <a:ext cx="885825" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>js</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>提供路径</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12106275" y="1581150"/>
+          <a:ext cx="1000125" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="肘形连接符 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6048375" y="971550"/>
+          <a:ext cx="2162175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="肘形连接符 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="1162050"/>
+          <a:ext cx="1438275" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666751</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="组合 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5715000" y="628650"/>
+          <a:ext cx="4981576" cy="838200"/>
+          <a:chOff x="5715000" y="628650"/>
+          <a:chExt cx="4981576" cy="838200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687050" y="628650"/>
+            <a:ext cx="9526" cy="838200"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="46" name="肘形连接符 45"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="5715000" y="638175"/>
+            <a:ext cx="4953000" cy="180975"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 192"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直接箭头连接符 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10696575" y="1743075"/>
+          <a:ext cx="9525" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直接箭头连接符 52"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10839451" y="2847975"/>
+          <a:ext cx="761999" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直接箭头连接符 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="2819400"/>
+          <a:ext cx="733425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13668375" y="2847975"/>
+          <a:ext cx="733425" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="直接箭头连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="18240375" y="3057525"/>
+          <a:ext cx="742950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>170136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>516895</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="1217886"/>
+          <a:ext cx="8174995" cy="1020807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>705802</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2266950" y="3838575"/>
+          <a:ext cx="6820852" cy="819264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714376</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>58404</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="组合 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2695576" y="8658225"/>
+          <a:ext cx="5638800" cy="4763754"/>
+          <a:chOff x="1400175" y="11584024"/>
+          <a:chExt cx="8041325" cy="5895605"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:srcRect l="2132" t="-126"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1400175" y="11584024"/>
+            <a:ext cx="8041325" cy="5895605"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="文本框 8"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7293658" y="12820674"/>
+            <a:ext cx="942272" cy="434025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="r"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1200">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>点这里！</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>162483</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="组合 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2733675" y="5972175"/>
+          <a:ext cx="6800850" cy="2077008"/>
+          <a:chOff x="5029200" y="5619750"/>
+          <a:chExt cx="10258426" cy="4048683"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="图片 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:srcRect l="-327" t="-238" r="12421" b="-952"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5029200" y="5619750"/>
+            <a:ext cx="10258426" cy="4048683"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="文本框 16"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9467850" y="7448550"/>
+            <a:ext cx="1743075" cy="552450"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="C00000"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>点这里！</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>515463</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>105397</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="1195" t="-427" b="1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="14468475"/>
+          <a:ext cx="7878288" cy="4477372"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="https://pics4.baidu.com/feed/e1fe9925bc315c604bf0d365604069164b5477ce.jpeg?token=dc67012174cb546e5ab88d53f5c7cd3f&amp;s=3D0875331907744F005101DA000080B3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2733675" y="19707225"/>
+          <a:ext cx="6096000" cy="4619625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7726,7 +10588,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="373545"/>
@@ -7978,8 +10840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L58" sqref="B58:L59"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8076,24 +10938,24 @@
       <c r="K10" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>17</v>
+      <c r="L10" s="45" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="3:16">
       <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="45" t="s">
+      <c r="N13" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="3:16">
       <c r="N14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -8104,38 +10966,38 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2"/>
       <c r="K16" t="s">
         <v>5</v>
       </c>
       <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s">
         <v>28</v>
-      </c>
-      <c r="J18" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -8143,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -8159,18 +11021,18 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" t="s">
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -8178,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="3:14">
@@ -8191,71 +11053,71 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>35</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="3:14">
       <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="I30" t="s">
         <v>38</v>
-      </c>
-      <c r="I30" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="F31" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s">
         <v>40</v>
-      </c>
-      <c r="I31" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="G33" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="3:10">
       <c r="G34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="3:10">
       <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
         <v>45</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>46</v>
-      </c>
-      <c r="J35" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
         <v>48</v>
-      </c>
-      <c r="J38" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="40" spans="3:10">
       <c r="D40" s="46" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="3:10">
@@ -8268,13 +11130,13 @@
     </row>
     <row r="43" spans="3:10">
       <c r="D43" s="46" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F43" s="46"/>
     </row>
     <row r="44" spans="3:10">
       <c r="D44" s="46" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="F44" s="46"/>
     </row>
@@ -8288,32 +11150,342 @@
     </row>
     <row r="48" spans="3:10">
       <c r="C48" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="46"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="K13" r:id="rId2"/>
     <hyperlink ref="N4" r:id="rId3"/>
     <hyperlink ref="D43" r:id="rId4" display="https://www.cnblogs.com/pythoncd/articles/12294695.html"/>
+    <hyperlink ref="L10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="13" max="13" width="8.88671875" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="58" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="56" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="56" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="56" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="56" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="56" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="56" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="56" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="56" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="56" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="55" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="56" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="56" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="F26" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="F27" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="F28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="D30" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="B32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="46" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C5:P137"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5">
+      <c r="C5" s="62" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="D13" s="57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="C15" s="62" t="s">
+        <v>478</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="62" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16">
+      <c r="P18" s="57"/>
+    </row>
+    <row r="24" spans="3:16">
+      <c r="D24" s="57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16">
+      <c r="C27" s="62" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65" s="62" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91" s="62" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="67" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="67" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="67" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="67" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="67" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="67" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="67" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="67" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="67" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="46" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AN92"/>
+  <dimension ref="B1:AQ92"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" topLeftCell="W22" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8322,234 +11494,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:40">
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG1" s="41" t="s">
         <v>51</v>
-      </c>
-      <c r="AG1" s="41" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="2:40">
       <c r="D2" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="AG2" s="42"/>
       <c r="AN2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="2:40">
+      <c r="AA11" s="11" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="2:40">
-      <c r="AA11" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:40">
       <c r="AA12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="2:40">
       <c r="B15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="2:40">
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="2"/>
       <c r="D17" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:28">
       <c r="AA19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:28">
       <c r="D29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA29" s="11" t="s">
         <v>64</v>
-      </c>
-      <c r="AA29" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:28">
       <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA30" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="AA30" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="2:28">
       <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB31" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:28">
       <c r="E32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="4:43">
+      <c r="E33" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="4:5">
-      <c r="E33" t="s">
+      <c r="AA33" s="11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="34" spans="4:43">
+      <c r="E34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="4:5">
-      <c r="E34" t="s">
+      <c r="AB34" s="63" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="35" spans="4:43">
+      <c r="E35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="4:5">
-      <c r="E35" t="s">
+      <c r="AB35" t="s">
+        <v>452</v>
+      </c>
+      <c r="AI35" s="63" t="s">
+        <v>458</v>
+      </c>
+      <c r="AK35" s="63" t="s">
+        <v>459</v>
+      </c>
+      <c r="AO35" s="63" t="s">
+        <v>463</v>
+      </c>
+      <c r="AQ35" s="63" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="4:43">
+      <c r="D36" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="36" spans="4:5">
-      <c r="D36" t="s">
+      <c r="AB36" s="63" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="4:43">
+      <c r="E37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="4:5">
-      <c r="E37" t="s">
+      <c r="AB37" s="64" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI37" s="63" t="s">
+        <v>460</v>
+      </c>
+      <c r="AO37" s="63" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="38" spans="4:43">
+      <c r="E38" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="4:5">
-      <c r="E38" t="s">
+    <row r="39" spans="4:43">
+      <c r="E39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="4:5">
-      <c r="E39" t="s">
+      <c r="AB39" s="64" t="s">
+        <v>455</v>
+      </c>
+      <c r="AI39" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="AO39" s="63" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="40" spans="4:43">
+      <c r="E40" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="4:5">
-      <c r="E40" t="s">
-        <v>78</v>
+    <row r="41" spans="4:43">
+      <c r="AB41" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ41" s="63" t="s">
+        <v>461</v>
+      </c>
+      <c r="AP41" s="63" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="D52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="E53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="E54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="E55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="E56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="E57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="D58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="E59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="E60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="E61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="D62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="D63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" spans="2:5">
       <c r="D64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="2:4">
       <c r="B73" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="78" spans="2:4">
       <c r="D78" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8559,8 +11784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA142"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A115" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView showGridLines="0" topLeftCell="A55" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F140" sqref="A140:F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -8571,200 +11796,200 @@
   <sheetData>
     <row r="1" spans="2:20">
       <c r="B1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:20">
       <c r="B3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="2:20">
       <c r="E5" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:20">
       <c r="E6" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:20">
       <c r="I7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="33" t="s">
         <v>100</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="10" spans="2:20">
       <c r="E10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" s="32" t="s">
         <v>102</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11" spans="2:20">
       <c r="E11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="P11" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="T11" t="s">
         <v>106</v>
-      </c>
-      <c r="T11" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:20">
       <c r="T12" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="2:20">
       <c r="E15" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="P15" t="s">
         <v>110</v>
       </c>
-      <c r="P15" t="s">
+      <c r="S15" s="35" t="s">
         <v>111</v>
-      </c>
-      <c r="S15" s="35" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="5:27">
       <c r="I17" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" t="s">
         <v>113</v>
       </c>
-      <c r="P17" t="s">
+      <c r="S17" s="35" t="s">
         <v>114</v>
-      </c>
-      <c r="S17" s="35" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="5:27">
       <c r="E20" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="5:27">
       <c r="I21" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" s="33" t="s">
         <v>116</v>
-      </c>
-      <c r="M21" s="33" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="5:27">
       <c r="P22" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="5:27">
       <c r="I23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="P23" s="32" t="s">
-        <v>120</v>
       </c>
       <c r="Q23" s="38"/>
       <c r="T23" t="s">
+        <v>120</v>
+      </c>
+      <c r="V23" t="s">
         <v>121</v>
       </c>
-      <c r="V23" t="s">
+      <c r="X23" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="X23" s="32" t="s">
+      <c r="AA23" t="s">
         <v>123</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="5:27">
       <c r="Q24" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="5:27">
       <c r="Q25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="5:27">
       <c r="P26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="5:27">
       <c r="E27" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q27" t="s">
         <v>128</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="5:27">
       <c r="E28" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="5:27">
       <c r="H29" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" t="s">
         <v>130</v>
-      </c>
-      <c r="I29" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="35" spans="5:12">
       <c r="E35" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="5:12">
       <c r="E36" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" t="s">
         <v>133</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>134</v>
-      </c>
-      <c r="I36" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="38" spans="5:12">
       <c r="H38" t="s">
+        <v>135</v>
+      </c>
+      <c r="I38" t="s">
         <v>136</v>
-      </c>
-      <c r="I38" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="41" spans="5:12">
       <c r="I41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="5:12">
       <c r="F44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H44" t="s">
         <v>139</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>140</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" s="35" t="s">
         <v>141</v>
-      </c>
-      <c r="L44" s="35" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="45" spans="5:12">
@@ -8772,66 +11997,66 @@
     </row>
     <row r="46" spans="5:12">
       <c r="E46" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="5:12">
       <c r="E47" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="F49" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="J49" t="s">
         <v>145</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" s="32" t="s">
         <v>146</v>
-      </c>
-      <c r="L49" s="32" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="L50" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="O50" s="35" t="s">
         <v>148</v>
-      </c>
-      <c r="O50" s="35" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="H52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J52" t="s">
         <v>150</v>
       </c>
-      <c r="J52" t="s">
+      <c r="M52" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="M52" s="35" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="J54" t="s">
+        <v>152</v>
+      </c>
+      <c r="L54" s="35" t="s">
         <v>153</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="J56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="K60" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="L60" s="36" t="s">
         <v>156</v>
-      </c>
-      <c r="L60" s="36" t="s">
-        <v>157</v>
       </c>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
@@ -8840,7 +12065,7 @@
     <row r="61" spans="1:15">
       <c r="K61" s="16"/>
       <c r="L61" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M61" s="18"/>
       <c r="N61" s="18"/>
@@ -8850,7 +12075,7 @@
       <c r="A62" s="31"/>
       <c r="K62" s="16"/>
       <c r="L62" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M62" s="18"/>
       <c r="N62" s="18"/>
@@ -8859,7 +12084,7 @@
     <row r="63" spans="1:15">
       <c r="K63" s="16"/>
       <c r="L63" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M63" s="18"/>
       <c r="N63" s="18"/>
@@ -8868,7 +12093,7 @@
     <row r="64" spans="1:15">
       <c r="K64" s="16"/>
       <c r="L64" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M64" s="18"/>
       <c r="N64" s="18"/>
@@ -8877,7 +12102,7 @@
     <row r="65" spans="6:15">
       <c r="K65" s="16"/>
       <c r="L65" s="34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M65" s="18"/>
       <c r="N65" s="18"/>
@@ -8885,10 +12110,10 @@
     </row>
     <row r="66" spans="6:15">
       <c r="K66" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="L66" s="39" t="s">
         <v>163</v>
-      </c>
-      <c r="L66" s="39" t="s">
-        <v>164</v>
       </c>
       <c r="M66" s="24"/>
       <c r="N66" s="24"/>
@@ -8896,10 +12121,10 @@
     </row>
     <row r="69" spans="6:15">
       <c r="K69" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L69" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
@@ -8908,20 +12133,20 @@
     <row r="70" spans="6:15">
       <c r="K70" s="16"/>
       <c r="L70" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M70" s="18"/>
       <c r="N70" s="18"/>
       <c r="O70" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="6:15">
       <c r="K71" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L71" s="37" t="s">
         <v>168</v>
-      </c>
-      <c r="L71" s="37" t="s">
-        <v>169</v>
       </c>
       <c r="M71" s="18"/>
       <c r="N71" s="18"/>
@@ -8950,7 +12175,7 @@
     </row>
     <row r="75" spans="6:15">
       <c r="K75" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L75" s="39"/>
       <c r="M75" s="24"/>
@@ -8962,10 +12187,10 @@
     </row>
     <row r="83" spans="11:16">
       <c r="K83" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L83" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M83" s="14"/>
       <c r="N83" s="14"/>
@@ -9008,7 +12233,7 @@
     </row>
     <row r="89" spans="11:16">
       <c r="K89" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L89" s="39"/>
       <c r="M89" s="24"/>
@@ -9020,7 +12245,7 @@
     </row>
     <row r="96" spans="11:16">
       <c r="K96" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L96" s="36"/>
       <c r="M96" s="14"/>
@@ -9062,7 +12287,7 @@
     </row>
     <row r="101" spans="1:20">
       <c r="K101" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L101" s="34"/>
       <c r="M101" s="18"/>
@@ -9086,130 +12311,142 @@
     </row>
     <row r="105" spans="1:20">
       <c r="K105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P105" s="18"/>
     </row>
     <row r="107" spans="1:20">
       <c r="A107" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="B108" t="s">
+        <v>383</v>
+      </c>
+      <c r="G108" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="B109" t="s">
+        <v>384</v>
+      </c>
+      <c r="G109" s="57" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="B110" t="s">
+        <v>385</v>
+      </c>
+      <c r="G110" s="57" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="B111" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="108" spans="1:20">
-      <c r="B108" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
-      <c r="B109" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
-      <c r="B110" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20">
-      <c r="B111" s="2" t="s">
-        <v>176</v>
+      <c r="G111" s="57" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:20">
-      <c r="B112" s="2" t="s">
-        <v>177</v>
+      <c r="B112" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="B117" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="B118" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="B119" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="B122" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="B123" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="46" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="B126" s="46" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="B127" s="46" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="B128" s="46" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="2:6">
       <c r="B130" s="46" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
     </row>
     <row r="131" spans="2:6">
       <c r="B131" s="46" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="2:6">
       <c r="C132" s="46" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="2:6">
       <c r="D133" s="46" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
     </row>
     <row r="134" spans="2:6">
       <c r="D134" s="47" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="2:6">
       <c r="D135" s="46" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="2:6">
       <c r="F142" s="46"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9226,7 +12463,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9234,10 +12471,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K183"/>
+  <dimension ref="C3:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E147" sqref="E147"/>
+    <sheetView showGridLines="0" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9247,7 +12484,7 @@
   <sheetData>
     <row r="3" spans="3:9">
       <c r="D3" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -9257,7 +12494,7 @@
     <row r="4" spans="3:9">
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -9266,7 +12503,7 @@
     <row r="5" spans="3:9">
       <c r="D5" s="16"/>
       <c r="E5" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -9275,7 +12512,7 @@
     <row r="6" spans="3:9">
       <c r="D6" s="16"/>
       <c r="E6" s="21" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -9284,7 +12521,7 @@
     <row r="7" spans="3:9">
       <c r="D7" s="16"/>
       <c r="E7" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -9293,7 +12530,7 @@
     <row r="8" spans="3:9">
       <c r="D8" s="16"/>
       <c r="E8" s="21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -9302,7 +12539,7 @@
     <row r="9" spans="3:9">
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -9311,7 +12548,7 @@
     <row r="10" spans="3:9">
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -9329,7 +12566,7 @@
     <row r="12" spans="3:9">
       <c r="C12" s="18"/>
       <c r="D12" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -9340,7 +12577,7 @@
     <row r="13" spans="3:9">
       <c r="C13" s="18"/>
       <c r="D13" s="26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -9351,7 +12588,7 @@
     <row r="14" spans="3:9">
       <c r="C14" s="18"/>
       <c r="D14" s="27" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -9363,7 +12600,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="16"/>
       <c r="E15" s="18" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -9408,37 +12645,37 @@
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" spans="3:4">
       <c r="D68" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="3:4">
@@ -9449,12 +12686,12 @@
     </row>
     <row r="71" spans="3:4">
       <c r="D71" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="3:4">
       <c r="D72" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="3:4">
@@ -9462,177 +12699,146 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10">
+      <c r="D81" s="63" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10">
+      <c r="D82" s="63" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="3:10">
+      <c r="D83" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10">
+      <c r="E84" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10">
+      <c r="D85" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="86" spans="3:10">
+      <c r="D86" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9">
-      <c r="D81" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="4:9">
-      <c r="D82" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="4:9">
-      <c r="D83" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9">
-      <c r="E84" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9">
-      <c r="D85" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9">
-      <c r="D86" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="H86" s="28"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="114" spans="3:4">
-      <c r="C114">
+    <row r="90" spans="3:10">
+      <c r="D90" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10">
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>442</v>
+      </c>
+      <c r="E91" s="63" t="s">
+        <v>443</v>
+      </c>
+      <c r="H91" s="63" t="s">
+        <v>444</v>
+      </c>
+      <c r="J91" s="63" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11">
+      <c r="C104">
         <v>2</v>
       </c>
-      <c r="D114" s="29" t="s">
+      <c r="D104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E104" s="63" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11">
+      <c r="E105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G105" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="K105" s="63" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11">
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="J106" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11">
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11">
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="142" spans="3:4">
-      <c r="C142">
-        <v>3</v>
-      </c>
-      <c r="D142" s="2" t="s">
+    <row r="109" spans="3:11">
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="143" spans="3:4">
-      <c r="D143" s="30" t="s">
+      <c r="E109" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="144" spans="3:4">
-      <c r="D144" s="30" t="s">
+      <c r="H109" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="145" spans="4:4">
-      <c r="D145" s="30" t="s">
+    <row r="110" spans="3:11">
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="163" spans="3:10">
-      <c r="D163" s="2" t="s">
+      <c r="E110" s="2" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="164" spans="3:10">
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="J164" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="177" spans="3:11">
-      <c r="C177">
-        <v>2</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="178" spans="3:11">
-      <c r="E178" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="G178" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="K178" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="179" spans="3:11">
-      <c r="C179">
-        <v>3</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H179" s="2"/>
-      <c r="J179" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="180" spans="3:11">
-      <c r="C180">
-        <v>4</v>
-      </c>
-      <c r="D180" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="181" spans="3:11">
-      <c r="C181">
-        <v>5</v>
-      </c>
-      <c r="D181" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="182" spans="3:11">
-      <c r="C182">
-        <v>6</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="3:11">
-      <c r="C183">
-        <v>7</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -9643,8 +12849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9654,95 +12860,95 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="C3" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="B4" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="10" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="10" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="10" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="10" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="10" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="10" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="10" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="10" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="10" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="B16" s="10" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="10" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="10" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="10" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="10" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9750,12 +12956,12 @@
         <v>1</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="C23" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9763,7 +12969,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -9771,12 +12977,12 @@
         <v>3</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -9784,7 +12990,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -9792,46 +12998,46 @@
         <v>5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" s="2" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="46" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="46" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="2" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="E38" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="46" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7">
       <c r="B40" s="46" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G40" s="46"/>
     </row>
@@ -9841,67 +13047,67 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="46" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="46" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="46" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="G46" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="46" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -9909,10 +13115,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:O33"/>
+  <dimension ref="C2:O48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9921,284 +13127,401 @@
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
     <col min="5" max="5" width="26.109375" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15">
-      <c r="C2" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="C2" s="68" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
       <c r="L2" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="O2" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="3:15">
       <c r="C3" s="5" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="3:15">
       <c r="C4" s="5" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="5" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="5" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="3:15">
       <c r="C7" s="5" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="3:15">
       <c r="C8" s="5" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="5" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="3:15">
       <c r="C10" s="5" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="3:15">
       <c r="C11" s="5" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" s="5" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" s="5" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="3:15">
       <c r="C14" s="5" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" s="5" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="7" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="7" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="7" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="7" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="7" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="7" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="9" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="D32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11">
       <c r="D33" t="s">
-        <v>333</v>
-      </c>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11">
+      <c r="C39" s="71" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11">
+      <c r="C42" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D42" s="73" t="s">
+        <v>494</v>
+      </c>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73" t="s">
+        <v>495</v>
+      </c>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="77" t="s">
+        <v>498</v>
+      </c>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+    </row>
+    <row r="44" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C44" s="72" t="s">
+        <v>499</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>500</v>
+      </c>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79" t="s">
+        <v>501</v>
+      </c>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="72"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+    </row>
+    <row r="46" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C46" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="D46" s="79" t="s">
+        <v>503</v>
+      </c>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79" t="s">
+        <v>504</v>
+      </c>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="75"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="76"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="H46:K48"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
     <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="D46:G48"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C48"/>
   </mergeCells>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -10206,41 +13529,89 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B16:B24"/>
+  <dimension ref="B16:B39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20.25">
       <c r="B21" s="4" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>338</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="60" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="61" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="56" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="56" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="56" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="59"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="56" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10248,175 +13619,240 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C8:L58"/>
+  <dimension ref="B5:Z80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="8" spans="3:12">
-      <c r="C8" t="s">
+    <row r="5" spans="2:26">
+      <c r="B5" s="51" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="16.5" customHeight="1">
+      <c r="K6" s="54" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26">
+      <c r="N8" t="s">
+        <v>391</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
+      <c r="N14" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="P14" t="s">
+        <v>394</v>
+      </c>
+      <c r="R14" t="s">
+        <v>395</v>
+      </c>
+      <c r="T14" s="50" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
+      <c r="T15" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="Z15" s="50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
+      <c r="C16" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="V16" s="65" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="E22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="C23" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="N23" s="53"/>
+    </row>
+    <row r="24" spans="3:14">
+      <c r="C24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" t="s">
+        <v>335</v>
+      </c>
+      <c r="N24" s="53"/>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="C27" t="s">
+        <v>336</v>
+      </c>
+      <c r="E27" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="C29" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="10" spans="3:12">
-      <c r="C10" t="s">
+    <row r="31" spans="3:14">
+      <c r="C31" t="s">
         <v>340</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E31" t="s">
         <v>341</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="33" spans="3:7">
+      <c r="C33" t="s">
         <v>342</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="E33" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="3:12">
-      <c r="C12" t="s">
+    <row r="35" spans="3:7">
+      <c r="C35" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E35" s="2" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="15" spans="3:12">
-      <c r="C15" s="1" t="s">
+    <row r="37" spans="3:7">
+      <c r="C37" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="3:7">
-      <c r="C18" t="s">
+    <row r="42" spans="3:7">
+      <c r="C42" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E42" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="44" spans="3:7">
+      <c r="C44" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G44" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="2" t="s">
+    <row r="53" spans="3:9">
+      <c r="C53" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E53" s="49" t="s">
+        <v>381</v>
+      </c>
+      <c r="I53" s="49" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="E54" s="49" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="23" spans="3:7">
-      <c r="C23" t="s">
+    <row r="57" spans="3:9">
+      <c r="E57" t="s">
         <v>354</v>
       </c>
-      <c r="E23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="3:7">
-      <c r="C26" t="s">
-        <v>356</v>
-      </c>
-      <c r="E26" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="3:7">
-      <c r="C28" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E28" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30" t="s">
-        <v>360</v>
-      </c>
-      <c r="E30" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32" t="s">
-        <v>362</v>
-      </c>
-      <c r="E32" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7">
-      <c r="C36" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7">
-      <c r="C41" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7">
-      <c r="C43" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5">
-      <c r="C52" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5">
-      <c r="C55" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5">
-      <c r="E56" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5">
-      <c r="C58" s="51" t="s">
-        <v>399</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>400</v>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="E59" s="48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9">
+      <c r="C63" s="50" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="C78" t="s">
+        <v>390</v>
+      </c>
+      <c r="F78" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="F80" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="40" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,12 @@
     <sheet name="others" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="522">
   <si>
     <t>SVN</t>
   </si>
@@ -50,9 +51,6 @@
   </si>
   <si>
     <t>d123456#</t>
-  </si>
-  <si>
-    <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
   </si>
   <si>
     <t>Dgh……</t>
@@ -2732,7 +2730,7 @@
       </rPr>
       <t xml:space="preserve"> svn:</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2749,23 +2747,23 @@
       </rPr>
       <t>heck out下载代码</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>提交代码（commit）前update</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>复制修改过的代码类粘贴到文件夹对应位置替换</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>忽视文件</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>setting-Editor-File Types</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2782,7 +2780,7 @@
       </rPr>
       <t>n files and folders后面添加*.iml;*.idea;*.gitignore;*.sh;*.classpath;*.project;*.settings;target;logs;</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2799,7 +2797,7 @@
       </rPr>
       <t>.xx 为忽视该后缀文件</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2816,23 +2814,23 @@
       </rPr>
       <t>/  过滤文件夹</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>xx.java  过滤文件</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>获取前端参数：request.getParameter("userName")</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>对象（Java代码）                 描述</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>跳转页面：response.sendRedirect("success.jsp")</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2905,7 +2903,7 @@
       </rPr>
       <t>状态码</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2922,27 +2920,27 @@
       </rPr>
       <t>”，int)</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>去除路径多余字段：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>session生效</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>request.getSession().setAttribute("xx",xx)设置session共享数据</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3120,7 +3118,7 @@
       </rPr>
       <t>依赖</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3137,14 +3135,14 @@
       </rPr>
       <t>.setAtrribute("xx",xx)</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>session默认的过期时间是30分钟</t>
   </si>
   <si>
     <t>自动导包</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3179,11 +3177,11 @@
       </rPr>
       <t>Optimize imports on the fly (for current project)</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>控制台》》输入代码包含元素可以搜索路径，{ }展开代码</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3233,7 +3231,7 @@
       </rPr>
       <t>js打断点</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3250,7 +3248,7 @@
       </rPr>
       <t>10下一个断点</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>【修改原因】#1009482</t>
@@ -3266,35 +3264,35 @@
   </si>
   <si>
     <t>生成采购单的action在form上面</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>查端口pid并杀死</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ALL里面路径找controller位置</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>在浏览器页面找到title中文名（或者其他中文关键词），在idea-find in path找jsp</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>serviceImpl</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>dao层</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>dao层impl</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3333,15 +3331,15 @@
       </rPr>
       <t>ml</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>app回显</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4643,7 +4641,7 @@
       </rPr>
       <t>.格式化？</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4660,7 +4658,7 @@
       </rPr>
       <t>.最新版本</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4677,74 +4675,74 @@
       </rPr>
       <t>.找不同</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>4.修改后测试？</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>引用-目录-自动目录</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>目录：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>字间距：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>右键段落左对齐（可在目录标题上面统一修改）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>订单检查→</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>系统配置-订单自动规则</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>→待销售处理/待合并</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>→等待打单（申请跟踪号和修改物流方式）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>：移动到按货打单，移动到按筐打单，多品打单</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>单件多品（购买数量大于1）-筐</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>多件单品/多品-品</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>页面宽度：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>输入代码首字母大写取消：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>limit分页</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *  FROM t_order limit 0,10</t>
   </si>
   <si>
     <t>显示十条数据</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4893,23 +4891,23 @@
   </si>
   <si>
     <t>分页</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=1当前页码</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>pageSize=10;//每页显示记录数</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>start=0</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库前十条数据</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4926,31 +4924,31 @@
       </rPr>
       <t>=9</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=2当前页码</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>start=10</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>end=19</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库第二个十条数据</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>=方法名</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>dgh@666666</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>&lt;app:searchform classes="form-inline form-table" id="searchForm"</t>
@@ -4987,11 +4985,11 @@
       </rPr>
       <t>改成控件代码：</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>修改目录样式：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5030,11 +5028,11 @@
       </rPr>
       <t>-修改</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>选择多个图片</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>Sub 图片边框</t>
@@ -5071,18 +5069,18 @@
   </si>
   <si>
     <t>.OutsideColorIndex = wdGray25</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>Ehcache 和 Redis 比较</t>
   </si>
   <si>
     <t>   Ehcache</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>      Redis        </t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>存取速度</t>
@@ -5110,7 +5108,7 @@
   </si>
   <si>
     <t>至少需要安装服务端和客户端才能使用。操作略比Ehcache复杂一些</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5154,7 +5152,7 @@
       </rPr>
       <t>);</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5182,7 +5180,7 @@
       </rPr>
       <t>(request,new xxMapper())</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5274,19 +5272,19 @@
       </rPr>
       <t>】</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>调用各种Dao层</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>传参为空判断：如pager是否为空</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>入库：</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>一．采购单生成</t>
@@ -5317,7 +5315,7 @@
   </si>
   <si>
     <t>单个：收发货管理-快递发货流程-快递按货打单</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>if (a == 1) ...</t>
@@ -5398,7 +5396,7 @@
   </si>
   <si>
     <t>switch-case</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5459,11 +5457,11 @@
       </rPr>
       <t>效率要高</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>insert into</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5630,11 +5628,11 @@
       </rPr>
       <t>test)</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      VALUES (:id, :test)</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5651,23 +5649,23 @@
       </rPr>
       <t xml:space="preserve"> duplicate key update(非主键，非唯一键字段，重复数据更新不插入）</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      ON DUPLICATE KEY UPDATE id=:id, test=:test</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>批量插入values后面增加数据</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>desc查看表字段数据结构</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>插入单条数据xml</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5683,7 +5681,7 @@
       </rPr>
       <t>批量</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5699,11 +5697,11 @@
       </rPr>
       <t>为接口</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>bessky_erp为psscontroller层，bessky_pss为数据层</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5720,15 +5718,15 @@
       </rPr>
       <t>8流filter</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>https://oa.ser.ltd/dashboard</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>堆</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5745,19 +5743,19 @@
       </rPr>
       <t>共享</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>new的对象</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>new的对象没被栈引用一定时间会被垃圾回收器释放掉</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>栈</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5786,15 +5784,15 @@
   </si>
   <si>
     <t>引用类型地址person@xxx</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>对象属性person.age=10</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>8大基本数据类型int a=10</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6094,7 +6092,7 @@
   </si>
   <si>
     <t>类里面方法（），里面数据类型用完会释放</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6111,55 +6109,55 @@
       </rPr>
       <t>a1释放掉，堆里面age被修改为21</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>equals</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>hashCode</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>hashcode只有在创建某个类的散列表的时候才有用，需要根据hashcode值确认对象在散列表中的位置</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HashMap，HashSet，HashTable </t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>相等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不一定相等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>必然不等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>判断对象内容相等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不一定不相等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>“==”地址相等</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6206,7 +6204,7 @@
   </si>
   <si>
     <t>增加sql语句</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6264,11 +6262,11 @@
       </rPr>
       <t>%") as x  GROUP BY x.table_name  having count(x.table_name) &gt;1) ORDER BY y.table_name,y.table_schema</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>占位符</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>&lt;[AND created_by IN (:created_by_list)]&gt;</t>
@@ -6342,7 +6340,7 @@
   </si>
   <si>
     <t>实体类</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6726,7 +6724,7 @@
   </si>
   <si>
     <t>前端items的key自动对应name(ps:create_by和username是同一个东西）</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6887,26 +6885,26 @@
   </si>
   <si>
     <t>setQueryCondition逗号分割，多个查询</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.213:9095/pss</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.143:59095/pss</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.203:8080/pss/index</t>
   </si>
   <si>
     <t>替换AuthorizationServiceImpl</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6931,30 +6929,77 @@
       </rPr>
       <t>_pss_web/WEB-INF/web.xml-fliter</t>
     </r>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>netstat -ano | findstr 8081</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>taskkill /pid 12860 /f</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>word去掉回车符</t>
-    <phoneticPr fontId="44" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消自动换行编号</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">} </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>// end for</t>
+    </r>
+  </si>
+  <si>
+    <t>比较长的for循环结束写入</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="61">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7631,18 +7676,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7651,10 +7690,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -7664,10 +7709,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -7685,7 +7730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -7694,16 +7739,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -7712,29 +7757,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -7742,145 +7778,160 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7892,25 +7943,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7931,11 +7982,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10931,6 +10979,103 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>29099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:srcRect l="7445" r="10796"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="35490150"/>
+          <a:ext cx="6067425" cy="3753374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7724775" y="38128575"/>
+          <a:ext cx="1209675" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="990033"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11194,8 +11339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P66"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K52" sqref="A52:K53"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11236,7 +11381,7 @@
         <v>2851810174</v>
       </c>
       <c r="N4" s="38" t="s">
-        <v>7</v>
+        <v>517</v>
       </c>
     </row>
     <row r="5" spans="3:16">
@@ -11244,40 +11389,40 @@
         <v>5</v>
       </c>
       <c r="L5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="3:16">
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="s">
         <v>1</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:16">
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O7" t="s">
         <v>5</v>
       </c>
       <c r="P7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="3:16">
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
       <c r="K8" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -11285,7 +11430,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="3:16">
@@ -11293,29 +11438,29 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="3:16">
       <c r="J13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="38" t="s">
+    </row>
+    <row r="14" spans="3:16">
+      <c r="J14" s="77" t="s">
+        <v>510</v>
+      </c>
+      <c r="K14" t="s">
+        <v>511</v>
+      </c>
+      <c r="N14" s="38" t="s">
         <v>509</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16">
-      <c r="J14" s="100" t="s">
-        <v>511</v>
-      </c>
-      <c r="K14" t="s">
-        <v>512</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -11326,38 +11471,38 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="3:16">
       <c r="C16" s="36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G16" s="2"/>
       <c r="K16" t="s">
         <v>5</v>
       </c>
       <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" t="s">
         <v>24</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -11365,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -11373,7 +11518,7 @@
         <v>5</v>
       </c>
       <c r="L20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="3:14">
@@ -11381,18 +11526,18 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K23" t="s">
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -11400,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:14">
@@ -11413,71 +11558,71 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:14">
       <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="I30" t="s">
         <v>34</v>
-      </c>
-      <c r="I30" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="F31" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" t="s">
         <v>36</v>
-      </c>
-      <c r="I31" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="G33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="3:10">
       <c r="G34" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="3:10">
       <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
         <v>41</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>42</v>
-      </c>
-      <c r="J35" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="J38" t="s">
         <v>44</v>
-      </c>
-      <c r="J38" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="3:10">
       <c r="D40" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="F40" s="39" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="41" spans="3:10">
@@ -11490,13 +11635,13 @@
     </row>
     <row r="43" spans="3:10">
       <c r="D43" s="39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="3:10">
       <c r="D44" s="39" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F44" s="39"/>
     </row>
@@ -11510,14 +11655,14 @@
     </row>
     <row r="48" spans="3:10">
       <c r="C48" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="K13" r:id="rId2"/>
@@ -11546,179 +11691,179 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="49" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="49" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="49" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="49" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="F26" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="F27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="F28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="C29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="D30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="C31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:P138"/>
+  <dimension ref="C5:P162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="O147" sqref="O147"/>
+    <sheetView showGridLines="0" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -11728,25 +11873,25 @@
   <sheetData>
     <row r="5" spans="3:5">
       <c r="C5" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="3:5">
       <c r="D13" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="3:5">
       <c r="C15" s="55" t="s">
+        <v>383</v>
+      </c>
+      <c r="E15" s="60" t="s">
         <v>384</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="17" spans="3:16">
       <c r="C17" s="55" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="3:16">
@@ -11754,91 +11899,96 @@
     </row>
     <row r="24" spans="3:16">
       <c r="D24" s="50" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="3:16">
       <c r="C27" s="55" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" s="55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" s="55" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="115" spans="5:5">
       <c r="E115" s="60" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="117" spans="5:5">
       <c r="E117" s="60" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="5:5">
       <c r="E119" s="60" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="121" spans="5:5">
       <c r="E121" s="60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="123" spans="5:5">
       <c r="E123" s="60" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="125" spans="5:5">
       <c r="E125" s="60" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="5:5">
       <c r="E127" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="129" spans="3:5">
       <c r="E129" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="131" spans="3:5">
       <c r="E131" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="133" spans="3:5">
       <c r="E133" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="135" spans="3:5">
       <c r="E135" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="3:5">
       <c r="E137" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="3:5">
       <c r="C138" s="55" t="s">
-        <v>517</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162" s="55" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11849,7 +11999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AQ128"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="X106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y135" sqref="Y135"/>
     </sheetView>
   </sheetViews>
@@ -11860,341 +12010,341 @@
   <sheetData>
     <row r="1" spans="2:40">
       <c r="AA1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="34" t="s">
         <v>47</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="2:40">
       <c r="D2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="AG2" s="35"/>
       <c r="AN2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:40">
       <c r="AA11" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:40">
       <c r="AA12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="2:40">
       <c r="B15" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:40">
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="2:28">
       <c r="B17" s="2"/>
       <c r="D17" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:28">
       <c r="AA19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="2:28">
       <c r="B27" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:28">
       <c r="D29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA29" s="11" t="s">
         <v>60</v>
-      </c>
-      <c r="AA29" s="11" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:28">
       <c r="E30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA30" s="74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="2:28">
       <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB31" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="AB31" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="32" spans="2:28">
       <c r="E32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="4:43">
       <c r="E33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA33" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="4:43">
       <c r="E34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB34" s="56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="35" spans="4:43">
       <c r="E35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB35" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AI35" s="56" t="s">
+        <v>363</v>
+      </c>
+      <c r="AK35" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="AK35" s="56" t="s">
-        <v>365</v>
-      </c>
       <c r="AO35" s="56" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AQ35" s="56" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36" spans="4:43">
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB36" s="56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="4:43">
       <c r="E37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AB37" s="57" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AI37" s="56" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AO37" s="56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="4:43">
       <c r="E38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="4:43">
       <c r="E39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AB39" s="57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AI39" s="56" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AO39" s="56" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="4:43">
       <c r="E40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="4:43">
       <c r="AB41" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AJ41" s="56" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AP41" s="56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="4:43">
       <c r="AA43" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="4:43">
       <c r="AB44" s="62" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="4:43">
       <c r="AB45" s="62" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46" spans="4:43">
       <c r="AB46" s="62" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="2:28">
       <c r="B51" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="2:28">
       <c r="D52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="2:28">
       <c r="E53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="2:28">
       <c r="E54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="2:28">
       <c r="E55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="2:28">
       <c r="E56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="2:28">
       <c r="E57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" spans="2:28">
       <c r="D58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="2:28">
       <c r="E59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="2:28">
       <c r="E60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="2:28">
       <c r="E61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:28">
       <c r="D62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AB62" s="62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="2:28">
       <c r="D63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AB63" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="64" spans="2:28">
       <c r="D64" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB64" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="65" spans="2:28">
       <c r="AB65" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="2:28">
       <c r="AB66" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="67" spans="2:28">
       <c r="AB67" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="68" spans="2:28">
       <c r="AB68" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" spans="2:28">
       <c r="AB69" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="70" spans="2:28">
       <c r="AB70" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="2:28">
       <c r="AB71" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72" spans="2:28">
       <c r="AB72" s="62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="73" spans="2:28">
       <c r="B73" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="AB73" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="75" spans="2:28">
@@ -12208,135 +12358,135 @@
     </row>
     <row r="78" spans="2:28">
       <c r="D78" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB78" s="10"/>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="27:28">
       <c r="AA100" s="72" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="102" spans="27:28">
       <c r="AB102" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="27:28">
       <c r="AA105" s="74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="27:28">
       <c r="AB106" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="107" spans="27:28">
       <c r="AB107" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="27:28">
       <c r="AB109" s="74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" spans="27:28">
       <c r="AB110" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="111" spans="27:28">
       <c r="AB111" s="75" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="27:28">
       <c r="AB112" s="76" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="28:28">
       <c r="AB113" s="54" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="28:28">
       <c r="AB115" s="74" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="28:28">
       <c r="AB116" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="117" spans="28:28">
       <c r="AB117" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="118" spans="28:28">
       <c r="AB118" s="51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="28:28">
       <c r="AB119" s="49" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="28:28">
       <c r="AB120" s="49" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122" spans="28:28">
       <c r="AB122" s="74" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="123" spans="28:28">
       <c r="AB123" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="28:28">
       <c r="AB124" s="54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="28:28">
       <c r="AB125" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="126" spans="28:28">
       <c r="AB126" s="49" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="127" spans="28:28">
       <c r="AB127" s="49" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" spans="28:28">
       <c r="AB128" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12358,151 +12508,151 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G8" s="50" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="B10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="77" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="77" t="s">
         <v>513</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="B18" s="100" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="39" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="39" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="C31" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="D32" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" spans="4:6">
       <c r="D33" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="4:6">
       <c r="D34" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" spans="4:6">
       <c r="F41" s="39"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12518,7 +12668,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12539,7 +12689,7 @@
   <sheetData>
     <row r="3" spans="3:9">
       <c r="D3" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -12549,7 +12699,7 @@
     <row r="4" spans="3:9">
       <c r="D4" s="16"/>
       <c r="E4" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
@@ -12558,7 +12708,7 @@
     <row r="5" spans="3:9">
       <c r="D5" s="16"/>
       <c r="E5" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -12567,7 +12717,7 @@
     <row r="6" spans="3:9">
       <c r="D6" s="16"/>
       <c r="E6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
@@ -12576,7 +12726,7 @@
     <row r="7" spans="3:9">
       <c r="D7" s="16"/>
       <c r="E7" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -12585,7 +12735,7 @@
     <row r="8" spans="3:9">
       <c r="D8" s="16"/>
       <c r="E8" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -12594,7 +12744,7 @@
     <row r="9" spans="3:9">
       <c r="D9" s="16"/>
       <c r="E9" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -12603,7 +12753,7 @@
     <row r="10" spans="3:9">
       <c r="D10" s="22"/>
       <c r="E10" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -12621,7 +12771,7 @@
     <row r="12" spans="3:9">
       <c r="C12" s="18"/>
       <c r="D12" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -12632,7 +12782,7 @@
     <row r="13" spans="3:9">
       <c r="C13" s="18"/>
       <c r="D13" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -12643,7 +12793,7 @@
     <row r="14" spans="3:9">
       <c r="C14" s="18"/>
       <c r="D14" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -12655,7 +12805,7 @@
       <c r="C15" s="18"/>
       <c r="D15" s="16"/>
       <c r="E15" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -12700,37 +12850,37 @@
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="4:21">
       <c r="D68" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="4:21">
@@ -12742,80 +12892,80 @@
     <row r="71" spans="4:21" s="14" customFormat="1"/>
     <row r="72" spans="4:21">
       <c r="D72" s="62" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="4:21">
       <c r="O73" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="4:21">
       <c r="D74" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E74" s="71"/>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="P74" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="P74" s="56" t="s">
+      <c r="S74" s="56" t="s">
         <v>349</v>
       </c>
-      <c r="S74" s="56" t="s">
+      <c r="U74" s="56" t="s">
         <v>350</v>
-      </c>
-      <c r="U74" s="56" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="75" spans="4:21">
       <c r="D75" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E75" s="71"/>
     </row>
     <row r="76" spans="4:21">
       <c r="D76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E76" s="71"/>
     </row>
     <row r="77" spans="4:21">
       <c r="D77" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E77" s="71"/>
     </row>
     <row r="78" spans="4:21">
       <c r="D78" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E78" s="71"/>
     </row>
     <row r="79" spans="4:21">
       <c r="D79" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E79" s="71"/>
     </row>
     <row r="80" spans="4:21">
       <c r="D80" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E80" s="71"/>
     </row>
     <row r="81" spans="4:22">
       <c r="D81" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E81" s="71"/>
     </row>
     <row r="82" spans="4:22">
       <c r="D82" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E82" s="71"/>
     </row>
@@ -12824,21 +12974,21 @@
         <v>2</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P87" s="56" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="4:22">
       <c r="P88" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R88" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="V88" s="56" t="s">
         <v>353</v>
-      </c>
-      <c r="V88" s="56" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="89" spans="4:22">
@@ -12846,14 +12996,14 @@
         <v>3</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P89" s="62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="S89" s="2"/>
       <c r="U89" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="4:22">
@@ -12861,7 +13011,7 @@
         <v>4</v>
       </c>
       <c r="O90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="4:22">
@@ -12869,7 +13019,7 @@
         <v>5</v>
       </c>
       <c r="O91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="4:22">
@@ -12877,13 +13027,13 @@
         <v>6</v>
       </c>
       <c r="O92" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P92" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="P92" s="2" t="s">
+      <c r="S92" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="S92" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="93" spans="4:22">
@@ -12891,14 +13041,14 @@
         <v>7</v>
       </c>
       <c r="O93" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P93" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="P93" s="2" t="s">
-        <v>130</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D74" location="_Toc62832607" display="_Toc62832607"/>
     <hyperlink ref="D75" location="_Toc62832608" display="_Toc62832608"/>
@@ -12931,95 +13081,95 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="C2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="D3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="C11" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="C13" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="C14" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="C15" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="C17" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="C19" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -13027,12 +13177,12 @@
         <v>1</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="D23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -13040,7 +13190,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -13048,12 +13198,12 @@
         <v>3</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="D27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -13061,7 +13211,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -13069,46 +13219,46 @@
         <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="D32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:8">
       <c r="B36" s="39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="2:8">
       <c r="B37" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="2:8">
       <c r="C38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" t="s">
         <v>159</v>
-      </c>
-      <c r="F38" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:8">
       <c r="C39" s="39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H39" s="39"/>
     </row>
     <row r="40" spans="2:8">
       <c r="C40" s="39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H40" s="39"/>
     </row>
@@ -13118,67 +13268,67 @@
     </row>
     <row r="42" spans="2:8">
       <c r="B42" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="2:8">
       <c r="C43" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="2:8">
       <c r="C44" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="2:8">
       <c r="B46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="39" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -13188,7 +13338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:O103"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -13202,470 +13352,470 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:15">
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+      <c r="L2" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95"/>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>170</v>
-      </c>
-      <c r="O2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="3" spans="3:15">
       <c r="C3" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="4" spans="3:15">
       <c r="C4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="C6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>182</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="7" spans="3:15">
       <c r="C7" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="3:15">
       <c r="C8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="3:15">
       <c r="C9" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="10" spans="3:15">
       <c r="C10" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="3:15">
       <c r="C11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="12" spans="3:15">
       <c r="C12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="13" spans="3:15">
       <c r="C13" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="3:15">
       <c r="C14" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>202</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="3:15">
       <c r="C15" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="D32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="D33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="81" t="s">
+        <v>399</v>
+      </c>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79" t="s">
-        <v>401</v>
-      </c>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D43" s="101" t="s">
         <v>402</v>
       </c>
-      <c r="D43" s="99" t="s">
+      <c r="E43" s="101"/>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="92" t="s">
         <v>403</v>
       </c>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="90" t="s">
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+    </row>
+    <row r="44" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C44" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
-    </row>
-    <row r="44" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C44" s="77" t="s">
+      <c r="D44" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="D44" s="89" t="s">
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91" t="s">
         <v>406</v>
       </c>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="89"/>
-      <c r="H44" s="89" t="s">
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="79"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+    </row>
+    <row r="46" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C46" s="98" t="s">
         <v>407</v>
       </c>
-      <c r="I44" s="89"/>
-      <c r="J44" s="89"/>
-      <c r="K44" s="89"/>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="77"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-    </row>
-    <row r="46" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C46" s="96" t="s">
+      <c r="D46" s="91" t="s">
         <v>408</v>
       </c>
-      <c r="D46" s="89" t="s">
+      <c r="E46" s="91"/>
+      <c r="F46" s="91"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89" t="s">
-        <v>410</v>
-      </c>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="91"/>
+      <c r="K46" s="91"/>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="97"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
     </row>
     <row r="48" spans="3:11">
-      <c r="C48" s="98"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="91"/>
+      <c r="F48" s="91"/>
+      <c r="G48" s="91"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
+      <c r="J48" s="91"/>
+      <c r="K48" s="91"/>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="73" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="93" t="s">
+        <v>454</v>
+      </c>
+      <c r="D54" s="94"/>
+      <c r="E54" s="93" t="s">
+        <v>450</v>
+      </c>
+      <c r="F54" s="94"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="84" t="s">
+        <v>451</v>
+      </c>
+      <c r="D55" s="88"/>
+      <c r="E55" s="84" t="s">
+        <v>453</v>
+      </c>
+      <c r="F55" s="85"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="89"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="86"/>
+      <c r="F56" s="87"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="80" t="s">
+        <v>458</v>
+      </c>
+      <c r="D57" s="79"/>
+      <c r="E57" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="F57" s="79"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="80" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="91" t="s">
-        <v>455</v>
-      </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="91" t="s">
-        <v>451</v>
-      </c>
-      <c r="F54" s="92"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="82" t="s">
-        <v>452</v>
-      </c>
-      <c r="D55" s="86"/>
-      <c r="E55" s="82" t="s">
-        <v>454</v>
-      </c>
-      <c r="F55" s="83"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="87"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="85"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="78" t="s">
-        <v>459</v>
-      </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78" t="s">
-        <v>453</v>
-      </c>
-      <c r="F57" s="77"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="78" t="s">
+      <c r="D58" s="79"/>
+      <c r="E58" s="80" t="s">
         <v>457</v>
       </c>
-      <c r="D58" s="77"/>
-      <c r="E58" s="78" t="s">
-        <v>458</v>
-      </c>
-      <c r="F58" s="77"/>
+      <c r="F58" s="79"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="78" t="s">
-        <v>474</v>
-      </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
+      <c r="C59" s="80" t="s">
+        <v>473</v>
+      </c>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
+      <c r="C61" s="79"/>
+      <c r="D61" s="79"/>
+      <c r="E61" s="79"/>
+      <c r="F61" s="79"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
+      <c r="C63" s="79"/>
+      <c r="D63" s="79"/>
+      <c r="E63" s="79"/>
+      <c r="F63" s="79"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="8"/>
@@ -13679,42 +13829,42 @@
     </row>
     <row r="68" spans="3:6">
       <c r="F68" s="73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="69" spans="3:6">
       <c r="F69" s="73" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="3:6">
       <c r="F70" s="73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="3:6">
       <c r="F71" s="73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" spans="3:6">
       <c r="F72" s="73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="73" spans="3:6">
       <c r="F73" s="73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74" spans="3:6">
       <c r="F74" s="73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="F75" s="73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="76" spans="3:6">
@@ -13722,168 +13872,168 @@
     </row>
     <row r="77" spans="3:6">
       <c r="F77" s="73" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="3:6">
       <c r="F78" s="73" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="79" spans="3:6">
       <c r="F79" s="73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="80" spans="3:6">
       <c r="F80" s="73" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="81" spans="3:8">
       <c r="F81" s="73" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="82" spans="3:8">
       <c r="F82" s="73" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="72" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F83" s="73" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84" spans="3:8">
       <c r="F84" s="73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="85" spans="3:8">
       <c r="F85" s="73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="72"/>
     </row>
     <row r="91" spans="3:8">
-      <c r="C91" s="79" t="s">
+      <c r="C91" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="D91" s="81"/>
+      <c r="E91" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79" t="s">
+      <c r="F91" s="81"/>
+      <c r="G91" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="H91" s="81"/>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="C92" s="82" t="s">
+        <v>483</v>
+      </c>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82" t="s">
         <v>477</v>
       </c>
-      <c r="F91" s="79"/>
-      <c r="G91" s="79" t="s">
-        <v>476</v>
-      </c>
-      <c r="H91" s="79"/>
-    </row>
-    <row r="92" spans="3:8">
-      <c r="C92" s="80" t="s">
+      <c r="F92" s="83"/>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="82"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="83"/>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D94" s="79"/>
+      <c r="E94" s="80" t="s">
+        <v>478</v>
+      </c>
+      <c r="F94" s="80"/>
+    </row>
+    <row r="95" spans="3:8">
+      <c r="C95" s="80" t="s">
+        <v>479</v>
+      </c>
+      <c r="D95" s="79"/>
+      <c r="E95" s="80" t="s">
+        <v>480</v>
+      </c>
+      <c r="F95" s="80"/>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="C96" s="80" t="s">
+        <v>481</v>
+      </c>
+      <c r="D96" s="79"/>
+      <c r="E96" s="80" t="s">
+        <v>482</v>
+      </c>
+      <c r="F96" s="80"/>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="C97" s="79"/>
+      <c r="D97" s="79"/>
+      <c r="E97" s="80" t="s">
+        <v>479</v>
+      </c>
+      <c r="F97" s="80"/>
+      <c r="G97" s="80" t="s">
+        <v>480</v>
+      </c>
+      <c r="H97" s="80"/>
+    </row>
+    <row r="98" spans="3:8">
+      <c r="C98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80" t="s">
-        <v>478</v>
-      </c>
-      <c r="F92" s="81"/>
-    </row>
-    <row r="93" spans="3:8">
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="81"/>
-      <c r="F93" s="81"/>
-    </row>
-    <row r="94" spans="3:8">
-      <c r="C94" s="78" t="s">
-        <v>487</v>
-      </c>
-      <c r="D94" s="77"/>
-      <c r="E94" s="78" t="s">
-        <v>479</v>
-      </c>
-      <c r="F94" s="78"/>
-    </row>
-    <row r="95" spans="3:8">
-      <c r="C95" s="78" t="s">
-        <v>480</v>
-      </c>
-      <c r="D95" s="77"/>
-      <c r="E95" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="F95" s="78"/>
-    </row>
-    <row r="96" spans="3:8">
-      <c r="C96" s="78" t="s">
-        <v>482</v>
-      </c>
-      <c r="D96" s="77"/>
-      <c r="E96" s="78" t="s">
-        <v>483</v>
-      </c>
-      <c r="F96" s="78"/>
-    </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="78" t="s">
-        <v>480</v>
-      </c>
-      <c r="F97" s="78"/>
-      <c r="G97" s="78" t="s">
-        <v>481</v>
-      </c>
-      <c r="H97" s="78"/>
-    </row>
-    <row r="98" spans="3:8">
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="78" t="s">
+      <c r="F98" s="80"/>
+      <c r="G98" s="80" t="s">
         <v>485</v>
       </c>
-      <c r="F98" s="78"/>
-      <c r="G98" s="78" t="s">
-        <v>486</v>
-      </c>
-      <c r="H98" s="78"/>
+      <c r="H98" s="80"/>
     </row>
     <row r="99" spans="3:8">
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="78"/>
+      <c r="C99" s="79"/>
+      <c r="D99" s="79"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
     </row>
     <row r="100" spans="3:8">
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="78"/>
+      <c r="C100" s="79"/>
+      <c r="D100" s="79"/>
+      <c r="E100" s="80"/>
+      <c r="F100" s="80"/>
     </row>
     <row r="101" spans="3:8">
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="78"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="79"/>
+      <c r="E101" s="80"/>
+      <c r="F101" s="80"/>
     </row>
     <row r="102" spans="3:8">
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="78"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="80"/>
+      <c r="F102" s="80"/>
     </row>
     <row r="103" spans="3:8">
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="78"/>
-      <c r="F103" s="78"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="79"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -13946,7 +14096,7 @@
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="C99:D99"/>
   </mergeCells>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -13955,77 +14105,77 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B16:B46"/>
+  <dimension ref="B16:C52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="16" spans="2:2" ht="20.25">
       <c r="B16" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20.25">
       <c r="B21" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="20.25">
       <c r="B29" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="49" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="49" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="49" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -14033,36 +14183,51 @@
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="20.25">
       <c r="B42" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="17.25">
       <c r="B43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="2:2" ht="17.25">
       <c r="B46" t="s">
-        <v>429</v>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" s="78" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="C51" s="78" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="C52" s="10" t="s">
+        <v>519</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14080,76 +14245,76 @@
   <sheetData>
     <row r="5" spans="2:28">
       <c r="B5" s="44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="16.5" customHeight="1">
       <c r="K6" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="2:28">
       <c r="N8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="2:28">
       <c r="C9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="2:28">
       <c r="C11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" t="s">
         <v>233</v>
-      </c>
-      <c r="E11" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="13" spans="2:28">
       <c r="C13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" t="s">
         <v>236</v>
-      </c>
-      <c r="E13" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="14" spans="2:28">
       <c r="N14" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="P14" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="P14" s="64" t="s">
+      <c r="R14" t="s">
         <v>304</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" s="66" t="s">
         <v>305</v>
-      </c>
-      <c r="T14" s="66" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="15" spans="2:28">
       <c r="P15" s="64"/>
       <c r="T15" s="67" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AB15" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="2:28">
       <c r="C16" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P16" s="65" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="T16" s="68"/>
       <c r="V16" s="58" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="3:20">
@@ -14158,172 +14323,172 @@
     </row>
     <row r="18" spans="3:20">
       <c r="P18" s="65" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T18" s="69" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="3:20">
       <c r="C19" t="s">
+        <v>238</v>
+      </c>
+      <c r="E19" t="s">
         <v>239</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>240</v>
-      </c>
-      <c r="G19" t="s">
-        <v>241</v>
       </c>
       <c r="P19" s="64"/>
       <c r="T19" s="70" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="3:20">
       <c r="C22" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" t="s">
         <v>242</v>
-      </c>
-      <c r="E22" t="s">
-        <v>243</v>
       </c>
       <c r="T22" s="63"/>
     </row>
     <row r="23" spans="3:20">
       <c r="C23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="N23" s="46"/>
     </row>
     <row r="24" spans="3:20">
       <c r="C24" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" t="s">
         <v>246</v>
-      </c>
-      <c r="E24" t="s">
-        <v>247</v>
       </c>
       <c r="N24" s="46"/>
     </row>
     <row r="27" spans="3:20">
       <c r="C27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E27" t="s">
         <v>248</v>
-      </c>
-      <c r="E27" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="3:20">
       <c r="C29" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E29" t="s">
         <v>250</v>
-      </c>
-      <c r="E29" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="31" spans="3:20">
       <c r="C31" t="s">
+        <v>251</v>
+      </c>
+      <c r="E31" t="s">
         <v>252</v>
-      </c>
-      <c r="E31" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="33" spans="3:7">
       <c r="C33" t="s">
+        <v>253</v>
+      </c>
+      <c r="E33" t="s">
         <v>254</v>
-      </c>
-      <c r="E33" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="37" spans="3:7">
       <c r="C37" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="3:7">
       <c r="C42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="44" spans="3:7">
       <c r="C44" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E53" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="I53" s="42" t="s">
         <v>293</v>
-      </c>
-      <c r="I53" s="42" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="E54" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="3:9">
       <c r="C56" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="E57" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="41" t="s">
         <v>290</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="3:6">
       <c r="C78" t="s">
-        <v>300</v>
-      </c>
-      <c r="F78" s="100" t="s">
+        <v>299</v>
+      </c>
+      <c r="F78" s="77" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="F80" s="77" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="80" spans="3:6">
-      <c r="F80" s="100" t="s">
-        <v>516</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="44" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="452">
   <si>
     <t>SVN</t>
   </si>
@@ -1266,7 +1266,7 @@
       </rPr>
       <t xml:space="preserve"> svn:</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1283,23 +1283,23 @@
       </rPr>
       <t>heck out下载代码</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>提交代码（commit）前update</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>复制修改过的代码类粘贴到文件夹对应位置替换</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>忽视文件</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>setting-Editor-File Types</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1316,7 +1316,7 @@
       </rPr>
       <t>n files and folders后面添加*.iml;*.idea;*.gitignore;*.sh;*.classpath;*.project;*.settings;target;logs;</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1333,7 +1333,7 @@
       </rPr>
       <t>.xx 为忽视该后缀文件</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1350,31 +1350,31 @@
       </rPr>
       <t>/  过滤文件夹</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>xx.java  过滤文件</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>去除路径多余字段：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>session生效</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>自动导包</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1409,11 +1409,11 @@
       </rPr>
       <t>Optimize imports on the fly (for current project)</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>控制台》》输入代码包含元素可以搜索路径，{ }展开代码</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1463,7 +1463,7 @@
       </rPr>
       <t>js打断点</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1480,7 +1480,7 @@
       </rPr>
       <t>10下一个断点</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>【修改原因】#1009482</t>
@@ -1496,35 +1496,35 @@
   </si>
   <si>
     <t>生成采购单的action在form上面</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>查端口pid并杀死</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>ALL里面路径找controller位置</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>在浏览器页面找到title中文名（或者其他中文关键词），在idea-find in path找jsp</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>serviceImpl</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>dao层</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>dao层impl</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1563,11 +1563,11 @@
       </rPr>
       <t>ml</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2787,7 +2787,7 @@
       </rPr>
       <t>.格式化？</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2804,7 +2804,7 @@
       </rPr>
       <t>.最新版本</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2821,46 +2821,46 @@
       </rPr>
       <t>.找不同</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>4.修改后测试？</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>引用-目录-自动目录</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>目录：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>字间距：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>右键段落左对齐（可在目录标题上面统一修改）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>页面宽度：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>输入代码首字母大写取消：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>limit分页</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *  FROM t_order limit 0,10</t>
   </si>
   <si>
     <t>显示十条数据</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3009,23 +3009,23 @@
   </si>
   <si>
     <t>分页</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=1当前页码</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>pageSize=10;//每页显示记录数</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>start=0</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库前十条数据</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3042,31 +3042,31 @@
       </rPr>
       <t>=9</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=2当前页码</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>start=10</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>end=19</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库第二个十条数据</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>=方法名</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>dgh@666666</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>&lt;app:searchform classes="form-inline form-table" id="searchForm"</t>
@@ -3103,11 +3103,11 @@
       </rPr>
       <t>改成控件代码：</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>修改目录样式：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3146,11 +3146,11 @@
       </rPr>
       <t>-修改</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>选择多个图片</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>Sub 图片边框</t>
@@ -3187,18 +3187,18 @@
   </si>
   <si>
     <t>.OutsideColorIndex = wdGray25</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>Ehcache 和 Redis 比较</t>
   </si>
   <si>
     <t>   Ehcache</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>      Redis        </t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>存取速度</t>
@@ -3226,7 +3226,7 @@
   </si>
   <si>
     <t>至少需要安装服务端和客户端才能使用。操作略比Ehcache复杂一些</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3270,7 +3270,7 @@
       </rPr>
       <t>);</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3298,7 +3298,7 @@
       </rPr>
       <t>(request,new xxMapper())</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3390,15 +3390,15 @@
       </rPr>
       <t>】</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>调用各种Dao层</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>传参为空判断：如pager是否为空</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>if (a == 1) ...</t>
@@ -3479,7 +3479,7 @@
   </si>
   <si>
     <t>switch-case</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3540,11 +3540,11 @@
       </rPr>
       <t>效率要高</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>insert into</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3711,11 +3711,11 @@
       </rPr>
       <t>test)</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      VALUES (:id, :test)</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3732,23 +3732,23 @@
       </rPr>
       <t xml:space="preserve"> duplicate key update(非主键，非唯一键字段，重复数据更新不插入）</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      ON DUPLICATE KEY UPDATE id=:id, test=:test</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>批量插入values后面增加数据</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>desc查看表字段数据结构</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>插入单条数据xml</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3764,7 +3764,7 @@
       </rPr>
       <t>批量</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3780,11 +3780,11 @@
       </rPr>
       <t>为接口</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>bessky_erp为psscontroller层，bessky_pss为数据层</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3801,15 +3801,11 @@
       </rPr>
       <t>8流filter</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://oa.ser.ltd/dashboard</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>堆</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3826,19 +3822,19 @@
       </rPr>
       <t>共享</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>new的对象</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>new的对象没被栈引用一定时间会被垃圾回收器释放掉</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>栈</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3867,15 +3863,15 @@
   </si>
   <si>
     <t>引用类型地址person@xxx</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>对象属性person.age=10</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>8大基本数据类型int a=10</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4175,7 +4171,7 @@
   </si>
   <si>
     <t>类里面方法（），里面数据类型用完会释放</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4192,55 +4188,55 @@
       </rPr>
       <t>a1释放掉，堆里面age被修改为21</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>equals</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>hashCode</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>hashcode只有在创建某个类的散列表的时候才有用，需要根据hashcode值确认对象在散列表中的位置</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HashMap，HashSet，HashTable </t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>相等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不一定相等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>必然不等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>判断对象内容相等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>不一定不相等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>“==”地址相等</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4287,11 +4283,11 @@
   </si>
   <si>
     <t>增加sql语句</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>占位符</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>&lt;[AND created_by IN (:created_by_list)]&gt;</t>
@@ -4365,7 +4361,7 @@
   </si>
   <si>
     <t>实体类</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4749,7 +4745,7 @@
   </si>
   <si>
     <t>前端items的key自动对应name(ps:create_by和username是同一个东西）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4910,22 +4906,22 @@
   </si>
   <si>
     <t>setQueryCondition逗号分割，多个查询</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.143:59095/pss</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.203:8080/pss/index</t>
   </si>
   <si>
     <t>替换AuthorizationServiceImpl</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4950,19 +4946,15 @@
       </rPr>
       <t>_pss_web/WEB-INF/web.xml-fliter</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>word去掉回车符</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>取消自动换行编号</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4981,11 +4973,11 @@
   </si>
   <si>
     <t>比较长的for循环结束写入</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>注释：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5011,7 +5003,7 @@
       </rPr>
       <t>:</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Ctrl+Alt+L</t>
@@ -5047,35 +5039,148 @@
       </rPr>
       <t>todo:</t>
     </r>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>查找表里面所有列名哪些包含字段（模糊查询）：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>app回显input框数据</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>订单ID</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <t>申请跟踪号失败</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题（截图）</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>修改订单找到街道，里面有0</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>  这单帮忙再新申请一个单号   SKU信息换下  品名：化妆刷、Makeup brush    重量：0.3kg</t>
+  </si>
+  <si>
+    <t>select * from t_order t where t.order_id=699143903 ;</t>
+  </si>
+  <si>
+    <t>select * from t_order_item t where t.order_id='104521675439194_CP_69518';</t>
+  </si>
+  <si>
+    <t>select * from t_product t where t.product_sku in ('I02YSS91005782CO','I01YSS91129798BW','I01YSS91129798WH');</t>
+  </si>
+  <si>
+    <t>查询线上订单的信息，复制到开发环境</t>
+  </si>
+  <si>
+    <t>申请跟踪号</t>
+  </si>
+  <si>
+    <t>开发环境找到对应的物流类，修改buildRequestOrder方法里面的重量 ，中文品名，英文品名，</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>禅道需求完成确认：</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>netstat -ano | findstr 8081</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>taskkill /pid 12860 /f</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">            &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">td </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="block-label-td"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>物流渠道</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入法打出ico图标</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>要简写，如bs</t>
     </r>
     <r>
       <rPr>
@@ -5086,134 +5191,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0200，ARMEE关键字</t>
-    </r>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>  这单帮忙再新申请一个单号   SKU信息换下  品名：化妆刷、Makeup brush    重量：0.3kg</t>
-  </si>
-  <si>
-    <t>select * from t_order t where t.order_id=699143903 ;</t>
-  </si>
-  <si>
-    <t>select * from t_order_item t where t.order_id='104521675439194_CP_69518';</t>
-  </si>
-  <si>
-    <t>select * from t_product t where t.product_sku in ('I02YSS91005782CO','I01YSS91129798BW','I01YSS91129798WH');</t>
-  </si>
-  <si>
-    <t>查询线上订单的信息，复制到开发环境</t>
-  </si>
-  <si>
-    <t>申请跟踪号</t>
-  </si>
-  <si>
-    <t>开发环境找到对应的物流类，修改buildRequestOrder方法里面的重量 ，中文品名，英文品名，</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>禅道需求完成确认：</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>netstat -ano | findstr 8081</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>taskkill /pid 12860 /f</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">td </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="block-label-td"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>物流渠道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>td</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入法打出ico图标</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>要简写，如bs</t>
+      <t>,会显示扳手</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssm</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
     </r>
     <r>
       <rPr>
@@ -5224,17 +5212,9 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,会显示扳手</t>
-    </r>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.99.213:9095/pss</t>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssm</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+      <t>pring</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5249,13 +5229,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pring</t>
-    </r>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
+      <t>pringMVC</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
     </r>
     <r>
       <rPr>
@@ -5266,13 +5246,59 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pringMVC</t>
-    </r>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
+      <t>ybatis</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>回退到等待物流收包状态</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 麻烦申请下跟踪号</t>
+  </si>
+  <si>
+    <t>物流接口操作：申请跟踪号</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDA退货扫描，多仓订单，扫退货时候，能否改成电脑一样，只报一个仓库</t>
+  </si>
+  <si>
+    <t>退件员只负责扫退货，拆包、更换二维码现在都是仓库自己完成</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>702967767改589</t>
+  </si>
+  <si>
+    <t>帮忙改下渠道</t>
+  </si>
+  <si>
+    <t>改运输方式</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪号重复，无法获取面单</t>
+  </si>
+  <si>
+    <t>标记发货相当于换号处理，清空跟踪号后再申请就好了</t>
+  </si>
+  <si>
+    <t>运输方式规则看禁运国家</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码没编译向下运行</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>build</t>
     </r>
     <r>
       <rPr>
@@ -5283,24 +5309,146 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ybatis</t>
-    </r>
-    <phoneticPr fontId="43" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP</t>
-    <phoneticPr fontId="43" type="noConversion"/>
+      <t>&gt;build project</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://getman.cn/</t>
+  </si>
+  <si>
+    <t>http测试</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://oa.ser.ltd/dashboard</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述（截图）</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题解决</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改订单找到街道，里面有00200，ARMEE关键字</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 包裹都是无法回退的，只能一单一单回退扫描</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>通性问题</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>通性问题</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ersion Control</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以将不需要上传的代码分类</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.213:9095/pss</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cannot access nexus  in offline mode and the artifact </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has not been downloaded from it before.</t>
+    </r>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入Settings-build Tools，把Work offline的勾去除即可。</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>报红，点开方法进入，定位所在模块，maven clean install</t>
+    <phoneticPr fontId="46" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
+    <phoneticPr fontId="46" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="63">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="68">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5776,8 +5924,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5802,8 +5967,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -5989,32 +6160,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top style="thick">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="6"/>
+      </left>
+      <right style="thick">
+        <color theme="6"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -6024,10 +6364,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -6042,7 +6382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -6051,16 +6391,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -6069,22 +6409,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6093,124 +6424,145 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6222,19 +6574,97 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="66" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6246,7 +6676,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6261,25 +6691,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6291,52 +6721,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7220,16 +7620,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>879231</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>12211</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>48846</xdr:rowOff>
+      <xdr:rowOff>12211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>727247</xdr:colOff>
+      <xdr:colOff>737982</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>157413</xdr:rowOff>
+      <xdr:rowOff>96630</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7246,8 +7646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10856058" y="586154"/>
-          <a:ext cx="9983593" cy="914528"/>
+          <a:off x="11980581" y="605798"/>
+          <a:ext cx="10002292" cy="871267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7259,15 +7659,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:colOff>256443</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>382098</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>21805</xdr:rowOff>
+      <xdr:colOff>41924</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>212308</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7284,12 +7684,122 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21516731" y="879231"/>
+          <a:off x="22176155" y="805962"/>
           <a:ext cx="4363059" cy="485843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>412295</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>248163</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>612098</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137871</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="25564753" y="4122739"/>
+          <a:ext cx="1736838" cy="462177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>98584</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>48847</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>422358</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>103384</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="C:\Users\win10\Documents\Tencent Files\2851810174\Image\C2C\%MQ9J90FT]WBHOCBE6%T5@Y.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="22116519" y="5529173"/>
+          <a:ext cx="4962035" cy="2152798"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -8552,6 +9062,156 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>207382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>454052</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848099" y="15085432"/>
+          <a:ext cx="7407303" cy="1449968"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>362745</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>143040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="16563975"/>
+          <a:ext cx="5696745" cy="1181265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="28782" t="65212" r="15646" b="30398"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619251" y="19516724"/>
+          <a:ext cx="5848350" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>123902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="1797" t="8619" r="2955"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1771650" y="19945350"/>
+          <a:ext cx="5553076" cy="504902"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8604,13 +9264,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>170136</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>95568</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8641,13 +9301,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>705802</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8684,13 +9344,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>714376</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>58404</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8700,7 +9360,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2695576" y="8658225"/>
+          <a:off x="2695576" y="8001000"/>
           <a:ext cx="5638800" cy="4763754"/>
           <a:chOff x="1400175" y="11584024"/>
           <a:chExt cx="8041325" cy="5895605"/>
@@ -8787,13 +9447,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>162483</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8803,7 +9463,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2733675" y="5972175"/>
+          <a:off x="2733675" y="5314950"/>
           <a:ext cx="6800850" cy="2077008"/>
           <a:chOff x="5029200" y="5619750"/>
           <a:chExt cx="10258426" cy="4048683"/>
@@ -8919,13 +9579,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>105397</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8956,13 +9616,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9011,13 +9671,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>200621</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9048,13 +9708,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9108,13 +9768,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>162</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>29099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -9145,13 +9805,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>175</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9464,8 +10124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9506,7 +10166,7 @@
         <v>2851810174</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="3:16">
@@ -9547,7 +10207,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>331</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -9571,7 +10231,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>423</v>
+        <v>447</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>16</v>
@@ -9579,13 +10239,13 @@
     </row>
     <row r="14" spans="3:16">
       <c r="J14" s="72" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" t="s">
         <v>390</v>
       </c>
-      <c r="K14" t="s">
-        <v>391</v>
-      </c>
       <c r="N14" s="34" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -9788,11 +10448,11 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="76" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="K13" r:id="rId2"/>
@@ -9810,8 +10470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:AB124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U142" sqref="U142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9848,7 +10508,7 @@
     </row>
     <row r="18" spans="12:28">
       <c r="L18" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="12:28">
@@ -10015,32 +10675,32 @@
     </row>
     <row r="96" spans="12:12">
       <c r="L96" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="98" spans="12:13">
       <c r="M98" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="101" spans="12:13">
       <c r="L101" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="102" spans="12:13">
       <c r="M102" s="9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="103" spans="12:13">
       <c r="M103" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="12:13">
       <c r="M105" s="69" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="106" spans="12:13">
@@ -10050,62 +10710,62 @@
     </row>
     <row r="107" spans="12:13">
       <c r="M107" s="70" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="12:13">
       <c r="M108" s="71" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="12:13">
       <c r="M109" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" spans="12:13">
       <c r="M111" s="69" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="12:13">
       <c r="M112" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="13:13">
       <c r="M113" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="13:13">
       <c r="M114" s="47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115" spans="13:13">
       <c r="M115" s="45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="13:13">
       <c r="M116" s="45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="13:13">
       <c r="M118" s="69" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" spans="13:13">
       <c r="M119" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="13:13">
       <c r="M120" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="121" spans="13:13">
@@ -10115,12 +10775,12 @@
     </row>
     <row r="122" spans="13:13">
       <c r="M122" s="45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="13:13">
       <c r="M123" s="45" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="13:13">
@@ -10129,7 +10789,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10137,225 +10797,243 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL104"/>
+  <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="M1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="5" max="5" width="8.88671875" style="27"/>
     <col min="12" max="12" width="8.88671875" style="28"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="80" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1" s="79" t="s">
-        <v>408</v>
-      </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="79"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="79" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-    </row>
-    <row r="2" spans="1:38">
-      <c r="N2" s="104">
+      <c r="N1" s="81" t="s">
+        <v>403</v>
+      </c>
+      <c r="O1" s="108" t="s">
+        <v>439</v>
+      </c>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
+      <c r="AB1" s="109" t="s">
+        <v>440</v>
+      </c>
+      <c r="AC1" s="108"/>
+      <c r="AD1" s="108"/>
+      <c r="AE1" s="108"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="108"/>
+      <c r="AH1" s="108"/>
+      <c r="AI1" s="108"/>
+      <c r="AJ1" s="108"/>
+      <c r="AK1" s="108"/>
+      <c r="AL1" s="108"/>
+    </row>
+    <row r="2" spans="1:38" ht="21.75" thickTop="1">
+      <c r="N2" s="82">
         <v>717240493</v>
       </c>
-      <c r="O2" s="105" t="s">
-        <v>407</v>
-      </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="105" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="107"/>
+      <c r="O2" s="83" t="s">
+        <v>404</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="84" t="s">
+        <v>441</v>
+      </c>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AF2" s="84"/>
+      <c r="AG2" s="84"/>
+      <c r="AH2" s="84"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="86"/>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="85"/>
     </row>
     <row r="3" spans="1:38">
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="108"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="109"/>
+      <c r="N3" s="82"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+      <c r="AE3" s="84"/>
+      <c r="AF3" s="84"/>
+      <c r="AG3" s="84"/>
+      <c r="AH3" s="84"/>
+      <c r="AI3" s="86"/>
+      <c r="AJ3" s="86"/>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="85"/>
     </row>
     <row r="4" spans="1:38">
       <c r="B4" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="N4" s="108"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="109"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="S4" s="84"/>
+      <c r="T4" s="84"/>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+      <c r="AE4" s="84"/>
+      <c r="AF4" s="84"/>
+      <c r="AG4" s="84"/>
+      <c r="AH4" s="84"/>
+      <c r="AI4" s="86"/>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="85"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="N5" s="108"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="109"/>
-    </row>
-    <row r="6" spans="1:38">
+      <c r="N5" s="82"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
+      <c r="AF5" s="84"/>
+      <c r="AG5" s="84"/>
+      <c r="AH5" s="84"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="85"/>
+    </row>
+    <row r="6" spans="1:38" ht="21.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="108"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="78"/>
-      <c r="AC6" s="78"/>
-      <c r="AD6" s="78"/>
-      <c r="AE6" s="78"/>
-      <c r="AF6" s="78"/>
-      <c r="AG6" s="78"/>
-      <c r="AH6" s="78"/>
-      <c r="AI6" s="109"/>
-    </row>
-    <row r="7" spans="1:38">
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="84"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="85"/>
+    </row>
+    <row r="7" spans="1:38" ht="21.75" thickTop="1">
       <c r="B7" t="s">
         <v>196</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="N7" s="112">
+      <c r="N7" s="87">
         <v>714467223</v>
       </c>
-      <c r="O7" s="106" t="s">
-        <v>410</v>
-      </c>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="106"/>
-      <c r="R7" s="106"/>
-      <c r="S7" s="106"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="106"/>
-      <c r="Y7" s="106"/>
-      <c r="Z7" s="106"/>
-      <c r="AA7" s="106"/>
-      <c r="AB7" s="105" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC7" s="106"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="106"/>
-      <c r="AG7" s="106"/>
-      <c r="AH7" s="106"/>
-      <c r="AI7" s="106"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="13"/>
+      <c r="O7" s="88" t="s">
+        <v>405</v>
+      </c>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="89" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="91"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="92"/>
     </row>
     <row r="8" spans="1:38">
       <c r="B8" t="s">
@@ -10364,33 +11042,33 @@
       <c r="G8" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="N8" s="108"/>
-      <c r="O8" s="78"/>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="113" t="s">
-        <v>414</v>
-      </c>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="16"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="17"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="86" t="s">
+        <v>409</v>
+      </c>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="86"/>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="93"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" t="s">
@@ -10399,33 +11077,33 @@
       <c r="G9" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="N9" s="108"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="78"/>
-      <c r="W9" s="78"/>
-      <c r="X9" s="78"/>
-      <c r="Y9" s="78"/>
-      <c r="Z9" s="78"/>
-      <c r="AA9" s="78"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="113" t="s">
-        <v>411</v>
-      </c>
-      <c r="AD9" s="78"/>
-      <c r="AE9" s="78"/>
-      <c r="AF9" s="78"/>
-      <c r="AG9" s="78"/>
-      <c r="AH9" s="78"/>
-      <c r="AI9" s="78"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="17"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="85"/>
+      <c r="AB9" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="86"/>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="93"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" t="s">
@@ -10434,299 +11112,631 @@
       <c r="G10" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="N10" s="108"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="78"/>
-      <c r="AA10" s="78"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="113" t="s">
-        <v>412</v>
-      </c>
-      <c r="AD10" s="78"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="78"/>
-      <c r="AH10" s="78"/>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="17"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="86"/>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="93"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" t="s">
         <v>199</v>
       </c>
-      <c r="N11" s="108"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="113" t="s">
-        <v>413</v>
-      </c>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="78"/>
-      <c r="AF11" s="78"/>
-      <c r="AG11" s="78"/>
-      <c r="AH11" s="78"/>
-      <c r="AI11" s="78"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="17"/>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="N12" s="110"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-      <c r="S12" s="111"/>
-      <c r="T12" s="111"/>
-      <c r="U12" s="111"/>
-      <c r="V12" s="111"/>
-      <c r="W12" s="111"/>
-      <c r="X12" s="111"/>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="111"/>
-      <c r="AA12" s="111"/>
-      <c r="AB12" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="111"/>
-      <c r="AE12" s="111"/>
-      <c r="AF12" s="111"/>
-      <c r="AG12" s="111"/>
-      <c r="AH12" s="111"/>
-      <c r="AI12" s="111"/>
-      <c r="AJ12" s="22"/>
-      <c r="AK12" s="22"/>
-      <c r="AL12" s="23"/>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="8"/>
-      <c r="AG13" s="8"/>
-      <c r="AH13" s="8"/>
-      <c r="AI13" s="8"/>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
-    </row>
-    <row r="15" spans="1:38">
+      <c r="N11" s="82"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="85"/>
+      <c r="AB11" s="86" t="s">
+        <v>408</v>
+      </c>
+      <c r="AC11" s="94"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="86"/>
+      <c r="AK11" s="86"/>
+      <c r="AL11" s="93"/>
+    </row>
+    <row r="12" spans="1:38" ht="21.75" thickBot="1">
+      <c r="N12" s="95"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="97"/>
+      <c r="W12" s="97"/>
+      <c r="X12" s="97"/>
+      <c r="Y12" s="97"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="99" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC12" s="97"/>
+      <c r="AD12" s="97"/>
+      <c r="AE12" s="97"/>
+      <c r="AF12" s="97"/>
+      <c r="AG12" s="97"/>
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="97"/>
+      <c r="AJ12" s="99"/>
+      <c r="AK12" s="99"/>
+      <c r="AL12" s="100"/>
+    </row>
+    <row r="13" spans="1:38" ht="21.75" thickTop="1">
+      <c r="N13" s="82">
+        <v>719125280</v>
+      </c>
+      <c r="O13" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="85"/>
+      <c r="AB13" s="86" t="s">
+        <v>425</v>
+      </c>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="86"/>
+      <c r="AK13" s="86"/>
+      <c r="AL13" s="93"/>
+    </row>
+    <row r="14" spans="1:38" ht="21.75" thickBot="1">
+      <c r="N14" s="82"/>
+      <c r="O14" s="83"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="85"/>
+      <c r="AB14" s="86"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="86"/>
+      <c r="AK14" s="86"/>
+      <c r="AL14" s="93"/>
+    </row>
+    <row r="15" spans="1:38" ht="21.75" thickTop="1">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="8"/>
+      <c r="N15" s="101">
+        <v>2.02102251530223E+16</v>
+      </c>
+      <c r="O15" s="88" t="s">
+        <v>423</v>
+      </c>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="89"/>
+      <c r="AF15" s="89"/>
+      <c r="AG15" s="89"/>
+      <c r="AH15" s="89"/>
+      <c r="AI15" s="89"/>
+      <c r="AJ15" s="91"/>
+      <c r="AK15" s="91"/>
+      <c r="AL15" s="92"/>
     </row>
     <row r="16" spans="1:38">
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="8"/>
-      <c r="AG16" s="8"/>
-      <c r="AH16" s="8"/>
-      <c r="AI16" s="8"/>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="N16" s="82"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="84" t="s">
+        <v>442</v>
+      </c>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="86"/>
+      <c r="AK16" s="86"/>
+      <c r="AL16" s="93"/>
+    </row>
+    <row r="17" spans="1:38" ht="21.75" thickBot="1">
       <c r="B17" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="N17" s="95"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+      <c r="S17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="U17" s="97"/>
+      <c r="V17" s="97"/>
+      <c r="W17" s="97"/>
+      <c r="X17" s="97"/>
+      <c r="Y17" s="97"/>
+      <c r="Z17" s="97"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="97"/>
+      <c r="AC17" s="97"/>
+      <c r="AD17" s="97"/>
+      <c r="AE17" s="97"/>
+      <c r="AF17" s="97"/>
+      <c r="AG17" s="97"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="97"/>
+      <c r="AJ17" s="99"/>
+      <c r="AK17" s="99"/>
+      <c r="AL17" s="100"/>
+    </row>
+    <row r="18" spans="1:38" ht="22.5" thickTop="1" thickBot="1">
+      <c r="B18" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="8"/>
-      <c r="AG17" s="8"/>
-      <c r="AH17" s="8"/>
-      <c r="AI17" s="8"/>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="B18" s="72" t="s">
-        <v>393</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-      <c r="AA18" s="8"/>
-      <c r="AC18" s="8"/>
-      <c r="AD18" s="8"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="8"/>
-      <c r="AG18" s="8"/>
-      <c r="AH18" s="8"/>
-      <c r="AI18" s="8"/>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="N18" s="82" t="s">
+        <v>443</v>
+      </c>
+      <c r="O18" s="83" t="s">
+        <v>426</v>
+      </c>
+      <c r="P18" s="86"/>
+      <c r="Q18" s="86"/>
+      <c r="R18" s="86"/>
+      <c r="S18" s="86"/>
+      <c r="T18" s="86"/>
+      <c r="U18" s="86"/>
+      <c r="V18" s="86"/>
+      <c r="W18" s="86"/>
+      <c r="X18" s="86"/>
+      <c r="Y18" s="86"/>
+      <c r="Z18" s="86"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="86" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="86"/>
+      <c r="AJ18" s="86"/>
+      <c r="AK18" s="86"/>
+      <c r="AL18" s="93"/>
+    </row>
+    <row r="19" spans="1:38" ht="22.5" thickTop="1" thickBot="1">
+      <c r="N19" s="103" t="s">
+        <v>428</v>
+      </c>
+      <c r="O19" s="104" t="s">
+        <v>429</v>
+      </c>
+      <c r="P19" s="105"/>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="105"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="105"/>
+      <c r="W19" s="105"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="105"/>
+      <c r="Z19" s="105"/>
+      <c r="AA19" s="106"/>
+      <c r="AB19" s="105" t="s">
+        <v>430</v>
+      </c>
+      <c r="AC19" s="105"/>
+      <c r="AD19" s="105"/>
+      <c r="AE19" s="105"/>
+      <c r="AF19" s="105"/>
+      <c r="AG19" s="105"/>
+      <c r="AH19" s="105"/>
+      <c r="AI19" s="105"/>
+      <c r="AJ19" s="105"/>
+      <c r="AK19" s="105"/>
+      <c r="AL19" s="106"/>
+    </row>
+    <row r="20" spans="1:38" ht="21.75" thickTop="1">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="N20" s="82" t="s">
+        <v>444</v>
+      </c>
+      <c r="O20" s="107" t="s">
+        <v>431</v>
+      </c>
+      <c r="P20" s="86"/>
+      <c r="Q20" s="86"/>
+      <c r="R20" s="86"/>
+      <c r="S20" s="86"/>
+      <c r="T20" s="86"/>
+      <c r="U20" s="86"/>
+      <c r="V20" s="86"/>
+      <c r="W20" s="86"/>
+      <c r="X20" s="86"/>
+      <c r="Y20" s="86"/>
+      <c r="Z20" s="86"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="86" t="s">
+        <v>432</v>
+      </c>
+      <c r="AC20" s="86"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="86"/>
+      <c r="AJ20" s="86"/>
+      <c r="AK20" s="86"/>
+      <c r="AL20" s="93"/>
+    </row>
+    <row r="21" spans="1:38">
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="N21" s="82"/>
+      <c r="O21" s="107"/>
+      <c r="P21" s="86"/>
+      <c r="Q21" s="86"/>
+      <c r="R21" s="86"/>
+      <c r="S21" s="86"/>
+      <c r="T21" s="86"/>
+      <c r="U21" s="86"/>
+      <c r="V21" s="86"/>
+      <c r="W21" s="86"/>
+      <c r="X21" s="86"/>
+      <c r="Y21" s="86"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="86"/>
+      <c r="AC21" s="86"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="86"/>
+      <c r="AJ21" s="86"/>
+      <c r="AK21" s="86"/>
+      <c r="AL21" s="93"/>
+    </row>
+    <row r="22" spans="1:38">
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="N22" s="82"/>
+      <c r="O22" s="107"/>
+      <c r="P22" s="86"/>
+      <c r="Q22" s="86"/>
+      <c r="R22" s="86"/>
+      <c r="S22" s="86"/>
+      <c r="T22" s="86"/>
+      <c r="U22" s="86"/>
+      <c r="V22" s="86"/>
+      <c r="W22" s="86"/>
+      <c r="X22" s="86"/>
+      <c r="Y22" s="86"/>
+      <c r="Z22" s="86"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="86"/>
+      <c r="AC22" s="86"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="86"/>
+      <c r="AJ22" s="86"/>
+      <c r="AK22" s="86"/>
+      <c r="AL22" s="93"/>
+    </row>
+    <row r="23" spans="1:38">
+      <c r="N23" s="82"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="86"/>
+      <c r="Q23" s="86"/>
+      <c r="R23" s="86"/>
+      <c r="S23" s="86"/>
+      <c r="T23" s="86"/>
+      <c r="U23" s="86"/>
+      <c r="V23" s="86"/>
+      <c r="W23" s="86"/>
+      <c r="X23" s="86"/>
+      <c r="Y23" s="86"/>
+      <c r="Z23" s="86"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="86"/>
+      <c r="AC23" s="86"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="86"/>
+      <c r="AJ23" s="86"/>
+      <c r="AK23" s="86"/>
+      <c r="AL23" s="93"/>
+    </row>
+    <row r="24" spans="1:38">
       <c r="A24" s="35" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="N24" s="82"/>
+      <c r="O24" s="107"/>
+      <c r="P24" s="86"/>
+      <c r="Q24" s="86"/>
+      <c r="R24" s="86"/>
+      <c r="S24" s="86"/>
+      <c r="T24" s="86"/>
+      <c r="U24" s="86"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="86"/>
+      <c r="AJ24" s="86"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="93"/>
+    </row>
+    <row r="25" spans="1:38">
       <c r="B25" s="35" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="N25" s="82"/>
+      <c r="O25" s="107"/>
+      <c r="P25" s="86"/>
+      <c r="Q25" s="86"/>
+      <c r="R25" s="86"/>
+      <c r="S25" s="86"/>
+      <c r="T25" s="86"/>
+      <c r="U25" s="86"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+      <c r="Z25" s="86"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="86"/>
+      <c r="AC25" s="86"/>
+      <c r="AD25" s="86"/>
+      <c r="AE25" s="86"/>
+      <c r="AF25" s="86"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="86"/>
+      <c r="AJ25" s="86"/>
+      <c r="AK25" s="86"/>
+      <c r="AL25" s="93"/>
+    </row>
+    <row r="26" spans="1:38">
       <c r="B26" s="35" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="N26" s="82"/>
+      <c r="O26" s="107"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="86"/>
+      <c r="AJ26" s="86"/>
+      <c r="AK26" s="86"/>
+      <c r="AL26" s="93"/>
+    </row>
+    <row r="27" spans="1:38">
       <c r="B27" s="35" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:35">
+      <c r="N27" s="82"/>
+      <c r="O27" s="107"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="93"/>
+    </row>
+    <row r="28" spans="1:38">
+      <c r="N28" s="82"/>
+      <c r="O28" s="107"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="86"/>
+      <c r="AJ28" s="86"/>
+      <c r="AK28" s="86"/>
+      <c r="AL28" s="93"/>
+    </row>
+    <row r="29" spans="1:38" ht="21.75" thickBot="1">
       <c r="B29" s="35" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="1:35">
+      <c r="N29" s="95"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="99"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="99"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="99"/>
+      <c r="U29" s="99"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="99"/>
+      <c r="X29" s="99"/>
+      <c r="Y29" s="99"/>
+      <c r="Z29" s="99"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="99"/>
+      <c r="AC29" s="99"/>
+      <c r="AD29" s="99"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="99"/>
+      <c r="AJ29" s="99"/>
+      <c r="AK29" s="99"/>
+      <c r="AL29" s="100"/>
+    </row>
+    <row r="30" spans="1:38" ht="21.75" thickTop="1">
       <c r="B30" s="35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:38">
       <c r="C31" s="35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:38">
       <c r="D32" s="35" t="s">
         <v>184</v>
       </c>
@@ -11150,12 +12160,17 @@
       <c r="E104"/>
       <c r="L104"/>
     </row>
+    <row r="105" spans="4:12">
+      <c r="D105" s="78" t="s">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="AB1:AI1"/>
+    <mergeCell ref="AB1:AL1"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11166,13 +12181,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L31" workbookViewId="0">
       <selection activeCell="W76" sqref="W76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11182,8 +12197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11196,11 +12211,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12">
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
@@ -11223,8 +12238,8 @@
       <c r="E4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="103" t="s">
-        <v>425</v>
+      <c r="J4" s="77" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="3:12">
@@ -11248,14 +12263,14 @@
       <c r="E6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="103" t="s">
-        <v>424</v>
-      </c>
-      <c r="J6" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="L6" s="103" t="s">
-        <v>428</v>
+      <c r="I6" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>420</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="3:12">
@@ -11279,8 +12294,8 @@
       <c r="E8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="103" t="s">
-        <v>427</v>
+      <c r="J8" s="77" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="3:12">
@@ -11484,191 +12499,191 @@
       <c r="C42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="118" t="s">
         <v>292</v>
       </c>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88" t="s">
+      <c r="E42" s="118"/>
+      <c r="F42" s="118"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118" t="s">
         <v>293</v>
       </c>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="118"/>
+      <c r="K42" s="118"/>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="D43" s="119" t="s">
         <v>295</v>
       </c>
-      <c r="E43" s="89"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="90" t="s">
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="I43" s="90"/>
-      <c r="J43" s="90"/>
-      <c r="K43" s="90"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
     </row>
     <row r="44" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="114" t="s">
         <v>297</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="113" t="s">
         <v>298</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83" t="s">
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113" t="s">
         <v>299</v>
       </c>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="84"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
+      <c r="C45" s="114"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
     </row>
     <row r="46" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="115" t="s">
         <v>300</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="113" t="s">
         <v>301</v>
       </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83" t="s">
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113" t="s">
         <v>302</v>
       </c>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="113"/>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="86"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
     </row>
     <row r="48" spans="3:11">
-      <c r="C48" s="87"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="68" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="121" t="s">
+        <v>335</v>
+      </c>
+      <c r="D54" s="122"/>
+      <c r="E54" s="121" t="s">
+        <v>331</v>
+      </c>
+      <c r="F54" s="122"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="124" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" s="128"/>
+      <c r="E55" s="124" t="s">
+        <v>334</v>
+      </c>
+      <c r="F55" s="125"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="129"/>
+      <c r="D56" s="130"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="127"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="123" t="s">
+        <v>339</v>
+      </c>
+      <c r="D57" s="114"/>
+      <c r="E57" s="123" t="s">
+        <v>333</v>
+      </c>
+      <c r="F57" s="114"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="123" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="91" t="s">
-        <v>336</v>
-      </c>
-      <c r="D54" s="92"/>
-      <c r="E54" s="91" t="s">
-        <v>332</v>
-      </c>
-      <c r="F54" s="92"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="94" t="s">
-        <v>333</v>
-      </c>
-      <c r="D55" s="98"/>
-      <c r="E55" s="94" t="s">
-        <v>335</v>
-      </c>
-      <c r="F55" s="95"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="99"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="96"/>
-      <c r="F56" s="97"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="D57" s="84"/>
-      <c r="E57" s="93" t="s">
-        <v>334</v>
-      </c>
-      <c r="F57" s="84"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="93" t="s">
+      <c r="D58" s="114"/>
+      <c r="E58" s="123" t="s">
         <v>338</v>
       </c>
-      <c r="D58" s="84"/>
-      <c r="E58" s="93" t="s">
-        <v>339</v>
-      </c>
-      <c r="F58" s="84"/>
+      <c r="F58" s="114"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="93" t="s">
-        <v>355</v>
-      </c>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
+      <c r="C59" s="123" t="s">
+        <v>354</v>
+      </c>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
+      <c r="F59" s="114"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
+      <c r="C60" s="114"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
+      <c r="F61" s="114"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="114"/>
+      <c r="E63" s="114"/>
+      <c r="F63" s="114"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
+      <c r="F64" s="114"/>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="7"/>
@@ -11682,12 +12697,12 @@
     </row>
     <row r="68" spans="3:6">
       <c r="F68" s="68" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="3:6">
       <c r="F69" s="68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="3:6">
@@ -11697,27 +12712,27 @@
     </row>
     <row r="71" spans="3:6">
       <c r="F71" s="68" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="3:6">
       <c r="F72" s="68" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="3:6">
       <c r="F73" s="68" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="3:6">
       <c r="F74" s="68" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="F75" s="68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="3:6">
@@ -11725,45 +12740,45 @@
     </row>
     <row r="77" spans="3:6">
       <c r="F77" s="68" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="78" spans="3:6">
       <c r="F78" s="68" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="79" spans="3:6">
       <c r="F79" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="80" spans="3:6">
       <c r="F80" s="68" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="81" spans="3:8">
       <c r="F81" s="68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="82" spans="3:8">
       <c r="F82" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F83" s="68" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="84" spans="3:8">
       <c r="F84" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="85" spans="3:8">
@@ -11775,118 +12790,118 @@
       <c r="C89" s="67"/>
     </row>
     <row r="91" spans="3:8">
-      <c r="C91" s="88" t="s">
+      <c r="C91" s="118" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" s="118"/>
+      <c r="E91" s="118" t="s">
         <v>357</v>
       </c>
-      <c r="D91" s="88"/>
-      <c r="E91" s="88" t="s">
+      <c r="F91" s="118"/>
+      <c r="G91" s="118" t="s">
+        <v>356</v>
+      </c>
+      <c r="H91" s="118"/>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="C92" s="131" t="s">
+        <v>364</v>
+      </c>
+      <c r="D92" s="131"/>
+      <c r="E92" s="131" t="s">
         <v>358</v>
       </c>
-      <c r="F91" s="88"/>
-      <c r="G91" s="88" t="s">
-        <v>357</v>
-      </c>
-      <c r="H91" s="88"/>
-    </row>
-    <row r="92" spans="3:8">
-      <c r="C92" s="101" t="s">
+      <c r="F92" s="132"/>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="131"/>
+      <c r="D93" s="131"/>
+      <c r="E93" s="132"/>
+      <c r="F93" s="132"/>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="123" t="s">
+        <v>367</v>
+      </c>
+      <c r="D94" s="114"/>
+      <c r="E94" s="123" t="s">
+        <v>359</v>
+      </c>
+      <c r="F94" s="123"/>
+    </row>
+    <row r="95" spans="3:8">
+      <c r="C95" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="D95" s="114"/>
+      <c r="E95" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="F95" s="123"/>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="C96" s="123" t="s">
+        <v>362</v>
+      </c>
+      <c r="D96" s="114"/>
+      <c r="E96" s="123" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96" s="123"/>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="C97" s="114"/>
+      <c r="D97" s="114"/>
+      <c r="E97" s="123" t="s">
+        <v>360</v>
+      </c>
+      <c r="F97" s="123"/>
+      <c r="G97" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="H97" s="123"/>
+    </row>
+    <row r="98" spans="3:8">
+      <c r="C98" s="114"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="123" t="s">
         <v>365</v>
       </c>
-      <c r="D92" s="101"/>
-      <c r="E92" s="101" t="s">
-        <v>359</v>
-      </c>
-      <c r="F92" s="102"/>
-    </row>
-    <row r="93" spans="3:8">
-      <c r="C93" s="101"/>
-      <c r="D93" s="101"/>
-      <c r="E93" s="102"/>
-      <c r="F93" s="102"/>
-    </row>
-    <row r="94" spans="3:8">
-      <c r="C94" s="93" t="s">
-        <v>368</v>
-      </c>
-      <c r="D94" s="84"/>
-      <c r="E94" s="93" t="s">
-        <v>360</v>
-      </c>
-      <c r="F94" s="93"/>
-    </row>
-    <row r="95" spans="3:8">
-      <c r="C95" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="D95" s="84"/>
-      <c r="E95" s="93" t="s">
-        <v>362</v>
-      </c>
-      <c r="F95" s="93"/>
-    </row>
-    <row r="96" spans="3:8">
-      <c r="C96" s="93" t="s">
-        <v>363</v>
-      </c>
-      <c r="D96" s="84"/>
-      <c r="E96" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="F96" s="93"/>
-    </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="84"/>
-      <c r="D97" s="84"/>
-      <c r="E97" s="93" t="s">
-        <v>361</v>
-      </c>
-      <c r="F97" s="93"/>
-      <c r="G97" s="93" t="s">
-        <v>362</v>
-      </c>
-      <c r="H97" s="93"/>
-    </row>
-    <row r="98" spans="3:8">
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="93" t="s">
+      <c r="F98" s="123"/>
+      <c r="G98" s="123" t="s">
         <v>366</v>
       </c>
-      <c r="F98" s="93"/>
-      <c r="G98" s="93" t="s">
-        <v>367</v>
-      </c>
-      <c r="H98" s="93"/>
+      <c r="H98" s="123"/>
     </row>
     <row r="99" spans="3:8">
-      <c r="C99" s="84"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="93"/>
-      <c r="F99" s="93"/>
+      <c r="C99" s="114"/>
+      <c r="D99" s="114"/>
+      <c r="E99" s="123"/>
+      <c r="F99" s="123"/>
     </row>
     <row r="100" spans="3:8">
-      <c r="C100" s="84"/>
-      <c r="D100" s="84"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
+      <c r="C100" s="114"/>
+      <c r="D100" s="114"/>
+      <c r="E100" s="123"/>
+      <c r="F100" s="123"/>
     </row>
     <row r="101" spans="3:8">
-      <c r="C101" s="84"/>
-      <c r="D101" s="84"/>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
+      <c r="C101" s="114"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="123"/>
+      <c r="F101" s="123"/>
     </row>
     <row r="102" spans="3:8">
-      <c r="C102" s="84"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="123"/>
+      <c r="F102" s="123"/>
     </row>
     <row r="103" spans="3:8">
-      <c r="C103" s="84"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
+      <c r="C103" s="114"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="123"/>
+      <c r="F103" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -11949,7 +12964,7 @@
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D43:G43"/>
   </mergeCells>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -11960,7 +12975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B16:C52"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -12066,21 +13081,21 @@
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="73" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" s="73" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="2:3">
       <c r="C52" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12088,10 +13103,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AB65"/>
+  <dimension ref="B5:AB100"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="N99" sqref="N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12165,10 +13180,10 @@
     </row>
     <row r="16" spans="2:28">
       <c r="C16" s="74" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P16" s="61" t="s">
         <v>307</v>
@@ -12259,7 +13274,7 @@
     </row>
     <row r="29" spans="3:20">
       <c r="C29" s="75" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E29" t="s">
         <v>161</v>
@@ -12419,17 +13434,59 @@
       <c r="C63" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="F63" s="103" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="103" t="s">
-        <v>419</v>
+      <c r="F63" s="77" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="F65" s="77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="78" t="s">
+        <v>434</v>
+      </c>
+      <c r="F68" s="78" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="F71" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="133" t="s">
+        <v>445</v>
+      </c>
+      <c r="F87" s="133" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="133" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="F91" s="133" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99" s="133"/>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="133" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12494,7 +13551,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="45" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -12507,7 +13564,7 @@
         <v>219</v>
       </c>
       <c r="K11" s="76" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L11" s="46"/>
     </row>
@@ -12617,7 +13674,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12625,10 +13682,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:P181"/>
+  <dimension ref="C2:P178"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -12636,132 +13693,132 @@
     <col min="3" max="3" width="8.88671875" style="51"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:5">
-      <c r="C5" s="51" t="s">
+    <row r="2" spans="3:16">
+      <c r="C2" s="51" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
-      <c r="D13" s="46" t="s">
+    <row r="10" spans="3:16">
+      <c r="D10" s="46" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
-      <c r="C15" s="51" t="s">
+    <row r="12" spans="3:16">
+      <c r="C12" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="56" t="s">
+      <c r="E12" s="56" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="3:16">
-      <c r="C17" s="51" t="s">
+    <row r="14" spans="3:16">
+      <c r="C14" s="51" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="3:16">
-      <c r="P18" s="46"/>
-    </row>
-    <row r="24" spans="3:16">
-      <c r="D24" s="46" t="s">
+    <row r="15" spans="3:16">
+      <c r="P15" s="46"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="46" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="3:16">
-      <c r="C27" s="51" t="s">
+    <row r="24" spans="3:4">
+      <c r="C24" s="51" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" s="51" t="s">
+    <row r="62" spans="3:3">
+      <c r="C62" s="51" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="3:3">
-      <c r="C91" s="51" t="s">
+    <row r="88" spans="3:3">
+      <c r="C88" s="51" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="115" spans="5:5">
-      <c r="E115" s="56" t="s">
+    <row r="112" spans="5:5">
+      <c r="E112" s="56" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="5:5">
-      <c r="E117" s="56" t="s">
+    <row r="114" spans="5:5">
+      <c r="E114" s="56" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="119" spans="5:5">
-      <c r="E119" s="56" t="s">
+    <row r="116" spans="5:5">
+      <c r="E116" s="56" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="121" spans="5:5">
-      <c r="E121" s="56" t="s">
+    <row r="118" spans="5:5">
+      <c r="E118" s="56" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="123" spans="5:5">
-      <c r="E123" s="56" t="s">
+    <row r="120" spans="5:5">
+      <c r="E120" s="56" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="125" spans="5:5">
-      <c r="E125" s="56" t="s">
+    <row r="122" spans="5:5">
+      <c r="E122" s="56" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="127" spans="5:5">
-      <c r="E127" s="56" t="s">
+    <row r="124" spans="5:5">
+      <c r="E124" s="56" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="129" spans="3:5">
-      <c r="E129" s="56" t="s">
+    <row r="126" spans="5:5">
+      <c r="E126" s="56" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="131" spans="3:5">
-      <c r="E131" s="56" t="s">
+    <row r="128" spans="5:5">
+      <c r="E128" s="56" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="133" spans="3:5">
-      <c r="E133" s="56" t="s">
+    <row r="130" spans="3:5">
+      <c r="E130" s="56" t="s">
         <v>287</v>
       </c>
     </row>
+    <row r="132" spans="3:5">
+      <c r="E132" s="56" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5">
+      <c r="E134" s="56" t="s">
+        <v>289</v>
+      </c>
+    </row>
     <row r="135" spans="3:5">
-      <c r="E135" s="56" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5">
-      <c r="E137" s="56" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="138" spans="3:5">
-      <c r="C138" s="51" t="s">
+      <c r="C135" s="51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="51" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="162" spans="3:3">
-      <c r="C162" s="51" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="181" spans="3:6">
-      <c r="C181" s="51" t="s">
-        <v>421</v>
-      </c>
-      <c r="F181" s="103" t="s">
-        <v>422</v>
+    <row r="178" spans="3:6">
+      <c r="C178" s="51" t="s">
+        <v>416</v>
+      </c>
+      <c r="F178" s="77" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="43" type="noConversion"/>
+  <phoneticPr fontId="46" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Java" sheetId="5" r:id="rId5"/>
     <sheet name="JavaEE" sheetId="3" r:id="rId6"/>
     <sheet name="快捷键" sheetId="4" r:id="rId7"/>
-    <sheet name="前端" sheetId="11" r:id="rId8"/>
+    <sheet name="bug" sheetId="13" r:id="rId8"/>
     <sheet name="office" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="449">
   <si>
     <t>SVN</t>
   </si>
@@ -1266,7 +1266,7 @@
       </rPr>
       <t xml:space="preserve"> svn:</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1283,23 +1283,23 @@
       </rPr>
       <t>heck out下载代码</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>提交代码（commit）前update</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>复制修改过的代码类粘贴到文件夹对应位置替换</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>忽视文件</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>setting-Editor-File Types</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1316,7 +1316,7 @@
       </rPr>
       <t>n files and folders后面添加*.iml;*.idea;*.gitignore;*.sh;*.classpath;*.project;*.settings;target;logs;</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1333,7 +1333,7 @@
       </rPr>
       <t>.xx 为忽视该后缀文件</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1350,31 +1350,31 @@
       </rPr>
       <t>/  过滤文件夹</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>xx.java  过滤文件</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>去除路径多余字段：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>session生效</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>自动导包</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1409,11 +1409,11 @@
       </rPr>
       <t>Optimize imports on the fly (for current project)</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>控制台》》输入代码包含元素可以搜索路径，{ }展开代码</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1463,7 +1463,7 @@
       </rPr>
       <t>js打断点</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1480,7 +1480,7 @@
       </rPr>
       <t>10下一个断点</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>【修改原因】#1009482</t>
@@ -1495,36 +1495,32 @@
     <t>【检视人】许成志 2021.1.21 15:00</t>
   </si>
   <si>
-    <t>生成采购单的action在form上面</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
     <t>查端口pid并杀死</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>ALL里面路径找controller位置</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>在浏览器页面找到title中文名（或者其他中文关键词），在idea-find in path找jsp</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>serviceImpl</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>dao层</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>dao层impl</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1563,1214 +1559,17 @@
       </rPr>
       <t>ml</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">form </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="searchForm" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>method</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="post" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>onsubmit</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">return </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>search</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="searchForm"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>action</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>CONTEXT_PATH</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>transportation/express/search"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">table </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="table table-bordered table-condensed"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>colgroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">col </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>width</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="5%"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>colgroup</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>tbody</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>tr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">td  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>colspan</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="1"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>app</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">:input </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>classes</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="form-control input-medium" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="text" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="query.logisticsType"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>/&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            &lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>td</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>tr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>tbody</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    &lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">div </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="pull-right"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="submit" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="btn btn-sm green "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="icon-search"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>搜索</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">button </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="button" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">="btn btn-sm btn-default " </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>onclick</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>resetForm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>);</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">i </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="icon-refresh"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>重置</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    &lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>div</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">List&lt;ExpressTransportation&gt; expressTransportations = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>expressTransportationLimitFacade</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>.queryAllExpressTransportationList();</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">if </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">null </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>!= logisticsType)</t>
-    </r>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>{</t>
   </si>
   <si>
-    <t xml:space="preserve">    expressTransportations = expressTransportations.stream()</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            .filter(s -&gt; s.getLogisticsType().contains(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF660E7A"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>logisticsType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>)).collect(Collectors.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>toList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>());</t>
-    </r>
-  </si>
-  <si>
     <t>}</t>
-  </si>
-  <si>
-    <t>domain.setExpressTransportations(expressTransportations);</t>
   </si>
   <si>
     <r>
@@ -2787,7 +1586,7 @@
       </rPr>
       <t>.格式化？</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2804,7 +1603,7 @@
       </rPr>
       <t>.最新版本</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2821,46 +1620,46 @@
       </rPr>
       <t>.找不同</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>4.修改后测试？</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>引用-目录-自动目录</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>目录：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>字间距：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>右键段落左对齐（可在目录标题上面统一修改）</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>页面宽度：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>输入代码首字母大写取消：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>limit分页</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *  FROM t_order limit 0,10</t>
   </si>
   <si>
     <t>显示十条数据</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3009,23 +1808,23 @@
   </si>
   <si>
     <t>分页</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=1当前页码</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>pageSize=10;//每页显示记录数</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>start=0</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库前十条数据</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3042,72 +1841,35 @@
       </rPr>
       <t>=9</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=2当前页码</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>start=10</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>end=19</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库第二个十条数据</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>=方法名</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>dgh@666666</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;app:searchform classes="form-inline form-table" id="searchForm"</t>
-  </si>
-  <si>
-    <t>action="${CONTEXT_PATH}transportation/express/search" name="searchForm"</t>
-  </si>
-  <si>
-    <t>pageno="${domain.page.pageNo}" pagesize="${domain.page.pageSize}"</t>
-  </si>
-  <si>
-    <t>totalcount="${domain.page.totalCount}"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;app:searchitem label="物流渠道"&gt;</t>
-  </si>
-  <si>
-    <t>&lt;app:input classes="input-medium" type="text" name="query.logisticsType" /&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/app:searchitem&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/app:searchform&gt;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>改成控件代码：</t>
-    </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>修改目录样式：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3146,11 +1908,11 @@
       </rPr>
       <t>-修改</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>选择多个图片</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>Sub 图片边框</t>
@@ -3187,18 +1949,18 @@
   </si>
   <si>
     <t>.OutsideColorIndex = wdGray25</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>Ehcache 和 Redis 比较</t>
   </si>
   <si>
     <t>   Ehcache</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>      Redis        </t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>存取速度</t>
@@ -3226,7 +1988,7 @@
   </si>
   <si>
     <t>至少需要安装服务端和客户端才能使用。操作略比Ehcache复杂一些</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3270,7 +2032,7 @@
       </rPr>
       <t>);</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3298,7 +2060,7 @@
       </rPr>
       <t>(request,new xxMapper())</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3390,15 +2152,11 @@
       </rPr>
       <t>】</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用各种Dao层</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>传参为空判断：如pager是否为空</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>if (a == 1) ...</t>
@@ -3479,7 +2237,7 @@
   </si>
   <si>
     <t>switch-case</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3540,11 +2298,11 @@
       </rPr>
       <t>效率要高</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>insert into</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3711,11 +2469,11 @@
       </rPr>
       <t>test)</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      VALUES (:id, :test)</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3732,23 +2490,23 @@
       </rPr>
       <t xml:space="preserve"> duplicate key update(非主键，非唯一键字段，重复数据更新不插入）</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      ON DUPLICATE KEY UPDATE id=:id, test=:test</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>批量插入values后面增加数据</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>desc查看表字段数据结构</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>插入单条数据xml</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3764,7 +2522,7 @@
       </rPr>
       <t>批量</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3780,32 +2538,15 @@
       </rPr>
       <t>为接口</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>bessky_erp为psscontroller层，bessky_pss为数据层</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8流filter</t>
-    </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>堆</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3822,19 +2563,19 @@
       </rPr>
       <t>共享</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>new的对象</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>new的对象没被栈引用一定时间会被垃圾回收器释放掉</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>栈</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3863,15 +2604,15 @@
   </si>
   <si>
     <t>引用类型地址person@xxx</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>对象属性person.age=10</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>8大基本数据类型int a=10</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4171,7 +2912,7 @@
   </si>
   <si>
     <t>类里面方法（），里面数据类型用完会释放</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4188,55 +2929,55 @@
       </rPr>
       <t>a1释放掉，堆里面age被修改为21</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>equals</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>hashCode</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>hashcode只有在创建某个类的散列表的时候才有用，需要根据hashcode值确认对象在散列表中的位置</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HashMap，HashSet，HashTable </t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>相等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>不一定相等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>必然不等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>判断对象内容相等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>不一定不相等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>“==”地址相等</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4283,11 +3024,11 @@
   </si>
   <si>
     <t>增加sql语句</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>占位符</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>&lt;[AND created_by IN (:created_by_list)]&gt;</t>
@@ -4361,7 +3102,7 @@
   </si>
   <si>
     <t>实体类</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4745,7 +3486,7 @@
   </si>
   <si>
     <t>前端items的key自动对应name(ps:create_by和username是同一个东西）</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4906,22 +3647,22 @@
   </si>
   <si>
     <t>setQueryCondition逗号分割，多个查询</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.143:59095/pss</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.203:8080/pss/index</t>
   </si>
   <si>
     <t>替换AuthorizationServiceImpl</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4946,15 +3687,15 @@
       </rPr>
       <t>_pss_web/WEB-INF/web.xml-fliter</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>word去掉回车符</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>取消自动换行编号</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4973,11 +3714,11 @@
   </si>
   <si>
     <t>比较长的for循环结束写入</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>注释：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5003,7 +3744,7 @@
       </rPr>
       <t>:</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Ctrl+Alt+L</t>
@@ -5039,23 +3780,19 @@
       </rPr>
       <t>todo:</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>查找表里面所有列名哪些包含字段（模糊查询）：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <t>app回显input框数据</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>订单ID</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>申请跟踪号失败</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>  这单帮忙再新申请一个单号   SKU信息换下  品名：化妆刷、Makeup brush    重量：0.3kg</t>
@@ -5077,106 +3814,23 @@
   </si>
   <si>
     <t>开发环境找到对应的物流类，修改buildRequestOrder方法里面的重量 ，中文品名，英文品名，</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>禅道需求完成确认：</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>netstat -ano | findstr 8081</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>taskkill /pid 12860 /f</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">            &lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">td </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>="block-label-td"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>物流渠道</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&lt;/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000080"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>td</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>输入法打出ico图标</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5193,11 +3847,11 @@
       </rPr>
       <t>,会显示扳手</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>ssm</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5214,7 +3868,7 @@
       </rPr>
       <t>pring</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,7 +3885,7 @@
       </rPr>
       <t>pringMVC</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5248,29 +3902,29 @@
       </rPr>
       <t>ybatis</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>JSP</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>回退到等待物流收包状态</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 麻烦申请下跟踪号</t>
   </si>
   <si>
     <t>物流接口操作：申请跟踪号</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>PDA退货扫描，多仓订单，扫退货时候，能否改成电脑一样，只报一个仓库</t>
   </si>
   <si>
     <t>退件员只负责扫退货，拆包、更换二维码现在都是仓库自己完成</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>702967767改589</t>
@@ -5280,7 +3934,7 @@
   </si>
   <si>
     <t>改运输方式</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>跟踪号重复，无法获取面单</t>
@@ -5290,11 +3944,11 @@
   </si>
   <si>
     <t>运输方式规则看禁运国家</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>代码没编译向下运行</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5311,42 +3965,38 @@
       </rPr>
       <t>&gt;build project</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>https://getman.cn/</t>
   </si>
   <si>
     <t>http测试</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://oa.ser.ltd/dashboard</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>问题描述（截图）</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>问题解决</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>修改订单找到街道，里面有00200，ARMEE关键字</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 包裹都是无法回退的，只能一单一单回退扫描</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>通性问题</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>通性问题</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5363,15 +4013,11 @@
       </rPr>
       <t>ersion Control</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>可以将不需要上传的代码分类</t>
-    <phoneticPr fontId="46" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.99.213:9095/pss</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5393,24 +4039,507 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> has not been downloaded from it before.</t>
     </r>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>进入Settings-build Tools，把Work offline的勾去除即可。</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>报红，点开方法进入，定位所在模块，maven clean install</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://oa.ser.ltd/dashboard</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.lang.ClassNotFoundException: com.bessky.pss.portal.business.stock.bean.PrintInStockSku</t>
+  </si>
+  <si>
+    <r>
+      <t>bessky</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ss（root）重新clean-install</t>
+    </r>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pager pager = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Pager();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pager.setPageSize(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>java pager传参</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段a分组，按照字段b逆序</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">sql </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>datasource</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="dataSource" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="queryLocationNumberRecordListHistorys"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">       SELECT t1.record_id, t1.sku, t1.created_by, t1.creation_date, t1.previous_number, t1.current_number, t1.location_number_record_type FROM t_location_number_record t1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       WHERE 1 = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       &lt;[AND record_id = :record_id]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[AND sku = :sku]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[AND sku IN (:sku_list)]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[AND created_by = :created_by]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[AND creation_date = :creation_date]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[AND previous_number = :previous_number]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[AND current_number = :current_number]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[AND location_number_record_type = :location_number_record_type]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;[:LOCATION_NUMBER_RECORD]&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        AND 5 &gt; (SELECT COUNT(*) FROM t_location_number_record WHERE sku = t1.sku AND record_id &gt; t1.record_id )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      ORDER BY t1.sku,t1.record_id DESC</t>
+  </si>
+  <si>
+    <t>http://192.168.99.213:9095/pss</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于号逆序</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位符，有参数传入时，t1.sku="xxx"</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于几就是取b字段几个</t>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
-    <phoneticPr fontId="46" type="noConversion"/>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>可调用多个Dao层</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per为对象返回形式</t>
+    </r>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>链式编程</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.安装lombok插件</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Build</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Execution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deployment--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compiler--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Annotation Processors</t>
+    </r>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 注释@Accessors(chain=true) @Data 删除getting，setting方法</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <t>locationNumberRecordMaps= LocationNumberRecords.stream()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      .collect(Collectors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>groupingBy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(LocationNumberRecord::getSku));</t>
+    </r>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LocationNumberRecords= LocationNumberRecords.stream().filter(s -&gt; s.getRecordId().contains(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"01"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      .collect(Collectors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>toList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>());</t>
+    </r>
+  </si>
+  <si>
+    <t>list对象过滤</t>
+    <phoneticPr fontId="49" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8流filter</t>
+    </r>
+    <phoneticPr fontId="49" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5420,11 +4549,35 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="68">
+  <fonts count="69">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5793,19 +4946,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF000000"/>
-      <name val="Malgun Gothic"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF660E7A"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <i/>
       <u/>
       <sz val="12"/>
@@ -5974,7 +5114,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -6112,15 +5252,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color theme="6"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -6334,27 +5465,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -6364,10 +5495,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -6382,7 +5513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -6391,16 +5522,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -6409,148 +5540,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6562,12 +5693,93 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="67" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -6577,94 +5789,58 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="66" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6676,10 +5852,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6688,55 +5861,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9219,49 +8356,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>444597</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>191029</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9906000" y="628650"/>
-          <a:ext cx="7302597" cy="2915179"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -10124,8 +9218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10166,7 +9260,7 @@
         <v>2851810174</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="3:16">
@@ -10207,7 +9301,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -10223,7 +9317,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -10231,21 +9325,21 @@
         <v>15</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:16">
-      <c r="J14" s="72" t="s">
-        <v>389</v>
+      <c r="J14" s="68" t="s">
+        <v>350</v>
       </c>
       <c r="K14" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="N14" s="34" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -10447,12 +9541,12 @@
       <c r="C66" s="35"/>
     </row>
     <row r="68" spans="3:3">
-      <c r="C68" s="76" t="s">
-        <v>412</v>
+      <c r="C68" s="72" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="K13" r:id="rId2"/>
@@ -10468,10 +9562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:AB124"/>
+  <dimension ref="A1:AB147"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U142" sqref="U142"/>
+    <sheetView showGridLines="0" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10506,159 +9600,173 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="12:28">
+    <row r="18" spans="1:28">
       <c r="L18" s="10" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="19" spans="12:28">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
       <c r="L19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="12:28">
+    <row r="22" spans="1:28">
+      <c r="A22" s="105" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
+      <c r="H29" s="10" t="s">
+        <v>414</v>
+      </c>
       <c r="L29" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="30" spans="12:28">
-      <c r="M30" s="52" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="12:28">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
+      <c r="H30" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
+      <c r="H31" s="9" t="s">
+        <v>413</v>
+      </c>
       <c r="M31" t="s">
-        <v>250</v>
-      </c>
-      <c r="T31" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="V31" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z31" s="52" t="s">
-        <v>261</v>
-      </c>
-      <c r="AB31" s="52" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="32" spans="12:28">
-      <c r="M32" s="52" t="s">
-        <v>255</v>
+        <v>222</v>
+      </c>
+      <c r="T31" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="V31" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z31" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB31" s="49" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="M32" s="49" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="12:27">
-      <c r="M33" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="T33" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z33" s="52" t="s">
-        <v>262</v>
+      <c r="M33" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="T33" s="49" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z33" s="49" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="12:27">
-      <c r="M35" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="T35" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z35" s="52" t="s">
-        <v>263</v>
+      <c r="M35" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="T35" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="Z35" s="49" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="12:27">
       <c r="M37" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="U37" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA37" s="52" t="s">
-        <v>264</v>
+        <v>226</v>
+      </c>
+      <c r="U37" s="49" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA37" s="49" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="12:27">
       <c r="L39" s="10" t="s">
-        <v>313</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="12:27">
-      <c r="M40" s="58" t="s">
-        <v>325</v>
+      <c r="M40" s="54" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="12:27">
-      <c r="M41" s="58" t="s">
-        <v>322</v>
+      <c r="M41" s="54" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="12:27">
-      <c r="M42" s="58" t="s">
-        <v>324</v>
+      <c r="M42" s="54" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="13:13">
-      <c r="M58" s="58" t="s">
-        <v>326</v>
+      <c r="M58" s="54" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" s="9" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" s="9" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" s="9" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" s="9" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" s="9" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" s="9" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" s="9" t="s">
-        <v>317</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" s="9" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" s="9" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="13:13">
-      <c r="M68" s="58" t="s">
-        <v>327</v>
+      <c r="M68" s="54" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" s="9" t="s">
-        <v>328</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="13:13">
@@ -10675,32 +9783,32 @@
     </row>
     <row r="96" spans="12:12">
       <c r="L96" s="10" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="98" spans="12:13">
       <c r="M98" s="9" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
     </row>
     <row r="101" spans="12:13">
       <c r="L101" s="10" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="12:13">
       <c r="M102" s="9" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
     </row>
     <row r="103" spans="12:13">
       <c r="M103" s="9" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
     </row>
     <row r="105" spans="12:13">
-      <c r="M105" s="69" t="s">
-        <v>376</v>
+      <c r="M105" s="65" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="106" spans="12:13">
@@ -10709,87 +9817,196 @@
       </c>
     </row>
     <row r="107" spans="12:13">
-      <c r="M107" s="70" t="s">
-        <v>373</v>
+      <c r="M107" s="66" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="108" spans="12:13">
-      <c r="M108" s="71" t="s">
-        <v>374</v>
+      <c r="M108" s="67" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="12:13">
-      <c r="M109" s="50" t="s">
-        <v>375</v>
+      <c r="M109" s="47" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="111" spans="12:13">
-      <c r="M111" s="69" t="s">
-        <v>382</v>
+      <c r="M111" s="65" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="112" spans="12:13">
       <c r="M112" s="9" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="113" spans="13:13">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="12:13">
       <c r="M113" s="9" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="114" spans="13:13">
-      <c r="M114" s="47" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="115" spans="13:13">
-      <c r="M115" s="45" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="116" spans="13:13">
-      <c r="M116" s="45" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="118" spans="13:13">
-      <c r="M118" s="69" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="119" spans="13:13">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114" spans="12:13">
+      <c r="M114" s="46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="115" spans="12:13">
+      <c r="M115" s="44" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="12:13">
+      <c r="M116" s="44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118" spans="12:13">
+      <c r="M118" s="65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="119" spans="12:13">
       <c r="M119" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="120" spans="13:13">
-      <c r="M120" s="50" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="121" spans="13:13">
-      <c r="M121" s="45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="122" spans="13:13">
-      <c r="M122" s="45" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="123" spans="13:13">
-      <c r="M123" s="45" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="124" spans="13:13">
-      <c r="M124" s="45" t="s">
-        <v>237</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="120" spans="12:13">
+      <c r="M120" s="47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="121" spans="12:13">
+      <c r="M121" s="44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="12:13">
+      <c r="M122" s="44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="123" spans="12:13">
+      <c r="M123" s="44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="124" spans="12:13">
+      <c r="M124" s="44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="12:13">
+      <c r="L127" s="106" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="129" spans="10:20">
+      <c r="L129" s="9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="10:20">
+      <c r="L130" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="10:20">
+      <c r="L131" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="132" spans="10:20">
+      <c r="L132" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="10:20">
+      <c r="L133" s="9" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="134" spans="10:20">
+      <c r="L134" s="9" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="10:20">
+      <c r="L135" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="10:20">
+      <c r="L136" s="9" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="137" spans="10:20">
+      <c r="L137" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q137" s="40" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="10:20">
+      <c r="L138" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="139" spans="10:20">
+      <c r="L139" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="140" spans="10:20">
+      <c r="L140" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="141" spans="10:20">
+      <c r="L141" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="142" spans="10:20">
+      <c r="L142" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="143" spans="10:20">
+      <c r="J143" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="L143" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="144" spans="10:20">
+      <c r="L144" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="T144" s="40" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="145" spans="12:12">
+      <c r="L145" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" spans="12:12">
+      <c r="L146" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="147" spans="12:12">
+      <c r="L147" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10799,932 +10016,932 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
   <cols>
     <col min="5" max="5" width="8.88671875" style="27"/>
     <col min="12" max="12" width="8.88671875" style="28"/>
-    <col min="14" max="14" width="22.6640625" style="80" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="81" t="s">
-        <v>403</v>
-      </c>
-      <c r="O1" s="108" t="s">
-        <v>439</v>
-      </c>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="108"/>
-      <c r="AB1" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="AC1" s="108"/>
-      <c r="AD1" s="108"/>
-      <c r="AE1" s="108"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="108"/>
-      <c r="AH1" s="108"/>
-      <c r="AI1" s="108"/>
-      <c r="AJ1" s="108"/>
-      <c r="AK1" s="108"/>
-      <c r="AL1" s="108"/>
+      <c r="N1" s="77" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" s="107" t="s">
+        <v>397</v>
+      </c>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
+      <c r="U1" s="107"/>
+      <c r="V1" s="107"/>
+      <c r="W1" s="107"/>
+      <c r="X1" s="107"/>
+      <c r="Y1" s="107"/>
+      <c r="Z1" s="107"/>
+      <c r="AA1" s="107"/>
+      <c r="AB1" s="108" t="s">
+        <v>398</v>
+      </c>
+      <c r="AC1" s="107"/>
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="107"/>
+      <c r="AH1" s="107"/>
+      <c r="AI1" s="107"/>
+      <c r="AJ1" s="107"/>
+      <c r="AK1" s="107"/>
+      <c r="AL1" s="107"/>
     </row>
     <row r="2" spans="1:38" ht="21.75" thickTop="1">
-      <c r="N2" s="82">
+      <c r="N2" s="78">
         <v>717240493</v>
       </c>
-      <c r="O2" s="83" t="s">
-        <v>404</v>
-      </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="84" t="s">
-        <v>441</v>
-      </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AF2" s="84"/>
-      <c r="AG2" s="84"/>
-      <c r="AH2" s="84"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="85"/>
+      <c r="O2" s="79" t="s">
+        <v>364</v>
+      </c>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="80" t="s">
+        <v>399</v>
+      </c>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="81"/>
     </row>
     <row r="3" spans="1:38">
       <c r="B3" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="82"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="84"/>
-      <c r="T3" s="84"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="84"/>
-      <c r="Y3" s="84"/>
-      <c r="Z3" s="84"/>
-      <c r="AA3" s="85"/>
-      <c r="AB3" s="84"/>
-      <c r="AC3" s="84"/>
-      <c r="AD3" s="84"/>
-      <c r="AE3" s="84"/>
-      <c r="AF3" s="84"/>
-      <c r="AG3" s="84"/>
-      <c r="AH3" s="84"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="85"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="81"/>
     </row>
     <row r="4" spans="1:38">
-      <c r="B4" s="58" t="s">
-        <v>329</v>
-      </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84"/>
-      <c r="S4" s="84"/>
-      <c r="T4" s="84"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="86"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="86"/>
-      <c r="AL4" s="85"/>
+      <c r="B4" s="54" t="s">
+        <v>291</v>
+      </c>
+      <c r="N4" s="78"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="80"/>
+      <c r="AG4" s="80"/>
+      <c r="AH4" s="80"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="82"/>
+      <c r="AK4" s="82"/>
+      <c r="AL4" s="81"/>
     </row>
     <row r="5" spans="1:38">
-      <c r="N5" s="82"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
-      <c r="AF5" s="84"/>
-      <c r="AG5" s="84"/>
-      <c r="AH5" s="84"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86"/>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="85"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="80"/>
+      <c r="W5" s="80"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="80"/>
+      <c r="AE5" s="80"/>
+      <c r="AF5" s="80"/>
+      <c r="AG5" s="80"/>
+      <c r="AH5" s="80"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="81"/>
     </row>
     <row r="6" spans="1:38" ht="21.75" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="82"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="84"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="85"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="80"/>
+      <c r="AI6" s="82"/>
+      <c r="AJ6" s="82"/>
+      <c r="AK6" s="82"/>
+      <c r="AL6" s="81"/>
     </row>
     <row r="7" spans="1:38" ht="21.75" thickTop="1">
       <c r="B7" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="46" t="s">
-        <v>239</v>
-      </c>
-      <c r="N7" s="87">
+      <c r="G7" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="N7" s="83">
         <v>714467223</v>
       </c>
-      <c r="O7" s="88" t="s">
-        <v>405</v>
-      </c>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="89" t="s">
-        <v>411</v>
-      </c>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="91"/>
-      <c r="AL7" s="92"/>
+      <c r="O7" s="84" t="s">
+        <v>365</v>
+      </c>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="85" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="88"/>
     </row>
     <row r="8" spans="1:38">
       <c r="B8" t="s">
         <v>197</v>
       </c>
-      <c r="G8" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" s="82"/>
-      <c r="O8" s="83"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="86" t="s">
-        <v>409</v>
-      </c>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="93"/>
+      <c r="G8" s="45" t="s">
+        <v>212</v>
+      </c>
+      <c r="N8" s="78"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="80"/>
+      <c r="V8" s="80"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="80"/>
+      <c r="AE8" s="80"/>
+      <c r="AF8" s="80"/>
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="89"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" t="s">
         <v>198</v>
       </c>
-      <c r="G9" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="N9" s="82"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="85"/>
-      <c r="AB9" s="86" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="84"/>
-      <c r="AE9" s="84"/>
-      <c r="AF9" s="84"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="84"/>
-      <c r="AJ9" s="86"/>
-      <c r="AK9" s="86"/>
-      <c r="AL9" s="93"/>
+      <c r="G9" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="N9" s="78"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="80"/>
+      <c r="Q9" s="80"/>
+      <c r="R9" s="80"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="80"/>
+      <c r="U9" s="80"/>
+      <c r="V9" s="80"/>
+      <c r="W9" s="80"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="81"/>
+      <c r="AB9" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="80"/>
+      <c r="AE9" s="80"/>
+      <c r="AF9" s="80"/>
+      <c r="AG9" s="80"/>
+      <c r="AH9" s="80"/>
+      <c r="AI9" s="80"/>
+      <c r="AJ9" s="82"/>
+      <c r="AK9" s="82"/>
+      <c r="AL9" s="89"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="86" t="s">
-        <v>407</v>
-      </c>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="84"/>
-      <c r="AE10" s="84"/>
-      <c r="AF10" s="84"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="84"/>
-      <c r="AJ10" s="86"/>
-      <c r="AK10" s="86"/>
-      <c r="AL10" s="93"/>
+      <c r="G10" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="N10" s="78"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
+      <c r="S10" s="80"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="80"/>
+      <c r="V10" s="80"/>
+      <c r="W10" s="80"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="80"/>
+      <c r="AE10" s="80"/>
+      <c r="AF10" s="80"/>
+      <c r="AG10" s="80"/>
+      <c r="AH10" s="80"/>
+      <c r="AI10" s="80"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="89"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" t="s">
         <v>199</v>
       </c>
-      <c r="N11" s="82"/>
-      <c r="O11" s="83"/>
-      <c r="P11" s="84"/>
-      <c r="Q11" s="84"/>
-      <c r="R11" s="84"/>
-      <c r="S11" s="84"/>
-      <c r="T11" s="84"/>
-      <c r="U11" s="84"/>
-      <c r="V11" s="84"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="84"/>
-      <c r="AA11" s="85"/>
-      <c r="AB11" s="86" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC11" s="94"/>
-      <c r="AD11" s="84"/>
-      <c r="AE11" s="84"/>
-      <c r="AF11" s="84"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="84"/>
-      <c r="AJ11" s="86"/>
-      <c r="AK11" s="86"/>
-      <c r="AL11" s="93"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="80"/>
+      <c r="AF11" s="80"/>
+      <c r="AG11" s="80"/>
+      <c r="AH11" s="80"/>
+      <c r="AI11" s="80"/>
+      <c r="AJ11" s="82"/>
+      <c r="AK11" s="82"/>
+      <c r="AL11" s="89"/>
     </row>
     <row r="12" spans="1:38" ht="21.75" thickBot="1">
-      <c r="N12" s="95"/>
-      <c r="O12" s="96"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="99" t="s">
-        <v>410</v>
-      </c>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="97"/>
-      <c r="AF12" s="97"/>
-      <c r="AG12" s="97"/>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="97"/>
-      <c r="AJ12" s="99"/>
-      <c r="AK12" s="99"/>
-      <c r="AL12" s="100"/>
+      <c r="N12" s="91"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="94"/>
+      <c r="AB12" s="95" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="93"/>
+      <c r="AF12" s="93"/>
+      <c r="AG12" s="93"/>
+      <c r="AH12" s="93"/>
+      <c r="AI12" s="93"/>
+      <c r="AJ12" s="95"/>
+      <c r="AK12" s="95"/>
+      <c r="AL12" s="96"/>
     </row>
     <row r="13" spans="1:38" ht="21.75" thickTop="1">
-      <c r="N13" s="82">
+      <c r="N13" s="78">
         <v>719125280</v>
       </c>
-      <c r="O13" s="83" t="s">
-        <v>424</v>
-      </c>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="85"/>
-      <c r="AB13" s="86" t="s">
-        <v>425</v>
-      </c>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="84"/>
-      <c r="AE13" s="84"/>
-      <c r="AF13" s="84"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="84"/>
-      <c r="AJ13" s="86"/>
-      <c r="AK13" s="86"/>
-      <c r="AL13" s="93"/>
+      <c r="O13" s="79" t="s">
+        <v>383</v>
+      </c>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
+      <c r="V13" s="80"/>
+      <c r="W13" s="80"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="80"/>
+      <c r="Z13" s="80"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="82" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC13" s="80"/>
+      <c r="AD13" s="80"/>
+      <c r="AE13" s="80"/>
+      <c r="AF13" s="80"/>
+      <c r="AG13" s="80"/>
+      <c r="AH13" s="80"/>
+      <c r="AI13" s="80"/>
+      <c r="AJ13" s="82"/>
+      <c r="AK13" s="82"/>
+      <c r="AL13" s="89"/>
     </row>
     <row r="14" spans="1:38" ht="21.75" thickBot="1">
-      <c r="N14" s="82"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="85"/>
-      <c r="AB14" s="86"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="84"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="86"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="93"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="80"/>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="82"/>
+      <c r="AC14" s="80"/>
+      <c r="AD14" s="80"/>
+      <c r="AE14" s="80"/>
+      <c r="AF14" s="80"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="80"/>
+      <c r="AJ14" s="82"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="89"/>
     </row>
     <row r="15" spans="1:38" ht="21.75" thickTop="1">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="97">
         <v>2.02102251530223E+16</v>
       </c>
-      <c r="O15" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="90"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="89"/>
-      <c r="AF15" s="89"/>
-      <c r="AG15" s="89"/>
-      <c r="AH15" s="89"/>
-      <c r="AI15" s="89"/>
-      <c r="AJ15" s="91"/>
-      <c r="AK15" s="91"/>
-      <c r="AL15" s="92"/>
+      <c r="O15" s="84" t="s">
+        <v>382</v>
+      </c>
+      <c r="P15" s="85"/>
+      <c r="Q15" s="85"/>
+      <c r="R15" s="85"/>
+      <c r="S15" s="85"/>
+      <c r="T15" s="85"/>
+      <c r="U15" s="85"/>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="86"/>
+      <c r="AB15" s="85"/>
+      <c r="AC15" s="85"/>
+      <c r="AD15" s="85"/>
+      <c r="AE15" s="85"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="85"/>
+      <c r="AH15" s="85"/>
+      <c r="AI15" s="85"/>
+      <c r="AJ15" s="87"/>
+      <c r="AK15" s="87"/>
+      <c r="AL15" s="88"/>
     </row>
     <row r="16" spans="1:38">
       <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N16" s="82"/>
-      <c r="O16" s="83"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="84" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="84"/>
-      <c r="AE16" s="84"/>
-      <c r="AF16" s="84"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="84"/>
-      <c r="AJ16" s="86"/>
-      <c r="AK16" s="86"/>
-      <c r="AL16" s="93"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="80"/>
+      <c r="Q16" s="80"/>
+      <c r="R16" s="80"/>
+      <c r="S16" s="80"/>
+      <c r="T16" s="80"/>
+      <c r="U16" s="80"/>
+      <c r="V16" s="80"/>
+      <c r="W16" s="80"/>
+      <c r="X16" s="80"/>
+      <c r="Y16" s="80"/>
+      <c r="Z16" s="80"/>
+      <c r="AA16" s="81"/>
+      <c r="AB16" s="80" t="s">
+        <v>400</v>
+      </c>
+      <c r="AC16" s="80"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="80"/>
+      <c r="AF16" s="80"/>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="80"/>
+      <c r="AI16" s="80"/>
+      <c r="AJ16" s="82"/>
+      <c r="AK16" s="82"/>
+      <c r="AL16" s="89"/>
     </row>
     <row r="17" spans="1:38" ht="21.75" thickBot="1">
-      <c r="B17" s="72" t="s">
-        <v>391</v>
-      </c>
-      <c r="N17" s="95"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="97"/>
-      <c r="AF17" s="97"/>
-      <c r="AG17" s="97"/>
-      <c r="AH17" s="97"/>
-      <c r="AI17" s="97"/>
-      <c r="AJ17" s="99"/>
-      <c r="AK17" s="99"/>
-      <c r="AL17" s="100"/>
+      <c r="B17" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="N17" s="91"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="93"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="93"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="93"/>
+      <c r="AH17" s="93"/>
+      <c r="AI17" s="93"/>
+      <c r="AJ17" s="95"/>
+      <c r="AK17" s="95"/>
+      <c r="AL17" s="96"/>
     </row>
     <row r="18" spans="1:38" ht="22.5" thickTop="1" thickBot="1">
-      <c r="B18" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="N18" s="82" t="s">
-        <v>443</v>
-      </c>
-      <c r="O18" s="83" t="s">
-        <v>426</v>
-      </c>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="86" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC18" s="86"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="86"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="86"/>
-      <c r="AL18" s="93"/>
+      <c r="B18" s="68" t="s">
+        <v>353</v>
+      </c>
+      <c r="N18" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="O18" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
+      <c r="R18" s="82"/>
+      <c r="S18" s="82"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="82"/>
+      <c r="V18" s="82"/>
+      <c r="W18" s="82"/>
+      <c r="X18" s="82"/>
+      <c r="Y18" s="82"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="AC18" s="82"/>
+      <c r="AD18" s="82"/>
+      <c r="AE18" s="82"/>
+      <c r="AF18" s="82"/>
+      <c r="AG18" s="82"/>
+      <c r="AH18" s="82"/>
+      <c r="AI18" s="82"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="82"/>
+      <c r="AL18" s="89"/>
     </row>
     <row r="19" spans="1:38" ht="22.5" thickTop="1" thickBot="1">
-      <c r="N19" s="103" t="s">
-        <v>428</v>
-      </c>
-      <c r="O19" s="104" t="s">
-        <v>429</v>
-      </c>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="105"/>
-      <c r="U19" s="105"/>
-      <c r="V19" s="105"/>
-      <c r="W19" s="105"/>
-      <c r="X19" s="105"/>
-      <c r="Y19" s="105"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="105" t="s">
-        <v>430</v>
-      </c>
-      <c r="AC19" s="105"/>
-      <c r="AD19" s="105"/>
-      <c r="AE19" s="105"/>
-      <c r="AF19" s="105"/>
-      <c r="AG19" s="105"/>
-      <c r="AH19" s="105"/>
-      <c r="AI19" s="105"/>
-      <c r="AJ19" s="105"/>
-      <c r="AK19" s="105"/>
-      <c r="AL19" s="106"/>
+      <c r="N19" s="99" t="s">
+        <v>387</v>
+      </c>
+      <c r="O19" s="100" t="s">
+        <v>388</v>
+      </c>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
+      <c r="S19" s="101"/>
+      <c r="T19" s="101"/>
+      <c r="U19" s="101"/>
+      <c r="V19" s="101"/>
+      <c r="W19" s="101"/>
+      <c r="X19" s="101"/>
+      <c r="Y19" s="101"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="101" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC19" s="101"/>
+      <c r="AD19" s="101"/>
+      <c r="AE19" s="101"/>
+      <c r="AF19" s="101"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="101"/>
+      <c r="AJ19" s="101"/>
+      <c r="AK19" s="101"/>
+      <c r="AL19" s="102"/>
     </row>
     <row r="20" spans="1:38" ht="21.75" thickTop="1">
       <c r="A20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N20" s="82" t="s">
-        <v>444</v>
-      </c>
-      <c r="O20" s="107" t="s">
-        <v>431</v>
-      </c>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="86" t="s">
-        <v>432</v>
-      </c>
-      <c r="AC20" s="86"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="86"/>
-      <c r="AJ20" s="86"/>
-      <c r="AK20" s="86"/>
-      <c r="AL20" s="93"/>
+      <c r="N20" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="O20" s="103" t="s">
+        <v>390</v>
+      </c>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="82"/>
+      <c r="W20" s="82"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="82"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="82" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC20" s="82"/>
+      <c r="AD20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="82"/>
+      <c r="AI20" s="82"/>
+      <c r="AJ20" s="82"/>
+      <c r="AK20" s="82"/>
+      <c r="AL20" s="89"/>
     </row>
     <row r="21" spans="1:38">
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N21" s="82"/>
-      <c r="O21" s="107"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="86"/>
-      <c r="AC21" s="86"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="86"/>
-      <c r="AJ21" s="86"/>
-      <c r="AK21" s="86"/>
-      <c r="AL21" s="93"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="103"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="82"/>
+      <c r="U21" s="82"/>
+      <c r="V21" s="82"/>
+      <c r="W21" s="82"/>
+      <c r="X21" s="82"/>
+      <c r="Y21" s="82"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="82"/>
+      <c r="AC21" s="82"/>
+      <c r="AD21" s="82"/>
+      <c r="AE21" s="82"/>
+      <c r="AF21" s="82"/>
+      <c r="AG21" s="82"/>
+      <c r="AH21" s="82"/>
+      <c r="AI21" s="82"/>
+      <c r="AJ21" s="82"/>
+      <c r="AK21" s="82"/>
+      <c r="AL21" s="89"/>
     </row>
     <row r="22" spans="1:38">
       <c r="B22" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="82"/>
-      <c r="O22" s="107"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="86"/>
-      <c r="AC22" s="86"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="86"/>
-      <c r="AJ22" s="86"/>
-      <c r="AK22" s="86"/>
-      <c r="AL22" s="93"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="103"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="82"/>
+      <c r="AC22" s="82"/>
+      <c r="AD22" s="82"/>
+      <c r="AE22" s="82"/>
+      <c r="AF22" s="82"/>
+      <c r="AG22" s="82"/>
+      <c r="AH22" s="82"/>
+      <c r="AI22" s="82"/>
+      <c r="AJ22" s="82"/>
+      <c r="AK22" s="82"/>
+      <c r="AL22" s="89"/>
     </row>
     <row r="23" spans="1:38">
-      <c r="N23" s="82"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="86"/>
-      <c r="AC23" s="86"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="86"/>
-      <c r="AJ23" s="86"/>
-      <c r="AK23" s="86"/>
-      <c r="AL23" s="93"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="103"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="82"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="82"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="82"/>
+      <c r="AC23" s="82"/>
+      <c r="AD23" s="82"/>
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AG23" s="82"/>
+      <c r="AH23" s="82"/>
+      <c r="AI23" s="82"/>
+      <c r="AJ23" s="82"/>
+      <c r="AK23" s="82"/>
+      <c r="AL23" s="89"/>
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="N24" s="82"/>
-      <c r="O24" s="107"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
-      <c r="AE24" s="86"/>
-      <c r="AF24" s="86"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="86"/>
-      <c r="AJ24" s="86"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="93"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="89"/>
     </row>
     <row r="25" spans="1:38">
       <c r="B25" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="N25" s="82"/>
-      <c r="O25" s="107"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="86"/>
-      <c r="AC25" s="86"/>
-      <c r="AD25" s="86"/>
-      <c r="AE25" s="86"/>
-      <c r="AF25" s="86"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="86"/>
-      <c r="AJ25" s="86"/>
-      <c r="AK25" s="86"/>
-      <c r="AL25" s="93"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="103"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="82"/>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
+      <c r="AI25" s="82"/>
+      <c r="AJ25" s="82"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="89"/>
     </row>
     <row r="26" spans="1:38">
       <c r="B26" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="N26" s="82"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="93"/>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="86"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="86"/>
-      <c r="AJ26" s="86"/>
-      <c r="AK26" s="86"/>
-      <c r="AL26" s="93"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="103"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
+      <c r="R26" s="82"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
+      <c r="U26" s="82"/>
+      <c r="V26" s="82"/>
+      <c r="W26" s="82"/>
+      <c r="X26" s="82"/>
+      <c r="Y26" s="82"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="82"/>
+      <c r="AC26" s="82"/>
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="82"/>
+      <c r="AF26" s="82"/>
+      <c r="AG26" s="82"/>
+      <c r="AH26" s="82"/>
+      <c r="AI26" s="82"/>
+      <c r="AJ26" s="82"/>
+      <c r="AK26" s="82"/>
+      <c r="AL26" s="89"/>
     </row>
     <row r="27" spans="1:38">
       <c r="B27" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="N27" s="82"/>
-      <c r="O27" s="107"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="86"/>
-      <c r="AC27" s="86"/>
-      <c r="AD27" s="86"/>
-      <c r="AE27" s="86"/>
-      <c r="AF27" s="86"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="86"/>
-      <c r="AJ27" s="86"/>
-      <c r="AK27" s="86"/>
-      <c r="AL27" s="93"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="103"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
+      <c r="U27" s="82"/>
+      <c r="V27" s="82"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="82"/>
+      <c r="AC27" s="82"/>
+      <c r="AD27" s="82"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
+      <c r="AI27" s="82"/>
+      <c r="AJ27" s="82"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="89"/>
     </row>
     <row r="28" spans="1:38">
-      <c r="N28" s="82"/>
-      <c r="O28" s="107"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="93"/>
-      <c r="AB28" s="86"/>
-      <c r="AC28" s="86"/>
-      <c r="AD28" s="86"/>
-      <c r="AE28" s="86"/>
-      <c r="AF28" s="86"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="86"/>
-      <c r="AJ28" s="86"/>
-      <c r="AK28" s="86"/>
-      <c r="AL28" s="93"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="103"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="89"/>
     </row>
     <row r="29" spans="1:38" ht="21.75" thickBot="1">
       <c r="B29" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="N29" s="95"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="99"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="99"/>
-      <c r="S29" s="99"/>
-      <c r="T29" s="99"/>
-      <c r="U29" s="99"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="99"/>
-      <c r="X29" s="99"/>
-      <c r="Y29" s="99"/>
-      <c r="Z29" s="99"/>
-      <c r="AA29" s="100"/>
-      <c r="AB29" s="99"/>
-      <c r="AC29" s="99"/>
-      <c r="AD29" s="99"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="99"/>
-      <c r="AG29" s="99"/>
-      <c r="AH29" s="99"/>
-      <c r="AI29" s="99"/>
-      <c r="AJ29" s="99"/>
-      <c r="AK29" s="99"/>
-      <c r="AL29" s="100"/>
+      <c r="N29" s="91"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="95"/>
+      <c r="Q29" s="95"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="96"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="95"/>
+      <c r="AF29" s="95"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="95"/>
+      <c r="AJ29" s="95"/>
+      <c r="AK29" s="95"/>
+      <c r="AL29" s="96"/>
     </row>
     <row r="30" spans="1:38" ht="21.75" thickTop="1">
       <c r="B30" s="35" t="s">
@@ -12161,8 +11378,8 @@
       <c r="L104"/>
     </row>
     <row r="105" spans="4:12">
-      <c r="D105" s="78" t="s">
-        <v>433</v>
+      <c r="D105" s="74" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -12170,7 +11387,7 @@
     <mergeCell ref="O1:AA1"/>
     <mergeCell ref="AB1:AL1"/>
   </mergeCells>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12187,7 +11404,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12197,7 +11414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L103"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -12211,11 +11428,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12">
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="125" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="127"/>
     </row>
     <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
@@ -12238,8 +11455,8 @@
       <c r="E4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="77" t="s">
-        <v>419</v>
+      <c r="J4" s="73" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="3:12">
@@ -12263,14 +11480,14 @@
       <c r="E6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="I6" s="77" t="s">
-        <v>418</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>420</v>
-      </c>
-      <c r="L6" s="77" t="s">
-        <v>422</v>
+      <c r="I6" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>379</v>
+      </c>
+      <c r="L6" s="73" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="3:12">
@@ -12294,8 +11511,8 @@
       <c r="E8" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="77" t="s">
-        <v>421</v>
+      <c r="J8" s="73" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="3:12">
@@ -12491,199 +11708,199 @@
       </c>
     </row>
     <row r="39" spans="3:11">
-      <c r="C39" s="57" t="s">
-        <v>291</v>
+      <c r="C39" s="53" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="118" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="118"/>
-      <c r="F42" s="118"/>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118" t="s">
-        <v>293</v>
-      </c>
-      <c r="I42" s="118"/>
-      <c r="J42" s="118"/>
-      <c r="K42" s="118"/>
+      <c r="D42" s="111" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="111"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="131" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="122" t="s">
+        <v>259</v>
+      </c>
+      <c r="I43" s="122"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+    </row>
+    <row r="44" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C44" s="109" t="s">
+        <v>260</v>
+      </c>
+      <c r="D44" s="121" t="s">
+        <v>261</v>
+      </c>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="121"/>
+      <c r="H44" s="121" t="s">
+        <v>262</v>
+      </c>
+      <c r="I44" s="121"/>
+      <c r="J44" s="121"/>
+      <c r="K44" s="121"/>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="109"/>
+      <c r="D45" s="121"/>
+      <c r="E45" s="121"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="121"/>
+      <c r="H45" s="121"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="121"/>
+      <c r="K45" s="121"/>
+    </row>
+    <row r="46" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C46" s="128" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="121" t="s">
+        <v>264</v>
+      </c>
+      <c r="E46" s="121"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="121"/>
+      <c r="H46" s="121" t="s">
+        <v>265</v>
+      </c>
+      <c r="I46" s="121"/>
+      <c r="J46" s="121"/>
+      <c r="K46" s="121"/>
+    </row>
+    <row r="47" spans="3:11">
+      <c r="C47" s="129"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="121"/>
+    </row>
+    <row r="48" spans="3:11">
+      <c r="C48" s="130"/>
+      <c r="D48" s="121"/>
+      <c r="E48" s="121"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="121"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="121"/>
+      <c r="K48" s="121"/>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="C52" s="64" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="123" t="s">
+        <v>296</v>
+      </c>
+      <c r="D54" s="124"/>
+      <c r="E54" s="123" t="s">
+        <v>292</v>
+      </c>
+      <c r="F54" s="124"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="114" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="118"/>
+      <c r="E55" s="114" t="s">
+        <v>295</v>
+      </c>
+      <c r="F55" s="115"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="119"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="117"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="110" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" s="109"/>
+      <c r="E57" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="119" t="s">
-        <v>295</v>
-      </c>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="120" t="s">
-        <v>296</v>
-      </c>
-      <c r="I43" s="120"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-    </row>
-    <row r="44" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C44" s="114" t="s">
-        <v>297</v>
-      </c>
-      <c r="D44" s="113" t="s">
+      <c r="F57" s="109"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="110" t="s">
         <v>298</v>
       </c>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113" t="s">
+      <c r="D58" s="109"/>
+      <c r="E58" s="110" t="s">
         <v>299</v>
       </c>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="114"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-    </row>
-    <row r="46" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C46" s="115" t="s">
-        <v>300</v>
-      </c>
-      <c r="D46" s="113" t="s">
-        <v>301</v>
-      </c>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113" t="s">
-        <v>302</v>
-      </c>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-    </row>
-    <row r="47" spans="3:11">
-      <c r="C47" s="116"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-    </row>
-    <row r="48" spans="3:11">
-      <c r="C48" s="117"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="C52" s="68" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="121" t="s">
-        <v>335</v>
-      </c>
-      <c r="D54" s="122"/>
-      <c r="E54" s="121" t="s">
-        <v>331</v>
-      </c>
-      <c r="F54" s="122"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="124" t="s">
-        <v>332</v>
-      </c>
-      <c r="D55" s="128"/>
-      <c r="E55" s="124" t="s">
-        <v>334</v>
-      </c>
-      <c r="F55" s="125"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="129"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="127"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="123" t="s">
-        <v>339</v>
-      </c>
-      <c r="D57" s="114"/>
-      <c r="E57" s="123" t="s">
-        <v>333</v>
-      </c>
-      <c r="F57" s="114"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="123" t="s">
-        <v>337</v>
-      </c>
-      <c r="D58" s="114"/>
-      <c r="E58" s="123" t="s">
-        <v>338</v>
-      </c>
-      <c r="F58" s="114"/>
+      <c r="F58" s="109"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="123" t="s">
-        <v>354</v>
-      </c>
-      <c r="D59" s="114"/>
-      <c r="E59" s="114"/>
-      <c r="F59" s="114"/>
+      <c r="C59" s="110" t="s">
+        <v>315</v>
+      </c>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="114"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="114"/>
-      <c r="F60" s="114"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="109"/>
+      <c r="E60" s="109"/>
+      <c r="F60" s="109"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="114"/>
-      <c r="D61" s="114"/>
-      <c r="E61" s="114"/>
-      <c r="F61" s="114"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
+      <c r="C62" s="109"/>
+      <c r="D62" s="109"/>
+      <c r="E62" s="109"/>
+      <c r="F62" s="109"/>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
+      <c r="C63" s="109"/>
+      <c r="D63" s="109"/>
+      <c r="E63" s="109"/>
+      <c r="F63" s="109"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="114"/>
-      <c r="D64" s="114"/>
-      <c r="E64" s="114"/>
-      <c r="F64" s="114"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="7"/>
@@ -12696,215 +11913,257 @@
       <c r="E66" s="7"/>
     </row>
     <row r="68" spans="3:6">
-      <c r="F68" s="68" t="s">
-        <v>340</v>
+      <c r="F68" s="64" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="3:6">
-      <c r="F69" s="68" t="s">
-        <v>341</v>
+      <c r="F69" s="64" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="3:6">
-      <c r="F70" s="68" t="s">
-        <v>237</v>
+      <c r="F70" s="64" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="3:6">
-      <c r="F71" s="68" t="s">
-        <v>342</v>
+      <c r="F71" s="64" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="3:6">
-      <c r="F72" s="68" t="s">
-        <v>343</v>
+      <c r="F72" s="64" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="3:6">
-      <c r="F73" s="68" t="s">
-        <v>344</v>
+      <c r="F73" s="64" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="3:6">
-      <c r="F74" s="68" t="s">
-        <v>345</v>
+      <c r="F74" s="64" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="75" spans="3:6">
-      <c r="F75" s="68" t="s">
-        <v>346</v>
+      <c r="F75" s="64" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="3:6">
-      <c r="F76" s="67"/>
+      <c r="F76" s="63"/>
     </row>
     <row r="77" spans="3:6">
-      <c r="F77" s="68" t="s">
-        <v>347</v>
+      <c r="F77" s="64" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="3:6">
-      <c r="F78" s="68" t="s">
-        <v>348</v>
+      <c r="F78" s="64" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="79" spans="3:6">
-      <c r="F79" s="68" t="s">
-        <v>349</v>
+      <c r="F79" s="64" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="80" spans="3:6">
-      <c r="F80" s="68" t="s">
-        <v>350</v>
+      <c r="F80" s="64" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="81" spans="3:8">
-      <c r="F81" s="68" t="s">
-        <v>351</v>
+      <c r="F81" s="64" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="3:8">
-      <c r="F82" s="68" t="s">
-        <v>352</v>
+      <c r="F82" s="64" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="83" spans="3:8">
-      <c r="C83" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="F83" s="68" t="s">
-        <v>353</v>
+      <c r="C83" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="F83" s="64" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="84" spans="3:8">
-      <c r="F84" s="68" t="s">
-        <v>349</v>
+      <c r="F84" s="64" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="85" spans="3:8">
-      <c r="F85" s="68" t="s">
-        <v>237</v>
+      <c r="F85" s="64" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="3:8">
-      <c r="C89" s="67"/>
+      <c r="C89" s="63"/>
     </row>
     <row r="91" spans="3:8">
-      <c r="C91" s="118" t="s">
-        <v>356</v>
-      </c>
-      <c r="D91" s="118"/>
-      <c r="E91" s="118" t="s">
-        <v>357</v>
-      </c>
-      <c r="F91" s="118"/>
-      <c r="G91" s="118" t="s">
-        <v>356</v>
-      </c>
-      <c r="H91" s="118"/>
+      <c r="C91" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111" t="s">
+        <v>318</v>
+      </c>
+      <c r="F91" s="111"/>
+      <c r="G91" s="111" t="s">
+        <v>317</v>
+      </c>
+      <c r="H91" s="111"/>
     </row>
     <row r="92" spans="3:8">
-      <c r="C92" s="131" t="s">
-        <v>364</v>
-      </c>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131" t="s">
-        <v>358</v>
-      </c>
-      <c r="F92" s="132"/>
+      <c r="C92" s="112" t="s">
+        <v>325</v>
+      </c>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112" t="s">
+        <v>319</v>
+      </c>
+      <c r="F92" s="113"/>
     </row>
     <row r="93" spans="3:8">
-      <c r="C93" s="131"/>
-      <c r="D93" s="131"/>
-      <c r="E93" s="132"/>
-      <c r="F93" s="132"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="112"/>
+      <c r="E93" s="113"/>
+      <c r="F93" s="113"/>
     </row>
     <row r="94" spans="3:8">
-      <c r="C94" s="123" t="s">
-        <v>367</v>
-      </c>
-      <c r="D94" s="114"/>
-      <c r="E94" s="123" t="s">
-        <v>359</v>
-      </c>
-      <c r="F94" s="123"/>
+      <c r="C94" s="110" t="s">
+        <v>328</v>
+      </c>
+      <c r="D94" s="109"/>
+      <c r="E94" s="110" t="s">
+        <v>320</v>
+      </c>
+      <c r="F94" s="110"/>
     </row>
     <row r="95" spans="3:8">
-      <c r="C95" s="123" t="s">
-        <v>360</v>
-      </c>
-      <c r="D95" s="114"/>
-      <c r="E95" s="123" t="s">
-        <v>361</v>
-      </c>
-      <c r="F95" s="123"/>
+      <c r="C95" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="D95" s="109"/>
+      <c r="E95" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="F95" s="110"/>
     </row>
     <row r="96" spans="3:8">
-      <c r="C96" s="123" t="s">
-        <v>362</v>
-      </c>
-      <c r="D96" s="114"/>
-      <c r="E96" s="123" t="s">
-        <v>363</v>
-      </c>
-      <c r="F96" s="123"/>
+      <c r="C96" s="110" t="s">
+        <v>323</v>
+      </c>
+      <c r="D96" s="109"/>
+      <c r="E96" s="110" t="s">
+        <v>324</v>
+      </c>
+      <c r="F96" s="110"/>
     </row>
     <row r="97" spans="3:8">
-      <c r="C97" s="114"/>
-      <c r="D97" s="114"/>
-      <c r="E97" s="123" t="s">
-        <v>360</v>
-      </c>
-      <c r="F97" s="123"/>
-      <c r="G97" s="123" t="s">
-        <v>361</v>
-      </c>
-      <c r="H97" s="123"/>
+      <c r="C97" s="109"/>
+      <c r="D97" s="109"/>
+      <c r="E97" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="F97" s="110"/>
+      <c r="G97" s="110" t="s">
+        <v>322</v>
+      </c>
+      <c r="H97" s="110"/>
     </row>
     <row r="98" spans="3:8">
-      <c r="C98" s="114"/>
-      <c r="D98" s="114"/>
-      <c r="E98" s="123" t="s">
-        <v>365</v>
-      </c>
-      <c r="F98" s="123"/>
-      <c r="G98" s="123" t="s">
-        <v>366</v>
-      </c>
-      <c r="H98" s="123"/>
+      <c r="C98" s="109"/>
+      <c r="D98" s="109"/>
+      <c r="E98" s="110" t="s">
+        <v>326</v>
+      </c>
+      <c r="F98" s="110"/>
+      <c r="G98" s="110" t="s">
+        <v>327</v>
+      </c>
+      <c r="H98" s="110"/>
     </row>
     <row r="99" spans="3:8">
-      <c r="C99" s="114"/>
-      <c r="D99" s="114"/>
-      <c r="E99" s="123"/>
-      <c r="F99" s="123"/>
+      <c r="C99" s="109"/>
+      <c r="D99" s="109"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
     </row>
     <row r="100" spans="3:8">
-      <c r="C100" s="114"/>
-      <c r="D100" s="114"/>
-      <c r="E100" s="123"/>
-      <c r="F100" s="123"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="110"/>
+      <c r="F100" s="110"/>
     </row>
     <row r="101" spans="3:8">
-      <c r="C101" s="114"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="123"/>
-      <c r="F101" s="123"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="110"/>
+      <c r="F101" s="110"/>
     </row>
     <row r="102" spans="3:8">
-      <c r="C102" s="114"/>
-      <c r="D102" s="114"/>
-      <c r="E102" s="123"/>
-      <c r="F102" s="123"/>
+      <c r="C102" s="109"/>
+      <c r="D102" s="109"/>
+      <c r="E102" s="110"/>
+      <c r="F102" s="110"/>
     </row>
     <row r="103" spans="3:8">
-      <c r="C103" s="114"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="123"/>
-      <c r="F103" s="123"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="110"/>
+      <c r="F103" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="D46:G48"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="H46:K48"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:F93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E102:F102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="G91:H91"/>
@@ -12921,50 +12180,8 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:F93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E102:F102"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="H44:K45"/>
-    <mergeCell ref="H46:K48"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="D46:G48"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
   </mergeCells>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -12973,10 +12190,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B16:C52"/>
+  <dimension ref="B16:C48"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13008,122 +12225,110 @@
     </row>
     <row r="29" spans="2:2" ht="20.25">
       <c r="B29" s="3" t="s">
-        <v>330</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="135" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>231</v>
+        <v>445</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="49" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="50" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" s="45" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" s="45" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="45" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" s="45" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" s="48"/>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" s="45" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="20.25">
-      <c r="B42" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="17.25">
-      <c r="B43" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="17.25">
-      <c r="B46" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="73" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="C51" s="73" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="C52" s="9" t="s">
-        <v>395</v>
+      <c r="B32" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="135" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
+      <c r="B34" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" s="9" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="20.25">
+      <c r="B38" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="17.25">
+      <c r="B39" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="17.25">
+      <c r="B42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" s="69" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="C47" s="69" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="C48" s="9" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AB100"/>
+  <dimension ref="B5:AB106"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="N99" sqref="N99"/>
+    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="5" spans="2:28">
       <c r="B5" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="16.5" customHeight="1">
       <c r="K6" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:28">
       <c r="N8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>147</v>
@@ -13156,58 +12361,58 @@
     <row r="14" spans="2:28">
       <c r="C14" s="10"/>
       <c r="N14" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="P14" s="56" t="s">
         <v>204</v>
       </c>
-      <c r="P14" s="60" t="s">
+      <c r="R14" t="s">
         <v>205</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" s="58" t="s">
         <v>206</v>
-      </c>
-      <c r="T14" s="62" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" spans="2:28">
       <c r="C15" s="10"/>
-      <c r="P15" s="60"/>
-      <c r="T15" s="63" t="s">
-        <v>303</v>
+      <c r="P15" s="56"/>
+      <c r="T15" s="59" t="s">
+        <v>266</v>
       </c>
       <c r="AB15" s="39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="2:28">
-      <c r="C16" s="74" t="s">
-        <v>398</v>
+      <c r="C16" s="70" t="s">
+        <v>359</v>
       </c>
       <c r="F16" t="s">
-        <v>399</v>
-      </c>
-      <c r="P16" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="T16" s="64"/>
-      <c r="V16" s="54" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20">
+        <v>360</v>
+      </c>
+      <c r="P16" s="57" t="s">
+        <v>269</v>
+      </c>
+      <c r="T16" s="60"/>
+      <c r="V16" s="51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="3:23">
       <c r="C17" s="10"/>
-      <c r="P17" s="60"/>
-      <c r="T17" s="64"/>
-    </row>
-    <row r="18" spans="3:20">
+      <c r="P17" s="56"/>
+      <c r="T17" s="60"/>
+    </row>
+    <row r="18" spans="3:23">
       <c r="C18" s="10"/>
-      <c r="P18" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="T18" s="65" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20">
+      <c r="P18" s="133" t="s">
+        <v>436</v>
+      </c>
+      <c r="T18" s="61" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23">
       <c r="C19" s="10" t="s">
         <v>150</v>
       </c>
@@ -13217,27 +12422,30 @@
       <c r="G19" t="s">
         <v>152</v>
       </c>
-      <c r="P19" s="60"/>
-      <c r="T19" s="66" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20">
+      <c r="P19" s="56"/>
+      <c r="T19" s="62" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="3:23">
       <c r="C20" s="10"/>
-    </row>
-    <row r="21" spans="3:20">
+      <c r="W20" s="132" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23">
       <c r="C21" s="10"/>
     </row>
-    <row r="22" spans="3:20">
+    <row r="22" spans="3:23">
       <c r="C22" s="10" t="s">
         <v>153</v>
       </c>
       <c r="E22" t="s">
         <v>154</v>
       </c>
-      <c r="T22" s="59"/>
-    </row>
-    <row r="23" spans="3:20">
+      <c r="T22" s="55"/>
+    </row>
+    <row r="23" spans="3:23">
       <c r="C23" s="10" t="s">
         <v>155</v>
       </c>
@@ -13246,7 +12454,7 @@
       </c>
       <c r="N23" s="42"/>
     </row>
-    <row r="24" spans="3:20">
+    <row r="24" spans="3:23">
       <c r="C24" s="10" t="s">
         <v>157</v>
       </c>
@@ -13255,13 +12463,13 @@
       </c>
       <c r="N24" s="42"/>
     </row>
-    <row r="25" spans="3:20">
+    <row r="25" spans="3:23">
       <c r="C25" s="10"/>
     </row>
-    <row r="26" spans="3:20">
+    <row r="26" spans="3:23">
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="3:20">
+    <row r="27" spans="3:23">
       <c r="C27" s="10" t="s">
         <v>159</v>
       </c>
@@ -13269,21 +12477,21 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="3:20">
+    <row r="28" spans="3:23">
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="3:20">
-      <c r="C29" s="75" t="s">
-        <v>400</v>
+    <row r="29" spans="3:23">
+      <c r="C29" s="71" t="s">
+        <v>361</v>
       </c>
       <c r="E29" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="3:20">
+    <row r="30" spans="3:23">
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="3:20">
+    <row r="31" spans="3:23">
       <c r="C31" s="10" t="s">
         <v>162</v>
       </c>
@@ -13291,7 +12499,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="32" spans="3:20">
+    <row r="32" spans="3:23">
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="3:7">
@@ -13432,61 +12640,79 @@
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="F63" s="77" t="s">
-        <v>413</v>
+        <v>200</v>
+      </c>
+      <c r="F63" s="73" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="65" spans="3:6">
-      <c r="F65" s="77" t="s">
-        <v>414</v>
+      <c r="F65" s="73" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="3:6">
-      <c r="C68" s="78" t="s">
-        <v>434</v>
-      </c>
-      <c r="F68" s="78" t="s">
-        <v>435</v>
+      <c r="C68" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="F68" s="74" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="71" spans="3:6">
-      <c r="C71" s="79" t="s">
-        <v>437</v>
+      <c r="C71" s="75" t="s">
+        <v>396</v>
       </c>
       <c r="F71" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="3:6">
-      <c r="C87" s="133" t="s">
-        <v>445</v>
-      </c>
-      <c r="F87" s="133" t="s">
-        <v>446</v>
+      <c r="C87" s="104" t="s">
+        <v>403</v>
+      </c>
+      <c r="F87" s="104" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="89" spans="3:6">
-      <c r="C89" s="133" t="s">
-        <v>448</v>
+      <c r="C89" s="104" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="91" spans="3:6">
-      <c r="F91" s="133" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3">
-      <c r="C99" s="133"/>
-    </row>
-    <row r="100" spans="3:3">
-      <c r="C100" s="133" t="s">
-        <v>450</v>
+      <c r="F91" s="104" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="C99" s="104"/>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100" s="104" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5">
+      <c r="C104" s="132" t="s">
+        <v>438</v>
+      </c>
+      <c r="E104" s="132" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5">
+      <c r="E105" s="132" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5">
+      <c r="E106" s="134" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13495,188 +12721,25 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="D3:N3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="14" max="14" width="8.88671875" style="55"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="45" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="45" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="45" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="45" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="45" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="45" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="45" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="45" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="76" t="s">
-        <v>402</v>
-      </c>
-      <c r="L11" s="46"/>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="45" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="45" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="45" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="45" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="45" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="45" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="45" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="45" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="44" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="45" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="F27" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="F28" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="C29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="D30" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="B32" t="s">
-        <v>274</v>
+    <row r="3" spans="4:14">
+      <c r="D3" t="s">
+        <v>410</v>
+      </c>
+      <c r="N3" s="106" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13684,141 +12747,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P178"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A130" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" style="51"/>
+    <col min="3" max="3" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:16">
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="48" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="D10" s="45" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="48" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="52" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="P15" s="45"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="45" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="52" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="3:16">
-      <c r="D10" s="46" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16">
-      <c r="C12" s="51" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16">
-      <c r="C14" s="51" t="s">
+    <row r="118" spans="5:5">
+      <c r="E118" s="52" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="3:16">
-      <c r="P15" s="46"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="D21" s="46" t="s">
+    <row r="120" spans="5:5">
+      <c r="E120" s="52" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="51" t="s">
+    <row r="122" spans="5:5">
+      <c r="E122" s="52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="51" t="s">
+    <row r="124" spans="5:5">
+      <c r="E124" s="52" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="52" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="51" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="56" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="56" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="56" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5">
-      <c r="E120" s="56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="56" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="56" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="56" t="s">
-        <v>285</v>
-      </c>
-    </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="56" t="s">
-        <v>286</v>
+      <c r="E128" s="52" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="130" spans="3:5">
-      <c r="E130" s="56" t="s">
-        <v>287</v>
+      <c r="E130" s="52" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="132" spans="3:5">
-      <c r="E132" s="56" t="s">
-        <v>288</v>
+      <c r="E132" s="52" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="3:5">
-      <c r="E134" s="56" t="s">
-        <v>289</v>
+      <c r="E134" s="52" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="135" spans="3:5">
-      <c r="C135" s="51" t="s">
-        <v>393</v>
+      <c r="C135" s="48" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="159" spans="3:3">
-      <c r="C159" s="51" t="s">
-        <v>394</v>
+      <c r="C159" s="48" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="3:6">
-      <c r="C178" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="F178" s="77" t="s">
-        <v>417</v>
+      <c r="C178" s="48" t="s">
+        <v>375</v>
+      </c>
+      <c r="F178" s="73" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="46" type="noConversion"/>
+  <phoneticPr fontId="49" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="471">
   <si>
     <t>SVN</t>
   </si>
@@ -102,9 +102,6 @@
       </rPr>
       <t>→经理</t>
     </r>
-  </si>
-  <si>
-    <t>d123456~</t>
   </si>
   <si>
     <t>海外仓系统外网地址（供销售、仓库使用）</t>
@@ -1266,7 +1263,7 @@
       </rPr>
       <t xml:space="preserve"> svn:</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1283,23 +1280,23 @@
       </rPr>
       <t>heck out下载代码</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>提交代码（commit）前update</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>复制修改过的代码类粘贴到文件夹对应位置替换</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>忽视文件</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>setting-Editor-File Types</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1316,7 +1313,7 @@
       </rPr>
       <t>n files and folders后面添加*.iml;*.idea;*.gitignore;*.sh;*.classpath;*.project;*.settings;target;logs;</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1333,7 +1330,7 @@
       </rPr>
       <t>.xx 为忽视该后缀文件</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1350,31 +1347,31 @@
       </rPr>
       <t>/  过滤文件夹</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>xx.java  过滤文件</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>去除路径多余字段：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>session生效</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>自动导包</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1409,11 +1406,11 @@
       </rPr>
       <t>Optimize imports on the fly (for current project)</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>控制台》》输入代码包含元素可以搜索路径，{ }展开代码</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1463,7 +1460,7 @@
       </rPr>
       <t>js打断点</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1480,7 +1477,7 @@
       </rPr>
       <t>10下一个断点</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>【修改原因】#1009482</t>
@@ -1496,31 +1493,31 @@
   </si>
   <si>
     <t>查端口pid并杀死</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ALL里面路径找controller位置</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>在浏览器页面找到title中文名（或者其他中文关键词），在idea-find in path找jsp</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>serviceImpl</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>dao层</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>dao层impl</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1559,11 +1556,11 @@
       </rPr>
       <t>ml</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>{</t>
@@ -1586,7 +1583,7 @@
       </rPr>
       <t>.格式化？</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1603,7 +1600,7 @@
       </rPr>
       <t>.最新版本</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1620,46 +1617,46 @@
       </rPr>
       <t>.找不同</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>4.修改后测试？</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>引用-目录-自动目录</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>目录：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>字间距：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>右键段落左对齐（可在目录标题上面统一修改）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>页面宽度：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>输入代码首字母大写取消：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>limit分页</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *  FROM t_order limit 0,10</t>
   </si>
   <si>
     <t>显示十条数据</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1808,23 +1805,23 @@
   </si>
   <si>
     <t>分页</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=1当前页码</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>pageSize=10;//每页显示记录数</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>start=0</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库前十条数据</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1841,35 +1838,35 @@
       </rPr>
       <t>=9</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=2当前页码</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>start=10</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>end=19</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库第二个十条数据</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>=方法名</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>dgh@666666</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>修改目录样式：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1908,11 +1905,11 @@
       </rPr>
       <t>-修改</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>选择多个图片</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>Sub 图片边框</t>
@@ -1949,18 +1946,18 @@
   </si>
   <si>
     <t>.OutsideColorIndex = wdGray25</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>Ehcache 和 Redis 比较</t>
   </si>
   <si>
     <t>   Ehcache</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>      Redis        </t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>存取速度</t>
@@ -1988,7 +1985,7 @@
   </si>
   <si>
     <t>至少需要安装服务端和客户端才能使用。操作略比Ehcache复杂一些</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2032,7 +2029,7 @@
       </rPr>
       <t>);</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2060,7 +2057,7 @@
       </rPr>
       <t>(request,new xxMapper())</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2152,11 +2149,11 @@
       </rPr>
       <t>】</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>传参为空判断：如pager是否为空</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>if (a == 1) ...</t>
@@ -2237,7 +2234,7 @@
   </si>
   <si>
     <t>switch-case</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2298,11 +2295,11 @@
       </rPr>
       <t>效率要高</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>insert into</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2469,11 +2466,11 @@
       </rPr>
       <t>test)</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      VALUES (:id, :test)</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2490,23 +2487,23 @@
       </rPr>
       <t xml:space="preserve"> duplicate key update(非主键，非唯一键字段，重复数据更新不插入）</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      ON DUPLICATE KEY UPDATE id=:id, test=:test</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>批量插入values后面增加数据</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>desc查看表字段数据结构</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>插入单条数据xml</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2522,7 +2519,7 @@
       </rPr>
       <t>批量</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2538,15 +2535,15 @@
       </rPr>
       <t>为接口</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>bessky_erp为psscontroller层，bessky_pss为数据层</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>堆</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2563,19 +2560,19 @@
       </rPr>
       <t>共享</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>new的对象</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>new的对象没被栈引用一定时间会被垃圾回收器释放掉</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>栈</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2604,15 +2601,15 @@
   </si>
   <si>
     <t>引用类型地址person@xxx</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>对象属性person.age=10</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>8大基本数据类型int a=10</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2912,7 +2909,7 @@
   </si>
   <si>
     <t>类里面方法（），里面数据类型用完会释放</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2929,55 +2926,55 @@
       </rPr>
       <t>a1释放掉，堆里面age被修改为21</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>equals</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>hashCode</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>hashcode只有在创建某个类的散列表的时候才有用，需要根据hashcode值确认对象在散列表中的位置</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HashMap，HashSet，HashTable </t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>相等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不一定相等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>必然不等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>判断对象内容相等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>不一定不相等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>“==”地址相等</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3024,11 +3021,11 @@
   </si>
   <si>
     <t>增加sql语句</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>占位符</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>&lt;[AND created_by IN (:created_by_list)]&gt;</t>
@@ -3102,7 +3099,7 @@
   </si>
   <si>
     <t>实体类</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3486,7 +3483,7 @@
   </si>
   <si>
     <t>前端items的key自动对应name(ps:create_by和username是同一个东西）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3647,22 +3644,22 @@
   </si>
   <si>
     <t>setQueryCondition逗号分割，多个查询</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.143:59095/pss</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.203:8080/pss/index</t>
   </si>
   <si>
     <t>替换AuthorizationServiceImpl</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3687,15 +3684,15 @@
       </rPr>
       <t>_pss_web/WEB-INF/web.xml-fliter</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>word去掉回车符</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>取消自动换行编号</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3714,11 +3711,11 @@
   </si>
   <si>
     <t>比较长的for循环结束写入</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>注释：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3744,7 +3741,7 @@
       </rPr>
       <t>:</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Ctrl+Alt+L</t>
@@ -3780,19 +3777,19 @@
       </rPr>
       <t>todo:</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>查找表里面所有列名哪些包含字段（模糊查询）：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>订单ID</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>申请跟踪号失败</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>  这单帮忙再新申请一个单号   SKU信息换下  品名：化妆刷、Makeup brush    重量：0.3kg</t>
@@ -3814,23 +3811,23 @@
   </si>
   <si>
     <t>开发环境找到对应的物流类，修改buildRequestOrder方法里面的重量 ，中文品名，英文品名，</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>禅道需求完成确认：</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>netstat -ano | findstr 8081</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>taskkill /pid 12860 /f</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>输入法打出ico图标</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3847,11 +3844,11 @@
       </rPr>
       <t>,会显示扳手</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>ssm</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3868,7 +3865,7 @@
       </rPr>
       <t>pring</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3885,7 +3882,7 @@
       </rPr>
       <t>pringMVC</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3902,29 +3899,29 @@
       </rPr>
       <t>ybatis</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>JSP</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>回退到等待物流收包状态</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 麻烦申请下跟踪号</t>
   </si>
   <si>
     <t>物流接口操作：申请跟踪号</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>PDA退货扫描，多仓订单，扫退货时候，能否改成电脑一样，只报一个仓库</t>
   </si>
   <si>
     <t>退件员只负责扫退货，拆包、更换二维码现在都是仓库自己完成</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>702967767改589</t>
@@ -3934,7 +3931,7 @@
   </si>
   <si>
     <t>改运输方式</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>跟踪号重复，无法获取面单</t>
@@ -3944,11 +3941,11 @@
   </si>
   <si>
     <t>运输方式规则看禁运国家</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>代码没编译向下运行</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3965,38 +3962,38 @@
       </rPr>
       <t>&gt;build project</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>https://getman.cn/</t>
   </si>
   <si>
     <t>http测试</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>问题描述（截图）</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>问题解决</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>修改订单找到街道，里面有00200，ARMEE关键字</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 包裹都是无法回退的，只能一单一单回退扫描</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>通性问题</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>通性问题</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4013,11 +4010,11 @@
       </rPr>
       <t>ersion Control</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>可以将不需要上传的代码分类</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4045,23 +4042,23 @@
       </rPr>
       <t xml:space="preserve"> has not been downloaded from it before.</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>进入Settings-build Tools，把Work offline的勾去除即可。</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>报红，点开方法进入，定位所在模块，maven clean install</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>https://oa.ser.ltd/dashboard</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>java.lang.ClassNotFoundException: com.bessky.pss.portal.business.stock.bean.PrintInStockSku</t>
@@ -4103,7 +4100,7 @@
       </rPr>
       <t>ss（root）重新clean-install</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4154,11 +4151,11 @@
   </si>
   <si>
     <t>java pager传参</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>字段a分组，按照字段b逆序</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4288,28 +4285,20 @@
     <t xml:space="preserve">      ORDER BY t1.sku,t1.record_id DESC</t>
   </si>
   <si>
-    <t>http://192.168.99.213:9095/pss</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
     <t>大于号逆序</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>占位符，有参数传入时，t1.sku="xxx"</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>大于几就是取b字段几个</t>
-    <phoneticPr fontId="49" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>可调用多个Dao层</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4326,15 +4315,15 @@
       </rPr>
       <t>per为对象返回形式</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>链式编程</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>1.安装lombok插件</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4356,6 +4345,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4377,6 +4367,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4398,6 +4389,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4419,6 +4411,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4435,11 +4428,11 @@
       </rPr>
       <t>Annotation Processors</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>3 注释@Accessors(chain=true) @Data 删除getting，setting方法</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <t>locationNumberRecordMaps= LocationNumberRecords.stream()</t>
@@ -4470,7 +4463,7 @@
   </si>
   <si>
     <t>分组</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4522,7 +4515,7 @@
   </si>
   <si>
     <t>list对象过滤</t>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4539,7 +4532,272 @@
       </rPr>
       <t>8流filter</t>
     </r>
-    <phoneticPr fontId="49" type="noConversion"/>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看ip,mac地址</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipconfig /all</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>mac即物理地址</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>d123456~</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 和assert区别：</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>if正常判断逻辑及处理；断言为可能出现的逻辑中断程序</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@PermissionAnnotation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(permission = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"11102900"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@RequestMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(value = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"feature"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, method = {RequestMethod.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>GET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"product/product_feature_import"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <t>前端有name后台必须有Model注解，哪怕是页面初始化，不是submit数据</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String toFeatureExcelImport(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@ModelAttribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"domain"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) ProductFeaturesDo productFeaturesDo)</t>
+    </r>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应 name="productFeatures"为ProductFeaturesDo属性</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain形参改变需重启web</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.retainAll(B)</t>
+  </si>
+  <si>
+    <t>如果集合A的大小发生了改变，返回true，即使两个集合完全没有交集，也会返回true。</t>
+  </si>
+  <si>
+    <t>如果集合A的大小没有发生改变，返回false，即使两个集合完全相同，也会返回false。</t>
+  </si>
+  <si>
+    <t>可以看到这个方法改变了集合A中的元素，保留A,B相同元素</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新数据</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> UPDATE t_product SET product_feature=null  where product_sku="#D161B" </t>
+  </si>
+  <si>
+    <t>http://192.168.99.213:9095/pss</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟卖：</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚马逊上有卖家创建了某一产品,它的销量很好,于是也想卖这个产品,于是亚马逊上就会出现同一个产品有你和其他卖家共用一个产品详情页的情况,这一情况就是跟卖。跟卖的产品需要完全相同。</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASIN：</t>
+    <phoneticPr fontId="52" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/  ASIN（Amazon standard identification number），亚马逊自己自家产品编的唯一编号，由亚马逊系统自动生成的，不需要卖家自行添加</t>
+    <phoneticPr fontId="52" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4549,11 +4807,35 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="69">
+  <fonts count="73">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5081,6 +5363,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5465,27 +5753,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -5495,10 +5783,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -5513,7 +5801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -5522,16 +5810,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
@@ -5540,136 +5828,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -5681,12 +5981,93 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="70" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -5696,121 +6077,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="67" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5822,25 +6134,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5861,20 +6173,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9218,8 +9530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -9260,7 +9572,7 @@
         <v>2851810174</v>
       </c>
       <c r="N4" s="34" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="3:16">
@@ -9301,7 +9613,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -9317,7 +9629,7 @@
         <v>5</v>
       </c>
       <c r="L10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -9325,7 +9637,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>16</v>
@@ -9333,13 +9645,13 @@
     </row>
     <row r="14" spans="3:16">
       <c r="J14" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="K14" t="s">
         <v>350</v>
       </c>
-      <c r="K14" t="s">
-        <v>351</v>
-      </c>
       <c r="N14" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -9361,27 +9673,27 @@
       <c r="K16" t="s">
         <v>5</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L16" s="111" t="s">
+        <v>449</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="17" spans="3:14">
       <c r="C17" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:14">
       <c r="C18" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
         <v>23</v>
-      </c>
-      <c r="J18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="3:14">
@@ -9389,7 +9701,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:14">
@@ -9405,18 +9717,18 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:14">
       <c r="C23" s="29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K23" t="s">
         <v>5</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="3:14">
@@ -9424,7 +9736,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="3:14">
@@ -9437,71 +9749,71 @@
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:14">
       <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="33" t="s">
+      <c r="I30" t="s">
         <v>33</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="F31" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
         <v>35</v>
-      </c>
-      <c r="I31" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="3:10">
       <c r="G33" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="3:10">
       <c r="G34" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="3:10">
       <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" t="s">
         <v>40</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J35" t="s">
         <v>41</v>
-      </c>
-      <c r="J35" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" t="s">
         <v>43</v>
-      </c>
-      <c r="J38" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="40" spans="3:10">
       <c r="D40" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="35" t="s">
         <v>187</v>
-      </c>
-      <c r="F40" s="35" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="41" spans="3:10">
@@ -9514,13 +9826,13 @@
     </row>
     <row r="43" spans="3:10">
       <c r="D43" s="35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="3:10">
       <c r="D44" s="35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F44" s="35"/>
     </row>
@@ -9534,7 +9846,7 @@
     </row>
     <row r="48" spans="3:10">
       <c r="C48" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="3:3">
@@ -9542,11 +9854,11 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" s="72" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="K13" r:id="rId2"/>
@@ -9562,211 +9874,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB147"/>
+  <dimension ref="A1:AB150"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M147" sqref="M147"/>
+    <sheetView showGridLines="0" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L155" sqref="L155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="3:25">
       <c r="L1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="30" t="s">
         <v>46</v>
-      </c>
-      <c r="R1" s="30" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="3:25">
       <c r="C2" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="R2" s="31"/>
       <c r="Y2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="3:25">
       <c r="L11" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="3:25">
       <c r="L12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="L18" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="L19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="29" spans="1:28">
       <c r="H29" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:28">
       <c r="H30" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="H31" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T31" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="V31" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="V31" s="49" t="s">
-        <v>229</v>
-      </c>
       <c r="Z31" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB31" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:28">
       <c r="M32" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="12:27">
       <c r="M33" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T33" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Z33" s="49" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="12:27">
       <c r="M35" s="50" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="T35" s="49" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Z35" s="49" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="12:27">
       <c r="M37" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U37" s="49" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AA37" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="12:27">
       <c r="L39" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="12:27">
       <c r="M40" s="54" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="12:27">
       <c r="M41" s="54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="12:27">
       <c r="M42" s="54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="13:13">
       <c r="M58" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="13:13">
       <c r="M59" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="60" spans="13:13">
       <c r="M60" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="13:13">
       <c r="M61" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="13:13">
       <c r="M62" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="13:13">
       <c r="M63" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="13:13">
       <c r="M64" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="65" spans="13:13">
       <c r="M65" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="13:13">
       <c r="M66" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="13:13">
       <c r="M67" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="13:13">
       <c r="M68" s="54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="69" spans="13:13">
       <c r="M69" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="13:13">
@@ -9783,230 +10095,238 @@
     </row>
     <row r="96" spans="12:12">
       <c r="L96" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="12:13">
       <c r="M98" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="101" spans="12:13">
       <c r="L101" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="102" spans="12:13">
       <c r="M102" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="103" spans="12:13">
       <c r="M103" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="105" spans="12:13">
       <c r="M105" s="65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="12:13">
       <c r="M106" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="12:13">
       <c r="M107" s="66" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="108" spans="12:13">
       <c r="M108" s="67" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="12:13">
       <c r="M109" s="47" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="12:13">
       <c r="M111" s="65" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="112" spans="12:13">
       <c r="M112" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="113" spans="12:13">
       <c r="M113" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114" spans="12:13">
       <c r="M114" s="46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="115" spans="12:13">
       <c r="M115" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="12:13">
       <c r="M116" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="12:13">
       <c r="M118" s="65" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="12:13">
       <c r="M119" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="12:13">
       <c r="M120" s="47" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="121" spans="12:13">
       <c r="M121" s="44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="122" spans="12:13">
       <c r="M122" s="44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="12:13">
       <c r="M123" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="124" spans="12:13">
       <c r="M124" s="44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="127" spans="12:13">
       <c r="L127" s="106" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="129" spans="10:20">
       <c r="L129" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="10:20">
       <c r="L130" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="131" spans="10:20">
       <c r="L131" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="10:20">
       <c r="L132" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" spans="10:20">
       <c r="L133" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="10:20">
       <c r="L134" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="10:20">
       <c r="L135" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="10:20">
       <c r="L136" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="137" spans="10:20">
       <c r="L137" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q137" s="40" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="10:20">
       <c r="L138" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="139" spans="10:20">
       <c r="L139" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="10:20">
       <c r="L140" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="10:20">
       <c r="L141" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" spans="10:20">
       <c r="L142" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="143" spans="10:20">
       <c r="J143" s="40" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="L143" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" spans="10:20">
       <c r="L144" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="T144" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="T144" s="40" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="145" spans="12:12">
+    </row>
+    <row r="145" spans="10:12">
       <c r="L145" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="146" spans="10:12">
+      <c r="L146" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="146" spans="12:12">
-      <c r="L146" s="9" t="s">
+    <row r="147" spans="10:12">
+      <c r="L147" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="147" spans="12:12">
-      <c r="L147" s="9" t="s">
-        <v>281</v>
+    <row r="150" spans="10:12">
+      <c r="J150" s="140" t="s">
+        <v>464</v>
+      </c>
+      <c r="L150" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10016,8 +10336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL105"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G34" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="U55" sqref="U55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -10029,46 +10349,46 @@
   <sheetData>
     <row r="1" spans="1:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="B1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="77" t="s">
-        <v>363</v>
-      </c>
-      <c r="O1" s="107" t="s">
+        <v>362</v>
+      </c>
+      <c r="O1" s="115" t="s">
+        <v>396</v>
+      </c>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="116" t="s">
         <v>397</v>
       </c>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
-      <c r="Z1" s="107"/>
-      <c r="AA1" s="107"/>
-      <c r="AB1" s="108" t="s">
-        <v>398</v>
-      </c>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="107"/>
-      <c r="AH1" s="107"/>
-      <c r="AI1" s="107"/>
-      <c r="AJ1" s="107"/>
-      <c r="AK1" s="107"/>
-      <c r="AL1" s="107"/>
+      <c r="AC1" s="115"/>
+      <c r="AD1" s="115"/>
+      <c r="AE1" s="115"/>
+      <c r="AF1" s="115"/>
+      <c r="AG1" s="115"/>
+      <c r="AH1" s="115"/>
+      <c r="AI1" s="115"/>
+      <c r="AJ1" s="115"/>
+      <c r="AK1" s="115"/>
+      <c r="AL1" s="115"/>
     </row>
     <row r="2" spans="1:38" ht="21.75" thickTop="1">
       <c r="N2" s="78">
         <v>717240493</v>
       </c>
       <c r="O2" s="79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P2" s="80"/>
       <c r="Q2" s="80"/>
@@ -10083,7 +10403,7 @@
       <c r="Z2" s="80"/>
       <c r="AA2" s="81"/>
       <c r="AB2" s="80" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AC2" s="80"/>
       <c r="AD2" s="80"/>
@@ -10098,7 +10418,7 @@
     </row>
     <row r="3" spans="1:38">
       <c r="B3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N3" s="78"/>
       <c r="O3" s="79"/>
@@ -10128,7 +10448,7 @@
     </row>
     <row r="4" spans="1:38">
       <c r="B4" s="54" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="N4" s="78"/>
       <c r="O4" s="79"/>
@@ -10185,7 +10505,7 @@
     </row>
     <row r="6" spans="1:38" ht="21.75" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="78"/>
       <c r="O6" s="79"/>
@@ -10215,16 +10535,16 @@
     </row>
     <row r="7" spans="1:38" ht="21.75" thickTop="1">
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N7" s="83">
         <v>714467223</v>
       </c>
       <c r="O7" s="84" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P7" s="85"/>
       <c r="Q7" s="85"/>
@@ -10239,7 +10559,7 @@
       <c r="Z7" s="85"/>
       <c r="AA7" s="86"/>
       <c r="AB7" s="85" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AC7" s="85"/>
       <c r="AD7" s="85"/>
@@ -10254,10 +10574,10 @@
     </row>
     <row r="8" spans="1:38">
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G8" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N8" s="78"/>
       <c r="O8" s="79"/>
@@ -10274,7 +10594,7 @@
       <c r="Z8" s="80"/>
       <c r="AA8" s="81"/>
       <c r="AB8" s="82" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AC8" s="80"/>
       <c r="AD8" s="80"/>
@@ -10289,10 +10609,10 @@
     </row>
     <row r="9" spans="1:38">
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N9" s="78"/>
       <c r="O9" s="79"/>
@@ -10309,7 +10629,7 @@
       <c r="Z9" s="80"/>
       <c r="AA9" s="81"/>
       <c r="AB9" s="82" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AC9" s="90"/>
       <c r="AD9" s="80"/>
@@ -10324,10 +10644,10 @@
     </row>
     <row r="10" spans="1:38">
       <c r="B10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N10" s="78"/>
       <c r="O10" s="79"/>
@@ -10344,7 +10664,7 @@
       <c r="Z10" s="80"/>
       <c r="AA10" s="81"/>
       <c r="AB10" s="82" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AC10" s="90"/>
       <c r="AD10" s="80"/>
@@ -10359,7 +10679,7 @@
     </row>
     <row r="11" spans="1:38">
       <c r="B11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N11" s="78"/>
       <c r="O11" s="79"/>
@@ -10376,7 +10696,7 @@
       <c r="Z11" s="80"/>
       <c r="AA11" s="81"/>
       <c r="AB11" s="82" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AC11" s="90"/>
       <c r="AD11" s="80"/>
@@ -10405,7 +10725,7 @@
       <c r="Z12" s="93"/>
       <c r="AA12" s="94"/>
       <c r="AB12" s="95" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AC12" s="93"/>
       <c r="AD12" s="93"/>
@@ -10423,7 +10743,7 @@
         <v>719125280</v>
       </c>
       <c r="O13" s="79" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P13" s="80"/>
       <c r="Q13" s="80"/>
@@ -10438,7 +10758,7 @@
       <c r="Z13" s="80"/>
       <c r="AA13" s="81"/>
       <c r="AB13" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AC13" s="80"/>
       <c r="AD13" s="80"/>
@@ -10480,13 +10800,13 @@
     </row>
     <row r="15" spans="1:38" ht="21.75" thickTop="1">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N15" s="97">
         <v>2.02102251530223E+16</v>
       </c>
       <c r="O15" s="84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P15" s="85"/>
       <c r="Q15" s="85"/>
@@ -10514,7 +10834,7 @@
     </row>
     <row r="16" spans="1:38">
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N16" s="78"/>
       <c r="O16" s="79"/>
@@ -10531,7 +10851,7 @@
       <c r="Z16" s="80"/>
       <c r="AA16" s="81"/>
       <c r="AB16" s="80" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AC16" s="80"/>
       <c r="AD16" s="80"/>
@@ -10546,7 +10866,7 @@
     </row>
     <row r="17" spans="1:38" ht="21.75" thickBot="1">
       <c r="B17" s="68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N17" s="91"/>
       <c r="O17" s="98"/>
@@ -10576,13 +10896,13 @@
     </row>
     <row r="18" spans="1:38" ht="22.5" thickTop="1" thickBot="1">
       <c r="B18" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N18" s="78" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="O18" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P18" s="82"/>
       <c r="Q18" s="82"/>
@@ -10597,7 +10917,7 @@
       <c r="Z18" s="82"/>
       <c r="AA18" s="89"/>
       <c r="AB18" s="82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AC18" s="82"/>
       <c r="AD18" s="82"/>
@@ -10612,10 +10932,10 @@
     </row>
     <row r="19" spans="1:38" ht="22.5" thickTop="1" thickBot="1">
       <c r="N19" s="99" t="s">
+        <v>386</v>
+      </c>
+      <c r="O19" s="100" t="s">
         <v>387</v>
-      </c>
-      <c r="O19" s="100" t="s">
-        <v>388</v>
       </c>
       <c r="P19" s="101"/>
       <c r="Q19" s="101"/>
@@ -10630,7 +10950,7 @@
       <c r="Z19" s="101"/>
       <c r="AA19" s="102"/>
       <c r="AB19" s="101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AC19" s="101"/>
       <c r="AD19" s="101"/>
@@ -10645,13 +10965,13 @@
     </row>
     <row r="20" spans="1:38" ht="21.75" thickTop="1">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N20" s="78" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O20" s="103" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P20" s="82"/>
       <c r="Q20" s="82"/>
@@ -10666,7 +10986,7 @@
       <c r="Z20" s="82"/>
       <c r="AA20" s="89"/>
       <c r="AB20" s="82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AC20" s="82"/>
       <c r="AD20" s="82"/>
@@ -10681,7 +11001,7 @@
     </row>
     <row r="21" spans="1:38">
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N21" s="78"/>
       <c r="O21" s="103"/>
@@ -10711,7 +11031,7 @@
     </row>
     <row r="22" spans="1:38">
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N22" s="78"/>
       <c r="O22" s="103"/>
@@ -10768,7 +11088,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" s="35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N24" s="78"/>
       <c r="O24" s="103"/>
@@ -10798,7 +11118,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="B25" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N25" s="78"/>
       <c r="O25" s="103"/>
@@ -10828,7 +11148,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="B26" s="35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N26" s="78"/>
       <c r="O26" s="103"/>
@@ -10858,7 +11178,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="B27" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="N27" s="78"/>
       <c r="O27" s="103"/>
@@ -10915,7 +11235,7 @@
     </row>
     <row r="29" spans="1:38" ht="21.75" thickBot="1">
       <c r="B29" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N29" s="91"/>
       <c r="O29" s="98"/>
@@ -10945,27 +11265,27 @@
     </row>
     <row r="30" spans="1:38" ht="21.75" thickTop="1">
       <c r="B30" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:38">
       <c r="C31" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:38">
       <c r="D32" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="33" spans="3:12">
       <c r="D33" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="3:12">
       <c r="D34" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="3:12" ht="16.5">
@@ -10974,7 +11294,7 @@
     </row>
     <row r="37" spans="3:12" ht="16.5">
       <c r="D37" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -10985,7 +11305,7 @@
     <row r="38" spans="3:12" ht="16.5">
       <c r="D38" s="14"/>
       <c r="E38" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -10995,7 +11315,7 @@
     <row r="39" spans="3:12" ht="16.5">
       <c r="D39" s="14"/>
       <c r="E39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -11005,7 +11325,7 @@
     <row r="40" spans="3:12" ht="16.5">
       <c r="D40" s="14"/>
       <c r="E40" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -11015,7 +11335,7 @@
     <row r="41" spans="3:12" ht="16.5">
       <c r="D41" s="14"/>
       <c r="E41" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -11025,7 +11345,7 @@
     <row r="42" spans="3:12" ht="16.5">
       <c r="D42" s="14"/>
       <c r="E42" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16"/>
@@ -11035,7 +11355,7 @@
     <row r="43" spans="3:12" ht="16.5">
       <c r="D43" s="14"/>
       <c r="E43" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -11045,7 +11365,7 @@
     <row r="44" spans="3:12" ht="16.5">
       <c r="D44" s="20"/>
       <c r="E44" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
@@ -11065,7 +11385,7 @@
     <row r="46" spans="3:12" ht="16.5">
       <c r="C46" s="16"/>
       <c r="D46" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -11077,7 +11397,7 @@
     <row r="47" spans="3:12" ht="16.5">
       <c r="C47" s="16"/>
       <c r="D47" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
@@ -11089,7 +11409,7 @@
     <row r="48" spans="3:12" ht="16.5">
       <c r="C48" s="16"/>
       <c r="D48" s="25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
@@ -11098,11 +11418,11 @@
       <c r="I48" s="16"/>
       <c r="L48"/>
     </row>
-    <row r="49" spans="3:12" ht="16.5">
+    <row r="49" spans="3:37" ht="16.5">
       <c r="C49" s="16"/>
       <c r="D49" s="14"/>
       <c r="E49" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="16"/>
       <c r="G49" s="16"/>
@@ -11110,7 +11430,7 @@
       <c r="I49" s="16"/>
       <c r="L49"/>
     </row>
-    <row r="50" spans="3:12" ht="16.5">
+    <row r="50" spans="3:37" ht="17.25" thickBot="1">
       <c r="C50" s="16"/>
       <c r="D50" s="20"/>
       <c r="E50" s="22"/>
@@ -11120,7 +11440,7 @@
       <c r="I50" s="16"/>
       <c r="L50"/>
     </row>
-    <row r="51" spans="3:12" ht="16.5">
+    <row r="51" spans="3:37" ht="22.5" thickTop="1" thickBot="1">
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="18"/>
@@ -11129,8 +11449,35 @@
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="L51"/>
-    </row>
-    <row r="52" spans="3:12" ht="16.5">
+      <c r="O51" s="112" t="s">
+        <v>467</v>
+      </c>
+      <c r="P51" s="141" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q51" s="142"/>
+      <c r="R51" s="142"/>
+      <c r="S51" s="142"/>
+      <c r="T51" s="142"/>
+      <c r="U51" s="142"/>
+      <c r="V51" s="142"/>
+      <c r="W51" s="142"/>
+      <c r="X51" s="142"/>
+      <c r="Y51" s="142"/>
+      <c r="Z51" s="142"/>
+      <c r="AA51" s="142"/>
+      <c r="AB51" s="142"/>
+      <c r="AC51" s="142"/>
+      <c r="AD51" s="142"/>
+      <c r="AE51" s="142"/>
+      <c r="AF51" s="142"/>
+      <c r="AG51" s="142"/>
+      <c r="AH51" s="142"/>
+      <c r="AI51" s="142"/>
+      <c r="AJ51" s="142"/>
+      <c r="AK51" s="142"/>
+    </row>
+    <row r="52" spans="3:37" ht="17.25" thickTop="1">
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="18"/>
@@ -11140,7 +11487,7 @@
       <c r="I52" s="16"/>
       <c r="L52"/>
     </row>
-    <row r="53" spans="3:12" ht="16.5">
+    <row r="53" spans="3:37" ht="17.25" thickBot="1">
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="18"/>
@@ -11150,47 +11497,53 @@
       <c r="I53" s="16"/>
       <c r="L53"/>
     </row>
-    <row r="54" spans="3:12" ht="16.5">
+    <row r="54" spans="3:37" ht="22.5" thickTop="1" thickBot="1">
       <c r="E54"/>
       <c r="L54"/>
-    </row>
-    <row r="55" spans="3:12" ht="16.5">
+      <c r="O54" s="112" t="s">
+        <v>469</v>
+      </c>
+      <c r="P54" s="143" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="3:37" ht="17.25" thickTop="1">
       <c r="E55"/>
       <c r="L55"/>
     </row>
-    <row r="56" spans="3:12" ht="16.5">
+    <row r="56" spans="3:37" ht="16.5">
       <c r="E56"/>
       <c r="L56"/>
     </row>
-    <row r="57" spans="3:12" ht="16.5">
+    <row r="57" spans="3:37" ht="16.5">
       <c r="E57"/>
       <c r="L57"/>
     </row>
-    <row r="58" spans="3:12" ht="16.5">
+    <row r="58" spans="3:37" ht="16.5">
       <c r="E58"/>
       <c r="L58"/>
     </row>
-    <row r="59" spans="3:12" ht="16.5">
+    <row r="59" spans="3:37" ht="16.5">
       <c r="E59"/>
       <c r="L59"/>
     </row>
-    <row r="60" spans="3:12" ht="16.5">
+    <row r="60" spans="3:37" ht="16.5">
       <c r="E60"/>
       <c r="L60"/>
     </row>
-    <row r="61" spans="3:12" ht="16.5">
+    <row r="61" spans="3:37" ht="16.5">
       <c r="E61"/>
       <c r="L61"/>
     </row>
-    <row r="62" spans="3:12" ht="16.5">
+    <row r="62" spans="3:37" ht="16.5">
       <c r="E62"/>
       <c r="L62"/>
     </row>
-    <row r="63" spans="3:12" ht="16.5">
+    <row r="63" spans="3:37" ht="16.5">
       <c r="E63"/>
       <c r="L63"/>
     </row>
-    <row r="64" spans="3:12" ht="16.5">
+    <row r="64" spans="3:37" ht="16.5">
       <c r="E64"/>
       <c r="L64"/>
     </row>
@@ -11256,35 +11609,35 @@
     </row>
     <row r="80" spans="4:12" ht="16.5">
       <c r="D80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E80"/>
       <c r="L80"/>
     </row>
     <row r="81" spans="4:12" ht="16.5">
       <c r="D81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E81"/>
       <c r="L81"/>
     </row>
     <row r="82" spans="4:12" ht="16.5">
       <c r="D82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E82"/>
       <c r="L82"/>
     </row>
     <row r="83" spans="4:12" ht="16.5">
       <c r="D83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E83"/>
       <c r="L83"/>
     </row>
     <row r="84" spans="4:12" ht="16.5">
       <c r="D84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E84"/>
       <c r="L84"/>
@@ -11299,7 +11652,7 @@
     </row>
     <row r="87" spans="4:12" ht="16.5">
       <c r="D87" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E87"/>
       <c r="L87"/>
@@ -11362,7 +11715,7 @@
     </row>
     <row r="102" spans="4:12" ht="16.5">
       <c r="D102" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E102"/>
       <c r="L102"/>
@@ -11379,15 +11732,16 @@
     </row>
     <row r="105" spans="4:12">
       <c r="D105" s="74" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="O1:AA1"/>
     <mergeCell ref="AB1:AL1"/>
+    <mergeCell ref="P51:AK51"/>
   </mergeCells>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11398,13 +11752,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="L22" workbookViewId="0">
       <selection activeCell="W76" sqref="W76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11428,479 +11782,479 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12">
-      <c r="C2" s="125" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="126"/>
-      <c r="E2" s="127"/>
+      <c r="C2" s="133" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
     </row>
     <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" spans="3:12">
       <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="J4" s="73" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" spans="3:12">
       <c r="C6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="I6" s="73" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L6" s="73" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="3:12">
       <c r="C7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="8" spans="3:12">
       <c r="C8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="J8" s="73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="10" spans="3:12">
       <c r="C10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="3:12">
       <c r="C12" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="3:12">
       <c r="C13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="3:12">
       <c r="C14" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="3:12">
       <c r="C15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="3:7">
       <c r="C21" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="3:7">
       <c r="C22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="23" spans="3:7">
       <c r="C23" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="24" spans="3:7">
       <c r="C24" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="3:7">
       <c r="C25" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="27" spans="3:7">
       <c r="C27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="3:7">
       <c r="C28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="3:7">
       <c r="C31" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="3:7">
       <c r="D32" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="3:11">
       <c r="D33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="3:11">
       <c r="C39" s="53" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42" spans="3:11">
       <c r="C42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="111" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="E42" s="119"/>
+      <c r="F42" s="119"/>
+      <c r="G42" s="119"/>
+      <c r="H42" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111" t="s">
-        <v>256</v>
-      </c>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
+      <c r="I42" s="119"/>
+      <c r="J42" s="119"/>
+      <c r="K42" s="119"/>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="139" t="s">
         <v>257</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="E43" s="139"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="130" t="s">
         <v>258</v>
       </c>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="122" t="s">
+      <c r="I43" s="130"/>
+      <c r="J43" s="130"/>
+      <c r="K43" s="130"/>
+    </row>
+    <row r="44" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C44" s="117" t="s">
         <v>259</v>
       </c>
-      <c r="I43" s="122"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-    </row>
-    <row r="44" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C44" s="109" t="s">
+      <c r="D44" s="129" t="s">
         <v>260</v>
       </c>
-      <c r="D44" s="121" t="s">
+      <c r="E44" s="129"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129"/>
+      <c r="H44" s="129" t="s">
         <v>261</v>
       </c>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="121"/>
-      <c r="H44" s="121" t="s">
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+    </row>
+    <row r="45" spans="3:11">
+      <c r="C45" s="117"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="129"/>
+      <c r="I45" s="129"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
+    </row>
+    <row r="46" spans="3:11" ht="16.5" customHeight="1">
+      <c r="C46" s="136" t="s">
         <v>262</v>
       </c>
-      <c r="I44" s="121"/>
-      <c r="J44" s="121"/>
-      <c r="K44" s="121"/>
-    </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="109"/>
-      <c r="D45" s="121"/>
-      <c r="E45" s="121"/>
-      <c r="F45" s="121"/>
-      <c r="G45" s="121"/>
-      <c r="H45" s="121"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="121"/>
-      <c r="K45" s="121"/>
-    </row>
-    <row r="46" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C46" s="128" t="s">
+      <c r="D46" s="129" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="121" t="s">
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+      <c r="H46" s="129" t="s">
         <v>264</v>
       </c>
-      <c r="E46" s="121"/>
-      <c r="F46" s="121"/>
-      <c r="G46" s="121"/>
-      <c r="H46" s="121" t="s">
-        <v>265</v>
-      </c>
-      <c r="I46" s="121"/>
-      <c r="J46" s="121"/>
-      <c r="K46" s="121"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="129"/>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="129"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="121"/>
-      <c r="F47" s="121"/>
-      <c r="G47" s="121"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="121"/>
-      <c r="J47" s="121"/>
-      <c r="K47" s="121"/>
+      <c r="C47" s="137"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
     </row>
     <row r="48" spans="3:11">
-      <c r="C48" s="130"/>
-      <c r="D48" s="121"/>
-      <c r="E48" s="121"/>
-      <c r="F48" s="121"/>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="64" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="C54" s="131" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="132"/>
+      <c r="E54" s="131" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" s="132"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="122" t="s">
+        <v>292</v>
+      </c>
+      <c r="D55" s="126"/>
+      <c r="E55" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" s="123"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="127"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="125"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="C57" s="118" t="s">
+        <v>299</v>
+      </c>
+      <c r="D57" s="117"/>
+      <c r="E57" s="118" t="s">
+        <v>293</v>
+      </c>
+      <c r="F57" s="117"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="118" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="C54" s="123" t="s">
-        <v>296</v>
-      </c>
-      <c r="D54" s="124"/>
-      <c r="E54" s="123" t="s">
-        <v>292</v>
-      </c>
-      <c r="F54" s="124"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="114" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="118"/>
-      <c r="E55" s="114" t="s">
-        <v>295</v>
-      </c>
-      <c r="F55" s="115"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="119"/>
-      <c r="D56" s="120"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="117"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="C57" s="110" t="s">
-        <v>300</v>
-      </c>
-      <c r="D57" s="109"/>
-      <c r="E57" s="110" t="s">
-        <v>294</v>
-      </c>
-      <c r="F57" s="109"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="110" t="s">
+      <c r="D58" s="117"/>
+      <c r="E58" s="118" t="s">
         <v>298</v>
       </c>
-      <c r="D58" s="109"/>
-      <c r="E58" s="110" t="s">
-        <v>299</v>
-      </c>
-      <c r="F58" s="109"/>
+      <c r="F58" s="117"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="110" t="s">
-        <v>315</v>
-      </c>
-      <c r="D59" s="109"/>
-      <c r="E59" s="109"/>
-      <c r="F59" s="109"/>
+      <c r="C59" s="118" t="s">
+        <v>314</v>
+      </c>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="109"/>
-      <c r="D60" s="109"/>
-      <c r="E60" s="109"/>
-      <c r="F60" s="109"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="109"/>
-      <c r="D61" s="109"/>
-      <c r="E61" s="109"/>
-      <c r="F61" s="109"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="109"/>
-      <c r="D62" s="109"/>
-      <c r="E62" s="109"/>
-      <c r="F62" s="109"/>
+      <c r="C62" s="117"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="109"/>
-      <c r="D63" s="109"/>
-      <c r="E63" s="109"/>
-      <c r="F63" s="109"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="109"/>
-      <c r="D64" s="109"/>
-      <c r="E64" s="109"/>
-      <c r="F64" s="109"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="7"/>
@@ -11914,42 +12268,42 @@
     </row>
     <row r="68" spans="3:6">
       <c r="F68" s="64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="3:6">
       <c r="F69" s="64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="70" spans="3:6">
       <c r="F70" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="3:6">
       <c r="F71" s="64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="3:6">
       <c r="F72" s="64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="73" spans="3:6">
       <c r="F73" s="64" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="3:6">
       <c r="F74" s="64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="F75" s="64" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="76" spans="3:6">
@@ -11957,168 +12311,168 @@
     </row>
     <row r="77" spans="3:6">
       <c r="F77" s="64" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="3:6">
       <c r="F78" s="64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="3:6">
       <c r="F79" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="80" spans="3:6">
       <c r="F80" s="64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="81" spans="3:8">
       <c r="F81" s="64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="82" spans="3:8">
       <c r="F82" s="64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="63" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F83" s="64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="84" spans="3:8">
       <c r="F84" s="64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="3:8">
       <c r="F85" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="63"/>
     </row>
     <row r="91" spans="3:8">
-      <c r="C91" s="111" t="s">
+      <c r="C91" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="119"/>
+      <c r="E91" s="119" t="s">
         <v>317</v>
       </c>
-      <c r="D91" s="111"/>
-      <c r="E91" s="111" t="s">
+      <c r="F91" s="119"/>
+      <c r="G91" s="119" t="s">
+        <v>316</v>
+      </c>
+      <c r="H91" s="119"/>
+    </row>
+    <row r="92" spans="3:8">
+      <c r="C92" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92" s="120"/>
+      <c r="E92" s="120" t="s">
         <v>318</v>
       </c>
-      <c r="F91" s="111"/>
-      <c r="G91" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="H91" s="111"/>
-    </row>
-    <row r="92" spans="3:8">
-      <c r="C92" s="112" t="s">
+      <c r="F92" s="121"/>
+    </row>
+    <row r="93" spans="3:8">
+      <c r="C93" s="120"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+    </row>
+    <row r="94" spans="3:8">
+      <c r="C94" s="118" t="s">
+        <v>327</v>
+      </c>
+      <c r="D94" s="117"/>
+      <c r="E94" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="F94" s="118"/>
+    </row>
+    <row r="95" spans="3:8">
+      <c r="C95" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="117"/>
+      <c r="E95" s="118" t="s">
+        <v>321</v>
+      </c>
+      <c r="F95" s="118"/>
+    </row>
+    <row r="96" spans="3:8">
+      <c r="C96" s="118" t="s">
+        <v>322</v>
+      </c>
+      <c r="D96" s="117"/>
+      <c r="E96" s="118" t="s">
+        <v>323</v>
+      </c>
+      <c r="F96" s="118"/>
+    </row>
+    <row r="97" spans="3:8">
+      <c r="C97" s="117"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118" t="s">
+        <v>321</v>
+      </c>
+      <c r="H97" s="118"/>
+    </row>
+    <row r="98" spans="3:8">
+      <c r="C98" s="117"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="118" t="s">
         <v>325</v>
       </c>
-      <c r="D92" s="112"/>
-      <c r="E92" s="112" t="s">
-        <v>319</v>
-      </c>
-      <c r="F92" s="113"/>
-    </row>
-    <row r="93" spans="3:8">
-      <c r="C93" s="112"/>
-      <c r="D93" s="112"/>
-      <c r="E93" s="113"/>
-      <c r="F93" s="113"/>
-    </row>
-    <row r="94" spans="3:8">
-      <c r="C94" s="110" t="s">
-        <v>328</v>
-      </c>
-      <c r="D94" s="109"/>
-      <c r="E94" s="110" t="s">
-        <v>320</v>
-      </c>
-      <c r="F94" s="110"/>
-    </row>
-    <row r="95" spans="3:8">
-      <c r="C95" s="110" t="s">
-        <v>321</v>
-      </c>
-      <c r="D95" s="109"/>
-      <c r="E95" s="110" t="s">
-        <v>322</v>
-      </c>
-      <c r="F95" s="110"/>
-    </row>
-    <row r="96" spans="3:8">
-      <c r="C96" s="110" t="s">
-        <v>323</v>
-      </c>
-      <c r="D96" s="109"/>
-      <c r="E96" s="110" t="s">
-        <v>324</v>
-      </c>
-      <c r="F96" s="110"/>
-    </row>
-    <row r="97" spans="3:8">
-      <c r="C97" s="109"/>
-      <c r="D97" s="109"/>
-      <c r="E97" s="110" t="s">
-        <v>321</v>
-      </c>
-      <c r="F97" s="110"/>
-      <c r="G97" s="110" t="s">
-        <v>322</v>
-      </c>
-      <c r="H97" s="110"/>
-    </row>
-    <row r="98" spans="3:8">
-      <c r="C98" s="109"/>
-      <c r="D98" s="109"/>
-      <c r="E98" s="110" t="s">
+      <c r="F98" s="118"/>
+      <c r="G98" s="118" t="s">
         <v>326</v>
       </c>
-      <c r="F98" s="110"/>
-      <c r="G98" s="110" t="s">
-        <v>327</v>
-      </c>
-      <c r="H98" s="110"/>
+      <c r="H98" s="118"/>
     </row>
     <row r="99" spans="3:8">
-      <c r="C99" s="109"/>
-      <c r="D99" s="109"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="110"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="118"/>
+      <c r="F99" s="118"/>
     </row>
     <row r="100" spans="3:8">
-      <c r="C100" s="109"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="110"/>
-      <c r="F100" s="110"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="118"/>
+      <c r="F100" s="118"/>
     </row>
     <row r="101" spans="3:8">
-      <c r="C101" s="109"/>
-      <c r="D101" s="109"/>
-      <c r="E101" s="110"/>
-      <c r="F101" s="110"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="118"/>
+      <c r="F101" s="118"/>
     </row>
     <row r="102" spans="3:8">
-      <c r="C102" s="109"/>
-      <c r="D102" s="109"/>
-      <c r="E102" s="110"/>
-      <c r="F102" s="110"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="118"/>
+      <c r="F102" s="118"/>
     </row>
     <row r="103" spans="3:8">
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="110"/>
-      <c r="F103" s="110"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="117"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="58">
@@ -12181,7 +12535,7 @@
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="C99:D99"/>
   </mergeCells>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -12190,116 +12544,183 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B16:C48"/>
+  <dimension ref="B16:K68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="16" spans="2:2" ht="20.25">
       <c r="B16" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="20.25">
       <c r="B21" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="20.25">
       <c r="B29" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="135" t="s">
-        <v>447</v>
+      <c r="B30" s="110" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="9" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="135" t="s">
-        <v>444</v>
+      <c r="B33" s="110" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="20.25">
       <c r="B38" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="17.25">
       <c r="B39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="17.25">
       <c r="B42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="69" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" s="69" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="48" spans="2:3">
       <c r="C48" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="D51" s="111" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="113" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="113" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="K56" s="114" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K57" s="114" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="K58" s="114" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12308,43 +12729,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:AB106"/>
+  <dimension ref="B5:AB110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="M98" sqref="M98"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <sheetData>
     <row r="5" spans="2:28">
       <c r="B5" s="40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="16.5" customHeight="1">
       <c r="K6" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="2:28">
       <c r="N8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="2:28">
       <c r="C9" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:28">
       <c r="C11" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
         <v>145</v>
-      </c>
-      <c r="E11" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="12" spans="2:28">
@@ -12352,50 +12773,50 @@
     </row>
     <row r="13" spans="2:28">
       <c r="C13" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" t="s">
         <v>148</v>
-      </c>
-      <c r="E13" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="2:28">
       <c r="C14" s="10"/>
       <c r="N14" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="P14" s="56" t="s">
+      <c r="R14" t="s">
         <v>204</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" s="58" t="s">
         <v>205</v>
-      </c>
-      <c r="T14" s="58" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="15" spans="2:28">
       <c r="C15" s="10"/>
       <c r="P15" s="56"/>
       <c r="T15" s="59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AB15" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:28">
       <c r="C16" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" t="s">
         <v>359</v>
       </c>
-      <c r="F16" t="s">
-        <v>360</v>
-      </c>
       <c r="P16" s="57" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="T16" s="60"/>
       <c r="V16" s="51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="17" spans="3:23">
@@ -12405,32 +12826,32 @@
     </row>
     <row r="18" spans="3:23">
       <c r="C18" s="10"/>
-      <c r="P18" s="133" t="s">
-        <v>436</v>
+      <c r="P18" s="108" t="s">
+        <v>433</v>
       </c>
       <c r="T18" s="61" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="3:23">
       <c r="C19" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" t="s">
         <v>150</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>151</v>
-      </c>
-      <c r="G19" t="s">
-        <v>152</v>
       </c>
       <c r="P19" s="56"/>
       <c r="T19" s="62" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="3:23">
       <c r="C20" s="10"/>
-      <c r="W20" s="132" t="s">
-        <v>437</v>
+      <c r="W20" s="107" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="3:23">
@@ -12438,28 +12859,28 @@
     </row>
     <row r="22" spans="3:23">
       <c r="C22" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" t="s">
         <v>153</v>
-      </c>
-      <c r="E22" t="s">
-        <v>154</v>
       </c>
       <c r="T22" s="55"/>
     </row>
     <row r="23" spans="3:23">
       <c r="C23" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="N23" s="42"/>
     </row>
     <row r="24" spans="3:23">
       <c r="C24" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s">
         <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>158</v>
       </c>
       <c r="N24" s="42"/>
     </row>
@@ -12471,10 +12892,10 @@
     </row>
     <row r="27" spans="3:23">
       <c r="C27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" t="s">
         <v>159</v>
-      </c>
-      <c r="E27" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="28" spans="3:23">
@@ -12482,10 +12903,10 @@
     </row>
     <row r="29" spans="3:23">
       <c r="C29" s="71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="3:23">
@@ -12493,10 +12914,10 @@
     </row>
     <row r="31" spans="3:23">
       <c r="C31" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" t="s">
         <v>162</v>
-      </c>
-      <c r="E31" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="32" spans="3:23">
@@ -12504,10 +12925,10 @@
     </row>
     <row r="33" spans="3:7">
       <c r="C33" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" t="s">
         <v>164</v>
-      </c>
-      <c r="E33" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="34" spans="3:7">
@@ -12515,10 +12936,10 @@
     </row>
     <row r="35" spans="3:7">
       <c r="C35" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="36" spans="3:7">
@@ -12526,7 +12947,7 @@
     </row>
     <row r="37" spans="3:7">
       <c r="C37" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="3:7">
@@ -12543,10 +12964,10 @@
     </row>
     <row r="42" spans="3:7">
       <c r="C42" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="43" spans="3:7">
@@ -12554,13 +12975,13 @@
     </row>
     <row r="44" spans="3:7">
       <c r="C44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="45" spans="3:7">
@@ -12589,19 +13010,19 @@
     </row>
     <row r="53" spans="3:9">
       <c r="C53" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E53" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="I53" s="38" t="s">
         <v>194</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="54" spans="3:9">
       <c r="C54" s="10"/>
       <c r="E54" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="3:9">
@@ -12609,13 +13030,13 @@
     </row>
     <row r="56" spans="3:9">
       <c r="C56" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="3:9">
       <c r="C57" s="10"/>
       <c r="E57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="3:9">
@@ -12623,10 +13044,10 @@
     </row>
     <row r="59" spans="3:9">
       <c r="C59" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="60" spans="3:9">
@@ -12640,79 +13061,90 @@
     </row>
     <row r="63" spans="3:9">
       <c r="C63" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F63" s="73" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="65" spans="3:6">
       <c r="F65" s="73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="68" spans="3:6">
       <c r="C68" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="F68" s="74" t="s">
         <v>393</v>
-      </c>
-      <c r="F68" s="74" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="71" spans="3:6">
       <c r="C71" s="75" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F71" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="3:6">
       <c r="C87" s="104" t="s">
+        <v>402</v>
+      </c>
+      <c r="F87" s="104" t="s">
         <v>403</v>
-      </c>
-      <c r="F87" s="104" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="89" spans="3:6">
       <c r="C89" s="104" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="F91" s="104" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="99" spans="3:7">
+      <c r="C99" s="104"/>
+    </row>
+    <row r="100" spans="3:7">
+      <c r="C100" s="104" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="3:5">
-      <c r="C99" s="104"/>
-    </row>
-    <row r="100" spans="3:5">
-      <c r="C100" s="104" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="104" spans="3:5">
-      <c r="C104" s="132" t="s">
+    <row r="104" spans="3:7">
+      <c r="C104" s="107" t="s">
+        <v>435</v>
+      </c>
+      <c r="E104" s="107" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="105" spans="3:7">
+      <c r="E105" s="107" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="106" spans="3:7">
+      <c r="E106" s="109" t="s">
         <v>438</v>
       </c>
-      <c r="E104" s="132" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="105" spans="3:5">
-      <c r="E105" s="132" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="106" spans="3:5">
-      <c r="E106" s="134" t="s">
-        <v>441</v>
+    </row>
+    <row r="110" spans="3:7">
+      <c r="C110" t="s">
+        <v>446</v>
+      </c>
+      <c r="E110" t="s">
+        <v>447</v>
+      </c>
+      <c r="G110" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12731,14 +13163,14 @@
   <sheetData>
     <row r="3" spans="4:14">
       <c r="D3" t="s">
+        <v>409</v>
+      </c>
+      <c r="N3" s="106" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="106" t="s">
-        <v>411</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12758,25 +13190,25 @@
   <sheetData>
     <row r="2" spans="3:16">
       <c r="C2" s="48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10" spans="3:16">
       <c r="D10" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="3:16">
       <c r="C12" s="48" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="52" t="s">
         <v>239</v>
-      </c>
-      <c r="E12" s="52" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="14" spans="3:16">
       <c r="C14" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="3:16">
@@ -12784,104 +13216,104 @@
     </row>
     <row r="21" spans="3:4">
       <c r="D21" s="45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" s="48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" s="48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="5:5">
       <c r="E112" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="5:5">
       <c r="E114" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="5:5">
       <c r="E116" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="5:5">
       <c r="E118" s="52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="120" spans="5:5">
       <c r="E120" s="52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="122" spans="5:5">
       <c r="E122" s="52" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="5:5">
       <c r="E124" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="126" spans="5:5">
       <c r="E126" s="52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="5:5">
       <c r="E128" s="52" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="3:5">
       <c r="E130" s="52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="132" spans="3:5">
       <c r="E132" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="134" spans="3:5">
       <c r="E134" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135" spans="3:5">
       <c r="C135" s="48" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" s="48" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="3:6">
       <c r="C178" s="48" t="s">
+        <v>374</v>
+      </c>
+      <c r="F178" s="73" t="s">
         <v>375</v>
       </c>
-      <c r="F178" s="73" t="s">
-        <v>376</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="49" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/xml/workFile.xlsx
+++ b/xml/workFile.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29040" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="账号" sheetId="1" r:id="rId1"/>
@@ -19,15 +19,16 @@
     <sheet name="Java" sheetId="5" r:id="rId5"/>
     <sheet name="JavaEE" sheetId="3" r:id="rId6"/>
     <sheet name="快捷键" sheetId="4" r:id="rId7"/>
-    <sheet name="bug" sheetId="13" r:id="rId8"/>
-    <sheet name="office" sheetId="12" r:id="rId9"/>
+    <sheet name="jupyter" sheetId="14" r:id="rId8"/>
+    <sheet name="bug" sheetId="13" r:id="rId9"/>
+    <sheet name="office" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="649">
   <si>
     <t>SVN</t>
   </si>
@@ -1236,7 +1237,7 @@
       </rPr>
       <t xml:space="preserve"> svn:</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1253,23 +1254,23 @@
       </rPr>
       <t>heck out下载代码</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>提交代码（commit）前update</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>复制修改过的代码类粘贴到文件夹对应位置替换</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>忽视文件</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>setting-Editor-File Types</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1286,7 +1287,7 @@
       </rPr>
       <t>n files and folders后面添加*.iml;*.idea;*.gitignore;*.sh;*.classpath;*.project;*.settings;target;logs;</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1303,7 +1304,7 @@
       </rPr>
       <t>.xx 为忽视该后缀文件</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1320,31 +1321,31 @@
       </rPr>
       <t>/  过滤文件夹</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>xx.java  过滤文件</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>去除路径多余字段：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>Application context删除字段(xx_war_explored)，URL删除对应字段</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>session生效</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>配置tomcat的虚拟路径， tomcat设置上传文件路径</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>自动导包</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1379,11 +1380,11 @@
       </rPr>
       <t>Optimize imports on the fly (for current project)</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>控制台》》输入代码包含元素可以搜索路径，{ }展开代码</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1433,7 +1434,7 @@
       </rPr>
       <t>js打断点</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1450,7 +1451,7 @@
       </rPr>
       <t>10下一个断点</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>【修改原因】#1009482</t>
@@ -1466,31 +1467,31 @@
   </si>
   <si>
     <t>查端口pid并杀死</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>ALL里面路径找controller位置</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>在浏览器页面找到title中文名（或者其他中文关键词），在idea-find in path找jsp</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>service</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>serviceImpl</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>dao层</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>dao层impl</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1529,11 +1530,11 @@
       </rPr>
       <t>ml</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>js</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>{</t>
@@ -1556,7 +1557,7 @@
       </rPr>
       <t>.格式化？</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1573,7 +1574,7 @@
       </rPr>
       <t>.最新版本</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1590,46 +1591,46 @@
       </rPr>
       <t>.找不同</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>4.修改后测试？</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>引用-目录-自动目录</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>目录：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>字间距：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>右键段落左对齐（可在目录标题上面统一修改）</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>页面宽度：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>输入代码首字母大写取消：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>limit分页</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>SELECT *  FROM t_order limit 0,10</t>
   </si>
   <si>
     <t>显示十条数据</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1778,23 +1779,23 @@
   </si>
   <si>
     <t>分页</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=1当前页码</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>pageSize=10;//每页显示记录数</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>start=0</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库前十条数据</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1811,35 +1812,35 @@
       </rPr>
       <t>=9</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>pagerNo=2当前页码</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>start=10</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>end=19</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>查询数据库第二个十条数据</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>=方法名</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>dgh@666666</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>修改目录样式：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1878,11 +1879,11 @@
       </rPr>
       <t>-修改</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>选择多个图片</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>Sub 图片边框</t>
@@ -1919,18 +1920,18 @@
   </si>
   <si>
     <t>.OutsideColorIndex = wdGray25</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>Ehcache 和 Redis 比较</t>
   </si>
   <si>
     <t>   Ehcache</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>      Redis        </t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>存取速度</t>
@@ -1958,7 +1959,7 @@
   </si>
   <si>
     <t>至少需要安装服务端和客户端才能使用。操作略比Ehcache复杂一些</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2002,7 +2003,7 @@
       </rPr>
       <t>);</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2030,7 +2031,7 @@
       </rPr>
       <t>(request,new xxMapper())</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2122,11 +2123,11 @@
       </rPr>
       <t>】</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>传参为空判断：如pager是否为空</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>if (a == 1) ...</t>
@@ -2207,7 +2208,7 @@
   </si>
   <si>
     <t>switch-case</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2268,11 +2269,11 @@
       </rPr>
       <t>效率要高</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>insert into</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2439,11 +2440,11 @@
       </rPr>
       <t>test)</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      VALUES (:id, :test)</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2460,23 +2461,23 @@
       </rPr>
       <t xml:space="preserve"> duplicate key update(非主键，非唯一键字段，重复数据更新不插入）</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">      ON DUPLICATE KEY UPDATE id=:id, test=:test</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>批量插入values后面增加数据</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>desc查看表字段数据结构</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>插入单条数据xml</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2492,7 +2493,7 @@
       </rPr>
       <t>批量</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2508,15 +2509,15 @@
       </rPr>
       <t>为接口</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>bessky_erp为psscontroller层，bessky_pss为数据层</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>堆</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2533,19 +2534,19 @@
       </rPr>
       <t>共享</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>new的对象</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>new的对象没被栈引用一定时间会被垃圾回收器释放掉</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>栈</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2574,15 +2575,15 @@
   </si>
   <si>
     <t>引用类型地址person@xxx</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>对象属性person.age=10</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>8大基本数据类型int a=10</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2882,7 +2883,7 @@
   </si>
   <si>
     <t>类里面方法（），里面数据类型用完会释放</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2899,55 +2900,55 @@
       </rPr>
       <t>a1释放掉，堆里面age被修改为21</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>equals</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>hashCode</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>hashcode只有在创建某个类的散列表的时候才有用，需要根据hashcode值确认对象在散列表中的位置</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">HashMap，HashSet，HashTable </t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>相等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>不一定相等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>必然不等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>判断对象内容相等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>不相等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>不一定不相等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>“==”地址相等</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2994,11 +2995,11 @@
   </si>
   <si>
     <t>增加sql语句</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>占位符</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>&lt;[AND created_by IN (:created_by_list)]&gt;</t>
@@ -3072,7 +3073,7 @@
   </si>
   <si>
     <t>实体类</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3456,7 +3457,7 @@
   </si>
   <si>
     <t>前端items的key自动对应name(ps:create_by和username是同一个东西）</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3617,22 +3618,22 @@
   </si>
   <si>
     <t>setQueryCondition逗号分割，多个查询</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.143:59095/pss</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.203:8080/pss/index</t>
   </si>
   <si>
     <t>替换AuthorizationServiceImpl</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3657,15 +3658,15 @@
       </rPr>
       <t>_pss_web/WEB-INF/web.xml-fliter</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>word去掉回车符</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>取消自动换行编号</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3684,11 +3685,11 @@
   </si>
   <si>
     <t>比较长的for循环结束写入</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>注释：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3714,7 +3715,7 @@
       </rPr>
       <t>:</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> Ctrl+Alt+L</t>
@@ -3750,19 +3751,19 @@
       </rPr>
       <t>todo:</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>查找表里面所有列名哪些包含字段（模糊查询）：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>订单ID</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>申请跟踪号失败</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>  这单帮忙再新申请一个单号   SKU信息换下  品名：化妆刷、Makeup brush    重量：0.3kg</t>
@@ -3775,15 +3776,15 @@
   </si>
   <si>
     <t>开发环境找到对应的物流类，修改buildRequestOrder方法里面的重量 ，中文品名，英文品名，</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>禅道需求完成确认：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>输入法打出ico图标</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3800,11 +3801,11 @@
       </rPr>
       <t>,会显示扳手</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>ssm</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3821,7 +3822,7 @@
       </rPr>
       <t>pring</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3838,7 +3839,7 @@
       </rPr>
       <t>pringMVC</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3855,29 +3856,29 @@
       </rPr>
       <t>ybatis</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>JSP</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>回退到等待物流收包状态</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 麻烦申请下跟踪号</t>
   </si>
   <si>
     <t>物流接口操作：申请跟踪号</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>PDA退货扫描，多仓订单，扫退货时候，能否改成电脑一样，只报一个仓库</t>
   </si>
   <si>
     <t>退件员只负责扫退货，拆包、更换二维码现在都是仓库自己完成</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>702967767改589</t>
@@ -3887,7 +3888,7 @@
   </si>
   <si>
     <t>改运输方式</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>跟踪号重复，无法获取面单</t>
@@ -3897,11 +3898,11 @@
   </si>
   <si>
     <t>运输方式规则看禁运国家</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>代码没编译向下运行</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3918,38 +3919,38 @@
       </rPr>
       <t>&gt;build project</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>https://getman.cn/</t>
   </si>
   <si>
     <t>http测试</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>问题描述（截图）</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>问题解决</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>修改订单找到街道，里面有00200，ARMEE关键字</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 包裹都是无法回退的，只能一单一单回退扫描</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>通性问题</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>通性问题</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3966,11 +3967,11 @@
       </rPr>
       <t>ersion Control</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>可以将不需要上传的代码分类</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3998,19 +3999,19 @@
       </rPr>
       <t xml:space="preserve"> has not been downloaded from it before.</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>进入Settings-build Tools，把Work offline的勾去除即可。</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>报红，点开方法进入，定位所在模块，maven clean install</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>java.lang.ClassNotFoundException: com.bessky.pss.portal.business.stock.bean.PrintInStockSku</t>
@@ -4052,7 +4053,7 @@
       </rPr>
       <t>ss（root）重新clean-install</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4103,11 +4104,11 @@
   </si>
   <si>
     <t>java pager传参</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>字段a分组，按照字段b逆序</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4238,19 +4239,19 @@
   </si>
   <si>
     <t>大于号逆序</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>占位符，有参数传入时，t1.sku="xxx"</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>大于几就是取b字段几个</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>可调用多个Dao层</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4267,15 +4268,15 @@
       </rPr>
       <t>per为对象返回形式</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>链式编程</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>1.安装lombok插件</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4380,11 +4381,11 @@
       </rPr>
       <t>Annotation Processors</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>3 注释@Accessors(chain=true) @Data 删除getting，setting方法</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>locationNumberRecordMaps= LocationNumberRecords.stream()</t>
@@ -4415,59 +4416,35 @@
   </si>
   <si>
     <t>分组</t>
-    <phoneticPr fontId="62" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>LocationNumberRecords= LocationNumberRecords.stream().filter(s -&gt; s.getRecordId().contains(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"01"</t>
-    </r>
-    <r>
-      <rPr>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">      .collect(Collectors.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="9.8000000000000007"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">      .collect(Collectors.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t>toList</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9.8000000000000007"/>
         <color rgb="FF000000"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>toList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8000000000000007"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>());</t>
     </r>
   </si>
   <si>
     <t>list对象过滤</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4484,19 +4461,19 @@
       </rPr>
       <t>8流filter</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>查看ip,mac地址</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>ipconfig /all</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>mac即物理地址</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4513,11 +4490,11 @@
       </rPr>
       <t xml:space="preserve"> 和assert区别：</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>if正常判断逻辑及处理；断言为可能出现的逻辑中断程序</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4641,7 +4618,7 @@
   </si>
   <si>
     <t>前端有name后台必须有Model注解，哪怕是页面初始化，不是submit数据</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4693,15 +4670,15 @@
       </rPr>
       <t>) ProductFeaturesDo productFeaturesDo)</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>对应 name="productFeatures"为ProductFeaturesDo属性</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>domain形参改变需重启web</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>A.retainAll(B)</t>
@@ -4714,30 +4691,30 @@
   </si>
   <si>
     <t>可以看到这个方法改变了集合A中的元素，保留A,B相同元素</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>更新数据</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> UPDATE t_product SET product_feature=null  where product_sku="#D161B" </t>
   </si>
   <si>
     <t>跟卖：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>亚马逊上有卖家创建了某一产品,它的销量很好,于是也想卖这个产品,于是亚马逊上就会出现同一个产品有你和其他卖家共用一个产品详情页的情况,这一情况就是跟卖。跟卖的产品需要完全相同。</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>ASIN：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>/a/  ASIN（Amazon standard identification number），亚马逊自己自家产品编的唯一编号，由亚马逊系统自动生成的，不需要卖家自行添加</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4765,37 +4742,37 @@
       </rPr>
       <t>/': OpenSSL SSL_read: Connection was aborted, errno 10053</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>erp 3.0代码</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>d123456~</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">it_dingguanghui </t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>宝安：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://erpx.ksold.ltd:9095/pss</t>
   </si>
   <si>
     <t>宝安外网：</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://erpapp.ksold.ltd:18085/user</t>
   </si>
   <si>
     <t>手机登入</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>ERP从库：</t>
@@ -4827,7 +4804,7 @@
       </rPr>
       <t>\find.xml</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4844,11 +4821,11 @@
       </rPr>
       <t>ind mask配置</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>10.30.1.30</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>待合并运输方式为空的移不到等待打单</t>
@@ -4858,27 +4835,27 @@
   </si>
   <si>
     <t>多仓订单移等待打单</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>https://oa.ser.ltd/dashboard</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>老系统以存在的订单不能发货</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 027渠道什么都对，出库扫描显示禁止发货 725281130 （大岭山仓库）</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>php Interpreter is not configured 解决方法</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>interpreter 右边的 “……”按钮设置php.exe路径</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> 直接把订单移到禁止发货</t>
@@ -4898,11 +4875,11 @@
       </rPr>
       <t>:</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>办公环境变动代码跑不起来</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -4919,11 +4896,11 @@
       </rPr>
       <t xml:space="preserve"> -disconf.conf_server_host地址</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.182/</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>入库超过采购数量了</t>
@@ -4943,11 +4920,11 @@
       </rPr>
       <t>skuZYK200907001A 入不了库</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.204/zentao/bug-browse-2-assignToMe-0.html</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://116.31.91.74:39075/pss</t>
@@ -4957,14 +4934,14 @@
   </si>
   <si>
     <t>日期格式化</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> DATE_FORMAT(w.report_date,'%Y-%m-%d') </t>
   </si>
   <si>
     <t>一半的可以获取服务号</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5159,7 +5136,7 @@
       </rPr>
       <t> 报错</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5176,7 +5153,7 @@
       </rPr>
       <t>_type :</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5193,7 +5170,7 @@
       </rPr>
       <t xml:space="preserve"> sku上架</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5210,11 +5187,11 @@
       </rPr>
       <t xml:space="preserve"> 按货配货</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>sub_department</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -5231,11 +5208,11 @@
       </rPr>
       <t>5 BGHK</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>页面：计件统计新</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6479,7 +6456,7 @@
   </si>
   <si>
     <t>仓库：product_stock_chart_list.jsp</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6496,7 +6473,7 @@
       </rPr>
       <t>t调优</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6512,34 +6489,34 @@
       </rPr>
       <t>大岭山仓库</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>SELECT t.product_sku,t.parent_sku from (select product_sku,parent_sku from t_product where warehouse_id=8 limit 0,100000) t where t.product_sku="ZSY4060501B"</t>
   </si>
   <si>
     <t>具体字段代替*</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>limit作为父集</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://192.168.99.213:9095/pss</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * FROM t_work_hours_report w, t_user u  WHERE w.report_date &gt; '2021-03-18 00:00:00' and w.user_id = u.user_id and u.name="田文德"</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>https://oa.ksold.ltd/dashboard</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>http://10.30.1.45:9095/pss</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>SELECT * from t_order t where order_id="690173449";</t>
@@ -6552,7 +6529,7 @@
   </si>
   <si>
     <t>复制粘贴为insert语句</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6569,7 +6546,7 @@
       </rPr>
       <t xml:space="preserve"> 待合并</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6586,7 +6563,7 @@
       </rPr>
       <t>5 等待打单</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6608,15 +6585,11 @@
       </rPr>
       <t>t_order-status</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>运输方式下拉缓存设置</t>
-    <phoneticPr fontId="62" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统配置-运输方式设置</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6633,37 +6606,2021 @@
       </rPr>
       <t>dfs</t>
     </r>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>渠道获取</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>自画</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
   <si>
     <t>taskkill /pid 12860 /f</t>
-    <phoneticPr fontId="62" type="noConversion"/>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis JedisConnectionException: Could not get a resource from the pool</t>
+  </si>
+  <si>
+    <t>Redis没开</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>华磊系统文档</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>select sku,uuid from t_sku_trace where sku="QYY70930713L"</t>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存类E:\besskyERP\2.1\bessky-erp\bessky-erp-core\src\main\java\com\bessky\erp\core\common\cache\CacheName.java</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口customer_id生成</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.sz56t.com:8090/pages/viewpage.action?pageId=3473454</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://121.37.29.222:8082/selectAuth.htm?username=RYDKJ&amp;password=123456</t>
+  </si>
+  <si>
+    <t>系统配置-运输方式设置</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本物流设置（userId,userCode,token设置）</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>transportation/rules</t>
+  </si>
+  <si>
+    <t>前端不能debug</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码有问题</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LocationNumberRecords= LocationNumberRecords.stream().filter(s -&gt; s.getRecordId().contains(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"01"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>.collect(Collectors.toList()); steam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>list</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>写一个前端页面传值</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">后端拿值 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer upperLimitOfBagNumber = DictionaryCacheUtils.getDictionaryIntegerValue("App.Logistics.PrintLabel.UpperLimitOfBagNumber");</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Redis搭配字典：     </t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋号 序列号 t_deliver_logistics_package</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Dgh……</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/dGH……</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:choose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">tran.shippingMethod </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">eq </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'BA004'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   &lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:when</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:when </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">tran.shippingMethod </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">eq </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'LG0007'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:choose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>龙岗</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞英达</t>
+  </si>
+  <si>
+    <t>恒兴宏</t>
+  </si>
+  <si>
+    <t>兴创</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>@RequestMapping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(value = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"{orderId}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, method = { RequestMethod.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">GET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>})</t>
+    </r>
+  </si>
+  <si>
+    <t>，@ModelAttribute("maxWeight") HashMap&lt;Integer, Double&gt; maxWeightMap)</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String orderEstimate(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@ModelAttribute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"domain"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">) OrderEstimateDo domain, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF808000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>@PathVariable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"orderId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>) Integer orderId</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端接收：</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端自定义一个传参值：</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> maxWeightMap.put( transportationModeId,transportationRuler.getMaxWeight());</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>:if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   &lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">:if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>test</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> maxWeightMap </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">empty </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> maxWeightMap[freight.key] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> maxWeightMap[freight.key] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存类：</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> transportationRuleFacade</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\besskyERP\2.1\bessky-erp\bessky-erp-system\src\main\java\com\bessky\erp\system\logistics\service\impl\TransportRuleServiceImpl.java</t>
+  </si>
+  <si>
+    <t>对应前端缓存名</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Override</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>String cacheName()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">return </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CacheName.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>J2CACHE_TRANSPORT_RULE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前端代码：</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>app:j2cache(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'J2CACHE_TRANSPORTATION_RULE'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, freight.key).maxWeight</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>td</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
   </si>
   <si>
     <t>netstat -ano | findstr 8081</t>
-    <phoneticPr fontId="62" type="noConversion"/>
-  </si>
-  <si>
-    <t>redis JedisConnectionException: Could not get a resource from the pool</t>
-  </si>
-  <si>
-    <t>Redis没开</t>
-    <phoneticPr fontId="62" type="noConversion"/>
-  </si>
-  <si>
-    <t>华磊系统文档</t>
-    <phoneticPr fontId="62" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.sz56t.com:8090/pages/viewpage.action?pageId=3473454</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://10.30.1.45:8888/xxl-job-admin</t>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd:</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>bessky</t>
+  </si>
+  <si>
+    <t>Li721Zhong~</t>
+  </si>
+  <si>
+    <t>727205222  这几单物流反馈没有数据</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>走Vova线上物流</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>领讯物流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中美专线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>液体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(746C)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下单的时候就预报了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不用推送</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务商号失败 </t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERP订单管理的显示有问题，不管搜什么都显示几百条记录</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>One World</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>物流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>免泡专线</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>(z01) Amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>标记发货：标记与规则不匹配</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单业务统计账号缺失是什么原因</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪号已存在，还允许获取服务商号的渠道</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>611和611w两个运输类型，服务代码一致，运费规则一致；最终运费不一致</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑发货规则就是系统配置  运输方式设置  修改发货规则</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ogistics xml 配置数据预报</t>
+    </r>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空跟踪号申请跟踪号再获取服务商号</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>清理缓存</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个渠道要物流商收到包裹后，返回 9 或者 420 开头的尾程号，才能标记的</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 等下次更新就可以了，数据权限改的有问题</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>App.Logistics.AgentMailno.ExcluedCheckPositionLogisticsTypes</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡重规则设置不同（页面设置）对应类：TransportationModeStableUtils</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编辑发货平台，跟踪号前缀限制</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab自动补全</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>anaconda/Scripts 空白处长按shift+右键，打开Powershell窗口</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install jupyter_contrib_nbextensions -i https://pypi.mirrors.ustc.edu.cn/simple</t>
+  </si>
+  <si>
+    <t>jupyter contrib nbextension install --user</t>
+  </si>
+  <si>
+    <t>重启jupyter</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install --user jupyter_nbextensions_configurator</t>
+  </si>
+  <si>
+    <t>jupyter nbextensions_configurator enable --user</t>
+  </si>
+  <si>
+    <t>勾选Hinterland（代码提示/自动补全）和Autopep8（代码格式化）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取消勾选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>disable</t>
+    </r>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌如何安装扩展程序</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法将“pip”项识别为 cmdlet、函数、脚本文件或可运行程序的名称</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置window环境变量</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>格式化：window环境变量配置anaconda，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anaconda/Scripts，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>anaconda\Library\bin</t>
+    </r>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌翻译：右键翻译成中文</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接点击crx/下载的crx改后缀为zip,拖到更多工具-扩展程序</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Copy启动可以右键复制越过警告</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>deb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ug</t>
+    </r>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>print（xx）</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>kernel-restart</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码需要地方加入 import pdb; pdb.set_trace()</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>建表语句最好把自增去掉，让他从1开始</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">img </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>margin-top</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>CONTEXT_PATH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet/barcode128?keycode=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>order.trackingNumber</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&amp;height=45&amp;width=0"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">img </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>src</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">CONTEXT_PATH </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>servlet/barcode128?keycode=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">order.trackingNumber </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000080"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>width</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">="250" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>height</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>="45"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>条形码不要压缩，不要style</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换磁盘</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入 jupyter notebook</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开  Anaconda Prompt 输入cd /d e:</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装第三方库</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">pip </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF61AEEE"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>install</t>
+    </r>
+  </si>
+  <si>
+    <t>prompt保持开启</t>
+    <phoneticPr fontId="102" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属类CacheName</t>
+    <phoneticPr fontId="73" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>订单智能管理平台订单管理系统根据订单状态可分为待处理、待销售处理和自定义流程；其次根据运输方式可分为平邮、快递、转运和多仓库打单，再次根据订单操作可以分为合并、拆分、标记发货、负利润检查、添加国家、添加黑名单、修改运输方式、问题反馈等操作，最后根据各部门需要导出不同格式的订单记录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>源程序量</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  77.4万 行</t>
+    </r>
+  </si>
+  <si>
+    <t>这两票是wish线上渠道,换跟踪号了,要用新跟踪号重新标记</t>
+    <phoneticPr fontId="73" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6673,11 +8630,99 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="88">
+  <fonts count="112">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7356,6 +9401,88 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC7254E"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF669900"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFABB2BF"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF61AEEE"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -7389,7 +9516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -7833,32 +9960,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF333333"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF333333"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF333333"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF333333"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -7868,188 +10026,323 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="80" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="86" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="91" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -8063,312 +10356,250 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="80" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8656,6 +10887,50 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34029</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190966</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect t="1834" r="18531"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16693254" y="4972050"/>
+          <a:ext cx="4271271" cy="1524466"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="65000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -9025,15 +11300,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:colOff>545166</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>2241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>153552</xdr:colOff>
+      <xdr:colOff>41493</xdr:colOff>
       <xdr:row>93</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>21291</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9049,12 +11324,67 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21488400" y="15411450"/>
-          <a:ext cx="7983101" cy="5048250"/>
+          <a:off x="9050431" y="14693153"/>
+          <a:ext cx="8001591" cy="5128932"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>184527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533959</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>211791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="C:\Users\win10\Documents\Tencent Files\2851810174\Image\Group\8[N1VEIAK`5H])P${41L{HV.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8572500" y="33185851"/>
+          <a:ext cx="6652371" cy="3433852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -9508,16 +11838,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>745435</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>27609</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13805</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>207065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>276087</xdr:colOff>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>113</xdr:row>
-      <xdr:rowOff>141663</xdr:rowOff>
+      <xdr:rowOff>58836</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9533,7 +11863,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2291522" y="25538044"/>
+          <a:off x="2332935" y="25510435"/>
           <a:ext cx="1835978" cy="1163184"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11861,10 +14191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T85"/>
+  <dimension ref="C2:X87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G99" sqref="G99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11918,7 +14248,7 @@
       </c>
       <c r="M4" s="16"/>
       <c r="N4" s="132" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
@@ -11954,8 +14284,8 @@
       <c r="K6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>7</v>
+      <c r="L6" s="156" t="s">
+        <v>557</v>
       </c>
       <c r="M6" s="16"/>
       <c r="N6" s="16"/>
@@ -12000,7 +14330,7 @@
         <v>13</v>
       </c>
       <c r="K8" s="132" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
@@ -12015,10 +14345,10 @@
     <row r="9" spans="3:20">
       <c r="I9" s="131"/>
       <c r="J9" s="135" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K9" s="132" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
@@ -12067,6 +14397,7 @@
       <c r="T11" s="133"/>
     </row>
     <row r="12" spans="3:20">
+      <c r="E12" s="155"/>
       <c r="I12" s="131"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
@@ -12086,7 +14417,7 @@
         <v>15</v>
       </c>
       <c r="K13" s="121" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -12126,10 +14457,10 @@
       <c r="G15" s="1"/>
       <c r="I15" s="131"/>
       <c r="J15" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K15" s="132" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -12148,10 +14479,10 @@
       <c r="G16" s="1"/>
       <c r="I16" s="131"/>
       <c r="J16" s="139" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -12165,16 +14496,16 @@
       <c r="S16" s="16"/>
       <c r="T16" s="133"/>
     </row>
-    <row r="17" spans="3:20">
+    <row r="17" spans="3:24">
       <c r="C17" s="31" t="s">
         <v>19</v>
       </c>
       <c r="I17" s="131"/>
       <c r="J17" s="139" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -12188,7 +14519,7 @@
       <c r="S17" s="16"/>
       <c r="T17" s="133"/>
     </row>
-    <row r="18" spans="3:20">
+    <row r="18" spans="3:24">
       <c r="C18" s="31" t="s">
         <v>21</v>
       </c>
@@ -12198,11 +14529,11 @@
         <v>1</v>
       </c>
       <c r="L18" s="139" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M18" s="16"/>
       <c r="N18" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
@@ -12211,18 +14542,18 @@
       <c r="S18" s="16"/>
       <c r="T18" s="133"/>
     </row>
-    <row r="19" spans="3:20">
+    <row r="19" spans="3:24">
       <c r="I19" s="131"/>
       <c r="J19" s="16"/>
       <c r="K19" s="16" t="s">
         <v>5</v>
       </c>
       <c r="L19" s="139" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M19" s="16"/>
       <c r="N19" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -12231,7 +14562,7 @@
       <c r="S19" s="16"/>
       <c r="T19" s="133"/>
     </row>
-    <row r="20" spans="3:20">
+    <row r="20" spans="3:24">
       <c r="I20" s="131"/>
       <c r="J20" s="16" t="s">
         <v>22</v>
@@ -12247,7 +14578,7 @@
       <c r="S20" s="16"/>
       <c r="T20" s="133"/>
     </row>
-    <row r="21" spans="3:20">
+    <row r="21" spans="3:24">
       <c r="I21" s="131"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16" t="s">
@@ -12265,7 +14596,7 @@
       <c r="S21" s="16"/>
       <c r="T21" s="133"/>
     </row>
-    <row r="22" spans="3:20">
+    <row r="22" spans="3:24">
       <c r="I22" s="131"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16" t="s">
@@ -12283,7 +14614,7 @@
       <c r="S22" s="16"/>
       <c r="T22" s="133"/>
     </row>
-    <row r="23" spans="3:20">
+    <row r="23" spans="3:24">
       <c r="C23" s="28" t="s">
         <v>25</v>
       </c>
@@ -12300,7 +14631,7 @@
       <c r="S23" s="16"/>
       <c r="T23" s="133"/>
     </row>
-    <row r="24" spans="3:20">
+    <row r="24" spans="3:24">
       <c r="D24" t="s">
         <v>1</v>
       </c>
@@ -12324,7 +14655,7 @@
       <c r="S24" s="16"/>
       <c r="T24" s="133"/>
     </row>
-    <row r="25" spans="3:20">
+    <row r="25" spans="3:24">
       <c r="D25" t="s">
         <v>5</v>
       </c>
@@ -12348,14 +14679,14 @@
       <c r="S25" s="16"/>
       <c r="T25" s="133"/>
     </row>
-    <row r="26" spans="3:20">
+    <row r="26" spans="3:24">
       <c r="I26" s="131"/>
       <c r="J26" s="140" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K26" s="16"/>
       <c r="L26" s="132" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M26" s="16"/>
       <c r="N26" s="16"/>
@@ -12366,7 +14697,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="133"/>
     </row>
-    <row r="27" spans="3:20" ht="17.25" thickBot="1">
+    <row r="27" spans="3:24" ht="17.25" thickBot="1">
       <c r="I27" s="141"/>
       <c r="J27" s="142"/>
       <c r="K27" s="142"/>
@@ -12380,7 +14711,7 @@
       <c r="S27" s="142"/>
       <c r="T27" s="143"/>
     </row>
-    <row r="29" spans="3:20">
+    <row r="29" spans="3:24">
       <c r="C29" s="28" t="s">
         <v>28</v>
       </c>
@@ -12388,7 +14719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="3:20">
+    <row r="30" spans="3:24">
       <c r="D30" t="s">
         <v>30</v>
       </c>
@@ -12399,7 +14730,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="3:20">
+    <row r="31" spans="3:24">
       <c r="F31" s="32" t="s">
         <v>33</v>
       </c>
@@ -12407,22 +14738,31 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="3:20">
+    <row r="32" spans="3:24">
       <c r="F32" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="3:10">
+      <c r="V32" s="153" t="s">
+        <v>555</v>
+      </c>
+      <c r="X32" s="154" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="33" spans="3:22">
       <c r="G33" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="3:10">
+      <c r="V33" s="154" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="3:22">
       <c r="G34" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="3:22">
       <c r="D35" t="s">
         <v>38</v>
       </c>
@@ -12433,7 +14773,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="3:10">
+    <row r="38" spans="3:22">
       <c r="D38" t="s">
         <v>41</v>
       </c>
@@ -12441,7 +14781,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:10">
+    <row r="40" spans="3:22">
       <c r="D40" s="33" t="s">
         <v>184</v>
       </c>
@@ -12449,35 +14789,53 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="3:10">
+    <row r="41" spans="3:22">
       <c r="D41" s="33"/>
       <c r="F41" s="33"/>
     </row>
-    <row r="42" spans="3:10">
+    <row r="42" spans="3:22">
       <c r="D42" s="33"/>
       <c r="F42" s="33"/>
     </row>
-    <row r="43" spans="3:10">
+    <row r="43" spans="3:22">
       <c r="D43" s="33" t="s">
         <v>187</v>
       </c>
       <c r="F43" s="33"/>
-    </row>
-    <row r="44" spans="3:10">
+      <c r="M43" s="160" t="s">
+        <v>589</v>
+      </c>
+      <c r="N43" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="44" spans="3:22">
       <c r="D44" s="33" t="s">
         <v>186</v>
       </c>
       <c r="F44" s="33"/>
-    </row>
-    <row r="45" spans="3:10">
+      <c r="N44" s="160" t="s">
+        <v>591</v>
+      </c>
+      <c r="O44" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="45" spans="3:22">
       <c r="D45" s="33"/>
       <c r="F45" s="33"/>
-    </row>
-    <row r="46" spans="3:10">
+      <c r="N45" s="160" t="s">
+        <v>592</v>
+      </c>
+      <c r="O45" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="46" spans="3:22">
       <c r="D46" s="33"/>
       <c r="F46" s="33"/>
     </row>
-    <row r="48" spans="3:10">
+    <row r="48" spans="3:22">
       <c r="C48" s="28" t="s">
         <v>43</v>
       </c>
@@ -12492,14 +14850,22 @@
     </row>
     <row r="85" spans="3:5">
       <c r="C85" s="146" t="s">
-        <v>541</v>
-      </c>
-      <c r="E85" t="s">
+        <v>538</v>
+      </c>
+      <c r="E85" s="150" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5">
+      <c r="C87" t="s">
         <v>542</v>
       </c>
+      <c r="E87" t="s">
+        <v>544</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <phoneticPr fontId="73" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K8" r:id="rId1"/>
     <hyperlink ref="N4" r:id="rId2"/>
@@ -12509,19 +14875,207 @@
     <hyperlink ref="K15" r:id="rId6"/>
     <hyperlink ref="K9" r:id="rId7"/>
     <hyperlink ref="K13" r:id="rId8"/>
+    <hyperlink ref="E85" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:P198"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="L208" sqref="L208"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:16">
+      <c r="C2" s="46" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16">
+      <c r="D10" s="43" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16">
+      <c r="C12" s="46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16">
+      <c r="C14" s="46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="3:16">
+      <c r="P15" s="43"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="D21" s="43" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="46" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62" s="46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="50" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="3:5">
+      <c r="E130" s="50" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5">
+      <c r="E132" s="50" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5">
+      <c r="E134" s="50" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="135" spans="3:5">
+      <c r="C135" s="46" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159" s="46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6">
+      <c r="C178" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="F178" s="71" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6">
+      <c r="C183" s="46" t="s">
+        <v>622</v>
+      </c>
+      <c r="F183" s="162" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6">
+      <c r="F184" s="162" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6">
+      <c r="F185" s="162" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6">
+      <c r="D188" s="164"/>
+    </row>
+    <row r="189" spans="3:6" ht="16.5">
+      <c r="C189" s="164"/>
+    </row>
+    <row r="191" spans="3:6">
+      <c r="D191" s="164"/>
+    </row>
+    <row r="192" spans="3:6">
+      <c r="D192" s="164"/>
+    </row>
+    <row r="193" spans="4:4">
+      <c r="D193" s="164"/>
+    </row>
+    <row r="194" spans="4:4">
+      <c r="D194" s="164"/>
+    </row>
+    <row r="196" spans="4:4">
+      <c r="D196" s="164"/>
+    </row>
+    <row r="198" spans="4:4">
+      <c r="D198" s="164"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="73" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB154"/>
+  <dimension ref="A1:AB162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" topLeftCell="B61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12537,13 +15091,13 @@
         <v>45</v>
       </c>
       <c r="Y1" s="120" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="Z1" s="120" t="s">
+        <v>518</v>
+      </c>
+      <c r="AB1" s="120" t="s">
         <v>519</v>
-      </c>
-      <c r="AB1" s="120" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="3:28">
@@ -12555,7 +15109,7 @@
       </c>
       <c r="R2" s="30"/>
       <c r="Y2" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="3:28">
@@ -12570,32 +15124,32 @@
     </row>
     <row r="13" spans="3:28">
       <c r="C13" s="116" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="3:28">
       <c r="C14" s="116" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="3:28">
       <c r="C15" s="116" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="3:28">
       <c r="C16" s="116" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="C17" s="116" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="C18" s="116" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L18" s="123" t="s">
         <v>359</v>
@@ -12608,18 +15162,18 @@
     </row>
     <row r="20" spans="1:28">
       <c r="C20" s="120" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="C21" s="120" t="s">
+        <v>498</v>
+      </c>
+      <c r="E21" s="120" t="s">
         <v>499</v>
       </c>
-      <c r="E21" s="120" t="s">
+      <c r="F21" s="120" t="s">
         <v>500</v>
-      </c>
-      <c r="F21" s="120" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:28">
@@ -12627,36 +15181,36 @@
         <v>400</v>
       </c>
       <c r="C22" s="120" t="s">
+        <v>501</v>
+      </c>
+      <c r="E22" s="120" t="s">
         <v>502</v>
-      </c>
-      <c r="E22" s="120" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="120" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="C25" s="120" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="C26" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:28">
       <c r="C27" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L27" s="123" t="s">
         <v>218</v>
       </c>
       <c r="M27" s="119" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T27" s="10" t="s">
         <v>405</v>
@@ -12664,7 +15218,7 @@
     </row>
     <row r="28" spans="1:28">
       <c r="C28" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M28" s="47" t="s">
         <v>220</v>
@@ -12675,7 +15229,7 @@
     </row>
     <row r="29" spans="1:28">
       <c r="C29" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M29" t="s">
         <v>219</v>
@@ -12686,12 +15240,12 @@
     </row>
     <row r="30" spans="1:28">
       <c r="C30" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="C31" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="T31" s="47" t="s">
         <v>225</v>
@@ -12708,7 +15262,7 @@
     </row>
     <row r="32" spans="1:28">
       <c r="C32" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M32" s="47" t="s">
         <v>224</v>
@@ -12716,7 +15270,7 @@
     </row>
     <row r="33" spans="3:27">
       <c r="C33" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M33" s="48" t="s">
         <v>221</v>
@@ -12730,12 +15284,12 @@
     </row>
     <row r="34" spans="3:27">
       <c r="C34" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="3:27">
       <c r="C35" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M35" s="48" t="s">
         <v>222</v>
@@ -12749,7 +15303,7 @@
     </row>
     <row r="36" spans="3:27">
       <c r="C36" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="3:27">
@@ -12765,7 +15319,7 @@
     </row>
     <row r="39" spans="3:27">
       <c r="C39" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L39" s="123" t="s">
         <v>272</v>
@@ -12773,10 +15327,10 @@
     </row>
     <row r="40" spans="3:27">
       <c r="C40" s="122" t="s">
+        <v>528</v>
+      </c>
+      <c r="D40" s="122" t="s">
         <v>529</v>
-      </c>
-      <c r="D40" s="122" t="s">
-        <v>530</v>
       </c>
       <c r="M40" s="52" t="s">
         <v>284</v>
@@ -12788,80 +15342,188 @@
       </c>
     </row>
     <row r="42" spans="3:27">
+      <c r="C42" s="149" t="s">
+        <v>540</v>
+      </c>
       <c r="M42" s="52" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="58" spans="13:13">
+    <row r="43" spans="3:27">
+      <c r="C43" s="148" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="3:27">
+      <c r="C45" s="154" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="48" spans="3:27">
+      <c r="C48" s="9" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="C49" s="9" t="s">
+        <v>559</v>
+      </c>
+      <c r="H49" s="157" t="s">
+        <v>567</v>
+      </c>
+      <c r="I49" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="C50" s="9">
+        <v>30078351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="C51" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="C52" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="H52" s="157" t="s">
+        <v>563</v>
+      </c>
+      <c r="I52" s="157" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="C53" s="9">
+        <v>30078355</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="C54" s="9" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="C55" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="G55">
+        <v>302011</v>
+      </c>
+      <c r="I55" s="157" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="C58" s="159" t="s">
+        <v>579</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>580</v>
+      </c>
       <c r="M58" s="52" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="13:13">
+    <row r="59" spans="1:13">
+      <c r="C59" s="159" t="s">
+        <v>582</v>
+      </c>
       <c r="M59" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="13:13">
+    <row r="60" spans="1:13">
       <c r="M60" s="9" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="13:13">
+    <row r="61" spans="1:13">
+      <c r="A61" t="s">
+        <v>581</v>
+      </c>
       <c r="M61" s="9" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="62" spans="13:13">
+    <row r="62" spans="1:13">
+      <c r="C62" s="111" t="s">
+        <v>583</v>
+      </c>
       <c r="M62" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="13:13">
+    <row r="63" spans="1:13">
+      <c r="C63" s="45" t="s">
+        <v>584</v>
+      </c>
       <c r="M63" s="9" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="13:13">
+    <row r="64" spans="1:13">
+      <c r="C64" s="42" t="s">
+        <v>206</v>
+      </c>
       <c r="M64" s="9" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="65" spans="13:13">
+    <row r="65" spans="3:13">
+      <c r="C65" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="G65" s="195" t="s">
+        <v>644</v>
+      </c>
       <c r="M65" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="66" spans="13:13">
+    <row r="66" spans="3:13">
+      <c r="C66" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="155"/>
       <c r="M66" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="67" spans="13:13">
+    <row r="67" spans="3:13">
+      <c r="C67" s="42" t="s">
+        <v>586</v>
+      </c>
       <c r="M67" s="9" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="68" spans="13:13">
+    <row r="68" spans="3:13">
+      <c r="C68" s="9" t="s">
+        <v>587</v>
+      </c>
       <c r="M68" s="52" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="13:13">
+    <row r="69" spans="3:13">
       <c r="M69" s="9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="13:13">
+    <row r="71" spans="3:13">
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="13:13">
+    <row r="72" spans="3:13">
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="13:13">
+    <row r="73" spans="3:13">
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="13:13">
+    <row r="74" spans="3:13">
       <c r="M74" s="9"/>
     </row>
     <row r="96" spans="12:12">
@@ -13090,24 +15752,33 @@
     </row>
     <row r="150" spans="10:12">
       <c r="J150" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="L150" s="125" t="s">
         <v>454</v>
-      </c>
-      <c r="L150" s="125" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="154" spans="10:12">
       <c r="J154" s="118" t="s">
+        <v>494</v>
+      </c>
+      <c r="L154" s="125" t="s">
         <v>495</v>
       </c>
-      <c r="L154" s="125" t="s">
-        <v>496</v>
+    </row>
+    <row r="157" spans="10:12">
+      <c r="L157"/>
+    </row>
+    <row r="162" spans="9:9">
+      <c r="I162" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <phoneticPr fontId="73" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="132" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13115,8 +15786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="Y62" sqref="Y62"/>
+    <sheetView showGridLines="0" topLeftCell="A61" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="21"/>
@@ -13133,34 +15804,34 @@
       <c r="N1" s="75" t="s">
         <v>360</v>
       </c>
-      <c r="O1" s="147" t="s">
+      <c r="O1" s="168" t="s">
         <v>389</v>
       </c>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="147"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="147"/>
-      <c r="T1" s="147"/>
-      <c r="U1" s="147"/>
-      <c r="V1" s="147"/>
-      <c r="W1" s="147"/>
-      <c r="X1" s="147"/>
-      <c r="Y1" s="147"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="148" t="s">
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="169" t="s">
         <v>390</v>
       </c>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="147"/>
-      <c r="AJ1" s="147"/>
-      <c r="AK1" s="147"/>
-      <c r="AL1" s="147"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="168"/>
+      <c r="AH1" s="168"/>
+      <c r="AI1" s="168"/>
+      <c r="AJ1" s="168"/>
+      <c r="AK1" s="168"/>
+      <c r="AL1" s="168"/>
     </row>
     <row r="2" spans="1:38" ht="21.75" thickTop="1">
       <c r="N2" s="76">
@@ -13408,7 +16079,7 @@
       <c r="Z9" s="78"/>
       <c r="AA9" s="79"/>
       <c r="AB9" s="80" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AC9" s="88"/>
       <c r="AD9" s="78"/>
@@ -13443,7 +16114,7 @@
       <c r="Z10" s="78"/>
       <c r="AA10" s="79"/>
       <c r="AB10" s="80" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AC10" s="88"/>
       <c r="AD10" s="78"/>
@@ -13475,7 +16146,7 @@
       <c r="Z11" s="78"/>
       <c r="AA11" s="79"/>
       <c r="AB11" s="80" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AC11" s="88"/>
       <c r="AD11" s="78"/>
@@ -13484,7 +16155,7 @@
       <c r="AG11" s="78"/>
       <c r="AH11" s="78"/>
       <c r="AI11" s="78" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AJ11" s="80"/>
       <c r="AK11" s="80"/>
@@ -14050,7 +16721,7 @@
       </c>
       <c r="N30" s="76"/>
       <c r="O30" s="101" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P30" s="80"/>
       <c r="Q30" s="80"/>
@@ -14065,7 +16736,7 @@
       <c r="Z30" s="80"/>
       <c r="AA30" s="87"/>
       <c r="AB30" s="117" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AL30" s="87"/>
     </row>
@@ -14088,7 +16759,7 @@
       <c r="Z31" s="80"/>
       <c r="AA31" s="87"/>
       <c r="AB31" s="117" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AL31" s="87"/>
     </row>
@@ -14128,7 +16799,7 @@
       </c>
       <c r="N33" s="76"/>
       <c r="O33" s="101" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P33" s="80"/>
       <c r="Q33" s="80"/>
@@ -14143,7 +16814,7 @@
       <c r="Z33" s="80"/>
       <c r="AA33" s="87"/>
       <c r="AB33" s="117" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL33" s="87"/>
     </row>
@@ -14166,7 +16837,7 @@
       <c r="Z34" s="80"/>
       <c r="AA34" s="87"/>
       <c r="AB34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="AL34" s="87"/>
     </row>
@@ -14202,7 +16873,7 @@
       <c r="L36"/>
       <c r="N36" s="76"/>
       <c r="O36" s="101" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P36" s="80"/>
       <c r="Q36" s="80"/>
@@ -14217,7 +16888,7 @@
       <c r="Z36" s="80"/>
       <c r="AA36" s="87"/>
       <c r="AB36" s="117" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AL36" s="87"/>
     </row>
@@ -14330,7 +17001,7 @@
       <c r="Z40" s="80"/>
       <c r="AA40" s="87"/>
       <c r="AB40" s="118" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AL40" s="87"/>
     </row>
@@ -14455,7 +17126,7 @@
       <c r="L45"/>
       <c r="AL45" s="87"/>
     </row>
-    <row r="46" spans="3:38" ht="16.5">
+    <row r="46" spans="3:38" ht="17.25">
       <c r="C46" s="16"/>
       <c r="D46" s="11" t="s">
         <v>53</v>
@@ -14466,8 +17137,14 @@
       <c r="H46" s="13"/>
       <c r="I46" s="16"/>
       <c r="L46"/>
-    </row>
-    <row r="47" spans="3:38" ht="16.5">
+      <c r="O46" s="101" t="s">
+        <v>595</v>
+      </c>
+      <c r="AB46" s="101" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="47" spans="3:38" ht="17.25">
       <c r="C47" s="16"/>
       <c r="D47" s="24" t="s">
         <v>69</v>
@@ -14478,8 +17155,10 @@
       <c r="H47" s="17"/>
       <c r="I47" s="16"/>
       <c r="L47"/>
-    </row>
-    <row r="48" spans="3:38" ht="16.5">
+      <c r="O47" s="101"/>
+      <c r="AB47" s="101"/>
+    </row>
+    <row r="48" spans="3:38" ht="17.25">
       <c r="C48" s="16"/>
       <c r="D48" s="25" t="s">
         <v>70</v>
@@ -14490,8 +17169,12 @@
       <c r="H48" s="17"/>
       <c r="I48" s="16"/>
       <c r="L48"/>
-    </row>
-    <row r="49" spans="3:37" ht="16.5">
+      <c r="O48" s="101" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB48" s="101"/>
+    </row>
+    <row r="49" spans="3:28" ht="17.25">
       <c r="C49" s="16"/>
       <c r="D49" s="14"/>
       <c r="E49" s="16" t="s">
@@ -14502,8 +17185,10 @@
       <c r="H49" s="17"/>
       <c r="I49" s="16"/>
       <c r="L49"/>
-    </row>
-    <row r="50" spans="3:37" ht="17.25" thickBot="1">
+      <c r="O49" s="101"/>
+      <c r="AB49" s="101"/>
+    </row>
+    <row r="50" spans="3:28" ht="17.25">
       <c r="C50" s="16"/>
       <c r="D50" s="20"/>
       <c r="E50" s="22"/>
@@ -14512,8 +17197,12 @@
       <c r="H50" s="23"/>
       <c r="I50" s="16"/>
       <c r="L50"/>
-    </row>
-    <row r="51" spans="3:37" ht="22.5" thickTop="1" thickBot="1">
+      <c r="O50" s="101" t="s">
+        <v>597</v>
+      </c>
+      <c r="AB50" s="101"/>
+    </row>
+    <row r="51" spans="3:28" ht="17.25">
       <c r="C51" s="16"/>
       <c r="D51" s="16"/>
       <c r="E51" s="18"/>
@@ -14522,35 +17211,10 @@
       <c r="H51" s="16"/>
       <c r="I51" s="16"/>
       <c r="L51"/>
-      <c r="O51" s="110" t="s">
-        <v>456</v>
-      </c>
-      <c r="P51" s="149" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q51" s="150"/>
-      <c r="R51" s="150"/>
-      <c r="S51" s="150"/>
-      <c r="T51" s="150"/>
-      <c r="U51" s="150"/>
-      <c r="V51" s="150"/>
-      <c r="W51" s="150"/>
-      <c r="X51" s="150"/>
-      <c r="Y51" s="150"/>
-      <c r="Z51" s="150"/>
-      <c r="AA51" s="150"/>
-      <c r="AB51" s="150"/>
-      <c r="AC51" s="150"/>
-      <c r="AD51" s="150"/>
-      <c r="AE51" s="150"/>
-      <c r="AF51" s="150"/>
-      <c r="AG51" s="150"/>
-      <c r="AH51" s="150"/>
-      <c r="AI51" s="150"/>
-      <c r="AJ51" s="150"/>
-      <c r="AK51" s="150"/>
-    </row>
-    <row r="52" spans="3:37" ht="17.25" thickTop="1">
+      <c r="O51" s="101"/>
+      <c r="AB51" s="101"/>
+    </row>
+    <row r="52" spans="3:28" ht="17.25">
       <c r="C52" s="16"/>
       <c r="D52" s="16"/>
       <c r="E52" s="18"/>
@@ -14559,8 +17223,10 @@
       <c r="H52" s="16"/>
       <c r="I52" s="16"/>
       <c r="L52"/>
-    </row>
-    <row r="53" spans="3:37" ht="17.25" thickBot="1">
+      <c r="O52" s="101"/>
+      <c r="AB52" s="101"/>
+    </row>
+    <row r="53" spans="3:28" ht="17.25">
       <c r="C53" s="16"/>
       <c r="D53" s="16"/>
       <c r="E53" s="18"/>
@@ -14569,200 +17235,294 @@
       <c r="H53" s="16"/>
       <c r="I53" s="16"/>
       <c r="L53"/>
-    </row>
-    <row r="54" spans="3:37" ht="22.5" thickTop="1" thickBot="1">
+      <c r="O53" s="101" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB53" s="101" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" ht="17.25">
       <c r="E54"/>
       <c r="L54"/>
-      <c r="O54" s="110" t="s">
-        <v>458</v>
-      </c>
-      <c r="P54" s="114" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="55" spans="3:37" ht="17.25" thickTop="1">
+      <c r="O54" s="101"/>
+      <c r="AB54" s="101"/>
+    </row>
+    <row r="55" spans="3:28" ht="17.25">
       <c r="E55"/>
       <c r="L55"/>
-    </row>
-    <row r="56" spans="3:37" ht="16.5">
+      <c r="O55" s="101"/>
+      <c r="AB55" s="101"/>
+    </row>
+    <row r="56" spans="3:28" ht="17.25">
       <c r="E56"/>
       <c r="L56"/>
-    </row>
-    <row r="57" spans="3:37" ht="16.5">
+      <c r="O56" s="101" t="s">
+        <v>599</v>
+      </c>
+      <c r="AB56" s="101" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="57" spans="3:28" ht="17.25">
       <c r="E57"/>
       <c r="L57"/>
-    </row>
-    <row r="58" spans="3:37" ht="16.5">
+      <c r="O57" s="101"/>
+      <c r="AB57" s="101"/>
+    </row>
+    <row r="58" spans="3:28" ht="17.25">
       <c r="E58"/>
       <c r="L58"/>
-    </row>
-    <row r="59" spans="3:37" ht="16.5">
+      <c r="O58" s="101"/>
+      <c r="AB58" s="101"/>
+    </row>
+    <row r="59" spans="3:28" ht="17.25">
       <c r="E59"/>
       <c r="L59"/>
-    </row>
-    <row r="60" spans="3:37" ht="16.5">
+      <c r="O59" s="101" t="s">
+        <v>600</v>
+      </c>
+      <c r="AB59" s="101" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" ht="17.25">
       <c r="E60"/>
       <c r="L60"/>
-    </row>
-    <row r="61" spans="3:37" ht="16.5">
+      <c r="O60" s="101"/>
+      <c r="AB60" s="101"/>
+    </row>
+    <row r="61" spans="3:28" ht="17.25">
       <c r="E61"/>
       <c r="L61"/>
-    </row>
-    <row r="62" spans="3:37" ht="16.5">
+      <c r="O61" s="101" t="s">
+        <v>601</v>
+      </c>
+      <c r="AB61" s="101" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" ht="17.25">
       <c r="E62"/>
       <c r="L62"/>
-    </row>
-    <row r="63" spans="3:37" ht="16.5">
+      <c r="O62" s="101"/>
+      <c r="AB62" s="101"/>
+    </row>
+    <row r="63" spans="3:28" ht="17.25">
       <c r="E63"/>
       <c r="L63"/>
-    </row>
-    <row r="64" spans="3:37" ht="16.5">
+      <c r="O63" s="101"/>
+      <c r="AB63" s="101"/>
+    </row>
+    <row r="64" spans="3:28" ht="17.25">
       <c r="E64"/>
       <c r="L64"/>
-    </row>
-    <row r="65" spans="4:12" ht="16.5">
+      <c r="O64" s="101" t="s">
+        <v>602</v>
+      </c>
+      <c r="AB64" s="101" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="65" spans="4:37" ht="17.25">
       <c r="E65"/>
       <c r="L65"/>
-    </row>
-    <row r="66" spans="4:12" ht="16.5">
+      <c r="O65" s="101"/>
+      <c r="AB65" s="101"/>
+    </row>
+    <row r="66" spans="4:37" ht="17.25">
       <c r="E66"/>
       <c r="L66"/>
-    </row>
-    <row r="67" spans="4:12" ht="16.5">
+      <c r="O66" s="101"/>
+      <c r="AB66" s="101"/>
+    </row>
+    <row r="67" spans="4:37" ht="17.25">
       <c r="E67"/>
       <c r="L67"/>
-    </row>
-    <row r="68" spans="4:12" ht="16.5">
+      <c r="O67" s="101" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB67" s="101" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="68" spans="4:37" ht="17.25">
       <c r="E68"/>
       <c r="L68"/>
-    </row>
-    <row r="69" spans="4:12" ht="16.5">
+      <c r="O68" s="101"/>
+      <c r="AB68" s="101"/>
+    </row>
+    <row r="69" spans="4:37" ht="17.25">
       <c r="E69"/>
       <c r="L69"/>
-    </row>
-    <row r="70" spans="4:12" ht="16.5">
+      <c r="O69" s="101"/>
+      <c r="AB69" s="101"/>
+    </row>
+    <row r="70" spans="4:37" ht="17.25">
       <c r="E70"/>
       <c r="L70"/>
-    </row>
-    <row r="71" spans="4:12" ht="16.5">
+      <c r="O70" s="101" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB70" s="101" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="71" spans="4:37" ht="16.5">
       <c r="E71"/>
       <c r="L71"/>
     </row>
-    <row r="72" spans="4:12" ht="16.5">
+    <row r="72" spans="4:37" ht="16.5">
       <c r="E72"/>
       <c r="L72"/>
-    </row>
-    <row r="73" spans="4:12" ht="16.5">
+      <c r="O72" s="195" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="73" spans="4:37" ht="16.5">
       <c r="E73"/>
       <c r="L73"/>
     </row>
-    <row r="74" spans="4:12" ht="16.5">
+    <row r="74" spans="4:37" ht="16.5">
       <c r="E74"/>
       <c r="L74"/>
     </row>
-    <row r="75" spans="4:12" ht="16.5">
+    <row r="75" spans="4:37" ht="16.5">
       <c r="E75"/>
       <c r="L75"/>
     </row>
-    <row r="76" spans="4:12" ht="16.5">
+    <row r="76" spans="4:37" ht="16.5">
       <c r="E76"/>
       <c r="L76"/>
     </row>
-    <row r="77" spans="4:12" ht="16.5">
+    <row r="77" spans="4:37" ht="17.25" thickBot="1">
       <c r="E77"/>
       <c r="L77"/>
     </row>
-    <row r="78" spans="4:12" ht="16.5">
+    <row r="78" spans="4:37" ht="22.5" thickTop="1" thickBot="1">
       <c r="E78"/>
       <c r="L78"/>
-    </row>
-    <row r="79" spans="4:12" ht="16.5">
+      <c r="O78" s="110" t="s">
+        <v>455</v>
+      </c>
+      <c r="P78" s="170" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q78" s="171"/>
+      <c r="R78" s="171"/>
+      <c r="S78" s="171"/>
+      <c r="T78" s="171"/>
+      <c r="U78" s="171"/>
+      <c r="V78" s="171"/>
+      <c r="W78" s="171"/>
+      <c r="X78" s="171"/>
+      <c r="Y78" s="171"/>
+      <c r="Z78" s="171"/>
+      <c r="AA78" s="171"/>
+      <c r="AB78" s="171"/>
+      <c r="AC78" s="171"/>
+      <c r="AD78" s="171"/>
+      <c r="AE78" s="171"/>
+      <c r="AF78" s="171"/>
+      <c r="AG78" s="171"/>
+      <c r="AH78" s="171"/>
+      <c r="AI78" s="171"/>
+      <c r="AJ78" s="171"/>
+      <c r="AK78" s="171"/>
+    </row>
+    <row r="79" spans="4:37" ht="17.25" thickTop="1">
       <c r="E79"/>
       <c r="L79"/>
     </row>
-    <row r="80" spans="4:12" ht="16.5">
+    <row r="80" spans="4:37" ht="17.25" thickBot="1">
       <c r="D80" t="s">
         <v>72</v>
       </c>
       <c r="E80"/>
       <c r="L80"/>
     </row>
-    <row r="81" spans="4:12" ht="16.5">
+    <row r="81" spans="4:16" ht="22.5" thickTop="1" thickBot="1">
       <c r="D81" t="s">
         <v>73</v>
       </c>
       <c r="E81"/>
       <c r="L81"/>
-    </row>
-    <row r="82" spans="4:12" ht="16.5">
+      <c r="O81" s="110" t="s">
+        <v>457</v>
+      </c>
+      <c r="P81" s="114" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="82" spans="4:16" ht="17.25" thickTop="1">
       <c r="D82" t="s">
         <v>74</v>
       </c>
       <c r="E82"/>
       <c r="L82"/>
     </row>
-    <row r="83" spans="4:12" ht="16.5">
+    <row r="83" spans="4:16" ht="16.5">
       <c r="D83" t="s">
         <v>75</v>
       </c>
       <c r="E83"/>
       <c r="L83"/>
     </row>
-    <row r="84" spans="4:12" ht="16.5">
+    <row r="84" spans="4:16" ht="16.5">
       <c r="D84" t="s">
         <v>76</v>
       </c>
       <c r="E84"/>
       <c r="L84"/>
     </row>
-    <row r="85" spans="4:12" ht="16.5">
+    <row r="85" spans="4:16" ht="16.5">
       <c r="E85"/>
       <c r="L85"/>
     </row>
-    <row r="86" spans="4:12" ht="16.5">
+    <row r="86" spans="4:16" ht="16.5">
       <c r="E86"/>
       <c r="L86"/>
     </row>
-    <row r="87" spans="4:12" ht="16.5">
+    <row r="87" spans="4:16" ht="16.5">
       <c r="D87" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E87"/>
       <c r="L87"/>
     </row>
-    <row r="88" spans="4:12" ht="16.5">
+    <row r="88" spans="4:16" ht="16.5">
       <c r="E88"/>
       <c r="L88"/>
     </row>
-    <row r="89" spans="4:12" ht="16.5">
+    <row r="89" spans="4:16" ht="16.5">
       <c r="E89"/>
       <c r="L89"/>
     </row>
-    <row r="90" spans="4:12" ht="16.5">
+    <row r="90" spans="4:16" ht="16.5">
       <c r="E90"/>
       <c r="L90"/>
     </row>
-    <row r="91" spans="4:12" ht="16.5">
+    <row r="91" spans="4:16" ht="16.5">
       <c r="E91"/>
       <c r="L91"/>
     </row>
-    <row r="92" spans="4:12" ht="16.5">
+    <row r="92" spans="4:16" ht="16.5">
       <c r="E92"/>
       <c r="L92"/>
     </row>
-    <row r="93" spans="4:12" ht="16.5">
+    <row r="93" spans="4:16" ht="16.5">
       <c r="E93"/>
       <c r="L93"/>
     </row>
-    <row r="94" spans="4:12" ht="16.5">
+    <row r="94" spans="4:16" ht="16.5">
       <c r="E94"/>
       <c r="L94"/>
     </row>
-    <row r="95" spans="4:12" ht="16.5">
+    <row r="95" spans="4:16" ht="16.5">
       <c r="E95"/>
       <c r="L95"/>
     </row>
-    <row r="96" spans="4:12" ht="16.5">
+    <row r="96" spans="4:16" ht="16.5">
       <c r="E96"/>
       <c r="L96"/>
     </row>
@@ -14794,50 +17554,61 @@
       <c r="L102"/>
     </row>
     <row r="103" spans="4:12" ht="16.5">
-      <c r="D103" s="1"/>
+      <c r="D103" s="72" t="s">
+        <v>384</v>
+      </c>
       <c r="E103"/>
+      <c r="F103" s="40" t="s">
+        <v>548</v>
+      </c>
       <c r="L103"/>
     </row>
-    <row r="104" spans="4:12" ht="16.5">
-      <c r="D104" s="1"/>
-      <c r="E104"/>
+    <row r="104" spans="4:12">
+      <c r="D104" s="144" t="s">
+        <v>531</v>
+      </c>
+      <c r="F104" s="151" t="s">
+        <v>545</v>
+      </c>
       <c r="L104"/>
     </row>
     <row r="105" spans="4:12">
-      <c r="D105" s="72" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="4:12">
-      <c r="D108" s="144" t="s">
-        <v>532</v>
-      </c>
-      <c r="G108" s="144" t="s">
-        <v>533</v>
+      <c r="D105" s="151" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="106" spans="4:12">
+      <c r="D106" s="149" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="109" spans="4:12">
+      <c r="J109" s="151" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="111" spans="4:12">
       <c r="G111" s="144" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="112" spans="4:12">
       <c r="G112" s="144" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="7:7">
       <c r="G113" s="144" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="O1:AA1"/>
     <mergeCell ref="AB1:AL1"/>
-    <mergeCell ref="P51:AK51"/>
+    <mergeCell ref="P78:AK78"/>
   </mergeCells>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <phoneticPr fontId="73" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -14846,15 +17617,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="M67:R69"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W76" sqref="W76"/>
+    <sheetView showGridLines="0" topLeftCell="L57" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67:R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <sheetData>
+    <row r="67" spans="13:18" ht="83.25" customHeight="1">
+      <c r="M67" s="196" t="s">
+        <v>645</v>
+      </c>
+      <c r="N67" s="196"/>
+      <c r="O67" s="196"/>
+      <c r="P67" s="196"/>
+      <c r="Q67" s="196"/>
+      <c r="R67" s="196"/>
+    </row>
+    <row r="68" spans="13:18" ht="17.25" thickBot="1"/>
+    <row r="69" spans="13:18" ht="24.75" thickBot="1">
+      <c r="M69" s="197" t="s">
+        <v>646</v>
+      </c>
+      <c r="N69" s="198" t="s">
+        <v>647</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M67:R67"/>
+  </mergeCells>
+  <phoneticPr fontId="73" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14864,7 +17658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:L103"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -14878,11 +17672,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12">
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="172" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="168"/>
-      <c r="E2" s="169"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="174"/>
     </row>
     <row r="3" spans="3:12">
       <c r="C3" s="4" t="s">
@@ -15166,102 +17960,102 @@
       <c r="C42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D42" s="153" t="s">
+      <c r="D42" s="180" t="s">
         <v>252</v>
       </c>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153" t="s">
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="180" t="s">
         <v>253</v>
       </c>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
-      <c r="K42" s="153"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="180"/>
+      <c r="K42" s="180"/>
     </row>
     <row r="43" spans="3:11">
       <c r="C43" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D43" s="173" t="s">
+      <c r="D43" s="181" t="s">
         <v>255</v>
       </c>
-      <c r="E43" s="173"/>
-      <c r="F43" s="173"/>
-      <c r="G43" s="173"/>
-      <c r="H43" s="164" t="s">
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
+      <c r="H43" s="182" t="s">
         <v>256</v>
       </c>
-      <c r="I43" s="164"/>
-      <c r="J43" s="164"/>
-      <c r="K43" s="164"/>
+      <c r="I43" s="182"/>
+      <c r="J43" s="182"/>
+      <c r="K43" s="182"/>
     </row>
     <row r="44" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C44" s="151" t="s">
+      <c r="C44" s="176" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="163" t="s">
+      <c r="D44" s="175" t="s">
         <v>258</v>
       </c>
-      <c r="E44" s="163"/>
-      <c r="F44" s="163"/>
-      <c r="G44" s="163"/>
-      <c r="H44" s="163" t="s">
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="I44" s="163"/>
-      <c r="J44" s="163"/>
-      <c r="K44" s="163"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
     </row>
     <row r="45" spans="3:11">
-      <c r="C45" s="151"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="163"/>
-      <c r="F45" s="163"/>
-      <c r="G45" s="163"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="163"/>
-      <c r="J45" s="163"/>
-      <c r="K45" s="163"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="175"/>
+      <c r="E45" s="175"/>
+      <c r="F45" s="175"/>
+      <c r="G45" s="175"/>
+      <c r="H45" s="175"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="175"/>
     </row>
     <row r="46" spans="3:11" ht="16.5" customHeight="1">
-      <c r="C46" s="170" t="s">
+      <c r="C46" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="D46" s="163" t="s">
+      <c r="D46" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
-      <c r="H46" s="163" t="s">
+      <c r="E46" s="175"/>
+      <c r="F46" s="175"/>
+      <c r="G46" s="175"/>
+      <c r="H46" s="175" t="s">
         <v>262</v>
       </c>
-      <c r="I46" s="163"/>
-      <c r="J46" s="163"/>
-      <c r="K46" s="163"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="175"/>
     </row>
     <row r="47" spans="3:11">
-      <c r="C47" s="171"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
-      <c r="G47" s="163"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="163"/>
-      <c r="J47" s="163"/>
-      <c r="K47" s="163"/>
+      <c r="C47" s="178"/>
+      <c r="D47" s="175"/>
+      <c r="E47" s="175"/>
+      <c r="F47" s="175"/>
+      <c r="G47" s="175"/>
+      <c r="H47" s="175"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="175"/>
     </row>
     <row r="48" spans="3:11">
-      <c r="C48" s="172"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="163"/>
-      <c r="F48" s="163"/>
-      <c r="G48" s="163"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="163"/>
-      <c r="J48" s="163"/>
-      <c r="K48" s="163"/>
+      <c r="C48" s="179"/>
+      <c r="D48" s="175"/>
+      <c r="E48" s="175"/>
+      <c r="F48" s="175"/>
+      <c r="G48" s="175"/>
+      <c r="H48" s="175"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="175"/>
     </row>
     <row r="52" spans="3:6">
       <c r="C52" s="62" t="s">
@@ -15269,88 +18063,88 @@
       </c>
     </row>
     <row r="54" spans="3:6">
-      <c r="C54" s="165" t="s">
+      <c r="C54" s="183" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="166"/>
-      <c r="E54" s="165" t="s">
+      <c r="D54" s="184"/>
+      <c r="E54" s="183" t="s">
         <v>289</v>
       </c>
-      <c r="F54" s="166"/>
+      <c r="F54" s="184"/>
     </row>
     <row r="55" spans="3:6">
-      <c r="C55" s="156" t="s">
+      <c r="C55" s="186" t="s">
         <v>290</v>
       </c>
-      <c r="D55" s="160"/>
-      <c r="E55" s="156" t="s">
+      <c r="D55" s="190"/>
+      <c r="E55" s="186" t="s">
         <v>292</v>
       </c>
-      <c r="F55" s="157"/>
+      <c r="F55" s="187"/>
     </row>
     <row r="56" spans="3:6">
-      <c r="C56" s="161"/>
-      <c r="D56" s="162"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="159"/>
+      <c r="C56" s="191"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="188"/>
+      <c r="F56" s="189"/>
     </row>
     <row r="57" spans="3:6">
-      <c r="C57" s="152" t="s">
+      <c r="C57" s="185" t="s">
         <v>297</v>
       </c>
-      <c r="D57" s="151"/>
-      <c r="E57" s="152" t="s">
+      <c r="D57" s="176"/>
+      <c r="E57" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="F57" s="151"/>
+      <c r="F57" s="176"/>
     </row>
     <row r="58" spans="3:6">
-      <c r="C58" s="152" t="s">
+      <c r="C58" s="185" t="s">
         <v>295</v>
       </c>
-      <c r="D58" s="151"/>
-      <c r="E58" s="152" t="s">
+      <c r="D58" s="176"/>
+      <c r="E58" s="185" t="s">
         <v>296</v>
       </c>
-      <c r="F58" s="151"/>
+      <c r="F58" s="176"/>
     </row>
     <row r="59" spans="3:6">
-      <c r="C59" s="152" t="s">
+      <c r="C59" s="185" t="s">
         <v>312</v>
       </c>
-      <c r="D59" s="151"/>
-      <c r="E59" s="151"/>
-      <c r="F59" s="151"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="176"/>
     </row>
     <row r="60" spans="3:6">
-      <c r="C60" s="151"/>
-      <c r="D60" s="151"/>
-      <c r="E60" s="151"/>
-      <c r="F60" s="151"/>
+      <c r="C60" s="176"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="176"/>
     </row>
     <row r="61" spans="3:6">
-      <c r="C61" s="151"/>
-      <c r="D61" s="151"/>
-      <c r="E61" s="151"/>
-      <c r="F61" s="151"/>
+      <c r="C61" s="176"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="176"/>
     </row>
     <row r="62" spans="3:6">
-      <c r="C62" s="151"/>
-      <c r="D62" s="151"/>
-      <c r="E62" s="151"/>
-      <c r="F62" s="151"/>
+      <c r="C62" s="176"/>
+      <c r="D62" s="176"/>
+      <c r="E62" s="176"/>
+      <c r="F62" s="176"/>
     </row>
     <row r="63" spans="3:6">
-      <c r="C63" s="151"/>
-      <c r="D63" s="151"/>
-      <c r="E63" s="151"/>
-      <c r="F63" s="151"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="176"/>
+      <c r="E63" s="176"/>
+      <c r="F63" s="176"/>
     </row>
     <row r="64" spans="3:6">
-      <c r="C64" s="151"/>
-      <c r="D64" s="151"/>
-      <c r="E64" s="151"/>
-      <c r="F64" s="151"/>
+      <c r="C64" s="176"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="176"/>
+      <c r="F64" s="176"/>
     </row>
     <row r="65" spans="3:6">
       <c r="C65" s="7"/>
@@ -15457,163 +18251,121 @@
       <c r="C89" s="61"/>
     </row>
     <row r="91" spans="3:8">
-      <c r="C91" s="153" t="s">
+      <c r="C91" s="180" t="s">
         <v>314</v>
       </c>
-      <c r="D91" s="153"/>
-      <c r="E91" s="153" t="s">
+      <c r="D91" s="180"/>
+      <c r="E91" s="180" t="s">
         <v>315</v>
       </c>
-      <c r="F91" s="153"/>
-      <c r="G91" s="153" t="s">
+      <c r="F91" s="180"/>
+      <c r="G91" s="180" t="s">
         <v>314</v>
       </c>
-      <c r="H91" s="153"/>
+      <c r="H91" s="180"/>
     </row>
     <row r="92" spans="3:8">
-      <c r="C92" s="154" t="s">
+      <c r="C92" s="193" t="s">
         <v>322</v>
       </c>
-      <c r="D92" s="154"/>
-      <c r="E92" s="154" t="s">
+      <c r="D92" s="193"/>
+      <c r="E92" s="193" t="s">
         <v>316</v>
       </c>
-      <c r="F92" s="155"/>
+      <c r="F92" s="194"/>
     </row>
     <row r="93" spans="3:8">
-      <c r="C93" s="154"/>
-      <c r="D93" s="154"/>
-      <c r="E93" s="155"/>
-      <c r="F93" s="155"/>
+      <c r="C93" s="193"/>
+      <c r="D93" s="193"/>
+      <c r="E93" s="194"/>
+      <c r="F93" s="194"/>
     </row>
     <row r="94" spans="3:8">
-      <c r="C94" s="152" t="s">
+      <c r="C94" s="185" t="s">
         <v>325</v>
       </c>
-      <c r="D94" s="151"/>
-      <c r="E94" s="152" t="s">
+      <c r="D94" s="176"/>
+      <c r="E94" s="185" t="s">
         <v>317</v>
       </c>
-      <c r="F94" s="152"/>
+      <c r="F94" s="185"/>
     </row>
     <row r="95" spans="3:8">
-      <c r="C95" s="152" t="s">
+      <c r="C95" s="185" t="s">
         <v>318</v>
       </c>
-      <c r="D95" s="151"/>
-      <c r="E95" s="152" t="s">
+      <c r="D95" s="176"/>
+      <c r="E95" s="185" t="s">
         <v>319</v>
       </c>
-      <c r="F95" s="152"/>
+      <c r="F95" s="185"/>
     </row>
     <row r="96" spans="3:8">
-      <c r="C96" s="152" t="s">
+      <c r="C96" s="185" t="s">
         <v>320</v>
       </c>
-      <c r="D96" s="151"/>
-      <c r="E96" s="152" t="s">
+      <c r="D96" s="176"/>
+      <c r="E96" s="185" t="s">
         <v>321</v>
       </c>
-      <c r="F96" s="152"/>
+      <c r="F96" s="185"/>
     </row>
     <row r="97" spans="3:8">
-      <c r="C97" s="151"/>
-      <c r="D97" s="151"/>
-      <c r="E97" s="152" t="s">
+      <c r="C97" s="176"/>
+      <c r="D97" s="176"/>
+      <c r="E97" s="185" t="s">
         <v>318</v>
       </c>
-      <c r="F97" s="152"/>
-      <c r="G97" s="152" t="s">
+      <c r="F97" s="185"/>
+      <c r="G97" s="185" t="s">
         <v>319</v>
       </c>
-      <c r="H97" s="152"/>
+      <c r="H97" s="185"/>
     </row>
     <row r="98" spans="3:8">
-      <c r="C98" s="151"/>
-      <c r="D98" s="151"/>
-      <c r="E98" s="152" t="s">
+      <c r="C98" s="176"/>
+      <c r="D98" s="176"/>
+      <c r="E98" s="185" t="s">
         <v>323</v>
       </c>
-      <c r="F98" s="152"/>
-      <c r="G98" s="152" t="s">
+      <c r="F98" s="185"/>
+      <c r="G98" s="185" t="s">
         <v>324</v>
       </c>
-      <c r="H98" s="152"/>
+      <c r="H98" s="185"/>
     </row>
     <row r="99" spans="3:8">
-      <c r="C99" s="151"/>
-      <c r="D99" s="151"/>
-      <c r="E99" s="152"/>
-      <c r="F99" s="152"/>
+      <c r="C99" s="176"/>
+      <c r="D99" s="176"/>
+      <c r="E99" s="185"/>
+      <c r="F99" s="185"/>
     </row>
     <row r="100" spans="3:8">
-      <c r="C100" s="151"/>
-      <c r="D100" s="151"/>
-      <c r="E100" s="152"/>
-      <c r="F100" s="152"/>
+      <c r="C100" s="176"/>
+      <c r="D100" s="176"/>
+      <c r="E100" s="185"/>
+      <c r="F100" s="185"/>
     </row>
     <row r="101" spans="3:8">
-      <c r="C101" s="151"/>
-      <c r="D101" s="151"/>
-      <c r="E101" s="152"/>
-      <c r="F101" s="152"/>
+      <c r="C101" s="176"/>
+      <c r="D101" s="176"/>
+      <c r="E101" s="185"/>
+      <c r="F101" s="185"/>
     </row>
     <row r="102" spans="3:8">
-      <c r="C102" s="151"/>
-      <c r="D102" s="151"/>
-      <c r="E102" s="152"/>
-      <c r="F102" s="152"/>
+      <c r="C102" s="176"/>
+      <c r="D102" s="176"/>
+      <c r="E102" s="185"/>
+      <c r="F102" s="185"/>
     </row>
     <row r="103" spans="3:8">
-      <c r="C103" s="151"/>
-      <c r="D103" s="151"/>
-      <c r="E103" s="152"/>
-      <c r="F103" s="152"/>
+      <c r="C103" s="176"/>
+      <c r="D103" s="176"/>
+      <c r="E103" s="185"/>
+      <c r="F103" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D44:G45"/>
-    <mergeCell ref="D46:G48"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="H44:K45"/>
-    <mergeCell ref="H46:K48"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="H43:K43"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E55:F56"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E62:F62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:F93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:F94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:F95"/>
-    <mergeCell ref="E102:F102"/>
     <mergeCell ref="C103:D103"/>
     <mergeCell ref="E103:F103"/>
     <mergeCell ref="G91:H91"/>
@@ -15630,8 +18382,50 @@
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="E98:F98"/>
     <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:F93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:F94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:F95"/>
+    <mergeCell ref="E102:F102"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E55:F56"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="H44:K45"/>
+    <mergeCell ref="H46:K48"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D44:G45"/>
+    <mergeCell ref="D46:G48"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
   </mergeCells>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <phoneticPr fontId="73" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
@@ -15640,10 +18434,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B16:K68"/>
+  <dimension ref="B16:K85"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L65" sqref="L65"/>
+    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="P92" sqref="P92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -15653,125 +18447,129 @@
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="20.25">
+    <row r="21" spans="2:6" ht="20.25">
       <c r="B21" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:6">
       <c r="B23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:6">
       <c r="B24" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="29" spans="2:2" ht="20.25">
+    <row r="29" spans="2:6" ht="20.25">
       <c r="B29" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
       <c r="B30" s="108" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="9" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="9" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3">
+      <c r="F32" s="9" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="108" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="34" spans="2:3">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="2:6">
       <c r="B34" s="9" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:6">
       <c r="B35" s="9" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="38" spans="2:3" ht="20.25">
+    <row r="38" spans="2:6" ht="20.25">
       <c r="B38" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="2:3" ht="17.25">
+    <row r="39" spans="2:6" ht="17.25">
       <c r="B39" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:6">
       <c r="B40" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:6">
       <c r="B41" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="2:3" ht="17.25">
+    <row r="42" spans="2:6" ht="17.25">
       <c r="B42" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:6">
       <c r="B46" s="67" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:6">
       <c r="C47" s="67" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:6">
       <c r="C48" s="9" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="51" spans="2:11">
       <c r="B51" s="109" t="s">
+        <v>440</v>
+      </c>
+      <c r="D51" s="109" t="s">
         <v>441</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="54" spans="2:11">
       <c r="B54" s="111" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="2:11">
       <c r="B55" s="111" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="2:11">
       <c r="B56" s="48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K56" s="112" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="2:11">
@@ -15779,15 +18577,15 @@
         <v>206</v>
       </c>
       <c r="K57" s="112" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58" spans="2:11">
       <c r="B58" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K58" s="112" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="59" spans="2:11">
@@ -15797,26 +18595,101 @@
     </row>
     <row r="62" spans="2:11">
       <c r="B62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="64" spans="2:11">
       <c r="B64" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
       <c r="B66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3">
+      <c r="B68" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>452</v>
+    <row r="70" spans="2:3">
+      <c r="B70" s="159" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3">
+      <c r="B71" s="111" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="48" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="158" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="159" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="C75" s="159" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="C76" s="9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" s="9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" s="9" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" s="45" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3">
+      <c r="C80" s="42" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
+      <c r="B82" s="165" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3">
+      <c r="C83" s="9" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3">
+      <c r="B84" s="9" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3">
+      <c r="B85" s="44" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <phoneticPr fontId="73" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -15827,8 +18700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:AB119"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="O101" sqref="O101"/>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -16159,13 +19032,13 @@
       <c r="C63" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="F63" s="145" t="s">
-        <v>538</v>
+      <c r="F63" s="160" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="3:6">
       <c r="F65" s="145" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="3:6">
@@ -16230,41 +19103,41 @@
     </row>
     <row r="110" spans="3:7">
       <c r="C110" t="s">
+        <v>437</v>
+      </c>
+      <c r="E110" t="s">
         <v>438</v>
       </c>
-      <c r="E110" t="s">
+      <c r="G110" t="s">
         <v>439</v>
-      </c>
-      <c r="G110" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="114" spans="3:7">
       <c r="C114" s="116" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E114" s="116" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="3:7">
       <c r="C116" s="116" t="s">
+        <v>482</v>
+      </c>
+      <c r="G116" s="117" t="s">
         <v>483</v>
-      </c>
-      <c r="G116" s="117" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="119" spans="3:7">
       <c r="C119" s="118" t="s">
+        <v>486</v>
+      </c>
+      <c r="F119" s="117" t="s">
         <v>487</v>
       </c>
-      <c r="F119" s="117" t="s">
-        <v>488</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <phoneticPr fontId="73" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16273,555 +19146,533 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="162" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="C5" s="161" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="C6" s="161" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="C7" s="161" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="C8" s="161" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" s="162" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10" s="163" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="C11" s="163" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="162" t="s">
+        <v>629</v>
+      </c>
+      <c r="C13" s="162" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="C14" s="162" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="C15" s="162" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="165" t="s">
+        <v>638</v>
+      </c>
+      <c r="C17" s="165" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="165" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="C19" s="167" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="165" t="s">
+        <v>641</v>
+      </c>
+      <c r="D21" s="166" t="s">
+        <v>642</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="102" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="132" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:N126"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="4:14">
-      <c r="M1" s="174"/>
+      <c r="M1" s="147"/>
     </row>
     <row r="2" spans="4:14">
-      <c r="M2" s="174"/>
+      <c r="M2" s="147"/>
     </row>
     <row r="3" spans="4:14">
       <c r="D3" t="s">
         <v>401</v>
       </c>
-      <c r="M3" s="174"/>
+      <c r="M3" s="147"/>
       <c r="N3" s="104" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="4" spans="4:14">
-      <c r="M4" s="174"/>
+      <c r="M4" s="147"/>
     </row>
     <row r="5" spans="4:14">
-      <c r="M5" s="174"/>
+      <c r="M5" s="147"/>
     </row>
     <row r="6" spans="4:14">
       <c r="D6" s="115" t="s">
-        <v>460</v>
-      </c>
-      <c r="M6" s="174"/>
+        <v>459</v>
+      </c>
+      <c r="M6" s="147"/>
     </row>
     <row r="7" spans="4:14">
-      <c r="M7" s="174"/>
+      <c r="M7" s="147"/>
     </row>
     <row r="8" spans="4:14">
-      <c r="M8" s="174"/>
+      <c r="M8" s="147"/>
     </row>
     <row r="9" spans="4:14">
-      <c r="M9" s="174"/>
+      <c r="M9" s="147"/>
     </row>
     <row r="10" spans="4:14">
       <c r="D10" t="s">
-        <v>539</v>
-      </c>
-      <c r="M10" s="174"/>
+        <v>536</v>
+      </c>
+      <c r="M10" s="147"/>
       <c r="N10" s="146" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="4:14">
-      <c r="M11" s="174"/>
+      <c r="M11" s="147"/>
     </row>
     <row r="12" spans="4:14">
-      <c r="M12" s="174"/>
+      <c r="M12" s="147"/>
     </row>
     <row r="13" spans="4:14">
-      <c r="M13" s="174"/>
+      <c r="D13" s="152" t="s">
+        <v>549</v>
+      </c>
+      <c r="M13" s="147"/>
+      <c r="N13" s="152" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="14" spans="4:14">
-      <c r="M14" s="174"/>
+      <c r="M14" s="147"/>
     </row>
     <row r="15" spans="4:14">
-      <c r="M15" s="174"/>
+      <c r="D15" s="162" t="s">
+        <v>623</v>
+      </c>
+      <c r="M15" s="147"/>
+      <c r="N15" s="162" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="16" spans="4:14">
-      <c r="M16" s="174"/>
+      <c r="M16" s="147"/>
     </row>
     <row r="17" spans="13:13">
-      <c r="M17" s="174"/>
+      <c r="M17" s="147"/>
     </row>
     <row r="18" spans="13:13">
-      <c r="M18" s="174"/>
+      <c r="M18" s="147"/>
     </row>
     <row r="19" spans="13:13">
-      <c r="M19" s="174"/>
+      <c r="M19" s="147"/>
     </row>
     <row r="20" spans="13:13">
-      <c r="M20" s="174"/>
+      <c r="M20" s="147"/>
     </row>
     <row r="21" spans="13:13">
-      <c r="M21" s="174"/>
+      <c r="M21" s="147"/>
     </row>
     <row r="22" spans="13:13">
-      <c r="M22" s="174"/>
+      <c r="M22" s="147"/>
     </row>
     <row r="23" spans="13:13">
-      <c r="M23" s="174"/>
+      <c r="M23" s="147"/>
     </row>
     <row r="24" spans="13:13">
-      <c r="M24" s="174"/>
+      <c r="M24" s="147"/>
     </row>
     <row r="25" spans="13:13">
-      <c r="M25" s="174"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="13:13">
-      <c r="M26" s="174"/>
+      <c r="M26" s="147"/>
     </row>
     <row r="27" spans="13:13">
-      <c r="M27" s="174"/>
+      <c r="M27" s="147"/>
     </row>
     <row r="28" spans="13:13">
-      <c r="M28" s="174"/>
+      <c r="M28" s="147"/>
     </row>
     <row r="29" spans="13:13">
-      <c r="M29" s="174"/>
+      <c r="M29" s="147"/>
     </row>
     <row r="30" spans="13:13">
-      <c r="M30" s="174"/>
+      <c r="M30" s="147"/>
     </row>
     <row r="31" spans="13:13">
-      <c r="M31" s="174"/>
+      <c r="M31" s="147"/>
     </row>
     <row r="32" spans="13:13">
-      <c r="M32" s="174"/>
+      <c r="M32" s="147"/>
     </row>
     <row r="33" spans="13:13">
-      <c r="M33" s="174"/>
+      <c r="M33" s="147"/>
     </row>
     <row r="34" spans="13:13">
-      <c r="M34" s="174"/>
+      <c r="M34" s="147"/>
     </row>
     <row r="35" spans="13:13">
-      <c r="M35" s="174"/>
+      <c r="M35" s="147"/>
     </row>
     <row r="36" spans="13:13">
-      <c r="M36" s="174"/>
+      <c r="M36" s="147"/>
     </row>
     <row r="37" spans="13:13">
-      <c r="M37" s="174"/>
+      <c r="M37" s="147"/>
     </row>
     <row r="38" spans="13:13">
-      <c r="M38" s="174"/>
+      <c r="M38" s="147"/>
     </row>
     <row r="39" spans="13:13">
-      <c r="M39" s="174"/>
+      <c r="M39" s="147"/>
     </row>
     <row r="40" spans="13:13">
-      <c r="M40" s="174"/>
+      <c r="M40" s="147"/>
     </row>
     <row r="41" spans="13:13">
-      <c r="M41" s="174"/>
+      <c r="M41" s="147"/>
     </row>
     <row r="42" spans="13:13">
-      <c r="M42" s="174"/>
+      <c r="M42" s="147"/>
     </row>
     <row r="43" spans="13:13">
-      <c r="M43" s="174"/>
+      <c r="M43" s="147"/>
     </row>
     <row r="44" spans="13:13">
-      <c r="M44" s="174"/>
+      <c r="M44" s="147"/>
     </row>
     <row r="45" spans="13:13">
-      <c r="M45" s="174"/>
+      <c r="M45" s="147"/>
     </row>
     <row r="46" spans="13:13">
-      <c r="M46" s="174"/>
+      <c r="M46" s="147"/>
     </row>
     <row r="47" spans="13:13">
-      <c r="M47" s="174"/>
+      <c r="M47" s="147"/>
     </row>
     <row r="48" spans="13:13">
-      <c r="M48" s="174"/>
+      <c r="M48" s="147"/>
     </row>
     <row r="49" spans="13:13">
-      <c r="M49" s="174"/>
+      <c r="M49" s="147"/>
     </row>
     <row r="50" spans="13:13">
-      <c r="M50" s="174"/>
+      <c r="M50" s="147"/>
     </row>
     <row r="51" spans="13:13">
-      <c r="M51" s="174"/>
+      <c r="M51" s="147"/>
     </row>
     <row r="52" spans="13:13">
-      <c r="M52" s="174"/>
+      <c r="M52" s="147"/>
     </row>
     <row r="53" spans="13:13">
-      <c r="M53" s="174"/>
+      <c r="M53" s="147"/>
     </row>
     <row r="54" spans="13:13">
-      <c r="M54" s="174"/>
+      <c r="M54" s="147"/>
     </row>
     <row r="55" spans="13:13">
-      <c r="M55" s="174"/>
+      <c r="M55" s="147"/>
     </row>
     <row r="56" spans="13:13">
-      <c r="M56" s="174"/>
+      <c r="M56" s="147"/>
     </row>
     <row r="57" spans="13:13">
-      <c r="M57" s="174"/>
+      <c r="M57" s="147"/>
     </row>
     <row r="58" spans="13:13">
-      <c r="M58" s="174"/>
+      <c r="M58" s="147"/>
     </row>
     <row r="59" spans="13:13">
-      <c r="M59" s="174"/>
+      <c r="M59" s="147"/>
     </row>
     <row r="60" spans="13:13">
-      <c r="M60" s="174"/>
+      <c r="M60" s="147"/>
     </row>
     <row r="61" spans="13:13">
-      <c r="M61" s="174"/>
+      <c r="M61" s="147"/>
     </row>
     <row r="62" spans="13:13">
-      <c r="M62" s="174"/>
+      <c r="M62" s="147"/>
     </row>
     <row r="63" spans="13:13">
-      <c r="M63" s="174"/>
+      <c r="M63" s="147"/>
     </row>
     <row r="64" spans="13:13">
-      <c r="M64" s="174"/>
+      <c r="M64" s="147"/>
     </row>
     <row r="65" spans="13:13">
-      <c r="M65" s="174"/>
+      <c r="M65" s="147"/>
     </row>
     <row r="66" spans="13:13">
-      <c r="M66" s="174"/>
+      <c r="M66" s="147"/>
     </row>
     <row r="67" spans="13:13">
-      <c r="M67" s="174"/>
+      <c r="M67" s="147"/>
     </row>
     <row r="68" spans="13:13">
-      <c r="M68" s="174"/>
+      <c r="M68" s="147"/>
     </row>
     <row r="69" spans="13:13">
-      <c r="M69" s="174"/>
+      <c r="M69" s="147"/>
     </row>
     <row r="70" spans="13:13">
-      <c r="M70" s="174"/>
+      <c r="M70" s="147"/>
     </row>
     <row r="71" spans="13:13">
-      <c r="M71" s="174"/>
+      <c r="M71" s="147"/>
     </row>
     <row r="72" spans="13:13">
-      <c r="M72" s="174"/>
+      <c r="M72" s="147"/>
     </row>
     <row r="73" spans="13:13">
-      <c r="M73" s="174"/>
+      <c r="M73" s="147"/>
     </row>
     <row r="74" spans="13:13">
-      <c r="M74" s="174"/>
+      <c r="M74" s="147"/>
     </row>
     <row r="75" spans="13:13">
-      <c r="M75" s="174"/>
+      <c r="M75" s="147"/>
     </row>
     <row r="76" spans="13:13">
-      <c r="M76" s="174"/>
+      <c r="M76" s="147"/>
     </row>
     <row r="77" spans="13:13">
-      <c r="M77" s="174"/>
+      <c r="M77" s="147"/>
     </row>
     <row r="78" spans="13:13">
-      <c r="M78" s="174"/>
+      <c r="M78" s="147"/>
     </row>
     <row r="79" spans="13:13">
-      <c r="M79" s="174"/>
+      <c r="M79" s="147"/>
     </row>
     <row r="80" spans="13:13">
-      <c r="M80" s="174"/>
+      <c r="M80" s="147"/>
     </row>
     <row r="81" spans="13:13">
-      <c r="M81" s="174"/>
+      <c r="M81" s="147"/>
     </row>
     <row r="82" spans="13:13">
-      <c r="M82" s="174"/>
+      <c r="M82" s="147"/>
     </row>
     <row r="83" spans="13:13">
-      <c r="M83" s="174"/>
+      <c r="M83" s="147"/>
     </row>
     <row r="84" spans="13:13">
-      <c r="M84" s="174"/>
+      <c r="M84" s="147"/>
     </row>
     <row r="85" spans="13:13">
-      <c r="M85" s="174"/>
+      <c r="M85" s="147"/>
     </row>
     <row r="86" spans="13:13">
-      <c r="M86" s="174"/>
+      <c r="M86" s="147"/>
     </row>
     <row r="87" spans="13:13">
-      <c r="M87" s="174"/>
+      <c r="M87" s="147"/>
     </row>
     <row r="88" spans="13:13">
-      <c r="M88" s="174"/>
+      <c r="M88" s="147"/>
     </row>
     <row r="89" spans="13:13">
-      <c r="M89" s="174"/>
+      <c r="M89" s="147"/>
     </row>
     <row r="90" spans="13:13">
-      <c r="M90" s="174"/>
+      <c r="M90" s="147"/>
     </row>
     <row r="91" spans="13:13">
-      <c r="M91" s="174"/>
+      <c r="M91" s="147"/>
     </row>
     <row r="92" spans="13:13">
-      <c r="M92" s="174"/>
+      <c r="M92" s="147"/>
     </row>
     <row r="93" spans="13:13">
-      <c r="M93" s="174"/>
+      <c r="M93" s="147"/>
     </row>
     <row r="94" spans="13:13">
-      <c r="M94" s="174"/>
+      <c r="M94" s="147"/>
     </row>
     <row r="95" spans="13:13">
-      <c r="M95" s="174"/>
+      <c r="M95" s="147"/>
     </row>
     <row r="96" spans="13:13">
-      <c r="M96" s="174"/>
+      <c r="M96" s="147"/>
     </row>
     <row r="97" spans="13:13">
-      <c r="M97" s="174"/>
+      <c r="M97" s="147"/>
     </row>
     <row r="98" spans="13:13">
-      <c r="M98" s="174"/>
+      <c r="M98" s="147"/>
     </row>
     <row r="99" spans="13:13">
-      <c r="M99" s="174"/>
+      <c r="M99" s="147"/>
     </row>
     <row r="100" spans="13:13">
-      <c r="M100" s="174"/>
+      <c r="M100" s="147"/>
     </row>
     <row r="101" spans="13:13">
-      <c r="M101" s="174"/>
+      <c r="M101" s="147"/>
     </row>
     <row r="102" spans="13:13">
-      <c r="M102" s="174"/>
+      <c r="M102" s="147"/>
     </row>
     <row r="103" spans="13:13">
-      <c r="M103" s="174"/>
+      <c r="M103" s="147"/>
     </row>
     <row r="104" spans="13:13">
-      <c r="M104" s="174"/>
+      <c r="M104" s="147"/>
     </row>
     <row r="105" spans="13:13">
-      <c r="M105" s="174"/>
+      <c r="M105" s="147"/>
     </row>
     <row r="106" spans="13:13">
-      <c r="M106" s="174"/>
+      <c r="M106" s="147"/>
     </row>
     <row r="107" spans="13:13">
-      <c r="M107" s="174"/>
+      <c r="M107" s="147"/>
     </row>
     <row r="108" spans="13:13">
-      <c r="M108" s="174"/>
+      <c r="M108" s="147"/>
     </row>
     <row r="109" spans="13:13">
-      <c r="M109" s="174"/>
+      <c r="M109" s="147"/>
     </row>
     <row r="110" spans="13:13">
-      <c r="M110" s="174"/>
+      <c r="M110" s="147"/>
     </row>
     <row r="111" spans="13:13">
-      <c r="M111" s="174"/>
+      <c r="M111" s="147"/>
     </row>
     <row r="112" spans="13:13">
-      <c r="M112" s="174"/>
+      <c r="M112" s="147"/>
     </row>
     <row r="113" spans="13:13">
-      <c r="M113" s="174"/>
+      <c r="M113" s="147"/>
     </row>
     <row r="114" spans="13:13">
-      <c r="M114" s="174"/>
+      <c r="M114" s="147"/>
     </row>
     <row r="115" spans="13:13">
-      <c r="M115" s="174"/>
+      <c r="M115" s="147"/>
     </row>
     <row r="116" spans="13:13">
-      <c r="M116" s="174"/>
+      <c r="M116" s="147"/>
     </row>
     <row r="117" spans="13:13">
-      <c r="M117" s="174"/>
+      <c r="M117" s="147"/>
     </row>
     <row r="118" spans="13:13">
-      <c r="M118" s="174"/>
+      <c r="M118" s="147"/>
     </row>
     <row r="119" spans="13:13">
-      <c r="M119" s="174"/>
+      <c r="M119" s="147"/>
     </row>
     <row r="120" spans="13:13">
-      <c r="M120" s="174"/>
+      <c r="M120" s="147"/>
     </row>
     <row r="121" spans="13:13">
-      <c r="M121" s="174"/>
+      <c r="M121" s="147"/>
     </row>
     <row r="122" spans="13:13">
-      <c r="M122" s="174"/>
+      <c r="M122" s="147"/>
     </row>
     <row r="123" spans="13:13">
-      <c r="M123" s="174"/>
+      <c r="M123" s="147"/>
     </row>
     <row r="124" spans="13:13">
-      <c r="M124" s="174"/>
+      <c r="M124" s="147"/>
     </row>
     <row r="125" spans="13:13">
-      <c r="M125" s="174"/>
+      <c r="M125" s="147"/>
     </row>
     <row r="126" spans="13:13">
-      <c r="M126" s="174"/>
+      <c r="M126" s="147"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="62" type="noConversion"/>
+  <phoneticPr fontId="73" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:P178"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="3" max="3" width="8.88671875" style="46"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:16">
-      <c r="C2" s="46" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16">
-      <c r="D10" s="43" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="3:16">
-      <c r="C12" s="46" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="3:16">
-      <c r="C14" s="46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="15" spans="3:16">
-      <c r="P15" s="43"/>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="D21" s="43" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="46" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="3:3">
-      <c r="C62" s="46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="88" spans="3:3">
-      <c r="C88" s="46" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="50" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="114" spans="5:5">
-      <c r="E114" s="50" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="5:5">
-      <c r="E116" s="50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5">
-      <c r="E118" s="50" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="120" spans="5:5">
-      <c r="E120" s="50" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5">
-      <c r="E122" s="50" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5">
-      <c r="E124" s="50" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5">
-      <c r="E126" s="50" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5">
-      <c r="E128" s="50" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="130" spans="3:5">
-      <c r="E130" s="50" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="132" spans="3:5">
-      <c r="E132" s="50" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="134" spans="3:5">
-      <c r="E134" s="50" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5">
-      <c r="C135" s="46" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="159" spans="3:3">
-      <c r="C159" s="46" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="178" spans="3:6">
-      <c r="C178" s="46" t="s">
-        <v>367</v>
-      </c>
-      <c r="F178" s="71" t="s">
-        <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="62" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>